--- a/spreadsheet/macrofree/sap_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.zh-Hant.xlsx
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>不要將 ASCS 和資料庫群集合並到單個/同一 VM 上</t>
+          <t>Azure 目前不支援在同一 Linux Pacemaker 群集中組合 ASCS 和 db HA;將它們分成單獨的集群。但是，您最多可以將五個多個中心服務群集組合到一對 VM 中。</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1086,7 +1086,7 @@
       <c r="G8" s="21" t="n"/>
       <c r="H8" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I8" s="15" t="n"/>
@@ -1094,7 +1094,7 @@
       <c r="K8" s="22" t="n"/>
       <c r="L8" s="25" t="inlineStr">
         <is>
-          <t>aff6691b-4935-4ada-9222-3ece81b12318</t>
+          <t>80dc0591-cf65-4de8-b130-9cccd579266b</t>
         </is>
       </c>
       <c r="M8" s="25" t="n"/>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>確保在負載均衡器上啟用了浮動IP</t>
+          <t>在 ASCS 和資料庫集群前面使用標準負載均衡器 SKU</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1132,7 +1132,7 @@
       <c r="G9" s="21" t="n"/>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="I9" s="15" t="n"/>
@@ -1140,7 +1140,7 @@
       <c r="K9" s="22" t="n"/>
       <c r="L9" s="25" t="inlineStr">
         <is>
-          <t>1a541741-5833-4fb4-ae3c-2df743165c3a</t>
+          <t>cca275fa-a1ab-4fe9-b55d-04c3c4919cb1</t>
         </is>
       </c>
       <c r="M9" s="25" t="n"/>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>不要在同一可用性集中混合使用不同角色的伺服器。將中央服務 VM、資料庫 VM、應用程式 VM 保留在其自己的可用性集中</t>
+          <t>HA 對中的兩個 VM 都應部署在可用性集中，或者可用性區域應具有相同的大小和相同的存儲配置</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
@@ -1178,7 +1178,7 @@
       <c r="G10" s="21" t="n"/>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://www.microsoft.com/itshowcase/implementing-a-zero-trust-security-model-at-microsoft</t>
         </is>
       </c>
       <c r="I10" s="15" t="n"/>
@@ -1186,7 +1186,7 @@
       <c r="K10" s="23" t="n"/>
       <c r="L10" s="25" t="inlineStr">
         <is>
-          <t>cbe05bbe-209d-4490-ba47-778424d11678</t>
+          <t>b3d1325a-e124-4ba3-9df6-85eddce9bd3b</t>
         </is>
       </c>
       <c r="M10" s="25" t="n"/>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>每個 SAP SID 使用一個鄰近放置組。組不跨可用性區域或 Azure 區域</t>
+          <t>應使用本機資料庫複製技術來同步HA對中的資料庫。</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -1224,7 +1224,7 @@
       <c r="G11" s="21" t="n"/>
       <c r="H11" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="I11" s="15" t="n"/>
@@ -1232,7 +1232,7 @@
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
         <is>
-          <t>5d2fa56c-56ad-4484-88fe-72734c486ba2</t>
+          <t>b0cdb3b5-5eb2-4ec1-9eea-a3592829e2ed</t>
         </is>
       </c>
       <c r="M11" s="25" t="n"/>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Azure 目前不支援在同一 Linux Pacemaker 群集中組合 ASCS 和 db HA;將它們分成單獨的集群。但是，您最多可以將五個多個中心服務群集組合到一對 VM 中。</t>
+          <t>在滿足 RTO 的任何時間點和時間範圍內對生產資料庫執行時間點恢復;時間點恢復通常包括操作員在DBMS層或通過SAP刪除數據時出現錯誤</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
@@ -1270,7 +1270,7 @@
       <c r="G12" s="21" t="n"/>
       <c r="H12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="I12" s="15" t="n"/>
@@ -1278,7 +1278,7 @@
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>80dc0591-cf65-4de8-b130-9cccd579266b</t>
+          <t>b2173676-aff6-4691-a493-5ada42223ece</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>在 ASCS 和資料庫集群前面使用標準負載均衡器 SKU</t>
+          <t>主虛擬網路 （VNet） 的 CIDR 不應與DR網站的 VNet 的 CIDR 衝突或重疊</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
@@ -1314,17 +1314,13 @@
         </is>
       </c>
       <c r="G13" s="21" t="n"/>
-      <c r="H13" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
-        </is>
-      </c>
+      <c r="H13" s="15" t="n"/>
       <c r="I13" s="15" t="n"/>
       <c r="J13" s="22" t="n"/>
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>cca275fa-a1ab-4fe9-b55d-04c3c4919cb1</t>
+          <t>81b12318-1a54-4174-8583-3fb4ae3c2df7</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1345,7 +1341,7 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>HA 對中的兩個 VM 都應部署在可用性集中，或者可用性區域應具有相同的大小和相同的存儲配置</t>
+          <t>使用 Site Recovery 將應用程式伺服器複製到 DR 網站。Site Recovery 還有助於將中心服務群集 VM 複製到DR網站。調用DR時，需要在DR網站上重新配置Linux Pacemaker群集（例如，替換VIP或SBD、運行 corosync.conf 等）。</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
@@ -1360,17 +1356,13 @@
         </is>
       </c>
       <c r="G14" s="21" t="n"/>
-      <c r="H14" s="15" t="inlineStr">
-        <is>
-          <t>https://www.microsoft.com/itshowcase/implementing-a-zero-trust-security-model-at-microsoft</t>
-        </is>
-      </c>
+      <c r="H14" s="15" t="n"/>
       <c r="I14" s="15" t="n"/>
       <c r="J14" s="22" t="n"/>
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>b3d1325a-e124-4ba3-9df6-85eddce9bd3b</t>
+          <t>43165c3a-cbe0-45bb-b209-d490da477784</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1391,7 +1383,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>應使用本機資料庫複製技術來同步HA對中的資料庫。</t>
+          <t>應使用本機資料庫複製將數據同步到DR網站，而不是 Azure Site Recovery</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1406,17 +1398,13 @@
         </is>
       </c>
       <c r="G15" s="21" t="n"/>
-      <c r="H15" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
-        </is>
-      </c>
+      <c r="H15" s="15" t="n"/>
       <c r="I15" s="15" t="n"/>
       <c r="J15" s="22" t="n"/>
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>b0cdb3b5-5eb2-4ec1-9eea-a3592829e2ed</t>
+          <t>24d11678-5d2f-4a56-a56a-d48408fe7273</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1432,18 +1420,18 @@
       </c>
       <c r="B16" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>在滿足 RTO 的任何時間點和時間範圍內對生產資料庫執行時間點恢復;時間點恢復通常包括操作員在DBMS層或通過SAP刪除數據時出現錯誤</t>
+          <t>考慮針對單點故障的 SAP 軟體的可用性。這包括應用程式內的單點故障，例如 SAP NetWeaver 和 SAP S/4HANA 架構中使用的 DBMS、SAP ABAP 和 ASCS + SCS。此外，還有其他工具，例如 SAP Web Dispatcher。</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
       <c r="E16" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1454,15 +1442,19 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
-        </is>
-      </c>
-      <c r="I16" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/sap-high-availability-architecture-scenario</t>
+        </is>
+      </c>
+      <c r="I16" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-high-availability-for-sap-workloads-azure/2-explore-high-availability-disaster-recovery-support-azure-for-sap-workloads?source=recommendations</t>
+        </is>
+      </c>
       <c r="J16" s="22" t="n"/>
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>b2173676-aff6-4691-a493-5ada42223ece</t>
+          <t>8300cb30-766b-4084-b126-0dd8fb1269a1</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1478,18 +1470,18 @@
       </c>
       <c r="B17" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>主虛擬網路 （VNet） 的 CIDR 不應與 DR 網站的 Vnet 的 CIDR 衝突或重疊</t>
+          <t>對於 SAP 和 SAP 資料庫，請考慮實現自動故障轉移群集。在 Windows 中，Windows Server 故障轉移群集支援故障轉移。在 Linux 中，Linux Pacemaker 或第三方工具（如 SIOS Protection Suite 和 Veritas InfoScale）支援故障轉移。</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
       <c r="E17" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1498,13 +1490,21 @@
         </is>
       </c>
       <c r="G17" s="21" t="n"/>
-      <c r="H17" s="15" t="n"/>
-      <c r="I17" s="15" t="n"/>
+      <c r="H17" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-supported-configurations</t>
+        </is>
+      </c>
+      <c r="I17" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J17" s="22" t="n"/>
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>81b12318-1a54-4174-8583-3fb4ae3c2df7</t>
+          <t>56402f11-ccbe-42c3-a2f6-c6f6f38ab579</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1520,18 +1520,18 @@
       </c>
       <c r="B18" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>使用 Site Recovery 將應用程式伺服器複製到 DR 網站。Site Recovery 還有助於將中心服務群集 VM 複製到DR網站。調用DR時，需要在DR網站上重新配置Linux Pacemaker群集（例如，替換VIP或SBD、運行 corosync.conf等）。</t>
+          <t>Azure 不支援主 VM 和輔助 VM 共用 DBMS 數據存儲的體系結構。對於 DBMS 層，常見的體系結構模式是同時複製資料庫，並使用與主 VM 和輔助 VM 使用的儲存堆疊不同的儲存堆疊。</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
       <c r="E18" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1540,13 +1540,21 @@
         </is>
       </c>
       <c r="G18" s="21" t="n"/>
-      <c r="H18" s="15" t="n"/>
-      <c r="I18" s="15" t="n"/>
+      <c r="H18" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/workloads/disaster-recovery-sap-guide?tabs=windows</t>
+        </is>
+      </c>
+      <c r="I18" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/ensure-business-continuity-implement-disaster-recovery/?source=recommendationshttps%3A%2F%2Flearn.microsoft.com%2Fja-jp%2Ftraining%2Fpaths%2Fensure-business-continuity-implement-disaster-recovery%2F%3Fsource%3Drecommendations</t>
+        </is>
+      </c>
       <c r="J18" s="22" t="n"/>
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>43165c3a-cbe0-45bb-b209-d490da477784</t>
+          <t>afae6bec-2671-49ae-bc69-140b8ec8d320</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1562,18 +1570,18 @@
       </c>
       <c r="B19" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>應使用本機資料庫複製將數據同步到DR網站，而不是 Azure Site Recovery</t>
+          <t>DBMS 數據和事務/重做日誌檔存儲在 Azure 支援的塊存儲或 Azure NetApp 檔中。不支援將 Azure 檔案儲存或 Azure 高級檔儲存作為 SAP 工作負載的 DBMS 資料和/或重做日誌檔的存儲。</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
       <c r="E19" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1582,13 +1590,21 @@
         </is>
       </c>
       <c r="G19" s="21" t="n"/>
-      <c r="H19" s="15" t="n"/>
-      <c r="I19" s="15" t="n"/>
+      <c r="H19" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/workloads/dbms-guide-general</t>
+        </is>
+      </c>
+      <c r="I19" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-databases/2-explore-database-support-azure-for-sap-workloads</t>
+        </is>
+      </c>
       <c r="J19" s="22" t="n"/>
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>24d11678-5d2f-4a56-a56a-d48408fe7273</t>
+          <t>ac614e95-6767-4bc3-b8a4-9953533da6ba</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1599,23 +1615,23 @@
     <row r="20" ht="16.5" customHeight="1">
       <c r="A20" s="21" t="inlineStr">
         <is>
-          <t>計算</t>
+          <t>業務連續性和災難恢復</t>
         </is>
       </c>
       <c r="B20" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>為正確的 VM SKU 和區域發出配額請求</t>
+          <t>可以在 Windows 中將 Azure 共用磁碟用於 ASCS + SCS 元件和特定的高可用性方案。為 SAP 應用程式層元件和 DBMS 層單獨設置故障轉移群集。Azure 目前不支援將 SAP 應用程式層元件和 DBMS 層合併到一個故障轉移群集中的高可用性體系結構。</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
       <c r="E20" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1624,13 +1640,21 @@
         </is>
       </c>
       <c r="G20" s="21" t="n"/>
-      <c r="H20" s="15" t="n"/>
-      <c r="I20" s="15" t="n"/>
+      <c r="H20" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/workloads/sap-high-availability-guide-wsfc-shared-disk</t>
+        </is>
+      </c>
+      <c r="I20" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J20" s="22" t="n"/>
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>2829e2ed-b217-4367-9aff-6691b4935ada</t>
+          <t>1f737179-8e7f-4e1a-a30c-e5a649a3092b</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1641,17 +1665,17 @@
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>業務連續性和災難恢復</t>
         </is>
       </c>
       <c r="B21" s="21" t="inlineStr">
         <is>
-          <t>身份</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>為管理組、訂閱、資源組和資源強制實施 RBAC 模型</t>
+          <t>SAP 應用程式層元件 （ASCS） 和 DBMS 層的大多數故障轉移群集都需要故障轉移群集的虛擬 IP 位址。 對於所有其他情況，Azure 負載均衡器應處理虛擬IP位址。一個設計原則是每個群集配置使用一個負載均衡器。建議使用負載均衡器的標準版本（標準負載均衡器 SKU）。</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1668,19 +1692,19 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-standard-load-balancer-outbound-connections</t>
         </is>
       </c>
       <c r="I21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/training/modules/implement-high-availability-for-sap-workloads-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
+          <t>a78b3d31-3170-44f2-b5d7-651a29f4ccf5</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1691,23 +1715,23 @@
     <row r="22" ht="16.5" customHeight="1">
       <c r="A22" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>業務連續性和災難恢復</t>
         </is>
       </c>
       <c r="B22" s="21" t="inlineStr">
         <is>
-          <t>身份</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>強制實施原則傳播，以便通過雲連接器將標識從 SAP 雲應用程式轉發到 SAP 本地（包括 IaaS）</t>
+          <t>確保在負載均衡器上啟用了浮動IP</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
       <c r="E22" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1718,19 +1742,19 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-ha-ports-overview?source=recommendations</t>
         </is>
       </c>
       <c r="I22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
+          <t>https://learn.microsoft.com/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J22" s="22" t="n"/>
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>45911475-e39e-4530-accc-d979366bcda2</t>
+          <t>1a541741-5833-4fb4-ae3c-2df743165c3a</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1741,23 +1765,23 @@
     <row r="23" ht="16.5" customHeight="1">
       <c r="A23" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>業務連續性和災難恢復</t>
         </is>
       </c>
       <c r="B23" s="21" t="inlineStr">
         <is>
-          <t>身份</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>使用 SAML 通過 Azure AD 實現對 SAP SaaS 應用程式（如 SAP Analytics Cloud、SAP Cloud Platform、Business by design、SAP Qualtrics 和 SAP C4C）的 SSO。</t>
+          <t>在部署高可用性基礎結構之前，根據所選區域，確定是使用 Azure 可用性集還是可用性區域進行部署。</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
       <c r="E23" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1768,15 +1792,19 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
-        </is>
-      </c>
-      <c r="I23" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+        </is>
+      </c>
+      <c r="I23" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-availability/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J23" s="22" t="n"/>
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
+          <t>c47cc4f3-f105-452c-845e-9b307b3856c1</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1787,23 +1815,23 @@
     <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>業務連續性和災難恢復</t>
         </is>
       </c>
       <c r="B24" s="21" t="inlineStr">
         <is>
-          <t>身份</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>使用 SAML 對基於 SAP NetWeaver 的 Web 應用程式（如 SAP Fiori 和 SAP Web GUI）實施 SSO。</t>
+          <t>如果要滿足 SAP 元件（中央服務、應用程式伺服器和資料庫）應用程式的基礎結構 SLA，則必須為所有元件選擇相同的高可用性選項（VM、可用性集、可用性區域）。</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
       <c r="E24" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1814,19 +1842,15 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
-        </is>
-      </c>
-      <c r="I24" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
-        </is>
-      </c>
+          <t>https://www.microsoft.com/licensing/docs/view/Service-Level-Agreements-SLA-for-Online-Services?lang=1</t>
+        </is>
+      </c>
+      <c r="I24" s="15" t="n"/>
       <c r="J24" s="22" t="n"/>
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
+          <t>844f69c3-07e5-4ec1-bff7-4be27bcf5fea</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1837,23 +1861,23 @@
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>業務連續性和災難恢復</t>
         </is>
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>身份</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>使用 SAML 對基於 SAP NetWeaver 的 Web 應用程式（如 SAP Fiori 和 SAP Web GUI）實施 SSO。</t>
+          <t>不要在同一可用性集中混合使用不同角色的伺服器。將中央服務 VM、資料庫 VM、應用程式 VM 保留在其自己的可用性集中</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
       <c r="E25" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1862,17 +1886,21 @@
         </is>
       </c>
       <c r="G25" s="21" t="n"/>
-      <c r="H25" s="15" t="n"/>
+      <c r="H25" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability-set-overview</t>
+        </is>
+      </c>
       <c r="I25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
+          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-availability/?source=recommendations</t>
         </is>
       </c>
       <c r="J25" s="22" t="n"/>
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
+          <t>cbe05bbe-209d-4490-ba47-778424d11678</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1883,17 +1911,17 @@
     <row r="26" ht="16.5" customHeight="1">
       <c r="A26" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>業務連續性和災難恢復</t>
         </is>
       </c>
       <c r="B26" s="21" t="inlineStr">
         <is>
-          <t>身份</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>可以使用 SAP NetWeaver SSO 或合作夥伴解決方案實現到 SAP GUI 的 SSO。</t>
+          <t>除非使用鄰近放置組，否則無法在 Azure 可用性區域中部署 Azure 可用性集。</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -1910,19 +1938,19 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/co-location</t>
         </is>
       </c>
       <c r="I26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
         </is>
       </c>
       <c r="J26" s="22" t="n"/>
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
+          <t>f2201000-d045-40a6-a79a-d7cdc01b4d86</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1933,23 +1961,23 @@
     <row r="27" ht="16.5" customHeight="1">
       <c r="A27" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>業務連續性和災難恢復</t>
         </is>
       </c>
       <c r="B27" s="21" t="inlineStr">
         <is>
-          <t>身份</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>對於 SAP GUI 和 Web 瀏覽器存取的 SSO，請實施 SNC – Kerberos/SPNEGO（簡單且受保護的 GSSAPI 協商機制），因為它易於配置和維護。對於使用 X.509 用戶端證書的 SSO，請考慮使用 SAP 安全登錄伺服器，它是 SAP SSO 解決方案的一個元件。</t>
+          <t>創建可用性集時，請使用可用的容錯域和更新域的最大數量。例如，如果在一個可用性集中部署兩個以上的 VM，則除了 Azure 計劃內維護外，還要使用最大數量的容錯域（三個）和足夠的更新域來限制潛在的物理硬體故障、網路中斷或電源中斷的影響。容錯域的預設數量為 2，以後無法連線更改。</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
       <c r="E27" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1958,17 +1986,21 @@
         </is>
       </c>
       <c r="G27" s="21" t="n"/>
-      <c r="H27" s="15" t="n"/>
+      <c r="H27" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability-set-overview</t>
+        </is>
+      </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
+          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-availability/?source=recommendations</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
+          <t>9674e7c7-7796-4181-8920-09f4429543ba</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -1979,23 +2011,23 @@
     <row r="28" ht="16.5" customHeight="1">
       <c r="A28" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>業務連續性和災難恢復</t>
         </is>
       </c>
       <c r="B28" s="21" t="inlineStr">
         <is>
-          <t>身份</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>對於 SAP GUI 和 Web 瀏覽器存取的 SSO，請實施 SNC – Kerberos/SPNEGO（簡單且受保護的 GSSAPI 協商機制），因為它易於配置和維護。對於使用 X.509 用戶端證書的 SSO，請考慮使用 SAP 安全登錄伺服器，它是 SAP SSO 解決方案的一個元件。</t>
+          <t>在可用性集部署中使用 Azure 鄰近放置組時，所有三個 SAP 元件（中央服務、應用程式伺服器和資料庫）都應位於同一鄰近放置組中。</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
       <c r="E28" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2006,14 +2038,14 @@
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="inlineStr">
         <is>
-          <t>https://blogs.sap.com/2017/07/12/sap-single-sign-on-protect-your-sap-landscape-with-x.509-certificates/</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
         </is>
       </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
+          <t>ae4ecb95-b70f-428f-8b9a-4c5b7e3478a2</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2024,23 +2056,23 @@
     <row r="29" ht="16.5" customHeight="1">
       <c r="A29" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>業務連續性和災難恢復</t>
         </is>
       </c>
       <c r="B29" s="21" t="inlineStr">
         <is>
-          <t>身份</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>使用 SAP NetWeaver 的 OAuth 實現 SSO，以允許第三方或自定義應用程式訪問 SAP NetWeaver OData 服務。</t>
+          <t>每個 SAP SID 使用一個鄰近放置組。組不跨可用性區域或 Azure 區域</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
       <c r="E29" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2051,14 +2083,14 @@
       <c r="G29" s="21" t="n"/>
       <c r="H29" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
         </is>
       </c>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
+          <t>5d2fa56c-56ad-4484-88fe-72734c486ba2</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2069,17 +2101,17 @@
     <row r="30" ht="16.5" customHeight="1">
       <c r="A30" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>計算</t>
         </is>
       </c>
       <c r="B30" s="21" t="inlineStr">
         <is>
-          <t>身份</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>實現SAP HANA的 SSO</t>
+          <t>為正確的 VM SKU 和區域發出配額請求</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
@@ -2094,16 +2126,12 @@
         </is>
       </c>
       <c r="G30" s="21" t="n"/>
-      <c r="H30" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
-        </is>
-      </c>
+      <c r="H30" s="15" t="n"/>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
+          <t>2829e2ed-b217-4367-9aff-6691b4935ada</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2124,13 +2152,13 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>將 Azure AD 視為 RISE 上託管的 SAP 系統的標識提供者。有關詳細資訊，請參閱將服務與 Azure AD 集成。</t>
+          <t>為管理組、訂閱、資源組和資源強制實施 RBAC 模型</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
       <c r="E31" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2141,14 +2169,19 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
+          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
+          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2169,7 +2202,7 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>對於訪問 SAP 的應用程式，可能需要使用主體傳播來建立 SSO。</t>
+          <t>強制實施原則傳播，以便通過雲連接器將標識從 SAP 雲應用程式轉發到 SAP 本地（包括 IaaS）</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
@@ -2186,15 +2219,19 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/azuredevcollege/SAP/blob/master/sap-oauth-saml-flow/README.md</t>
-        </is>
-      </c>
-      <c r="I32" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
+        </is>
+      </c>
+      <c r="I32" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
+        </is>
+      </c>
       <c r="J32" s="22" t="n"/>
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
+          <t>45911475-e39e-4530-accc-d979366bcda2</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2215,7 +2252,7 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>如果使用需要 SAP Identity Authentication Service （IAS） 的 SAP BTP 服務或 SaaS 解決方案，請考慮在 SAP Cloud Identity Authentication Services 和 Azure AD 之間實現 SSO 以存取這些 SAP 服務。此集成允許 SAP IAS 充當代理標識提供者，並將身份驗證請求轉發到作為中央使用者存儲和標識提供者的 Azure AD。</t>
+          <t>使用 SAML 通過 Azure AD 實現對 SAP SaaS 應用程式（如 SAP Analytics Cloud、SAP Cloud Platform、Business by design、SAP Qualtrics 和 SAP C4C）的 SSO。</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
@@ -2232,7 +2269,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2240,7 +2277,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
+          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2261,7 +2298,7 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>實現SAP BTP 的 SSO</t>
+          <t>使用 SAML 實現對基於 SAP NetWeaver 的 Web 應用程式（如 SAP Fiori 和 SAP Web GUI）的 SSO。</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
@@ -2278,15 +2315,19 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
-        </is>
-      </c>
-      <c r="I34" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+        </is>
+      </c>
+      <c r="I34" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+        </is>
+      </c>
       <c r="J34" s="22" t="n"/>
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
+          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2307,7 +2348,7 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>如果使用的是 SAP SuccessFactors，請考慮使用 Azure AD 自動使用者預配。通過此整合，在向 SAP SuccessFactors 添加新員工時，可以在 Azure AD 中自動創建其使用者帳戶。 （可選）可以在 Microsoft 365 或 Azure AD 支援的其他 SaaS 應用程式中創建使用者帳戶。 將電子郵件地址寫回 SAP SuccessFactors。</t>
+          <t>使用 SAML 實現對基於 SAP NetWeaver 的 Web 應用程式（如 SAP Fiori 和 SAP Web GUI）的 SSO。</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2322,17 +2363,17 @@
         </is>
       </c>
       <c r="G35" s="21" t="n"/>
-      <c r="H35" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
-        </is>
-      </c>
-      <c r="I35" s="15" t="n"/>
+      <c r="H35" s="15" t="n"/>
+      <c r="I35" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
+        </is>
+      </c>
       <c r="J35" s="22" t="n"/>
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
+          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2343,17 +2384,17 @@
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="21" t="inlineStr">
         <is>
-          <t>管理組和訂閱</t>
+          <t>標識和訪問</t>
         </is>
       </c>
       <c r="B36" s="21" t="inlineStr">
         <is>
-          <t>訂閱</t>
+          <t>身份</t>
         </is>
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>對 SAP 訂閱強制實施現有管理組策略</t>
+          <t>可以使用 SAP NetWeaver SSO 或合作夥伴解決方案實現到 SAP GUI 的 SSO。</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2370,19 +2411,19 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
         </is>
       </c>
       <c r="I36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
         </is>
       </c>
       <c r="J36" s="22" t="n"/>
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
+          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2393,23 +2434,23 @@
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="21" t="inlineStr">
         <is>
-          <t>管理組和訂閱</t>
+          <t>標識和訪問</t>
         </is>
       </c>
       <c r="B37" s="21" t="inlineStr">
         <is>
-          <t>訂閱</t>
+          <t>身份</t>
         </is>
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>將緊密耦合的應用程式集成到同一 SAP 訂閱中，以避免額外的路由和管理複雜性</t>
+          <t>對於 SAP GUI 和 Web 瀏覽器存取的 SSO，請實施 SNC – Kerberos/SPNEGO（簡單且受保護的 GSSAPI 協商機制），因為它易於配置和維護。對於使用 X.509 用戶端證書的 SSO，請考慮使用 SAP 安全登錄伺服器，它是 SAP SSO 解決方案的一個元件。</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2418,21 +2459,17 @@
         </is>
       </c>
       <c r="G37" s="21" t="n"/>
-      <c r="H37" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
-        </is>
-      </c>
+      <c r="H37" s="15" t="n"/>
       <c r="I37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
         </is>
       </c>
       <c r="J37" s="22" t="n"/>
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
+          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2443,23 +2480,23 @@
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="21" t="inlineStr">
         <is>
-          <t>管理組和訂閱</t>
+          <t>標識和訪問</t>
         </is>
       </c>
       <c r="B38" s="21" t="inlineStr">
         <is>
-          <t>訂閱</t>
+          <t>身份</t>
         </is>
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>利用訂閱作為縮放單元並縮放我們的資源，請考慮按環境部署訂閱，例如。沙箱、非生產、生產</t>
+          <t>對於 SAP GUI 和 Web 瀏覽器存取的 SSO，請實施 SNC – Kerberos/SPNEGO（簡單且受保護的 GSSAPI 協商機制），因為它易於配置和維護。對於使用 X.509 用戶端證書的 SSO，請考慮使用 SAP 安全登錄伺服器，它是 SAP SSO 解決方案的一個元件。</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
       <c r="E38" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2470,19 +2507,15 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
-        </is>
-      </c>
-      <c r="I38" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://blogs.sap.com/2017/07/12/sap-single-sign-on-protect-your-sap-landscape-with-x.509-certificates/</t>
+        </is>
+      </c>
+      <c r="I38" s="15" t="n"/>
       <c r="J38" s="22" t="n"/>
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
+          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2493,23 +2526,23 @@
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="21" t="inlineStr">
         <is>
-          <t>管理組和訂閱</t>
+          <t>標識和訪問</t>
         </is>
       </c>
       <c r="B39" s="21" t="inlineStr">
         <is>
-          <t>訂閱</t>
+          <t>身份</t>
         </is>
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>確保在訂閱預配過程中增加配額（例如，訂閱中可用的 VM 核心總數）</t>
+          <t>使用 SAP NetWeaver 的 OAuth 實現 SSO，以允許第三方或自定義應用程式訪問 SAP NetWeaver OData 服務。</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2520,19 +2553,15 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
-        </is>
-      </c>
-      <c r="I39" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
+        </is>
+      </c>
+      <c r="I39" s="15" t="n"/>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
+          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2543,23 +2572,23 @@
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="21" t="inlineStr">
         <is>
-          <t>管理組和訂閱</t>
+          <t>標識和訪問</t>
         </is>
       </c>
       <c r="B40" s="21" t="inlineStr">
         <is>
-          <t>訂閱</t>
+          <t>身份</t>
         </is>
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>配額 API 是一個 REST API，可用於查看和管理 Azure 服務的配額。如有必要，請考慮使用它。</t>
+          <t>實現SAP HANA的 SSO</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
       <c r="E40" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2570,7 +2599,7 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
         </is>
       </c>
       <c r="I40" s="15" t="n"/>
@@ -2578,7 +2607,7 @@
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
+          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2589,23 +2618,23 @@
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="21" t="inlineStr">
         <is>
-          <t>管理組和訂閱</t>
+          <t>標識和訪問</t>
         </is>
       </c>
       <c r="B41" s="21" t="inlineStr">
         <is>
-          <t>訂閱</t>
+          <t>身份</t>
         </is>
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>如果部署到可用性區域，請確保在配額獲得批准后，VM 的區域部署可用。提交支援請求，其中包含所需的訂閱、VM 系列、CPU 數量和可用性區域。</t>
+          <t>將 Azure AD 視為 RISE 上託管的 SAP 系統的標識提供者。有關詳細資訊，請參閱將服務與 Azure AD 集成。</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2616,7 +2645,7 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
         </is>
       </c>
       <c r="I41" s="15" t="n"/>
@@ -2624,7 +2653,7 @@
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
+          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2635,23 +2664,23 @@
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="inlineStr">
         <is>
-          <t>管理組和訂閱</t>
+          <t>標識和訪問</t>
         </is>
       </c>
       <c r="B42" s="21" t="inlineStr">
         <is>
-          <t>訂閱</t>
+          <t>身份</t>
         </is>
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>確保所需的服務和功能在選定的部署區域內可用，例如。ANF、區域等</t>
+          <t>對於訪問 SAP 的應用程式，可能需要使用主體傳播來建立 SSO。</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2662,19 +2691,15 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
-        </is>
-      </c>
-      <c r="I42" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://github.com/azuredevcollege/SAP/blob/master/sap-oauth-saml-flow/README.md</t>
+        </is>
+      </c>
+      <c r="I42" s="15" t="n"/>
       <c r="J42" s="22" t="n"/>
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
+          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2685,17 +2710,17 @@
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="21" t="inlineStr">
         <is>
-          <t>管理組和訂閱</t>
+          <t>標識和訪問</t>
         </is>
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>訂閱</t>
+          <t>身份</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>利用 Azure 資源標記進行成本分類和資源分組（：帳單、部門（或營業單位）、環境（生產、階段、開發）、層（Web 層、應用層）、應用程式擁有者、專案名稱）</t>
+          <t>如果使用需要 SAP Identity Authentication Service （IAS） 的 SAP BTP 服務或 SaaS 解決方案，請考慮在 SAP Cloud Identity Authentication Services 和 Azure AD 之間實現 SSO 以存取這些 SAP 服務。此集成允許 SAP IAS 充當代理標識提供者，並將身份驗證請求轉發到作為中央使用者存儲和標識提供者的 Azure AD。</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2712,19 +2737,15 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
-        </is>
-      </c>
-      <c r="I43" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
+        </is>
+      </c>
+      <c r="I43" s="15" t="n"/>
       <c r="J43" s="22" t="n"/>
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
+          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2735,23 +2756,23 @@
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="21" t="inlineStr">
         <is>
-          <t>管理和監控</t>
+          <t>標識和訪問</t>
         </is>
       </c>
       <c r="B44" s="21" t="inlineStr">
         <is>
-          <t>BCDR的</t>
+          <t>身份</t>
         </is>
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 備份服務幫助保護 HANA 資料庫。</t>
+          <t>實現對 SAP BTP 的 SSO</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
       <c r="E44" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2762,19 +2783,15 @@
       <c r="G44" s="21" t="n"/>
       <c r="H44" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
-        </is>
-      </c>
-      <c r="I44" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
+        </is>
+      </c>
+      <c r="I44" s="15" t="n"/>
       <c r="J44" s="22" t="n"/>
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
+          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2785,17 +2802,17 @@
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="21" t="inlineStr">
         <is>
-          <t>管理和監控</t>
+          <t>標識和訪問</t>
         </is>
       </c>
       <c r="B45" s="21" t="inlineStr">
         <is>
-          <t>BCDR的</t>
+          <t>身份</t>
         </is>
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>如果為 HANA、Oracle 或 DB2 資料庫部署 Azure NetApp 檔，請使用 Azure 應用程式一致性快照工具 （AzAcSnap） 建立應用程式一致性快照。AzAcSnap 還支援 Oracle 資料庫。請考慮在中央 VM 上使用 AzAcSnap，而不是在單個 VM 上使用 AzAcSnap。</t>
+          <t>如果使用的是 SAP SuccessFactors，請考慮使用 Azure AD 自動使用者預配。通過此整合，在向 SAP SuccessFactors 添加新員工時，可以在 Azure AD 中自動創建其使用者帳戶。 （可選）可以在 Microsoft 365 或 Azure AD 支援的其他 SaaS 應用程式中創建使用者帳戶。 將電子郵件地址寫回 SAP SuccessFactors。</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2812,14 +2829,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
+          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2830,23 +2847,23 @@
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="21" t="inlineStr">
         <is>
-          <t>管理和監控</t>
+          <t>管理組和訂閱</t>
         </is>
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>訂閱</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>確保操作系統和 SAP 系統之間的時區匹配。</t>
+          <t>對 SAP 訂閱強制實施現有管理組策略</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
       <c r="E46" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2857,15 +2874,19 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
-        </is>
-      </c>
-      <c r="I46" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
+        </is>
+      </c>
+      <c r="I46" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
+        </is>
+      </c>
       <c r="J46" s="22" t="n"/>
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
+          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2876,23 +2897,23 @@
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="21" t="inlineStr">
         <is>
-          <t>管理和監控</t>
+          <t>管理組和訂閱</t>
         </is>
       </c>
       <c r="B47" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>訂閱</t>
         </is>
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>不要在同一集群中對不同的應用程式服務進行分組。例如，不要將DRBD和中央服務群集合並到同一個群集上。但是，可以使用同一個 Pacemaker 群集來管理大約五個不同的中心服務（多 SID 群集）。</t>
+          <t>將緊密耦合的應用程式集成到同一 SAP 訂閱中，以避免額外的路由和管理複雜性</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
       <c r="E47" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2903,19 +2924,19 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
         </is>
       </c>
       <c r="I47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
         </is>
       </c>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
+          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2926,23 +2947,23 @@
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="21" t="inlineStr">
         <is>
-          <t>管理和監控</t>
+          <t>管理組和訂閱</t>
         </is>
       </c>
       <c r="B48" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>訂閱</t>
         </is>
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>請考慮在暫停模型中運行開發/測試系統，以節省和優化 Azure 運行成本。</t>
+          <t>利用訂閱作為縮放單元並縮放我們的資源，請考慮按環境部署訂閱，例如。沙箱、非生產、生產</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
       <c r="E48" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2953,14 +2974,19 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
+          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -2971,23 +2997,23 @@
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="21" t="inlineStr">
         <is>
-          <t>管理和監控</t>
+          <t>管理組和訂閱</t>
         </is>
       </c>
       <c r="B49" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>訂閱</t>
         </is>
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>如果通過管理客戶的 SAP 資產與客戶合作，請考慮使用 Azure Lighthouse。Azure Lighthouse 允許託管服務提供者使用 Azure 本機標識服務向客戶環境進行身份驗證。它將控制權交到客戶手中，因為他們可以隨時撤銷訪問許可權並審核服務提供者的操作。</t>
+          <t>確保在訂閱預配過程中增加配額（例如，訂閱中可用的 VM 核心總數）</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
       <c r="E49" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2998,14 +3024,19 @@
       <c r="G49" s="21" t="n"/>
       <c r="H49" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
+          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
+          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3016,23 +3047,23 @@
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="21" t="inlineStr">
         <is>
-          <t>管理和監控</t>
+          <t>管理組和訂閱</t>
         </is>
       </c>
       <c r="B50" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>訂閱</t>
         </is>
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 更新管理員檢查單個 VM 或多個 VM 的可用更新狀態，並考慮計劃定期修補。</t>
+          <t>配額 API 是一個 REST API，可用於查看和管理 Azure 服務的配額。如有必要，請考慮使用它。</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
       <c r="E50" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3043,19 +3074,15 @@
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
-        </is>
-      </c>
-      <c r="I50" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
+        </is>
+      </c>
+      <c r="I50" s="15" t="n"/>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
+          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3066,23 +3093,23 @@
     <row r="51" ht="16.5" customHeight="1">
       <c r="A51" s="21" t="inlineStr">
         <is>
-          <t>管理和監控</t>
+          <t>管理組和訂閱</t>
         </is>
       </c>
       <c r="B51" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>訂閱</t>
         </is>
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>使用 SAP Landscape Management （LaMa） 優化和管理 SAP Basis 操作。使用適用於 Azure 的 SAP LaMa 連接器重新置放、複製、克隆和刷新 SAP 系統。</t>
+          <t>如果部署到可用性區域，請確保在批准配額后，VM 的區域部署可用。提交支援請求，其中包含所需的訂閱、VM 系列、CPU 數量和可用性區域。</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
       <c r="E51" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3093,19 +3120,15 @@
       <c r="G51" s="21" t="n"/>
       <c r="H51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
-        </is>
-      </c>
-      <c r="I51" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
+        </is>
+      </c>
+      <c r="I51" s="15" t="n"/>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
+          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3116,23 +3139,23 @@
     <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="21" t="inlineStr">
         <is>
-          <t>管理和監控</t>
+          <t>管理組和訂閱</t>
         </is>
       </c>
       <c r="B52" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>訂閱</t>
         </is>
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>使用適用於 SAP 解決方案的 Azure Monitor 監視 Azure 上的 SAP 工作負載（SAP HANA、高可用性 SUSE 群集和 SQL 系統）。請考慮使用 SAP 解決方案管理器補充用於 SAP 解決方案的 Azure Monitor。</t>
+          <t>確保所需的服務和功能在選定的部署區域內可用，例如。ANF、區域等</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
       <c r="E52" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3143,19 +3166,19 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
+          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
         </is>
       </c>
       <c r="I52" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
         </is>
       </c>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
+          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3166,23 +3189,23 @@
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="21" t="inlineStr">
         <is>
-          <t>管理和監控</t>
+          <t>管理組和訂閱</t>
         </is>
       </c>
       <c r="B53" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>訂閱</t>
         </is>
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>運行適用於 SAP 的 VM 擴展檢查。適用於 SAP 的 VM 擴展使用虛擬機 （VM） 的分配託管標識來訪問 VM 監視和配置數據。該檢查可確保 SAP 應用程式中的所有性能指標都來自適用於 SAP 的基礎 Azure 擴展。</t>
+          <t>利用 Azure 資源標記進行成本分類和資源分組（：帳單、部門（或營業單位）、環境（生產、階段、開發）、層（Web 層、應用層）、應用程式擁有者、專案名稱）</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
       <c r="E53" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3193,19 +3216,19 @@
       <c r="G53" s="21" t="n"/>
       <c r="H53" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
+          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3221,18 +3244,18 @@
       </c>
       <c r="B54" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>BCDR的</t>
         </is>
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Policy 進行訪問控制和合規性報告。Azure Policy 提供強制實施組織範圍設置的功能，以確保一致的策略遵守和快速的違規檢測。</t>
+          <t>使用 Azure 備份服務幫助保護 HANA 資料庫。</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
       <c r="E54" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3243,19 +3266,19 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
         </is>
       </c>
       <c r="I54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
         </is>
       </c>
       <c r="J54" s="22" t="n"/>
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
+          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3271,12 +3294,12 @@
       </c>
       <c r="B55" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>BCDR的</t>
         </is>
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 網路觀察程式中的連接監視器來監視 SAP 資料庫和應用程式伺服器的延遲指標。或者使用 Azure Monitor 收集和顯示網路延遲度量值。</t>
+          <t>如果為 HANA、Oracle 或 DB2 資料庫部署 Azure NetApp 檔，請使用 Azure 應用程式一致性快照工具 （AzAcSnap） 建立應用程式一致性快照。AzAcSnap 還支援 Oracle 資料庫。請考慮在中央 VM 上使用 AzAcSnap，而不是在單個 VM 上使用 AzAcSnap。</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3293,19 +3316,14 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
+          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3321,12 +3339,12 @@
       </c>
       <c r="B56" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Site Recovery 監視來維護 SAP 應用程式伺服器的災難恢復服務的運行狀況。</t>
+          <t>確保操作系統和 SAP 系統之間的時區匹配。</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
@@ -3343,19 +3361,14 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
+          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3371,12 +3384,12 @@
       </c>
       <c r="B57" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>在預配的 Azure 基礎結構上對 SAP HANA 執行質量檢查，以驗證預配的 VM 是否符合 Azure 上的 SAP HANA 最佳做法。</t>
+          <t>不要在同一集群中對不同的應用程式服務進行分組。例如，不要將DRBD和中央服務群集合並到同一個群集上。但是，可以使用同一個 Pacemaker 群集來管理大約五個不同的中央服務（多 SID 群集）。</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3393,14 +3406,19 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/QualityCheck</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
+          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3416,18 +3434,18 @@
       </c>
       <c r="B58" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>對於每個 Azure 訂閱，請在區域部署之前對 Azure 可用性區域運行延遲測試，以選擇用於在 Azure 上部署 SAP 的低延遲區域。</t>
+          <t>請考慮在暫停模型中運行開發/測試系統，以節省和優化 Azure 運行成本。</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
       <c r="E58" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3438,19 +3456,14 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-zones</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
+          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
+          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3466,12 +3479,12 @@
       </c>
       <c r="B59" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>運行復原報告，確保整個預配的 Azure 基礎結構（計算、資料庫、網路、存儲、Site Recovery）的配置符合適用於 Azure 的 Cloud Adaption Framework 定義的配置。</t>
+          <t>如果通過管理客戶的 SAP 資產與客戶合作，請考慮使用 Azure Lighthouse。Azure Lighthouse 允許託管服務提供者使用 Azure 本機標識服務向客戶環境進行身份驗證。它將控制權交到客戶手中，因為他們可以隨時撤銷訪問許可權並審核服務提供者的操作。</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3488,19 +3501,14 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/advisor/advisor-how-to-improve-reliability</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/azure-well-architected-framework/</t>
+          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>410adcba-db46-424f-a6c4-05ecde75c52e</t>
+          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3516,12 +3524,12 @@
       </c>
       <c r="B60" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>使用適用於 SAP 的 Microsoft Sentinel 解決方案實施威脅防護。使用此解決方案可以監視 SAP 系統，並檢測整個業務邏輯和應用程式層的複雜威脅。</t>
+          <t>使用 Azure 更新管理員檢查單個 VM 或多個 VM 的可用更新狀態，並考慮計劃定期修補。</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3538,19 +3546,19 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/sap/deployment-overview</t>
+          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/plan-microsoft-sentinel-deployment-sap/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
+          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3566,18 +3574,18 @@
       </c>
       <c r="B61" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>可以利用 Azure 標記對資源進行邏輯分組和跟蹤，自動執行其部署，最重要的是，提供對所產生成本的可見性。</t>
+          <t>使用 SAP Landscape Management （LaMa） 優化和管理 SAP Basis 操作。使用適用於 Azure 的 SAP LaMa 連接器重新置放、複製、克隆和刷新 SAP 系統。</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
       <c r="E61" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3588,19 +3596,19 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/enable-tag-inheritance</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
+          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3616,18 +3624,18 @@
       </c>
       <c r="B62" s="21" t="inlineStr">
         <is>
-          <t>性能</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>對延遲敏感型應用程式使用虛擬機間延遲監視。</t>
+          <t>使用適用於 SAP 解決方案的 Azure Monitor 監視 Azure 上的 SAP 工作負載（SAP HANA、高可用性 SUSE 群集和 SQL 系統）。請考慮使用 SAP 解決方案管理器補充用於 SAP 解決方案的 Azure Monitor。</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
       <c r="E62" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3638,14 +3646,19 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-test-latency?tabs=windows</t>
+          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>04b8e5e5-13cb-4b22-af62-5a8ecfcf0337</t>
+          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3661,18 +3674,18 @@
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>性能</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Site Recovery 監視來維護 SAP 應用程式伺服器的災難恢復服務的運行狀況。</t>
+          <t>運行適用於 SAP 的 VM 擴展檢查。適用於 SAP 的 VM 擴展使用虛擬機 （VM） 的分配託管標識來訪問 VM 監視和配置數據。該檢查可確保 SAP 應用程式中的所有性能指標都來自適用於 SAP 的基礎 Azure 擴展。</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
       <c r="E63" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3683,19 +3696,19 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide-storage</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
         </is>
       </c>
       <c r="I63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
         </is>
       </c>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>07e5ed53-3d96-43d8-87ea-631b77da5aba</t>
+          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3711,12 +3724,12 @@
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>性能</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>從防病毒掃描中排除所有資料庫檔系統和可執行程式。包括它們可能會導致性能問題。請與資料庫供應商聯繫，瞭解排除清單的規範性詳細資訊。例如，Oracle 建議&lt;sid&gt;從防病毒掃描中排除 /oracle}sapdata。</t>
+          <t>使用 Azure Policy 進行訪問控制和合規性報告。Azure Policy 提供強制實施組織範圍設置的功能，以確保一致的策略遵守和快速的違規檢測。</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
@@ -3733,15 +3746,19 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
-        </is>
-      </c>
-      <c r="I64" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I64" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+        </is>
+      </c>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>abb6af9c-982c-4cf1-83fb-329fafd1ee56</t>
+          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3757,18 +3774,18 @@
       </c>
       <c r="B65" s="21" t="inlineStr">
         <is>
-          <t>性能</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>請考慮在遷移後收集非 HANA 資料庫的完整資料庫統計資訊。例如，實現 SAP 註釋 1020260 - Oracle 統計資訊的交付。</t>
+          <t>使用 Azure 網路觀察程式中的連接監視器監視 SAP 資料庫和應用程式伺服器的延遲指標。或者使用 Azure Monitor 收集和顯示網路延遲度量值。</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
       <c r="E65" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3779,15 +3796,19 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://sapit-forme-prod.authentication.eu11.hana.ondemand.com/login</t>
-        </is>
-      </c>
-      <c r="I65" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
+        </is>
+      </c>
+      <c r="I65" s="15" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
+        </is>
+      </c>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>c027f893-f404-41a9-b33d-39d625a14964</t>
+          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3803,18 +3824,18 @@
       </c>
       <c r="B66" s="21" t="inlineStr">
         <is>
-          <t>性能</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>請考慮將 Oracle 自動儲存管理 （ASM） 用於使用 Azure 上的 SAP 的所有 Oracle 部署。</t>
+          <t>使用 Azure Site Recovery 監視來維護 SAP 應用程式伺服器的災難恢復服務的運行狀況。</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
       <c r="E66" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3825,19 +3846,19 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/configure-oracle-asm</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/administer-infrastructure-resources-in-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>fdafb1f5-3eee-4354-a8c9-deb8127ebc2e</t>
+          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3853,12 +3874,12 @@
       </c>
       <c r="B67" s="21" t="inlineStr">
         <is>
-          <t>性能</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>對於運行 Oracle 的 Azure 上的 SAP，SQL 腳本集合可説明你診斷性能問題。 Automatic Workload Repository （AWR） 報告包含用於診斷 Oracle 系統中問題的寶貴資訊。我們建議您在多個工作階段期間運行 AWR 報告，並為其選擇高峰時間，以確保分析的廣泛覆蓋。</t>
+          <t>在預配的 Azure 基礎結構上對 SAP HANA 執行質量檢查，以驗證預配的 VM 是否符合 Azure 上的 SAP HANA 最佳做法。</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
@@ -3875,19 +3896,15 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/announcement-sap-on-azure-oracle-performance-efficiency-scripts/ba-p/3725178</t>
-        </is>
-      </c>
-      <c r="I67" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/ja-jp/azure/well-architected/oracle-iaas/performance-efficiency</t>
-        </is>
-      </c>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/QualityCheck</t>
+        </is>
+      </c>
+      <c r="I67" s="15" t="n"/>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>33c5d5bf-daf3-4f0d-bd50-6010fdcec22e</t>
+          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3898,23 +3915,23 @@
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="21" t="inlineStr">
         <is>
-          <t>網路拓撲和連接</t>
+          <t>管理和監控</t>
         </is>
       </c>
       <c r="B68" s="21" t="inlineStr">
         <is>
-          <t>應用交付</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>若要安全交付 HTTP/S 應用，請使用應用程式閘道 v2 並確保已啟用 WAF 保護和策略。</t>
+          <t>對於每個 Azure 訂閱，請在區域部署之前在 Azure 可用性區域上運行延遲測試，以選擇用於在 Azure 上部署 SAP 的低延遲區域。</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
       <c r="E68" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3925,19 +3942,19 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-zones</t>
         </is>
       </c>
       <c r="I68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
         </is>
       </c>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
+          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -3948,17 +3965,17 @@
     <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="21" t="inlineStr">
         <is>
-          <t>網路拓撲和連接</t>
+          <t>管理和監控</t>
         </is>
       </c>
       <c r="B69" s="21" t="inlineStr">
         <is>
-          <t>DNS解析</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>如果在遷移到 Azure 期間未更改虛擬機器的 DNS 或虛擬名稱，則後台 DNS 和虛擬名稱會連接 SAP 環境中的許多系統介面，並且客戶有時只會知道開發人員隨時間推移定義的介面。遷移后，當虛擬名稱或 DNS 名稱發生更改時，各種系統之間會出現連接挑戰，建議保留 DNS 別名以防止出現這些類型的困難。</t>
+          <t>運行復原報告，確保整個預配的 Azure 基礎結構（計算、資料庫、網路、存儲、Site Recovery）的配置符合適用於 Azure 的 Cloud Adaption Framework 定義的配置。</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
@@ -3975,19 +3992,19 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/advisor/advisor-how-to-improve-reliability</t>
         </is>
       </c>
       <c r="I69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
+          <t>https://learn.microsoft.com/training/paths/azure-well-architected-framework/</t>
         </is>
       </c>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
+          <t>410adcba-db46-424f-a6c4-05ecde75c52e</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -3998,17 +4015,17 @@
     <row r="70" ht="16.5" customHeight="1">
       <c r="A70" s="21" t="inlineStr">
         <is>
-          <t>網路拓撲和連接</t>
+          <t>管理和監控</t>
         </is>
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>DNS解析</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>使用不同的 DNS 區域將每個環境（沙箱、開發、預生產和生產）彼此區分開來。例外情況是具有自己的 VNet 的 SAP 部署;在這裡，專用 DNS 區域可能不是必需的。</t>
+          <t>使用適用於 SAP 的 Microsoft Sentinel 解決方案實施威脅防護。使用此解決方案可以監視 SAP 系統，並檢測整個業務邏輯和應用程式層的複雜威脅。</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -4025,19 +4042,19 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/sentinel/sap/deployment-overview</t>
         </is>
       </c>
       <c r="I70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
+          <t>https://learn.microsoft.com/training/modules/plan-microsoft-sentinel-deployment-sap/?source=recommendations</t>
         </is>
       </c>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
+          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4048,17 +4065,17 @@
     <row r="71" ht="16.5" customHeight="1">
       <c r="A71" s="21" t="inlineStr">
         <is>
-          <t>網路拓撲和連接</t>
+          <t>管理和監控</t>
         </is>
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>混合</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>本地和全域 VNet 對等互連提供連接，是確保跨多個 Azure 區域的 SAP 部署登陸區域之間連接的首選方法</t>
+          <t>可以利用 Azure 標記對資源進行邏輯分組和跟蹤，自動執行其部署，最重要的是，提供對所產生成本的可見性。</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -4075,19 +4092,19 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/enable-tag-inheritance</t>
         </is>
       </c>
       <c r="I71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/?source=recommendations</t>
         </is>
       </c>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
+          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4098,23 +4115,23 @@
     <row r="72" ht="16.5" customHeight="1">
       <c r="A72" s="21" t="inlineStr">
         <is>
-          <t>網路拓撲和連接</t>
+          <t>管理和監控</t>
         </is>
       </c>
       <c r="B72" s="21" t="inlineStr">
         <is>
-          <t>混合</t>
+          <t>性能</t>
         </is>
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>不支援在 SAP 應用程式和 SAP 資料庫伺服器之間部署任何 NVA</t>
+          <t>對延遲敏感型應用程式使用虛擬機間延遲監視。</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4125,19 +4142,15 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
-        </is>
-      </c>
-      <c r="I72" s="15" t="inlineStr">
-        <is>
-          <t>https://me.sap.com/notes/2731110</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-test-latency?tabs=windows</t>
+        </is>
+      </c>
+      <c r="I72" s="15" t="n"/>
       <c r="J72" s="22" t="n"/>
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
+          <t>04b8e5e5-13cb-4b22-af62-5a8ecfcf0337</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4148,17 +4161,17 @@
     <row r="73" ht="16.5" customHeight="1">
       <c r="A73" s="21" t="inlineStr">
         <is>
-          <t>網路拓撲和連接</t>
+          <t>管理和監控</t>
         </is>
       </c>
       <c r="B73" s="21" t="inlineStr">
         <is>
-          <t>混合</t>
+          <t>性能</t>
         </is>
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>在需要跨 Azure 區域和本地位置進行全球傳輸連接的新網路、大型網路或全球網路中的 Azure 部署使用虛擬 WAN。使用此方法，無需手動為 Azure 網路設置可傳遞路由，並且可以遵循 Azure 上的 SAP 部署的標準。</t>
+          <t>使用 Azure Site Recovery 監視來維護 SAP 應用程式伺服器的災難恢復服務的運行狀況。</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -4175,19 +4188,19 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide-storage</t>
         </is>
       </c>
       <c r="I73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
         </is>
       </c>
       <c r="J73" s="22" t="n"/>
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
+          <t>07e5ed53-3d96-43d8-87ea-631b77da5aba</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4198,17 +4211,17 @@
     <row r="74" ht="16.5" customHeight="1">
       <c r="A74" s="21" t="inlineStr">
         <is>
-          <t>網路拓撲和連接</t>
+          <t>管理和監控</t>
         </is>
       </c>
       <c r="B74" s="21" t="inlineStr">
         <is>
-          <t>混合</t>
+          <t>性能</t>
         </is>
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>僅當使用合作夥伴 NVA 時，才考慮在區域之間部署網路虛擬設備 （NVA）。如果存在本機 NVA，則不需要區域或 VNet 之間的 NVA。部署合作夥伴網路技術和 NVA 時，請按照供應商的指南驗證與 Azure 網路的衝突配置。</t>
+          <t>從防病毒掃描中排除所有資料庫檔系統和可執行程式。包括它們可能會導致性能問題。請與資料庫供應商聯繫，瞭解排除清單的規範性詳細資訊。例如，Oracle 建議&lt;sid&gt;從防病毒掃描中排除 /oracle}sapdata。</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
@@ -4225,19 +4238,15 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
-        </is>
-      </c>
-      <c r="I74" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
+        </is>
+      </c>
+      <c r="I74" s="15" t="n"/>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
+          <t>abb6af9c-982c-4cf1-83fb-329fafd1ee56</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4248,23 +4257,23 @@
     <row r="75" ht="16.5" customHeight="1">
       <c r="A75" s="21" t="inlineStr">
         <is>
-          <t>網路拓撲和連接</t>
+          <t>管理和監控</t>
         </is>
       </c>
       <c r="B75" s="21" t="inlineStr">
         <is>
-          <t>混合</t>
+          <t>性能</t>
         </is>
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>虛擬 WAN 管理基於虛擬 WAN 的拓撲的分支 VNet 之間的連接（無需設置使用者定義的路由 [UDR] 或 NVA），同一虛擬中心中 VNet 到 VNet 流量的最大網路輸送量為每秒 50 GB。如有必要，SAP 登陸區域可以使用 VNet 對等互連連接到其他登陸區域並克服此頻寬限制。</t>
+          <t>請考慮在遷移後收集非 HANA 資料庫的完整資料庫統計資訊。例如，實現 SAP 註釋 1020260 - Oracle 統計資訊的交付。</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
       <c r="E75" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4275,19 +4284,15 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
-        </is>
-      </c>
-      <c r="I75" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://sapit-forme-prod.authentication.eu11.hana.ondemand.com/login</t>
+        </is>
+      </c>
+      <c r="I75" s="15" t="n"/>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
+          <t>c027f893-f404-41a9-b33d-39d625a14964</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4298,23 +4303,23 @@
     <row r="76" ht="16.5" customHeight="1">
       <c r="A76" s="21" t="inlineStr">
         <is>
-          <t>網路拓撲和連接</t>
+          <t>管理和監控</t>
         </is>
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>IP計劃</t>
+          <t>性能</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>不建議將公共 I.P 分配給運行 SAP 工作負載的 VM。</t>
+          <t>請考慮將 Oracle 自動儲存管理 （ASM） 用於使用 Azure 上的 SAP 的所有 Oracle 部署。</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
       <c r="E76" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4325,19 +4330,19 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/configure-oracle-asm</t>
         </is>
       </c>
       <c r="I76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/administer-infrastructure-resources-in-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
+          <t>fdafb1f5-3eee-4354-a8c9-deb8127ebc2e</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4348,23 +4353,23 @@
     <row r="77" ht="16.5" customHeight="1">
       <c r="A77" s="21" t="inlineStr">
         <is>
-          <t>網路拓撲和連接</t>
+          <t>管理和監控</t>
         </is>
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>IP計劃</t>
+          <t>性能</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>配置 ASR 時，請考慮在 DR 端保留 I.P 位址</t>
+          <t>對於運行 Oracle 的 Azure 上的 SAP，SQL 腳本集合可説明你診斷性能問題。 Automatic Workload Repository （AWR） 報告包含用於診斷 Oracle 系統中問題的寶貴資訊。我們建議您在多個工作階段期間運行 AWR 報告，並為其選擇高峰時間，以確保分析的廣泛覆蓋。</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4375,19 +4380,19 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/announcement-sap-on-azure-oracle-performance-efficiency-scripts/ba-p/3725178</t>
         </is>
       </c>
       <c r="I77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/ja-jp/azure/well-architected/oracle-iaas/performance-efficiency</t>
         </is>
       </c>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
+          <t>33c5d5bf-daf3-4f0d-bd50-6010fdcec22e</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4403,18 +4408,18 @@
       </c>
       <c r="B78" s="21" t="inlineStr">
         <is>
-          <t>IP計劃</t>
+          <t>應用交付</t>
         </is>
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>避免對生產網站和DR網站使用重疊的IP位址範圍。</t>
+          <t>若要安全交付 HTTP/S 應用，請使用應用程式閘道 v2 並確保已啟用 WAF 保護和策略。</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
       <c r="E78" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4425,19 +4430,19 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
         </is>
       </c>
       <c r="J78" s="22" t="n"/>
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
+          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4453,12 +4458,12 @@
       </c>
       <c r="B79" s="21" t="inlineStr">
         <is>
-          <t>IP計劃</t>
+          <t>DNS解析</t>
         </is>
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>雖然 Azure 確實有助於在 VNet 中創建多個委託子網，但 Azure NetApp 檔的 VNet 中只能存在一個委託子網。如果對 Azure NetApp 檔使用多個委託子網，則嘗試創建新卷將失敗。</t>
+          <t>如果在遷移到 Azure 期間未更改虛擬機器的 DNS 或虛擬名稱，則後台 DNS 和虛擬名稱會連接 SAP 環境中的許多系統介面，並且客戶有時只知道開發人員隨時間推移定義的介面。遷移后，當虛擬名稱或 DNS 名稱發生更改時，各種系統之間會出現連接挑戰，建議保留 DNS 別名以防止出現這些類型的困難。</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
@@ -4475,19 +4480,19 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J79" s="22" t="n"/>
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
+          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4503,12 +4508,12 @@
       </c>
       <c r="B80" s="21" t="inlineStr">
         <is>
-          <t>互聯網</t>
+          <t>DNS解析</t>
         </is>
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 防火牆管理發往 Internet 的 Azure 出站流量、非 HTTP/S 入站連接和東/西流量篩選（如果組織需要）</t>
+          <t>使用不同的 DNS 區域將每個環境（沙箱、開發、預生產和生產）彼此區分開來。例外情況是具有自己的 VNet 的 SAP 部署;在這裡，專用 DNS 區域可能不是必需的。</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
@@ -4525,19 +4530,19 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
+          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4553,12 +4558,12 @@
       </c>
       <c r="B81" s="21" t="inlineStr">
         <is>
-          <t>互聯網</t>
+          <t>混合</t>
         </is>
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>當應用程式閘道充當 SAP Web 應用的反向代理時，應用程式閘道和 Web 應用程式防火牆存在限制，如應用程式閘道、SAP Web 調度程式和其他第三方服務之間的比較所示。</t>
+          <t>本地和全域 VNet 對等互連提供連接，是確保跨多個 Azure 區域的 SAP 部署登陸區域之間連接的首選方法</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4575,19 +4580,19 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
         </is>
       </c>
       <c r="I81" s="15" t="inlineStr">
         <is>
-          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
+          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
         </is>
       </c>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
+          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4603,18 +4608,18 @@
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>互聯網</t>
+          <t>混合</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Front Door 和 WAF 策略跨 Azure 區域為登陸區域的入站 HTTP/S 連接提供全域保護。</t>
+          <t>不支援在 SAP 應用程式和 SAP 資料庫伺服器之間部署任何 NVA</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4625,19 +4630,19 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
         </is>
       </c>
       <c r="I82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
+          <t>https://me.sap.com/notes/2731110</t>
         </is>
       </c>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
+          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4653,12 +4658,12 @@
       </c>
       <c r="B83" s="21" t="inlineStr">
         <is>
-          <t>互聯網</t>
+          <t>混合</t>
         </is>
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Front Door 和應用程式閘道保護 HTTP/S 應用程式時，利用 Azure Front Door 中的 Web 應用程式防火牆策略。鎖定應用程式閘道以僅接收來自 Azure Front Door 的流量。</t>
+          <t>在需要跨 Azure 區域和本地位置進行全球傳輸連接的新網路、大型網路或全球網路中，將虛擬 WAN 用於 Azure 部署。使用此方法，無需手動為 Azure 網路設置可傳遞路由，並且可以遵循 Azure 上的 SAP 部署的標準。</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
@@ -4675,19 +4680,19 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
         </is>
       </c>
       <c r="I83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
+          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4703,12 +4708,12 @@
       </c>
       <c r="B84" s="21" t="inlineStr">
         <is>
-          <t>互聯網</t>
+          <t>混合</t>
         </is>
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>當流量暴露給 Internet 時，使用 Web 應用程式防火牆掃描流量。另一種選擇是將其與負載均衡器或具有內置防火牆功能（如應用程式閘道或第三方解決方案）的資源一起使用。</t>
+          <t>僅當使用合作夥伴 NVA 時，才考慮在區域之間部署網路虛擬設備 （NVA）。如果存在本機 NVA，則不需要區域或 VNet 之間的 NVA。部署合作夥伴網路技術和 NVA 時，請按照供應商的指南驗證與 Azure 網路的衝突配置。</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4725,19 +4730,19 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
         </is>
       </c>
       <c r="I84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
         </is>
       </c>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
+          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4753,12 +4758,12 @@
       </c>
       <c r="B85" s="21" t="inlineStr">
         <is>
-          <t>互聯網</t>
+          <t>混合</t>
         </is>
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>在需要跨 Azure 區域和本地位置進行全球傳輸連接的新網路、大型網路或全球網路中的 Azure 部署使用虛擬 WAN。使用此方法，無需手動為 Azure 網路設置可傳遞路由，並且可以遵循 Azure 上的 SAP 部署的標準。</t>
+          <t>虛擬 WAN 管理基於虛擬 WAN 的拓撲的分支 VNet 之間的連接（無需設置使用者定義的路由 [UDR] 或 NVA），同一虛擬中心中 VNet 到 VNet 流量的最大網路輸送量為每秒 50 GB。如有必要，SAP 登陸區域可以使用 VNet 對等互連連接到其他登陸區域並克服此頻寬限制。</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4775,19 +4780,19 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
         </is>
       </c>
       <c r="I85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
         </is>
       </c>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
+          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4803,18 +4808,18 @@
       </c>
       <c r="B86" s="21" t="inlineStr">
         <is>
-          <t>互聯網</t>
+          <t>IP計劃</t>
         </is>
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>若要防止數據洩露，請使用 Azure 專用連結安全地訪問平臺即服務資源，例如 Azure Blob 存儲、Azure 檔存儲、Azure Data Lake Storage Gen2、Azure 數據工廠等。Azure 專用終結點還可以幫助保護 VNet 與 Azure 存儲、Azure 備份等服務之間的流量。VNet 與啟用了專用終結點的服務之間的流量通過 Microsoft 全球網路傳輸，從而防止其暴露在公共 Internet 上。</t>
+          <t>不建議將公共 I.P 分配給運行 SAP 工作負載的 VM。</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
       <c r="E86" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4825,19 +4830,19 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
+          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4853,12 +4858,12 @@
       </c>
       <c r="B87" s="21" t="inlineStr">
         <is>
-          <t>分割</t>
+          <t>IP計劃</t>
         </is>
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>請確保在 SAP 應用程式層和 DBMS 層中使用的 VM 上啟用了 Azure 加速網路。</t>
+          <t>配置 ASR 時，請考慮在 DR 端保留 I.P 位址</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
@@ -4875,19 +4880,19 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="I87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4903,18 +4908,18 @@
       </c>
       <c r="B88" s="21" t="inlineStr">
         <is>
-          <t>分割</t>
+          <t>IP計劃</t>
         </is>
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>請確保將 Azure 負載均衡器的內部部署設置為使用直接伺服器返回 （DSR）。當內部負載平衡器配置用於 DBMS 層上的高可用性配置時，此設置將減少延遲。</t>
+          <t>避免對生產網站和DR網站使用重疊的IP位址範圍。</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
       <c r="E88" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4925,19 +4930,19 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J88" s="22" t="n"/>
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
+          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4953,12 +4958,12 @@
       </c>
       <c r="B89" s="21" t="inlineStr">
         <is>
-          <t>分割</t>
+          <t>IP計劃</t>
         </is>
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>可以使用應用程式安全組 （ASG） 和 NSG 規則在 SAP 應用程式層和 DBMS 層之間定義網路安全存取控制清單。ASG 對虛擬機進行分組以説明管理其安全性。</t>
+          <t>雖然 Azure 確實有助於在 VNet 中創建多個委託子網，但 Azure NetApp 檔的 VNet 中只能存在一個委託子網。如果對 Azure NetApp 檔使用多個委託子網，則嘗試創建新卷將失敗。</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
@@ -4975,19 +4980,19 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
         </is>
       </c>
       <c r="I89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
         </is>
       </c>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
+          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5003,18 +5008,18 @@
       </c>
       <c r="B90" s="21" t="inlineStr">
         <is>
-          <t>分割</t>
+          <t>互聯網</t>
         </is>
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>不支援將 SAP 應用程式層和 SAP DBMS 放置在未對等互連的不同 Azure VNet 中。</t>
+          <t>使用 Azure 防火牆管理發往 Internet、非 HTTP/S 入站連接和東西方流量篩選的 Azure 出站流量（如果組織需要）</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
       <c r="E90" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -5025,19 +5030,19 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
         </is>
       </c>
       <c r="I90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
+          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5053,12 +5058,12 @@
       </c>
       <c r="B91" s="21" t="inlineStr">
         <is>
-          <t>分割</t>
+          <t>互聯網</t>
         </is>
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>為了實現 SAP 應用程式的最佳網路延遲，請考慮使用 Azure 鄰近放置組。</t>
+          <t>當應用程式閘道充當 SAP Web 應用的反向代理時，應用程式閘道和 Web 應用程式防火牆存在限制，如應用程式閘道、SAP Web 調度程式和其他第三方服務之間的比較所示。</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
@@ -5075,19 +5080,19 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
         </is>
       </c>
       <c r="I91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
+          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
         </is>
       </c>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
+          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5103,18 +5108,18 @@
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>分割</t>
+          <t>互聯網</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>完全不支援運行在本地和 Azure 之間拆分的 SAP 應用程式伺服器層和 DBMS 層。這兩個層都需要完全駐留在本地或 Azure 中。</t>
+          <t>使用 Azure Front Door 和 WAF 策略跨 Azure 區域為登陸區域的入站 HTTP/S 連接提供全域保護。</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
       <c r="E92" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5125,19 +5130,19 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
+          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5153,18 +5158,18 @@
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>分割</t>
+          <t>互聯網</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>不建議將 SAP 系統的資料庫管理系統 （DBMS） 和應用程式層託管在不同的 VNet 中，並將它們與 VNet 對等互連連接，因為層之間的過多網路流量可能會產生大量成本。建議使用 Azure 虛擬網路中的子網來分隔 SAP 應用程式層和 DBMS 層。</t>
+          <t>使用 Azure Front Door 和應用程式閘道來保護 HTTP/S 應用程式時，請利用 Azure Front Door 中的 Web 應用程式防火牆策略。鎖定應用程式閘道以僅接收來自 Azure Front Door 的流量。</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
       <c r="E93" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5175,19 +5180,19 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
         </is>
       </c>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
+          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5203,18 +5208,18 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>分割</t>
+          <t>互聯網</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>請確保在 SAP 應用程式層和 DBMS 層中使用的 VM 上啟用了 Azure 加速網路。</t>
+          <t>當流量暴露在互聯網上時，使用 Web 應用程式防火牆掃描流量。另一種選擇是將其與負載均衡器或具有內置防火牆功能（如應用程式閘道或第三方解決方案）的資源一起使用。</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
       <c r="E94" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -5225,19 +5230,19 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
         </is>
       </c>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5253,18 +5258,18 @@
       </c>
       <c r="B95" s="21" t="inlineStr">
         <is>
-          <t>分割</t>
+          <t>互聯網</t>
         </is>
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>如果在 Linux 客戶機作業系統中使用負載均衡器，請檢查 Linux 網路參數 net.ipv4.tcp_timestamps 是否設置為 0。</t>
+          <t>在需要跨 Azure 區域和本地位置進行全球傳輸連接的新網路、大型網路或全球網路中，將虛擬 WAN 用於 Azure 部署。使用此方法，無需手動為 Azure 網路設置可傳遞路由，並且可以遵循 Azure 上的 SAP 部署的標準。</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
       <c r="E95" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -5275,19 +5280,19 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
         </is>
       </c>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
+          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5303,12 +5308,12 @@
       </c>
       <c r="B96" s="21" t="inlineStr">
         <is>
-          <t>分割</t>
+          <t>互聯網</t>
         </is>
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>對於 SAP RISE/ECS 部署，虛擬對等互連是與客戶現有 Azure 環境建立連接的首選方式。SAP VNet 和客戶 VNet 都受網路安全組 （NSG） 保護，從而通過 VNet 對等互連在 SAP 和資料庫埠上進行通信</t>
+          <t>若要防止數據洩露，請使用 Azure 專用連結安全地訪問平臺即服務資源，例如 Azure Blob 存儲、Azure 檔存儲、Azure Data Lake Storage Gen2、Azure 數據工廠等。Azure 專用終結點還可以幫助保護 VNet 與 Azure 存儲、Azure 備份等服務之間的流量。VNet 與啟用了專用終結點的服務之間的流量通過 Microsoft 全球網路傳輸，從而防止其暴露給公共 Internet。</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
@@ -5325,15 +5330,19 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
-        </is>
-      </c>
-      <c r="I96" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+        </is>
+      </c>
+      <c r="I96" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
+          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5344,17 +5353,17 @@
     <row r="97" ht="16.5" customHeight="1">
       <c r="A97" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>網路拓撲和連接</t>
         </is>
       </c>
       <c r="B97" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>分割</t>
         </is>
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>為 Azure 上的 SAP 分支訂閱自定義基於角色的訪問控制 （RBAC） 角色，以避免與網路相關的意外更改</t>
+          <t>請確保在 SAP 應用程式層和 DBMS 層中使用的 VM 上啟用了 Azure 加速網路。</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
@@ -5371,15 +5380,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I97" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+        </is>
+      </c>
+      <c r="I97" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5390,17 +5403,17 @@
     <row r="98" ht="16.5" customHeight="1">
       <c r="A98" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>網路拓撲和連接</t>
         </is>
       </c>
       <c r="B98" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>分割</t>
         </is>
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>將 DMZ 和 NVA 與 SAP 資產的其餘部分隔離開來，配置 Azure 專用連結，並安全地管理和控制 Azure 上的 SAP 資源</t>
+          <t>請確保將 Azure 負載均衡器的內部部署設置為使用直接伺服器返回 （DSR）。當內部負載平衡器配置用於 DBMS 層上的高可用性配置時，此設置將減少延遲。</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
@@ -5417,15 +5430,19 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I98" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
+        </is>
+      </c>
+      <c r="I98" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5436,17 +5453,17 @@
     <row r="99" ht="16.5" customHeight="1">
       <c r="A99" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>網路拓撲和連接</t>
         </is>
       </c>
       <c r="B99" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>分割</t>
         </is>
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>對於 SAP 資料庫伺服器加密，請使用 SAP HANA 本機加密技術。如果使用的是 Azure SQL 資料庫，請使用 DBMS 提供者提供的透明數據加密 （TDE） 來保護數據和日誌檔，並確保備份也已加密。</t>
+          <t>可以使用應用程式安全組 （ASG） 和 NSG 規則在 SAP 應用程式層和 DBMS 層之間定義網路安全存取控制清單。ASG 對虛擬機進行分組以説明管理其安全性。</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5463,15 +5480,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I99" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I99" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
+          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5482,23 +5503,23 @@
     <row r="100" ht="16.5" customHeight="1">
       <c r="A100" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>網路拓撲和連接</t>
         </is>
       </c>
       <c r="B100" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>分割</t>
         </is>
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>默認情況下，Azure 儲存加密處於啟用狀態</t>
+          <t>不支援將 SAP 應用程式層和 SAP DBMS 放置在未對等互連的不同 Azure VNet 中。</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5509,15 +5530,19 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I100" s="15" t="n"/>
+          <t>https://me.sap.com/notes/2015553</t>
+        </is>
+      </c>
+      <c r="I100" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+        </is>
+      </c>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
+          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5528,17 +5553,17 @@
     <row r="101" ht="16.5" customHeight="1">
       <c r="A101" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>網路拓撲和連接</t>
         </is>
       </c>
       <c r="B101" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>分割</t>
         </is>
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>為了實現 SAP 應用程式的最佳網路延遲，請考慮使用 Azure 鄰近放置組。</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
@@ -5555,15 +5580,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I101" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+        </is>
+      </c>
+      <c r="I101" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
+        </is>
+      </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5574,23 +5603,23 @@
     <row r="102" ht="16.5" customHeight="1">
       <c r="A102" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>網路拓撲和連接</t>
         </is>
       </c>
       <c r="B102" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>分割</t>
         </is>
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>完全不支援運行在本地和 Azure 之間拆分的 SAP 應用程式伺服器層和 DBMS 層。這兩個層都需要完全駐留在本地或 Azure 中。</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
       <c r="E102" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5601,15 +5630,19 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I102" s="15" t="n"/>
+          <t>https://me.sap.com/notes/2015553</t>
+        </is>
+      </c>
+      <c r="I102" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+        </is>
+      </c>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5620,17 +5653,17 @@
     <row r="103" ht="16.5" customHeight="1">
       <c r="A103" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>網路拓撲和連接</t>
         </is>
       </c>
       <c r="B103" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>分割</t>
         </is>
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Key Vault 儲存機密和憑據</t>
+          <t>不建議將 SAP 系統的資料庫管理系統 （DBMS） 和應用程式層託管在不同的 VNet 中，並將它們與 VNet 對等互連連接，因為層之間的過多網路流量可能會產生大量成本。建議使用 Azure 虛擬網路中的子網來分隔 SAP 應用程式層和 DBMS 層。</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
@@ -5647,15 +5680,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
-        </is>
-      </c>
-      <c r="I103" s="15" t="n"/>
+          <t>https://me.sap.com/notes/2015553</t>
+        </is>
+      </c>
+      <c r="I103" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+        </is>
+      </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
+          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5666,23 +5703,23 @@
     <row r="104" ht="16.5" customHeight="1">
       <c r="A104" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>網路拓撲和連接</t>
         </is>
       </c>
       <c r="B104" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>分割</t>
         </is>
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>建議在成功部署后鎖定 Azure 資源，以防止未經授權的更改</t>
+          <t>請確保在 SAP 應用程式層和 DBMS 層中使用的 VM 上啟用了 Azure 加速網路。</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5693,15 +5730,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
-        </is>
-      </c>
-      <c r="I104" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+        </is>
+      </c>
+      <c r="I104" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
+          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5712,23 +5753,23 @@
     <row r="105" ht="16.5" customHeight="1">
       <c r="A105" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>網路拓撲和連接</t>
         </is>
       </c>
       <c r="B105" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>分割</t>
         </is>
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>預配 Azure Key Vault 並啟用軟刪除和清除策略，以允許對已刪除物件進行保留保護。</t>
+          <t>如果在 Linux 客戶機作業系統中使用負載均衡器，請檢查 Linux 網路參數 net.ipv4.tcp_timestamps 是否設置為 0。</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
       <c r="E105" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5739,15 +5780,19 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I105" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
+        </is>
+      </c>
+      <c r="I105" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5758,17 +5803,17 @@
     <row r="106" ht="16.5" customHeight="1">
       <c r="A106" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>網路拓撲和連接</t>
         </is>
       </c>
       <c r="B106" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>分割</t>
         </is>
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>根據現有要求、法規和合規性控制（內部/外部） - 確定所需的 Azure 策略和 Azure RBAC 角色</t>
+          <t>對於 SAP RISE/ECS 部署，虛擬對等互連是與客戶現有 Azure 環境建立連接的首選方式。SAP VNet 和客戶 VNet 都受網路安全組 （NSG） 保護，從而通過 VNet 對等互連在 SAP 和資料庫埠上進行通信</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -5785,7 +5830,7 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
         </is>
       </c>
       <c r="I106" s="15" t="n"/>
@@ -5793,7 +5838,7 @@
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5809,12 +5854,12 @@
       </c>
       <c r="B107" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>啟用適用於 SAP 的 Microsoft Defender for Cloud Standard 時，請確保從安裝終結點保護的任何策略中排除 SAP 資料庫伺服器。</t>
+          <t>如果在 Azure、本地或其他雲環境中運行 Windows 和 Linux VM，則可以使用 Azure 自動化中的更新管理中心來管理作業系統更新，包括安全修補程式。</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5831,15 +5876,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I107" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
+        </is>
+      </c>
+      <c r="I107" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+        </is>
+      </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5855,12 +5904,12 @@
       </c>
       <c r="B108" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>委派具有即時訪問許可權的 SAP 管理員自定義角色。</t>
+          <t>請定期查看 SAP 安全 OSS 說明，因為 SAP 會發佈高度關鍵的安全補丁或熱修復程式，需要立即採取措施來保護 SAP 系統。</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
@@ -5877,15 +5926,19 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I108" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
+        </is>
+      </c>
+      <c r="I108" s="15" t="inlineStr">
+        <is>
+          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
+        </is>
+      </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5901,18 +5954,18 @@
       </c>
       <c r="B109" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>通過將第三方安全產品與用於 DIAG （SAP GUI）、RFC 和用於 HTTPS 的 SPNEGO 的安全網路通信 （SNC） 集成，對傳輸中的數據進行加密</t>
+          <t>對於 SQL Server 上的 SAP，可以禁用 SQL Server 系統管理員帳戶，因為 SQL Server 上的 SAP 系統不使用該帳戶。在禁用原始系統管理員帳戶之前，請確保具有系統管理員許可權的其他使用者可以訪問伺服器。</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
       <c r="E109" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5923,7 +5976,7 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="I109" s="15" t="n"/>
@@ -5931,7 +5984,7 @@
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -5947,18 +6000,18 @@
       </c>
       <c r="B110" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>具有 SAML 2.0 的 Azure Active Directory （Azure AD） 還可以為一系列 SAP 應用程式和平臺（如 SAP NetWeaver、SAP HANA 和 SAP Cloud Platform）提供 SSO</t>
+          <t>禁用xp_cmdshell。SQL Server 功能xp_cmdshell啟用 SQL Server 內部作業系統命令行介面。這是安全審計中的潛在風險。</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
       <c r="E110" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -5969,15 +6022,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I110" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
+        </is>
+      </c>
+      <c r="I110" s="15" t="inlineStr">
+        <is>
+          <t>https://me.sap.com/notes/3019299/E</t>
+        </is>
+      </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>55d04c3c-4919-4cb1-a3d1-325ae124ba34</t>
+          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -5998,13 +6055,13 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>請確保強化操作系統，以消除可能導致對 SAP 資料庫進行攻擊的漏洞。</t>
+          <t>在 Azrue 上加密 SAP HANA 資料庫伺服器使用 SAP HANA 原生加密技術。此外，如果在 Azure 上使用 SQL Server，請使用透明數據加密 （TDE） 來保護數據和日誌檔，並確保備份也已加密。</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6015,14 +6072,19 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>df685edd-ce9b-4d3b-a0cd-b3b55eb2ec14</t>
+          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6043,7 +6105,7 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>預設使用 Microsoft 管理的金鑰以實現主體加密功能，並在需要時使用客戶管理的金鑰。</t>
+          <t>已為所有 Azure 資源管理器和經典記憶體啟用 Azure 儲存加密，並且無法禁用。由於數據預設是加密的，因此無需修改代碼或應用程式即可使用 Azure 儲存加密。</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
@@ -6060,15 +6122,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I112" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
+        </is>
+      </c>
+      <c r="I112" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6089,13 +6155,13 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>每個應用程式、每個環境、每個區域使用 Azure Key Vault。</t>
+          <t>使用 Azure Key Vault 儲存機密和憑據</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
       <c r="E113" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -6106,15 +6172,19 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I113" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+        </is>
+      </c>
+      <c r="I113" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6135,7 +6205,7 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>建議在成功部署后鎖定 Azure 資源，以防止未經授權的更改。還可以使用自定義的 Azure 策略（自定義角色）在每個訂閱的基礎上強制實施 LOCK 約束和規則。</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
@@ -6152,15 +6222,19 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I114" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I114" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6171,17 +6245,17 @@
     <row r="115" ht="16.5" customHeight="1">
       <c r="A115" s="21" t="inlineStr">
         <is>
-          <t>存儲</t>
+          <t>安全性、治理與合規性</t>
         </is>
       </c>
       <c r="B115" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>適用於 Oracle、SQL、HANA 的磁碟配置</t>
+          <t>預配啟用軟刪除和清除策略的 Azure Key Vault，以允許對已刪除物件進行保留保護。</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
@@ -6196,12 +6270,21 @@
         </is>
       </c>
       <c r="G115" s="21" t="n"/>
-      <c r="H115" s="15" t="n"/>
+      <c r="H115" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>d579266b-cca2-475f-aa1a-bfe9d55d04c3</t>
+          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6210,262 +6293,787 @@
       <c r="P115" s="25" t="n"/>
     </row>
     <row r="116" ht="16.5" customHeight="1">
-      <c r="A116" s="21" t="n"/>
-      <c r="B116" s="21" t="n"/>
-      <c r="C116" s="21" t="n"/>
+      <c r="A116" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理與合規性</t>
+        </is>
+      </c>
+      <c r="B116" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C116" s="21" t="inlineStr">
+        <is>
+          <t>根據現有要求、法規和合規性控制（內部/外部） - 確定所需的 Azure 策略和 Azure RBAC 角色</t>
+        </is>
+      </c>
       <c r="D116" s="21" t="n"/>
-      <c r="E116" s="21" t="n"/>
+      <c r="E116" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G116" s="21" t="n"/>
-      <c r="H116" s="15" t="n"/>
+      <c r="H116" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
-      <c r="L116" s="25" t="n"/>
+      <c r="L116" s="25" t="inlineStr">
+        <is>
+          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+        </is>
+      </c>
       <c r="M116" s="25" t="n"/>
       <c r="N116" s="25" t="n"/>
       <c r="O116" s="25" t="n"/>
       <c r="P116" s="25" t="n"/>
     </row>
     <row r="117" ht="16.5" customHeight="1">
-      <c r="A117" s="21" t="n"/>
-      <c r="B117" s="21" t="n"/>
-      <c r="C117" s="21" t="n"/>
+      <c r="A117" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理與合規性</t>
+        </is>
+      </c>
+      <c r="B117" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C117" s="21" t="inlineStr">
+        <is>
+          <t>在 SAP 環境中啟用 Microsoft Defender for Endpoint 時，建議排除 DBMS 伺服器上的數據和日誌檔，而不是面向所有伺服器。在排除目標檔時，請遵循 DBMS 供應商的建議。</t>
+        </is>
+      </c>
       <c r="D117" s="21" t="n"/>
-      <c r="E117" s="21" t="n"/>
+      <c r="E117" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G117" s="21" t="n"/>
-      <c r="H117" s="15" t="n"/>
+      <c r="H117" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+        </is>
+      </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
-      <c r="L117" s="25" t="n"/>
+      <c r="L117" s="25" t="inlineStr">
+        <is>
+          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+        </is>
+      </c>
       <c r="M117" s="25" t="n"/>
       <c r="N117" s="25" t="n"/>
       <c r="O117" s="25" t="n"/>
       <c r="P117" s="25" t="n"/>
     </row>
     <row r="118" ht="16.5" customHeight="1">
-      <c r="A118" s="21" t="n"/>
-      <c r="B118" s="21" t="n"/>
-      <c r="C118" s="21" t="n"/>
+      <c r="A118" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理與合規性</t>
+        </is>
+      </c>
+      <c r="B118" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C118" s="21" t="inlineStr">
+        <is>
+          <t>委派具有 Microsoft Defender for Cloud 實時訪問許可權的 SAP 管理員自定義角色。</t>
+        </is>
+      </c>
       <c r="D118" s="21" t="n"/>
-      <c r="E118" s="21" t="n"/>
+      <c r="E118" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G118" s="21" t="n"/>
-      <c r="H118" s="15" t="n"/>
-      <c r="I118" s="15" t="n"/>
+      <c r="H118" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
+        </is>
+      </c>
+      <c r="I118" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
-      <c r="L118" s="25" t="n"/>
+      <c r="L118" s="25" t="inlineStr">
+        <is>
+          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+        </is>
+      </c>
       <c r="M118" s="25" t="n"/>
       <c r="N118" s="25" t="n"/>
       <c r="O118" s="25" t="n"/>
       <c r="P118" s="25" t="n"/>
     </row>
     <row r="119" ht="16.5" customHeight="1">
-      <c r="A119" s="21" t="n"/>
-      <c r="B119" s="21" t="n"/>
-      <c r="C119" s="21" t="n"/>
+      <c r="A119" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理與合規性</t>
+        </is>
+      </c>
+      <c r="B119" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C119" s="21" t="inlineStr">
+        <is>
+          <t>通過將第三方安全產品與用於 DIAG （SAP GUI）、RFC 和用於 HTTPS 的 SPNEGO 的安全網路通信 （SNC） 集成，對傳輸中的數據進行加密</t>
+        </is>
+      </c>
       <c r="D119" s="21" t="n"/>
-      <c r="E119" s="21" t="n"/>
+      <c r="E119" s="21" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G119" s="21" t="n"/>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
+        </is>
+      </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
-      <c r="L119" s="25" t="n"/>
+      <c r="L119" s="25" t="inlineStr">
+        <is>
+          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+        </is>
+      </c>
       <c r="M119" s="25" t="n"/>
       <c r="N119" s="25" t="n"/>
       <c r="O119" s="25" t="n"/>
       <c r="P119" s="25" t="n"/>
     </row>
     <row r="120" ht="16.5" customHeight="1">
-      <c r="A120" s="21" t="n"/>
-      <c r="B120" s="21" t="n"/>
-      <c r="C120" s="21" t="n"/>
+      <c r="A120" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理與合規性</t>
+        </is>
+      </c>
+      <c r="B120" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C120" s="21" t="inlineStr">
+        <is>
+          <t>預設使用 Microsoft 管理的金鑰以實現主體加密功能，並在需要時使用客戶管理的金鑰。</t>
+        </is>
+      </c>
       <c r="D120" s="21" t="n"/>
-      <c r="E120" s="21" t="n"/>
+      <c r="E120" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G120" s="21" t="n"/>
-      <c r="H120" s="15" t="n"/>
-      <c r="I120" s="15" t="n"/>
+      <c r="H120" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
+        </is>
+      </c>
+      <c r="I120" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
-      <c r="L120" s="25" t="n"/>
+      <c r="L120" s="25" t="inlineStr">
+        <is>
+          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+        </is>
+      </c>
       <c r="M120" s="25" t="n"/>
       <c r="N120" s="25" t="n"/>
       <c r="O120" s="25" t="n"/>
       <c r="P120" s="25" t="n"/>
     </row>
     <row r="121" ht="16.5" customHeight="1">
-      <c r="A121" s="21" t="n"/>
-      <c r="B121" s="21" t="n"/>
-      <c r="C121" s="21" t="n"/>
+      <c r="A121" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理與合規性</t>
+        </is>
+      </c>
+      <c r="B121" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C121" s="21" t="inlineStr">
+        <is>
+          <t>每個應用程式、每個環境、每個區域使用 Azure Key Vault。</t>
+        </is>
+      </c>
       <c r="D121" s="21" t="n"/>
-      <c r="E121" s="21" t="n"/>
+      <c r="E121" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G121" s="21" t="n"/>
-      <c r="H121" s="15" t="n"/>
-      <c r="I121" s="15" t="n"/>
+      <c r="H121" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
+      <c r="I121" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
-      <c r="L121" s="25" t="n"/>
+      <c r="L121" s="25" t="inlineStr">
+        <is>
+          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+        </is>
+      </c>
       <c r="M121" s="25" t="n"/>
       <c r="N121" s="25" t="n"/>
       <c r="O121" s="25" t="n"/>
       <c r="P121" s="25" t="n"/>
     </row>
     <row r="122" ht="16.5" customHeight="1">
-      <c r="A122" s="21" t="n"/>
-      <c r="B122" s="21" t="n"/>
-      <c r="C122" s="21" t="n"/>
+      <c r="A122" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理與合規性</t>
+        </is>
+      </c>
+      <c r="B122" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C122" s="21" t="inlineStr">
+        <is>
+          <t>若要控制和管理非 HANA Windows 和非 Windows 作業系統的磁碟加密密鑰和機密，請使用 Azure Key Vault。Azure Key Vault 不支援 SAP HANA，因此必須使用 SAP ABAP 或 SSH 密鑰等備用方法。</t>
+        </is>
+      </c>
       <c r="D122" s="21" t="n"/>
-      <c r="E122" s="21" t="n"/>
+      <c r="E122" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G122" s="21" t="n"/>
-      <c r="H122" s="15" t="n"/>
-      <c r="I122" s="15" t="n"/>
+      <c r="H122" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
+        </is>
+      </c>
+      <c r="I122" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
-      <c r="L122" s="25" t="n"/>
+      <c r="L122" s="25" t="inlineStr">
+        <is>
+          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+        </is>
+      </c>
       <c r="M122" s="25" t="n"/>
       <c r="N122" s="25" t="n"/>
       <c r="O122" s="25" t="n"/>
       <c r="P122" s="25" t="n"/>
     </row>
     <row r="123" ht="16.5" customHeight="1">
-      <c r="A123" s="21" t="n"/>
-      <c r="B123" s="21" t="n"/>
-      <c r="C123" s="21" t="n"/>
+      <c r="A123" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理與合規性</t>
+        </is>
+      </c>
+      <c r="B123" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C123" s="21" t="inlineStr">
+        <is>
+          <t>&amp;nbsp</t>
+        </is>
+      </c>
       <c r="D123" s="21" t="n"/>
-      <c r="E123" s="21" t="n"/>
+      <c r="E123" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G123" s="21" t="n"/>
-      <c r="H123" s="15" t="n"/>
+      <c r="H123" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I123" s="15" t="n"/>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
-      <c r="L123" s="25" t="n"/>
+      <c r="L123" s="25" t="inlineStr">
+        <is>
+          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+        </is>
+      </c>
       <c r="M123" s="25" t="n"/>
       <c r="N123" s="25" t="n"/>
       <c r="O123" s="25" t="n"/>
       <c r="P123" s="25" t="n"/>
     </row>
     <row r="124" ht="16.5" customHeight="1">
-      <c r="A124" s="21" t="n"/>
-      <c r="B124" s="21" t="n"/>
-      <c r="C124" s="21" t="n"/>
+      <c r="A124" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理與合規性</t>
+        </is>
+      </c>
+      <c r="B124" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C124" s="21" t="inlineStr">
+        <is>
+          <t>為 Azure 上的 SAP 分支訂閱自定義基於角色的訪問控制 （RBAC） 角色，以避免與網路相關的意外更改</t>
+        </is>
+      </c>
       <c r="D124" s="21" t="n"/>
-      <c r="E124" s="21" t="n"/>
+      <c r="E124" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G124" s="21" t="n"/>
-      <c r="H124" s="15" t="n"/>
-      <c r="I124" s="15" t="n"/>
+      <c r="H124" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+        </is>
+      </c>
+      <c r="I124" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
-      <c r="L124" s="25" t="n"/>
+      <c r="L124" s="25" t="inlineStr">
+        <is>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+        </is>
+      </c>
       <c r="M124" s="25" t="n"/>
       <c r="N124" s="25" t="n"/>
       <c r="O124" s="25" t="n"/>
       <c r="P124" s="25" t="n"/>
     </row>
     <row r="125" ht="16.5" customHeight="1">
-      <c r="A125" s="21" t="n"/>
-      <c r="B125" s="21" t="n"/>
-      <c r="C125" s="21" t="n"/>
+      <c r="A125" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理與合規性</t>
+        </is>
+      </c>
+      <c r="B125" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C125" s="21" t="inlineStr">
+        <is>
+          <t>將 DMZ 和 NVA 與 SAP 資產的其餘部分隔離開來，配置 Azure 專用連結，並安全地管理和控制 Azure 上的 SAP 資源</t>
+        </is>
+      </c>
       <c r="D125" s="21" t="n"/>
-      <c r="E125" s="21" t="n"/>
+      <c r="E125" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G125" s="21" t="n"/>
-      <c r="H125" s="15" t="n"/>
-      <c r="I125" s="15" t="n"/>
+      <c r="H125" s="15" t="inlineStr">
+        <is>
+          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+        </is>
+      </c>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
-      <c r="L125" s="25" t="n"/>
+      <c r="L125" s="25" t="inlineStr">
+        <is>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+        </is>
+      </c>
       <c r="M125" s="25" t="n"/>
       <c r="N125" s="25" t="n"/>
       <c r="O125" s="25" t="n"/>
       <c r="P125" s="25" t="n"/>
     </row>
     <row r="126" ht="16.5" customHeight="1">
-      <c r="A126" s="21" t="n"/>
-      <c r="B126" s="21" t="n"/>
-      <c r="C126" s="21" t="n"/>
+      <c r="A126" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理與合規性</t>
+        </is>
+      </c>
+      <c r="B126" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C126" s="21" t="inlineStr">
+        <is>
+          <t>請考慮在 Azure 上使用 Microsoft 反惡意軟體來保護虛擬機免受惡意檔、廣告軟體和其他威脅的侵害。</t>
+        </is>
+      </c>
       <c r="D126" s="21" t="n"/>
-      <c r="E126" s="21" t="n"/>
+      <c r="E126" s="21" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G126" s="21" t="n"/>
-      <c r="H126" s="15" t="n"/>
+      <c r="H126" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+        </is>
+      </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
-      <c r="L126" s="25" t="n"/>
+      <c r="L126" s="25" t="inlineStr">
+        <is>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+        </is>
+      </c>
       <c r="M126" s="25" t="n"/>
       <c r="N126" s="25" t="n"/>
       <c r="O126" s="25" t="n"/>
       <c r="P126" s="25" t="n"/>
     </row>
     <row r="127" ht="16.5" customHeight="1">
-      <c r="A127" s="21" t="n"/>
-      <c r="B127" s="21" t="n"/>
-      <c r="C127" s="21" t="n"/>
+      <c r="A127" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理與合規性</t>
+        </is>
+      </c>
+      <c r="B127" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C127" s="21" t="inlineStr">
+        <is>
+          <t>若要獲得更強大的保護，請考慮使用 Microsoft Defender for Endpoint。</t>
+        </is>
+      </c>
       <c r="D127" s="21" t="n"/>
-      <c r="E127" s="21" t="n"/>
+      <c r="E127" s="21" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G127" s="21" t="n"/>
-      <c r="H127" s="15" t="n"/>
+      <c r="H127" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
-      <c r="L127" s="25" t="n"/>
+      <c r="L127" s="25" t="inlineStr">
+        <is>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+        </is>
+      </c>
       <c r="M127" s="25" t="n"/>
       <c r="N127" s="25" t="n"/>
       <c r="O127" s="25" t="n"/>
       <c r="P127" s="25" t="n"/>
     </row>
     <row r="128" ht="16.5" customHeight="1">
-      <c r="A128" s="21" t="n"/>
-      <c r="B128" s="21" t="n"/>
-      <c r="C128" s="21" t="n"/>
+      <c r="A128" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理與合規性</t>
+        </is>
+      </c>
+      <c r="B128" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C128" s="21" t="inlineStr">
+        <is>
+          <t>通過將所有流量傳遞到中心虛擬網路（通過虛擬網路對等互連連接到分支網路），將 SAP 應用程式和資料庫伺服器與 Internet 或本地網路隔離開來。對等互連虛擬網路保證 Azure 上的 SAP 解決方案與公共 Internet 隔離。</t>
+        </is>
+      </c>
       <c r="D128" s="21" t="n"/>
-      <c r="E128" s="21" t="n"/>
+      <c r="E128" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G128" s="21" t="n"/>
-      <c r="H128" s="15" t="n"/>
+      <c r="H128" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
-      <c r="L128" s="25" t="n"/>
+      <c r="L128" s="25" t="inlineStr">
+        <is>
+          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+        </is>
+      </c>
       <c r="M128" s="25" t="n"/>
       <c r="N128" s="25" t="n"/>
       <c r="O128" s="25" t="n"/>
       <c r="P128" s="25" t="n"/>
     </row>
     <row r="129" ht="16.5" customHeight="1">
-      <c r="A129" s="21" t="n"/>
-      <c r="B129" s="21" t="n"/>
-      <c r="C129" s="21" t="n"/>
+      <c r="A129" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理與合規性</t>
+        </is>
+      </c>
+      <c r="B129" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C129" s="21" t="inlineStr">
+        <is>
+          <t>對於面向 Internet 的應用程式（如 SAP Fiori），請確保在保持安全級別的同時，按應用程式要求分配負載。對於第 7 層安全性，可以使用 Azure 市場中提供的第三方 Web 應用程式防火牆 （WAF）。</t>
+        </is>
+      </c>
       <c r="D129" s="21" t="n"/>
-      <c r="E129" s="21" t="n"/>
+      <c r="E129" s="21" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G129" s="21" t="n"/>
-      <c r="H129" s="15" t="n"/>
+      <c r="H129" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
-      <c r="L129" s="25" t="n"/>
+      <c r="L129" s="25" t="inlineStr">
+        <is>
+          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+        </is>
+      </c>
       <c r="M129" s="25" t="n"/>
       <c r="N129" s="25" t="n"/>
       <c r="O129" s="25" t="n"/>
       <c r="P129" s="25" t="n"/>
     </row>
     <row r="130" ht="16.5" customHeight="1">
-      <c r="A130" s="21" t="n"/>
-      <c r="B130" s="21" t="n"/>
-      <c r="C130" s="21" t="n"/>
+      <c r="A130" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理與合規性</t>
+        </is>
+      </c>
+      <c r="B130" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C130" s="21" t="inlineStr">
+        <is>
+          <t>若要在用於 SAP 解決方案的 Azure Monitor 中啟用安全通信，可以選擇使用根證書或伺服器證書。我們強烈建議您使用根證書。</t>
+        </is>
+      </c>
       <c r="D130" s="21" t="n"/>
-      <c r="E130" s="21" t="n"/>
+      <c r="E130" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G130" s="21" t="n"/>
-      <c r="H130" s="15" t="n"/>
+      <c r="H130" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
-      <c r="L130" s="25" t="n"/>
+      <c r="L130" s="25" t="inlineStr">
+        <is>
+          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+        </is>
+      </c>
       <c r="M130" s="25" t="n"/>
       <c r="N130" s="25" t="n"/>
       <c r="O130" s="25" t="n"/>
       <c r="P130" s="25" t="n"/>
     </row>
     <row r="131" ht="16.5" customHeight="1">
-      <c r="A131" s="21" t="n"/>
-      <c r="B131" s="21" t="n"/>
-      <c r="C131" s="21" t="n"/>
+      <c r="A131" s="21" t="inlineStr">
+        <is>
+          <t>存儲</t>
+        </is>
+      </c>
+      <c r="B131" s="21" t="inlineStr">
+        <is>
+          <t>&amp;nbsp</t>
+        </is>
+      </c>
+      <c r="C131" s="21" t="inlineStr">
+        <is>
+          <t>適用於 Oracle、SQL、HANA 的磁碟配置</t>
+        </is>
+      </c>
       <c r="D131" s="21" t="n"/>
-      <c r="E131" s="21" t="n"/>
+      <c r="E131" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="n"/>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
-      <c r="L131" s="25" t="n"/>
+      <c r="L131" s="25" t="inlineStr">
+        <is>
+          <t>d579266b-cca2-475f-aa1a-bfe9d55d04c3</t>
+        </is>
+      </c>
       <c r="M131" s="25" t="n"/>
       <c r="N131" s="25" t="n"/>
       <c r="O131" s="25" t="n"/>
@@ -9144,7 +9752,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F116" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F132" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/sap_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.zh-Hant.xlsx
@@ -5713,7 +5713,7 @@
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>請確保在 SAP 應用程式層和 DBMS 層中使用的 VM 上啟用了 Azure 加速網路。</t>
+          <t>如果在 Linux 客戶機作業系統中使用負載均衡器，請檢查 Linux 網路參數 net.ipv4.tcp_timestamps 是否設置為 0。</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
@@ -5730,19 +5730,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5763,13 +5763,13 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>如果在 Linux 客戶機作業系統中使用負載均衡器，請檢查 Linux 網路參數 net.ipv4.tcp_timestamps 是否設置為 0。</t>
+          <t>對於 SAP RISE/ECS 部署，虛擬對等互連是與客戶現有 Azure 環境建立連接的首選方式。SAP VNet 和客戶 VNet 都受網路安全組 （NSG） 保護，從而通過 VNet 對等互連在 SAP 和資料庫埠上進行通信</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
       <c r="E105" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5780,19 +5780,15 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
-        </is>
-      </c>
-      <c r="I105" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
+        </is>
+      </c>
+      <c r="I105" s="15" t="n"/>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
+          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5803,17 +5799,17 @@
     <row r="106" ht="16.5" customHeight="1">
       <c r="A106" s="21" t="inlineStr">
         <is>
-          <t>網路拓撲和連接</t>
+          <t>安全性、治理與合規性</t>
         </is>
       </c>
       <c r="B106" s="21" t="inlineStr">
         <is>
-          <t>分割</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>對於 SAP RISE/ECS 部署，虛擬對等互連是與客戶現有 Azure 環境建立連接的首選方式。SAP VNet 和客戶 VNet 都受網路安全組 （NSG） 保護，從而通過 VNet 對等互連在 SAP 和資料庫埠上進行通信</t>
+          <t>如果在 Azure、本地或其他雲環境中運行 Windows 和 Linux VM，則可以使用 Azure 自動化中的更新管理中心來管理作業系統更新，包括安全修補程式。</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -5830,15 +5826,19 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
-        </is>
-      </c>
-      <c r="I106" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
+        </is>
+      </c>
+      <c r="I106" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+        </is>
+      </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
+          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5859,7 +5859,7 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>如果在 Azure、本地或其他雲環境中運行 Windows 和 Linux VM，則可以使用 Azure 自動化中的更新管理中心來管理作業系統更新，包括安全修補程式。</t>
+          <t>請定期查看 SAP 安全 OSS 說明，因為 SAP 會發佈高度關鍵的安全補丁或熱修復程式，需要立即採取措施來保護 SAP 系統。</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5881,14 +5881,14 @@
       </c>
       <c r="I107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
         </is>
       </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
+          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5909,13 +5909,13 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>請定期查看 SAP 安全 OSS 說明，因為 SAP 會發佈高度關鍵的安全補丁或熱修復程式，需要立即採取措施來保護 SAP 系統。</t>
+          <t>對於 SQL Server 上的 SAP，可以禁用 SQL Server 系統管理員帳戶，因為 SQL Server 上的 SAP 系統不使用該帳戶。在禁用原始系統管理員帳戶之前，請確保具有系統管理員許可權的其他使用者可以訪問伺服器。</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
       <c r="E108" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5926,19 +5926,15 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
-        </is>
-      </c>
-      <c r="I108" s="15" t="inlineStr">
-        <is>
-          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
+        </is>
+      </c>
+      <c r="I108" s="15" t="n"/>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
+          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5959,13 +5955,13 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>對於 SQL Server 上的 SAP，可以禁用 SQL Server 系統管理員帳戶，因為 SQL Server 上的 SAP 系統不使用該帳戶。在禁用原始系統管理員帳戶之前，請確保具有系統管理員許可權的其他使用者可以訪問伺服器。</t>
+          <t>禁用xp_cmdshell。SQL Server 功能xp_cmdshell啟用 SQL Server 內部作業系統命令行介面。這是安全審計中的潛在風險。</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
       <c r="E109" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5979,12 +5975,16 @@
           <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
-      <c r="I109" s="15" t="n"/>
+      <c r="I109" s="15" t="inlineStr">
+        <is>
+          <t>https://me.sap.com/notes/3019299/E</t>
+        </is>
+      </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
+          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -6000,12 +6000,12 @@
       </c>
       <c r="B110" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>禁用xp_cmdshell。SQL Server 功能xp_cmdshell啟用 SQL Server 內部作業系統命令行介面。這是安全審計中的潛在風險。</t>
+          <t>在 Azrue 上加密 SAP HANA 資料庫伺服器使用 SAP HANA 原生加密技術。此外，如果在 Azure 上使用 SQL Server，請使用透明數據加密 （TDE） 來保護數據和日誌檔，並確保備份也已加密。</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -6022,19 +6022,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I110" s="15" t="inlineStr">
+        <is>
           <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
-        </is>
-      </c>
-      <c r="I110" s="15" t="inlineStr">
-        <is>
-          <t>https://me.sap.com/notes/3019299/E</t>
         </is>
       </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
+          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6055,13 +6055,13 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>在 Azrue 上加密 SAP HANA 資料庫伺服器使用 SAP HANA 原生加密技術。此外，如果在 Azure 上使用 SQL Server，請使用透明數據加密 （TDE） 來保護數據和日誌檔，並確保備份也已加密。</t>
+          <t>已為所有 Azure 資源管理器和經典記憶體啟用 Azure 儲存加密，並且無法禁用。由於數據預設是加密的，因此無需修改代碼或應用程式即可使用 Azure 儲存加密。</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6072,19 +6072,19 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
+          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
+          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6105,13 +6105,13 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>已為所有 Azure 資源管理器和經典記憶體啟用 Azure 儲存加密，並且無法禁用。由於數據預設是加密的，因此無需修改代碼或應用程式即可使用 Azure 儲存加密。</t>
+          <t>使用 Azure Key Vault 儲存機密和憑據</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
       <c r="E112" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -6122,19 +6122,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="I112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
+          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6155,13 +6155,13 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Key Vault 儲存機密和憑據</t>
+          <t>建議在成功部署后鎖定 Azure 資源，以防止未經授權的更改。還可以使用自定義的 Azure 策略（自定義角色）在每個訂閱的基礎上強制實施 LOCK 約束和規則。</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
       <c r="E113" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -6172,19 +6172,19 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
         </is>
       </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
+          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6205,7 +6205,7 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>建議在成功部署后鎖定 Azure 資源，以防止未經授權的更改。還可以使用自定義的 Azure 策略（自定義角色）在每個訂閱的基礎上強制實施 LOCK 約束和規則。</t>
+          <t>預配啟用軟刪除和清除策略的 Azure Key Vault，以允許對已刪除物件進行保留保護。</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
@@ -6222,19 +6222,19 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
         </is>
       </c>
       <c r="I114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
+          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6255,13 +6255,13 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>預配啟用軟刪除和清除策略的 Azure Key Vault，以允許對已刪除物件進行保留保護。</t>
+          <t>根據現有要求、法規和合規性控制（內部/外部） - 確定所需的 Azure 策略和 Azure RBAC 角色</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
       <c r="E115" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6272,19 +6272,19 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6305,7 +6305,7 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>根據現有要求、法規和合規性控制（內部/外部） - 確定所需的 Azure 策略和 Azure RBAC 角色</t>
+          <t>在 SAP 環境中啟用 Microsoft Defender for Endpoint 時，建議排除 DBMS 伺服器上的數據和日誌檔，而不是面向所有伺服器。在排除目標檔時，請遵循 DBMS 供應商的建議。</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6322,19 +6322,19 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6355,7 +6355,7 @@
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>在 SAP 環境中啟用 Microsoft Defender for Endpoint 時，建議排除 DBMS 伺服器上的數據和日誌檔，而不是面向所有伺服器。在排除目標檔時，請遵循 DBMS 供應商的建議。</t>
+          <t>委派具有 Microsoft Defender for Cloud 實時訪問許可權的 SAP 管理員自定義角色。</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
@@ -6372,19 +6372,19 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6405,13 +6405,13 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>委派具有 Microsoft Defender for Cloud 實時訪問許可權的 SAP 管理員自定義角色。</t>
+          <t>通過將第三方安全產品與用於 DIAG （SAP GUI）、RFC 和用於 HTTPS 的 SPNEGO 的安全網路通信 （SNC） 集成，對傳輸中的數據進行加密</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
       <c r="E118" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6422,19 +6422,19 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
         </is>
       </c>
       <c r="I118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
         </is>
       </c>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6455,13 +6455,13 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>通過將第三方安全產品與用於 DIAG （SAP GUI）、RFC 和用於 HTTPS 的 SPNEGO 的安全網路通信 （SNC） 集成，對傳輸中的數據進行加密</t>
+          <t>預設使用 Microsoft 管理的金鑰以實現主體加密功能，並在需要時使用客戶管理的金鑰。</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
       <c r="E119" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -6472,19 +6472,19 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6505,13 +6505,13 @@
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>預設使用 Microsoft 管理的金鑰以實現主體加密功能，並在需要時使用客戶管理的金鑰。</t>
+          <t>每個應用程式、每個環境、每個區域使用 Azure Key Vault。</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6522,7 +6522,7 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
+          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I120" s="15" t="inlineStr">
@@ -6534,7 +6534,7 @@
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6555,7 +6555,7 @@
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>每個應用程式、每個環境、每個區域使用 Azure Key Vault。</t>
+          <t>若要控制和管理非 HANA Windows 和非 Windows 作業系統的磁碟加密密鑰和機密，請使用 Azure Key Vault。Azure Key Vault 不支援 SAP HANA，因此必須使用 SAP ABAP 或 SSH 密鑰等備用方法。</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
@@ -6572,19 +6572,19 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
         </is>
       </c>
       <c r="I121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6605,13 +6605,13 @@
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>若要控制和管理非 HANA Windows 和非 Windows 作業系統的磁碟加密密鑰和機密，請使用 Azure Key Vault。Azure Key Vault 不支援 SAP HANA，因此必須使用 SAP ABAP 或 SSH 密鑰等備用方法。</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6622,19 +6622,15 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
-        </is>
-      </c>
-      <c r="I122" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
+      <c r="I122" s="15" t="n"/>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6650,18 +6646,18 @@
       </c>
       <c r="B123" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>為 Azure 上的 SAP 分支訂閱自定義基於角色的訪問控制 （RBAC） 角色，以避免與網路相關的意外更改</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
       <c r="E123" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -6672,15 +6668,19 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I123" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+        </is>
+      </c>
+      <c r="I123" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6701,7 +6701,7 @@
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>為 Azure 上的 SAP 分支訂閱自定義基於角色的訪問控制 （RBAC） 角色，以避免與網路相關的意外更改</t>
+          <t>將 DMZ 和 NVA 與 SAP 資產的其餘部分隔離開來，配置 Azure 專用連結，並安全地管理和控制 Azure 上的 SAP 資源</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
@@ -6718,19 +6718,19 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
         </is>
       </c>
       <c r="I124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
         </is>
       </c>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6751,13 +6751,13 @@
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>將 DMZ 和 NVA 與 SAP 資產的其餘部分隔離開來，配置 Azure 專用連結，並安全地管理和控制 Azure 上的 SAP 資源</t>
+          <t>請考慮在 Azure 上使用 Microsoft 反惡意軟體來保護虛擬機免受惡意檔、廣告軟體和其他威脅的侵害。</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
       <c r="E125" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -6768,19 +6768,19 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
+          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
         </is>
       </c>
       <c r="I125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
         </is>
       </c>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6801,7 +6801,7 @@
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>請考慮在 Azure 上使用 Microsoft 反惡意軟體來保護虛擬機免受惡意檔、廣告軟體和其他威脅的侵害。</t>
+          <t>若要獲得更強大的保護，請考慮使用 Microsoft Defender for Endpoint。</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
@@ -6818,19 +6818,19 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6851,13 +6851,13 @@
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>若要獲得更強大的保護，請考慮使用 Microsoft Defender for Endpoint。</t>
+          <t>通過將所有流量傳遞到中心虛擬網路（通過虛擬網路對等互連連接到分支網路），將 SAP 應用程式和資料庫伺服器與 Internet 或本地網路隔離開來。對等互連虛擬網路保證 Azure 上的 SAP 解決方案與公共 Internet 隔離。</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
       <c r="E127" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -6868,19 +6868,19 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6901,13 +6901,13 @@
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>通過將所有流量傳遞到中心虛擬網路（通過虛擬網路對等互連連接到分支網路），將 SAP 應用程式和資料庫伺服器與 Internet 或本地網路隔離開來。對等互連虛擬網路保證 Azure 上的 SAP 解決方案與公共 Internet 隔離。</t>
+          <t>對於面向 Internet 的應用程式（如 SAP Fiori），請確保在保持安全級別的同時，按應用程式要求分配負載。對於第 7 層安全性，可以使用 Azure 市場中提供的第三方 Web 應用程式防火牆 （WAF）。</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
       <c r="E128" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -6918,19 +6918,19 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6951,13 +6951,13 @@
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>對於面向 Internet 的應用程式（如 SAP Fiori），請確保在保持安全級別的同時，按應用程式要求分配負載。對於第 7 層安全性，可以使用 Azure 市場中提供的第三方 Web 應用程式防火牆 （WAF）。</t>
+          <t>若要在用於 SAP 解決方案的 Azure Monitor 中啟用安全通信，可以選擇使用根證書或伺服器證書。我們強烈建議您使用根證書。</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
       <c r="E129" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -6968,19 +6968,19 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6991,17 +6991,17 @@
     <row r="130" ht="16.5" customHeight="1">
       <c r="A130" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>存儲</t>
         </is>
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>若要在用於 SAP 解決方案的 Azure Monitor 中啟用安全通信，可以選擇使用根證書或伺服器證書。我們強烈建議您使用根證書。</t>
+          <t>適用於 Oracle、SQL、HANA 的磁碟配置</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
@@ -7016,21 +7016,12 @@
         </is>
       </c>
       <c r="G130" s="21" t="n"/>
-      <c r="H130" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
-        </is>
-      </c>
+      <c r="H130" s="15" t="n"/>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+          <t>d579266b-cca2-475f-aa1a-bfe9d55d04c3</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7039,41 +7030,16 @@
       <c r="P130" s="25" t="n"/>
     </row>
     <row r="131" ht="16.5" customHeight="1">
-      <c r="A131" s="21" t="inlineStr">
-        <is>
-          <t>存儲</t>
-        </is>
-      </c>
-      <c r="B131" s="21" t="inlineStr">
-        <is>
-          <t>&amp;nbsp</t>
-        </is>
-      </c>
-      <c r="C131" s="21" t="inlineStr">
-        <is>
-          <t>適用於 Oracle、SQL、HANA 的磁碟配置</t>
-        </is>
-      </c>
+      <c r="A131" s="21" t="n"/>
+      <c r="B131" s="21" t="n"/>
+      <c r="C131" s="21" t="n"/>
       <c r="D131" s="21" t="n"/>
-      <c r="E131" s="21" t="inlineStr">
-        <is>
-          <t>中等</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>未驗證</t>
-        </is>
-      </c>
+      <c r="E131" s="21" t="n"/>
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="n"/>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
-      <c r="L131" s="25" t="inlineStr">
-        <is>
-          <t>d579266b-cca2-475f-aa1a-bfe9d55d04c3</t>
-        </is>
-      </c>
+      <c r="L131" s="25" t="n"/>
       <c r="M131" s="25" t="n"/>
       <c r="N131" s="25" t="n"/>
       <c r="O131" s="25" t="n"/>
@@ -9752,7 +9718,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F132" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F131" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/sap_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.zh-Hant.xlsx
@@ -1059,17 +1059,17 @@
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="21" t="inlineStr">
         <is>
-          <t>業務連續性和災難恢復</t>
+          <t>自動化</t>
         </is>
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>ACSS公司</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Azure 目前不支援在同一 Linux Pacemaker 群集中組合 ASCS 和 db HA;將它們分成單獨的集群。但是，您最多可以將五個多個中心服務群集組合到一對 VM 中。</t>
+          <t>Azure SAP 解決方案中心 （ACSS） 是一種 Azure 產品/服務，可使 SAP 成為 Azure 上的頂級工作負載。ACSS 是一種端到端解決方案，可用於在 Azure 上將 SAP 系統作為統一工作負載創建和運行，併為創新提供更無縫的基礎。可以利用基於 Azure 的新 SAP 系統和現有 SAP 系統的管理功能。</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1086,15 +1086,19 @@
       <c r="G8" s="21" t="n"/>
       <c r="H8" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I8" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/center-sap-solutions/overview</t>
+        </is>
+      </c>
+      <c r="I8" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-center-sap-solutions/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J8" s="22" t="n"/>
       <c r="K8" s="22" t="n"/>
       <c r="L8" s="25" t="inlineStr">
         <is>
-          <t>80dc0591-cf65-4de8-b130-9cccd579266b</t>
+          <t>4620dc87-e948-4ce8-8426-f3e6e5d7bd85</t>
         </is>
       </c>
       <c r="M8" s="25" t="n"/>
@@ -1105,17 +1109,17 @@
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="21" t="inlineStr">
         <is>
-          <t>業務連續性和災難恢復</t>
+          <t>自動化</t>
         </is>
       </c>
       <c r="B9" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>SDAF公司</t>
         </is>
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>在 ASCS 和資料庫集群前面使用標準負載均衡器 SKU</t>
+          <t>Azure 支援在Linux和 Windows 中自動執行 SAP 部署。SAP Deployment Automation Framework 是一種開源編排工具，可以部署、安裝和維護 SAP 環境。</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1132,15 +1136,19 @@
       <c r="G9" s="21" t="n"/>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
-        </is>
-      </c>
-      <c r="I9" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-platform-automation-and-devops</t>
+        </is>
+      </c>
+      <c r="I9" s="15" t="inlineStr">
+        <is>
+          <t>https://github.com/Azure/sap-automation</t>
+        </is>
+      </c>
       <c r="J9" s="22" t="n"/>
       <c r="K9" s="22" t="n"/>
       <c r="L9" s="25" t="inlineStr">
         <is>
-          <t>cca275fa-a1ab-4fe9-b55d-04c3c4919cb1</t>
+          <t>5d75e99d-624d-4afe-91d9-e17adc580790</t>
         </is>
       </c>
       <c r="M9" s="25" t="n"/>
@@ -1156,12 +1164,12 @@
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>備份和還原</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>HA 對中的兩個 VM 都應部署在可用性集中，或者可用性區域應具有相同的大小和相同的存儲配置</t>
+          <t>在滿足 RTO 的任何時間點和時間範圍內對生產資料庫執行時間點恢復;時間點恢復通常包括操作員在DBMS層或通過SAP刪除數據時出現錯誤</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
@@ -1178,7 +1186,7 @@
       <c r="G10" s="21" t="n"/>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/itshowcase/implementing-a-zero-trust-security-model-at-microsoft</t>
+          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/data-platform</t>
         </is>
       </c>
       <c r="I10" s="15" t="n"/>
@@ -1186,7 +1194,7 @@
       <c r="K10" s="23" t="n"/>
       <c r="L10" s="25" t="inlineStr">
         <is>
-          <t>b3d1325a-e124-4ba3-9df6-85eddce9bd3b</t>
+          <t>d17f6f39-a377-48a2-931f-5ead3ebe33a8</t>
         </is>
       </c>
       <c r="M10" s="25" t="n"/>
@@ -1202,12 +1210,12 @@
       </c>
       <c r="B11" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>災難恢復</t>
         </is>
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>應使用本機資料庫複製技術來同步HA對中的資料庫。</t>
+          <t>測試備份和恢復時間，以驗證它們是否滿足在災難發生后同時還原所有系統的 RTO 要求。</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -1222,17 +1230,13 @@
         </is>
       </c>
       <c r="G11" s="21" t="n"/>
-      <c r="H11" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
-        </is>
-      </c>
+      <c r="H11" s="15" t="n"/>
       <c r="I11" s="15" t="n"/>
       <c r="J11" s="22" t="n"/>
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
         <is>
-          <t>b0cdb3b5-5eb2-4ec1-9eea-a3592829e2ed</t>
+          <t>c4b8e117-930b-4dbd-ae50-7bc5faf6f91a</t>
         </is>
       </c>
       <c r="M11" s="25" t="n"/>
@@ -1248,18 +1252,18 @@
       </c>
       <c r="B12" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>災難恢復</t>
         </is>
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>在滿足 RTO 的任何時間點和時間範圍內對生產資料庫執行時間點恢復;時間點恢復通常包括操作員在DBMS層或通過SAP刪除數據時出現錯誤</t>
+          <t>可以在配對區域之間複製標準存儲，但不能使用標準存儲來存儲資料庫或虛擬硬碟。您只能在使用的配對區域之間複製備份。對於所有其他數據，請使用本機 DBMS 功能（如 SQL Server Always On 或 SAP HANA 系統複製）運行複製。將 Site Recovery、rsync 或 robocopy 以及其他第三方軟體結合用於 SAP 應用程式層。</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
       <c r="E12" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1270,15 +1274,19 @@
       <c r="G12" s="21" t="n"/>
       <c r="H12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
-        </is>
-      </c>
-      <c r="I12" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+        </is>
+      </c>
+      <c r="I12" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/ensure-business-continuity-implement-disaster-recovery/</t>
+        </is>
+      </c>
       <c r="J12" s="22" t="n"/>
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>b2173676-aff6-4691-a493-5ada42223ece</t>
+          <t>b651423c-8552-42db-a545-5cb50c05527a</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1294,12 +1302,12 @@
       </c>
       <c r="B13" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>災難恢復</t>
         </is>
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>主虛擬網路 （VNet） 的 CIDR 不應與DR網站的 VNet 的 CIDR 衝突或重疊</t>
+          <t>使用 Azure 可用性區域實現高可用性時，必須考慮 SAP 應用程式伺服器和資料庫伺服器之間的延遲。對於具有高延遲的區域，需要制定操作過程，以確保 SAP 應用程式伺服器和資料庫伺服器始終在同一區域中運行。</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
@@ -1314,13 +1322,21 @@
         </is>
       </c>
       <c r="G13" s="21" t="n"/>
-      <c r="H13" s="15" t="n"/>
-      <c r="I13" s="15" t="n"/>
+      <c r="H13" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-zones</t>
+        </is>
+      </c>
+      <c r="I13" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-high-availability-for-sap-workloads-azure/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J13" s="22" t="n"/>
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>81b12318-1a54-4174-8583-3fb4ae3c2df7</t>
+          <t>aa208dca-784f-46c6-9014-cc919c542dc9</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1336,18 +1352,18 @@
       </c>
       <c r="B14" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>災難恢復</t>
         </is>
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>使用 Site Recovery 將應用程式伺服器複製到 DR 網站。Site Recovery 還有助於將中心服務群集 VM 複製到DR網站。調用DR時，需要在DR網站上重新配置Linux Pacemaker群集（例如，替換VIP或SBD、運行 corosync.conf 等）。</t>
+          <t>設置從本地到主要和次要 Azure 災難恢復區域的 ExpressRoute 連接。此外，作為使用 ExpressRoute 的替代方法，請考慮設置從本地到主要和次要 Azure 災難恢復區域的 VPN 連接。</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
       <c r="E14" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1356,13 +1372,21 @@
         </is>
       </c>
       <c r="G14" s="21" t="n"/>
-      <c r="H14" s="15" t="n"/>
-      <c r="I14" s="15" t="n"/>
+      <c r="H14" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering</t>
+        </is>
+      </c>
+      <c r="I14" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/expressroute/use-s2s-vpn-as-backup-for-expressroute-privatepeering</t>
+        </is>
+      </c>
       <c r="J14" s="22" t="n"/>
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>43165c3a-cbe0-45bb-b209-d490da477784</t>
+          <t>ba07c007-1f90-43e9-aa4f-601346b80352</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1378,18 +1402,18 @@
       </c>
       <c r="B15" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>災難恢復</t>
         </is>
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>應使用本機資料庫複製將數據同步到DR網站，而不是 Azure Site Recovery</t>
+          <t>跨區域複製金鑰保管庫內容（如證書、機密或金鑰），以便解密DR區域中的數據。</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
       <c r="E15" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1398,13 +1422,17 @@
         </is>
       </c>
       <c r="G15" s="21" t="n"/>
-      <c r="H15" s="15" t="n"/>
+      <c r="H15" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/disaster-recovery-guidance</t>
+        </is>
+      </c>
       <c r="I15" s="15" t="n"/>
       <c r="J15" s="22" t="n"/>
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>24d11678-5d2f-4a56-a56a-d48408fe7273</t>
+          <t>d2b30195-b11d-4a8f-a672-28b2b4169a7c</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1420,18 +1448,18 @@
       </c>
       <c r="B16" s="21" t="inlineStr">
         <is>
-          <t>高可用性</t>
+          <t>災難恢復</t>
         </is>
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>考慮針對單點故障的 SAP 軟體的可用性。這包括應用程式內的單點故障，例如 SAP NetWeaver 和 SAP S/4HANA 架構中使用的 DBMS、SAP ABAP 和 ASCS + SCS。此外，還有其他工具，例如 SAP Web Dispatcher。</t>
+          <t>對等互連主虛擬網路和災難恢復虛擬網路。例如，對於 HANA 系統複製，需要將 SAP HANA DB 虛擬網路與災難恢復網站的 SAP HANA DB 虛擬網路對等互連。</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
       <c r="E16" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1442,19 +1470,15 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/sap-high-availability-architecture-scenario</t>
-        </is>
-      </c>
-      <c r="I16" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-high-availability-for-sap-workloads-azure/2-explore-high-availability-disaster-recovery-support-azure-for-sap-workloads?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-s4hana</t>
+        </is>
+      </c>
+      <c r="I16" s="15" t="n"/>
       <c r="J16" s="22" t="n"/>
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>8300cb30-766b-4084-b126-0dd8fb1269a1</t>
+          <t>05f1101d-250f-40e7-b2a1-b674ab50edbd</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1470,18 +1494,18 @@
       </c>
       <c r="B17" s="21" t="inlineStr">
         <is>
-          <t>高可用性</t>
+          <t>災難恢復</t>
         </is>
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>對於 SAP 和 SAP 資料庫，請考慮實現自動故障轉移群集。在 Windows 中，Windows Server 故障轉移群集支援故障轉移。在 Linux 中，Linux Pacemaker 或第三方工具（如 SIOS Protection Suite 和 Veritas InfoScale）支援故障轉移。</t>
+          <t>如果將 Azure NetApp 檔案儲存用於 SAP 部署，則至少在兩個區域的高級層中創建兩個 Azure NetApp 檔帳戶。</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
       <c r="E17" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1492,19 +1516,19 @@
       <c r="G17" s="21" t="n"/>
       <c r="H17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/planning-supported-configurations</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-service-levels</t>
         </is>
       </c>
       <c r="I17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/choose-service-level-azure-netapp-files-hpc-applications/2-identify-decision-criteria</t>
         </is>
       </c>
       <c r="J17" s="22" t="n"/>
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>56402f11-ccbe-42c3-a2f6-c6f6f38ab579</t>
+          <t>d3351bf7-628a-46de-917d-dfc11d3b6b40</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1520,12 +1544,12 @@
       </c>
       <c r="B18" s="21" t="inlineStr">
         <is>
-          <t>高可用性</t>
+          <t>災難恢復</t>
         </is>
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Azure 不支援主 VM 和輔助 VM 共用 DBMS 數據存儲的體系結構。對於 DBMS 層，常見的體系結構模式是同時複製資料庫，並使用與主 VM 和輔助 VM 使用的儲存堆疊不同的儲存堆疊。</t>
+          <t>應使用本機資料庫複製技術來同步HA對中的資料庫。</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1547,14 +1571,14 @@
       </c>
       <c r="I18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/ensure-business-continuity-implement-disaster-recovery/?source=recommendationshttps%3A%2F%2Flearn.microsoft.com%2Fja-jp%2Ftraining%2Fpaths%2Fensure-business-continuity-implement-disaster-recovery%2F%3Fsource%3Drecommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-disaster-recovery-for-sap-workloads-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J18" s="22" t="n"/>
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>afae6bec-2671-49ae-bc69-140b8ec8d320</t>
+          <t>726a1d3e-5508-4a06-9d54-93f4b50040c1</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1570,12 +1594,12 @@
       </c>
       <c r="B19" s="21" t="inlineStr">
         <is>
-          <t>高可用性</t>
+          <t>災難恢復</t>
         </is>
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>DBMS 數據和事務/重做日誌檔存儲在 Azure 支援的塊存儲或 Azure NetApp 檔中。不支援將 Azure 檔案儲存或 Azure 高級檔儲存作為 SAP 工作負載的 DBMS 資料和/或重做日誌檔的存儲。</t>
+          <t>主虛擬網路 （VNet） 的 CIDR 不應與DR網站的 VNet 的 CIDR 衝突或重疊</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
@@ -1592,19 +1616,19 @@
       <c r="G19" s="21" t="n"/>
       <c r="H19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/dbms-guide-general</t>
+          <t>https://learn.microsoft.com/ja-jp/azure/virtual-network/virtual-networks-faq</t>
         </is>
       </c>
       <c r="I19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-databases/2-explore-database-support-azure-for-sap-workloads</t>
+          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
         </is>
       </c>
       <c r="J19" s="22" t="n"/>
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>ac614e95-6767-4bc3-b8a4-9953533da6ba</t>
+          <t>6561f847-3db5-4ff8-9200-5ad3c3b436ad</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1620,12 +1644,12 @@
       </c>
       <c r="B20" s="21" t="inlineStr">
         <is>
-          <t>高可用性</t>
+          <t>災難恢復</t>
         </is>
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>可以在 Windows 中將 Azure 共用磁碟用於 ASCS + SCS 元件和特定的高可用性方案。為 SAP 應用程式層元件和 DBMS 層單獨設置故障轉移群集。Azure 目前不支援將 SAP 應用程式層元件和 DBMS 層合併到一個故障轉移群集中的高可用性體系結構。</t>
+          <t>使用 Site Recovery 將應用程式伺服器複製到 DR 網站。Site Recovery 還有助於將中心服務群集 VM 複製到DR網站。調用DR時，需要在DR網站上重新配置Linux Pacemaker群集（例如，替換VIP或SBD、運行 corosync.conf 等）。</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
@@ -1640,21 +1664,17 @@
         </is>
       </c>
       <c r="G20" s="21" t="n"/>
-      <c r="H20" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/sap-high-availability-guide-wsfc-shared-disk</t>
-        </is>
-      </c>
+      <c r="H20" s="15" t="n"/>
       <c r="I20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/ensure-business-continuity-implement-disaster-recovery/</t>
         </is>
       </c>
       <c r="J20" s="22" t="n"/>
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>1f737179-8e7f-4e1a-a30c-e5a649a3092b</t>
+          <t>0258ed30-fe42-434f-87b9-58f91f908e0a</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1675,7 +1695,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>SAP 應用程式層元件 （ASCS） 和 DBMS 層的大多數故障轉移群集都需要故障轉移群集的虛擬 IP 位址。 對於所有其他情況，Azure 負載均衡器應處理虛擬IP位址。一個設計原則是每個群集配置使用一個負載均衡器。建議使用負載均衡器的標準版本（標準負載均衡器 SKU）。</t>
+          <t>考慮針對單點故障的 SAP 軟體的可用性。這包括應用程式內的單點故障，例如 SAP NetWeaver 和 SAP S/4HANA 架構中使用的 DBMS、SAP ABAP 和 ASCS + SCS。此外，還有其他工具，例如 SAP Web Dispatcher。</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1692,19 +1712,19 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-standard-load-balancer-outbound-connections</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/sap-high-availability-architecture-scenario</t>
         </is>
       </c>
       <c r="I21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-high-availability-for-sap-workloads-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-high-availability-for-sap-workloads-azure/2-explore-high-availability-disaster-recovery-support-azure-for-sap-workloads?source=recommendations</t>
         </is>
       </c>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>a78b3d31-3170-44f2-b5d7-651a29f4ccf5</t>
+          <t>8300cb30-766b-4084-b126-0dd8fb1269a1</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1725,7 +1745,7 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>確保在負載均衡器上啟用了浮動IP</t>
+          <t>對於 SAP 和 SAP 資料庫，請考慮實現自動故障轉移群集。在 Windows 中，Windows Server 故障轉移群集支援故障轉移。在 Linux 中，Linux Pacemaker 或第三方工具（如 SIOS Protection Suite 和 Veritas InfoScale）支援故障轉移。</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
@@ -1742,19 +1762,19 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-ha-ports-overview?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-supported-configurations</t>
         </is>
       </c>
       <c r="I22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J22" s="22" t="n"/>
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>1a541741-5833-4fb4-ae3c-2df743165c3a</t>
+          <t>56402f11-ccbe-42c3-a2f6-c6f6f38ab579</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1775,7 +1795,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>在部署高可用性基礎結構之前，根據所選區域，確定是使用 Azure 可用性集還是可用性區域進行部署。</t>
+          <t>Azure 不支援主 VM 和輔助 VM 共用 DBMS 數據存儲的體系結構。對於 DBMS 層，常見的體系結構模式是同時複製資料庫，並使用與主 VM 和輔助 VM 使用的儲存堆疊不同的儲存堆疊。</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1792,19 +1812,19 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/disaster-recovery-sap-guide?tabs=windows</t>
         </is>
       </c>
       <c r="I23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-availability/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/ensure-business-continuity-implement-disaster-recovery/?source=recommendationshttps%3A%2F%2Flearn.microsoft.com%2Fja-jp%2Ftraining%2Fpaths%2Fensure-business-continuity-implement-disaster-recovery%2F%3Fsource%3Drecommendations</t>
         </is>
       </c>
       <c r="J23" s="22" t="n"/>
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>c47cc4f3-f105-452c-845e-9b307b3856c1</t>
+          <t>afae6bec-2671-49ae-bc69-140b8ec8d320</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1825,7 +1845,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>如果要滿足 SAP 元件（中央服務、應用程式伺服器和資料庫）應用程式的基礎結構 SLA，則必須為所有元件選擇相同的高可用性選項（VM、可用性集、可用性區域）。</t>
+          <t>DBMS 數據和事務/重做日誌檔存儲在 Azure 支援的塊存儲或 Azure NetApp 檔中。不支援將 Azure 檔案儲存或 Azure 高級檔儲存作為 SAP 工作負載的 DBMS 資料和/或重做日誌檔的存儲。</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1842,15 +1862,19 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/licensing/docs/view/Service-Level-Agreements-SLA-for-Online-Services?lang=1</t>
-        </is>
-      </c>
-      <c r="I24" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/dbms-guide-general</t>
+        </is>
+      </c>
+      <c r="I24" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-databases/2-explore-database-support-azure-for-sap-workloads</t>
+        </is>
+      </c>
       <c r="J24" s="22" t="n"/>
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>844f69c3-07e5-4ec1-bff7-4be27bcf5fea</t>
+          <t>ac614e95-6767-4bc3-b8a4-9953533da6ba</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1871,7 +1895,7 @@
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>不要在同一可用性集中混合使用不同角色的伺服器。將中央服務 VM、資料庫 VM、應用程式 VM 保留在其自己的可用性集中</t>
+          <t>可以在 Windows 中將 Azure 共用磁碟用於 ASCS + SCS 元件和特定的高可用性方案。為 SAP 應用程式層元件和 DBMS 層單獨設置故障轉移群集。Azure 目前不支援將 SAP 應用程式層元件和 DBMS 層合併到一個故障轉移群集中的高可用性體系結構。</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1888,19 +1912,19 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability-set-overview</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/sap-high-availability-guide-wsfc-shared-disk</t>
         </is>
       </c>
       <c r="I25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-availability/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J25" s="22" t="n"/>
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>cbe05bbe-209d-4490-ba47-778424d11678</t>
+          <t>1f737179-8e7f-4e1a-a30c-e5a649a3092b</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1921,13 +1945,13 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>除非使用鄰近放置組，否則無法在 Azure 可用性區域中部署 Azure 可用性集。</t>
+          <t>SAP 應用程式層元件 （ASCS） 和 DBMS 層的大多數故障轉移群集都需要故障轉移群集的虛擬 IP 位址。 對於所有其他情況，Azure 負載均衡器應處理虛擬IP位址。一個設計原則是每個群集配置使用一個負載均衡器。建議使用負載均衡器的標準版本（標準負載均衡器 SKU）。</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
       <c r="E26" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1938,19 +1962,19 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/co-location</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-standard-load-balancer-outbound-connections</t>
         </is>
       </c>
       <c r="I26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+          <t>https://learn.microsoft.com/training/modules/implement-high-availability-for-sap-workloads-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J26" s="22" t="n"/>
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>f2201000-d045-40a6-a79a-d7cdc01b4d86</t>
+          <t>a78b3d31-3170-44f2-b5d7-651a29f4ccf5</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1971,7 +1995,7 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>創建可用性集時，請使用可用的容錯域和更新域的最大數量。例如，如果在一個可用性集中部署兩個以上的 VM，則除了 Azure 計劃內維護外，還要使用最大數量的容錯域（三個）和足夠的更新域來限制潛在的物理硬體故障、網路中斷或電源中斷的影響。容錯域的預設數量為 2，以後無法連線更改。</t>
+          <t>確保在負載均衡器上啟用了浮動IP</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
@@ -1988,19 +2012,19 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability-set-overview</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-ha-ports-overview?source=recommendations</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-availability/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>9674e7c7-7796-4181-8920-09f4429543ba</t>
+          <t>1a541741-5833-4fb4-ae3c-2df743165c3a</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -2021,7 +2045,7 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>在可用性集部署中使用 Azure 鄰近放置組時，所有三個 SAP 元件（中央服務、應用程式伺服器和資料庫）都應位於同一鄰近放置組中。</t>
+          <t>在部署高可用性基礎結構之前，根據所選區域，確定是使用 Azure 可用性集還是可用性區域進行部署。</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2038,14 +2062,19 @@
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-availability/?source=recommendations</t>
         </is>
       </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>ae4ecb95-b70f-428f-8b9a-4c5b7e3478a2</t>
+          <t>c47cc4f3-f105-452c-845e-9b307b3856c1</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2066,7 +2095,7 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>每個 SAP SID 使用一個鄰近放置組。組不跨可用性區域或 Azure 區域</t>
+          <t>如果要滿足 SAP 元件（中央服務、應用程式伺服器和資料庫）應用程式的基礎結構 SLA，則必須為所有元件選擇相同的高可用性選項（VM、可用性集、可用性區域）。</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2083,14 +2112,14 @@
       <c r="G29" s="21" t="n"/>
       <c r="H29" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+          <t>https://www.microsoft.com/licensing/docs/view/Service-Level-Agreements-SLA-for-Online-Services?lang=1</t>
         </is>
       </c>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>5d2fa56c-56ad-4484-88fe-72734c486ba2</t>
+          <t>844f69c3-07e5-4ec1-bff7-4be27bcf5fea</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2101,23 +2130,23 @@
     <row r="30" ht="16.5" customHeight="1">
       <c r="A30" s="21" t="inlineStr">
         <is>
-          <t>計算</t>
+          <t>業務連續性和災難恢復</t>
         </is>
       </c>
       <c r="B30" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>為正確的 VM SKU 和區域發出配額請求</t>
+          <t>不要在同一可用性集中混合使用不同角色的伺服器。將中央服務 VM、資料庫 VM、應用程式 VM 保留在其自己的可用性集中</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
       <c r="E30" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2126,12 +2155,21 @@
         </is>
       </c>
       <c r="G30" s="21" t="n"/>
-      <c r="H30" s="15" t="n"/>
+      <c r="H30" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability-set-overview</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-availability/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>2829e2ed-b217-4367-9aff-6691b4935ada</t>
+          <t>cbe05bbe-209d-4490-ba47-778424d11678</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2142,23 +2180,23 @@
     <row r="31" ht="16.5" customHeight="1">
       <c r="A31" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>業務連續性和災難恢復</t>
         </is>
       </c>
       <c r="B31" s="21" t="inlineStr">
         <is>
-          <t>身份</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>為管理組、訂閱、資源組和資源強制實施 RBAC 模型</t>
+          <t>除非使用鄰近放置組，否則無法在 Azure 可用性區域中部署 Azure 可用性集。</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
       <c r="E31" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2169,19 +2207,19 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/co-location</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
+          <t>f2201000-d045-40a6-a79a-d7cdc01b4d86</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2192,23 +2230,23 @@
     <row r="32" ht="16.5" customHeight="1">
       <c r="A32" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>業務連續性和災難恢復</t>
         </is>
       </c>
       <c r="B32" s="21" t="inlineStr">
         <is>
-          <t>身份</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>強制實施原則傳播，以便通過雲連接器將標識從 SAP 雲應用程式轉發到 SAP 本地（包括 IaaS）</t>
+          <t>創建可用性集時，請使用可用的容錯域和更新域的最大數量。例如，如果在一個可用性集中部署兩個以上的 VM，則除了 Azure 計劃內維護外，還要使用最大數量的容錯域（三個）和足夠的更新域來限制潛在的物理硬體故障、網路中斷或電源中斷的影響。容錯域的預設數量為 2，以後無法連線更改。</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
       <c r="E32" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2219,19 +2257,19 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability-set-overview</t>
         </is>
       </c>
       <c r="I32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
+          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-availability/?source=recommendations</t>
         </is>
       </c>
       <c r="J32" s="22" t="n"/>
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>45911475-e39e-4530-accc-d979366bcda2</t>
+          <t>9674e7c7-7796-4181-8920-09f4429543ba</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2242,23 +2280,23 @@
     <row r="33" ht="16.5" customHeight="1">
       <c r="A33" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>業務連續性和災難恢復</t>
         </is>
       </c>
       <c r="B33" s="21" t="inlineStr">
         <is>
-          <t>身份</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>使用 SAML 通過 Azure AD 實現對 SAP SaaS 應用程式（如 SAP Analytics Cloud、SAP Cloud Platform、Business by design、SAP Qualtrics 和 SAP C4C）的 SSO。</t>
+          <t>在可用性集部署中使用 Azure 鄰近放置組時，所有三個 SAP 元件（中央服務、應用程式伺服器和資料庫）都應位於同一鄰近放置組中。</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
       <c r="E33" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2269,7 +2307,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2277,7 +2315,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
+          <t>ae4ecb95-b70f-428f-8b9a-4c5b7e3478a2</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2288,23 +2326,23 @@
     <row r="34" ht="16.5" customHeight="1">
       <c r="A34" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>業務連續性和災難恢復</t>
         </is>
       </c>
       <c r="B34" s="21" t="inlineStr">
         <is>
-          <t>身份</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>使用 SAML 實現對基於 SAP NetWeaver 的 Web 應用程式（如 SAP Fiori 和 SAP Web GUI）的 SSO。</t>
+          <t>每個 SAP SID 使用一個鄰近放置組。組不跨可用性區域或 Azure 區域</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
       <c r="E34" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2315,19 +2353,15 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
-        </is>
-      </c>
-      <c r="I34" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+        </is>
+      </c>
+      <c r="I34" s="15" t="n"/>
       <c r="J34" s="22" t="n"/>
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
+          <t>5d2fa56c-56ad-4484-88fe-72734c486ba2</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2338,23 +2372,23 @@
     <row r="35" ht="16.5" customHeight="1">
       <c r="A35" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>業務連續性和災難恢復</t>
         </is>
       </c>
       <c r="B35" s="21" t="inlineStr">
         <is>
-          <t>身份</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>使用 SAML 實現對基於 SAP NetWeaver 的 Web 應用程式（如 SAP Fiori 和 SAP Web GUI）的 SSO。</t>
+          <t>使用以下服務之一運行 SAP 中心服務群集，具體取決於作業系統。</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
       <c r="E35" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2363,17 +2397,21 @@
         </is>
       </c>
       <c r="G35" s="21" t="n"/>
-      <c r="H35" s="15" t="n"/>
+      <c r="H35" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-business-continuity-and-disaster-recovery</t>
+        </is>
+      </c>
       <c r="I35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J35" s="22" t="n"/>
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
+          <t>bca3b10e-0ff5-4aec-ac16-4c4bd1a1c13f</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2384,17 +2422,17 @@
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>業務連續性和災難恢復</t>
         </is>
       </c>
       <c r="B36" s="21" t="inlineStr">
         <is>
-          <t>身份</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>可以使用 SAP NetWeaver SSO 或合作夥伴解決方案實現到 SAP GUI 的 SSO。</t>
+          <t>Azure 目前不支援在同一 Linux Pacemaker 群集中組合 ASCS 和 DB HA;將它們分成單獨的集群。但是，您最多可以將五個多個中心服務群集組合到一對 VM 中。</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2411,19 +2449,19 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-suse-multi-sid</t>
         </is>
       </c>
       <c r="I36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J36" s="22" t="n"/>
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
+          <t>ed46b937-913e-4018-9c62-8393ab037e53</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2434,17 +2472,17 @@
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>業務連續性和災難恢復</t>
         </is>
       </c>
       <c r="B37" s="21" t="inlineStr">
         <is>
-          <t>身份</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>對於 SAP GUI 和 Web 瀏覽器存取的 SSO，請實施 SNC – Kerberos/SPNEGO（簡單且受保護的 GSSAPI 協商機制），因為它易於配置和維護。對於使用 X.509 用戶端證書的 SSO，請考慮使用 SAP 安全登錄伺服器，它是 SAP SSO 解決方案的一個元件。</t>
+          <t>在可用性集或可用性區域中的高可用性對中部署這兩個 VM。這些 VM 的大小應相同，並且具有相同的存儲配置。</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
@@ -2459,17 +2497,17 @@
         </is>
       </c>
       <c r="G37" s="21" t="n"/>
-      <c r="H37" s="15" t="n"/>
-      <c r="I37" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
-        </is>
-      </c>
+      <c r="H37" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-business-continuity-and-disaster-recovery</t>
+        </is>
+      </c>
+      <c r="I37" s="15" t="n"/>
       <c r="J37" s="22" t="n"/>
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
+          <t>f656e745-0cfb-453e-8008-0528fa21c933</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2480,17 +2518,17 @@
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>業務連續性和災難恢復</t>
         </is>
       </c>
       <c r="B38" s="21" t="inlineStr">
         <is>
-          <t>身份</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>對於 SAP GUI 和 Web 瀏覽器存取的 SSO，請實施 SNC – Kerberos/SPNEGO（簡單且受保護的 GSSAPI 協商機制），因為它易於配置和維護。對於使用 X.509 用戶端證書的 SSO，請考慮使用 SAP 安全登錄伺服器，它是 SAP SSO 解決方案的一個元件。</t>
+          <t>Azure 支援在 Red Hat Enterprise Linux （RHEL） 上運行的同一高可用性群集上安裝和配置 SAP HANA 以及 ASCS/SCS 和 ERS 實例。</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
@@ -2507,15 +2545,19 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://blogs.sap.com/2017/07/12/sap-single-sign-on-protect-your-sap-landscape-with-x.509-certificates/</t>
-        </is>
-      </c>
-      <c r="I38" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-with-hana-ascs-ers-dialog-instance</t>
+        </is>
+      </c>
+      <c r="I38" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J38" s="22" t="n"/>
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
+          <t>7f684ebc-95da-425e-b329-e782dbed050f</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2526,23 +2568,23 @@
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>業務連續性和災難恢復</t>
         </is>
       </c>
       <c r="B39" s="21" t="inlineStr">
         <is>
-          <t>身份</t>
+          <t>存儲</t>
         </is>
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>使用 SAP NetWeaver 的 OAuth 實現 SSO，以允許第三方或自定義應用程式訪問 SAP NetWeaver OData 服務。</t>
+          <t>在高級託管 SSD 上運行所有生產系統，並使用 Azure NetApp 檔或超級磁碟存儲。至少OS磁碟應位於高級層，以便實現更好的性能和最佳SLA。</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2553,15 +2595,19 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
-        </is>
-      </c>
-      <c r="I39" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide-storage</t>
+        </is>
+      </c>
+      <c r="I39" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
+          <t>07991f7d-6598-4d90-9431-45c62605d3a5</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2572,23 +2618,23 @@
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>業務連續性和災難恢復</t>
         </is>
       </c>
       <c r="B40" s="21" t="inlineStr">
         <is>
-          <t>身份</t>
+          <t>存儲</t>
         </is>
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>實現SAP HANA的 SSO</t>
+          <t>應僅在 SAP 認證的存儲類型上運行 Azure 上的 SAP HANA。請注意，某些卷必須在某些磁碟配置上運行（如果適用）。這些配置包括啟用寫入加速器和使用高級存儲。您還需要確保在儲存上運行的檔案系統與計算機上運行的 DBMS 相容。</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
       <c r="E40" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2599,15 +2645,19 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
-        </is>
-      </c>
-      <c r="I40" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/hana-vm-operations-storage</t>
+        </is>
+      </c>
+      <c r="I40" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/workloads/hana-vm-premium-ssd-v1?source=recommendations</t>
+        </is>
+      </c>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
+          <t>73cdaecc-7d74-48d8-a040-88416eebc98c</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2618,23 +2668,23 @@
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>業務連續性和災難恢復</t>
         </is>
       </c>
       <c r="B41" s="21" t="inlineStr">
         <is>
-          <t>身份</t>
+          <t>存儲</t>
         </is>
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>將 Azure AD 視為 RISE 上託管的 SAP 系統的標識提供者。有關詳細資訊，請參閱將服務與 Azure AD 集成。</t>
+          <t>請考慮根據用於 SAP 工作負載的儲存類型來配置高可用性。Azure Site Recovery 不支援 Azure 中提供的某些存儲服務，因此高可用性配置可能會有所不同。</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2645,15 +2695,19 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
-        </is>
-      </c>
-      <c r="I41" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/disaster-recovery-overview-guide#storage</t>
+        </is>
+      </c>
+      <c r="I41" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-disaster-recovery-for-sap-workloads-azure/2-explore-disaster-recovery-sap-workloads</t>
+        </is>
+      </c>
       <c r="J41" s="22" t="n"/>
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
+          <t>51904867-a70e-4fa0-b4ff-3e6292846d7c</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2664,23 +2718,23 @@
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>業務連續性和災難恢復</t>
         </is>
       </c>
       <c r="B42" s="21" t="inlineStr">
         <is>
-          <t>身份</t>
+          <t>存儲</t>
         </is>
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>對於訪問 SAP 的應用程式，可能需要使用主體傳播來建立 SSO。</t>
+          <t>不同的本機 Azure 儲存服務（如 Azure 檔存儲、Azure NetApp 檔、Azure 共用磁碟）可能並非在所有區域都可用。因此，若要在故障轉移后在DR區域上進行類似的SAP設置，請確保在DR網站中提供相應的存儲服務。</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2691,7 +2745,7 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/azuredevcollege/SAP/blob/master/sap-oauth-saml-flow/README.md</t>
+          <t>https://azure.microsoft.com/ja-jp/explore/global-infrastructure/products-by-region/</t>
         </is>
       </c>
       <c r="I42" s="15" t="n"/>
@@ -2699,7 +2753,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
+          <t>1ac2d928-c9b7-42c6-ba18-23b1aea78693</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2710,17 +2764,17 @@
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>計算</t>
         </is>
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>身份</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>如果使用需要 SAP Identity Authentication Service （IAS） 的 SAP BTP 服務或 SaaS 解決方案，請考慮在 SAP Cloud Identity Authentication Services 和 Azure AD 之間實現 SSO 以存取這些 SAP 服務。此集成允許 SAP IAS 充當代理標識提供者，並將身份驗證請求轉發到作為中央使用者存儲和標識提供者的 Azure AD。</t>
+          <t>為正確的 VM SKU 和區域發出配額請求</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2735,17 +2789,13 @@
         </is>
       </c>
       <c r="G43" s="21" t="n"/>
-      <c r="H43" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
-        </is>
-      </c>
+      <c r="H43" s="15" t="n"/>
       <c r="I43" s="15" t="n"/>
       <c r="J43" s="22" t="n"/>
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
+          <t>2829e2ed-b217-4367-9aff-6691b4935ada</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2756,17 +2806,17 @@
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>成本優化</t>
         </is>
       </c>
       <c r="B44" s="21" t="inlineStr">
         <is>
-          <t>身份</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>實現對 SAP BTP 的 SSO</t>
+          <t>自動執行 SAP 系統啟動-停止以管理成本。</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2783,7 +2833,7 @@
       <c r="G44" s="21" t="n"/>
       <c r="H44" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/optimize-your-azure-costs-by-automating-sap-system-start-stop/ba-p/2120675</t>
         </is>
       </c>
       <c r="I44" s="15" t="n"/>
@@ -2791,7 +2841,7 @@
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
+          <t>925d1f8c-01f3-4a67-948e-aabf0a1fad60</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2812,13 +2862,13 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>如果使用的是 SAP SuccessFactors，請考慮使用 Azure AD 自動使用者預配。通過此整合，在向 SAP SuccessFactors 添加新員工時，可以在 Azure AD 中自動創建其使用者帳戶。 （可選）可以在 Microsoft 365 或 Azure AD 支援的其他 SaaS 應用程式中創建使用者帳戶。 將電子郵件地址寫回 SAP SuccessFactors。</t>
+          <t>為管理組、訂閱、資源組和資源強制實施 RBAC 模型</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
       <c r="E45" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2829,14 +2879,19 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
+          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
+          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2847,17 +2902,17 @@
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="21" t="inlineStr">
         <is>
-          <t>管理組和訂閱</t>
+          <t>標識和訪問</t>
         </is>
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>訂閱</t>
+          <t>身份</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>對 SAP 訂閱強制實施現有管理組策略</t>
+          <t>強制實施原則傳播，以便通過雲連接器將標識從 SAP 雲應用程式轉發到 SAP 本地（包括 IaaS）</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2874,19 +2929,19 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
         </is>
       </c>
       <c r="I46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
         </is>
       </c>
       <c r="J46" s="22" t="n"/>
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
+          <t>45911475-e39e-4530-accc-d979366bcda2</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2897,23 +2952,23 @@
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="21" t="inlineStr">
         <is>
-          <t>管理組和訂閱</t>
+          <t>標識和訪問</t>
         </is>
       </c>
       <c r="B47" s="21" t="inlineStr">
         <is>
-          <t>訂閱</t>
+          <t>身份</t>
         </is>
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>將緊密耦合的應用程式集成到同一 SAP 訂閱中，以避免額外的路由和管理複雜性</t>
+          <t>使用 SAML 通過 Azure AD 實現對 SAP SaaS 應用程式（如 SAP Analytics Cloud、SAP Cloud Platform、Business by design、SAP Qualtrics 和 SAP C4C）的 SSO。</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
       <c r="E47" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2924,19 +2979,15 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
-        </is>
-      </c>
-      <c r="I47" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
+        </is>
+      </c>
+      <c r="I47" s="15" t="n"/>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
+          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2947,23 +2998,23 @@
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="21" t="inlineStr">
         <is>
-          <t>管理組和訂閱</t>
+          <t>標識和訪問</t>
         </is>
       </c>
       <c r="B48" s="21" t="inlineStr">
         <is>
-          <t>訂閱</t>
+          <t>身份</t>
         </is>
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>利用訂閱作為縮放單元並縮放我們的資源，請考慮按環境部署訂閱，例如。沙箱、非生產、生產</t>
+          <t>使用 SAML 實現對基於 SAP NetWeaver 的 Web 應用程式（如 SAP Fiori 和 SAP Web GUI）的 SSO。</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
       <c r="E48" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2974,19 +3025,19 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
+          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -2997,23 +3048,23 @@
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="21" t="inlineStr">
         <is>
-          <t>管理組和訂閱</t>
+          <t>標識和訪問</t>
         </is>
       </c>
       <c r="B49" s="21" t="inlineStr">
         <is>
-          <t>訂閱</t>
+          <t>身份</t>
         </is>
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>確保在訂閱預配過程中增加配額（例如，訂閱中可用的 VM 核心總數）</t>
+          <t>使用 SAML 實現對基於 SAP NetWeaver 的 Web 應用程式（如 SAP Fiori 和 SAP Web GUI）的 SSO。</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
       <c r="E49" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3022,21 +3073,17 @@
         </is>
       </c>
       <c r="G49" s="21" t="n"/>
-      <c r="H49" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
-        </is>
-      </c>
+      <c r="H49" s="15" t="n"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
+          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3047,23 +3094,23 @@
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="21" t="inlineStr">
         <is>
-          <t>管理組和訂閱</t>
+          <t>標識和訪問</t>
         </is>
       </c>
       <c r="B50" s="21" t="inlineStr">
         <is>
-          <t>訂閱</t>
+          <t>身份</t>
         </is>
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>配額 API 是一個 REST API，可用於查看和管理 Azure 服務的配額。如有必要，請考慮使用它。</t>
+          <t>可以使用 SAP NetWeaver SSO 或合作夥伴解決方案實現到 SAP GUI 的 SSO。</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
       <c r="E50" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3074,15 +3121,19 @@
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
-        </is>
-      </c>
-      <c r="I50" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+        </is>
+      </c>
+      <c r="I50" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+        </is>
+      </c>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
+          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3093,23 +3144,23 @@
     <row r="51" ht="16.5" customHeight="1">
       <c r="A51" s="21" t="inlineStr">
         <is>
-          <t>管理組和訂閱</t>
+          <t>標識和訪問</t>
         </is>
       </c>
       <c r="B51" s="21" t="inlineStr">
         <is>
-          <t>訂閱</t>
+          <t>身份</t>
         </is>
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>如果部署到可用性區域，請確保在批准配額后，VM 的區域部署可用。提交支援請求，其中包含所需的訂閱、VM 系列、CPU 數量和可用性區域。</t>
+          <t>對於 SAP GUI 和 Web 瀏覽器存取的 SSO，請實施 SNC/Kerberos/SPNEGO（簡單且受保護的 GSSAPI 協商機制），因為它易於配置和維護。對於使用 X.509 用戶端證書的 SSO，請考慮使用 SAP 安全登錄伺服器，它是 SAP SSO 解決方案的一個元件。</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
       <c r="E51" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3118,17 +3169,17 @@
         </is>
       </c>
       <c r="G51" s="21" t="n"/>
-      <c r="H51" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
-        </is>
-      </c>
-      <c r="I51" s="15" t="n"/>
+      <c r="H51" s="15" t="n"/>
+      <c r="I51" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
+        </is>
+      </c>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
+          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3139,23 +3190,23 @@
     <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="21" t="inlineStr">
         <is>
-          <t>管理組和訂閱</t>
+          <t>標識和訪問</t>
         </is>
       </c>
       <c r="B52" s="21" t="inlineStr">
         <is>
-          <t>訂閱</t>
+          <t>身份</t>
         </is>
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>確保所需的服務和功能在選定的部署區域內可用，例如。ANF、區域等</t>
+          <t>對於 SAP GUI 和 Web 瀏覽器存取的 SSO，請實施 SNC/Kerberos/SPNEGO（簡單且受保護的 GSSAPI 協商機制），因為它易於配置和維護。對於使用 X.509 用戶端證書的 SSO，請考慮使用 SAP 安全登錄伺服器，它是 SAP SSO 解決方案的一個元件。</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
       <c r="E52" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3166,19 +3217,15 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
-        </is>
-      </c>
-      <c r="I52" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://blogs.sap.com/2017/07/12/sap-single-sign-on-protect-your-sap-landscape-with-x.509-certificates/</t>
+        </is>
+      </c>
+      <c r="I52" s="15" t="n"/>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
+          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3189,17 +3236,17 @@
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="21" t="inlineStr">
         <is>
-          <t>管理組和訂閱</t>
+          <t>標識和訪問</t>
         </is>
       </c>
       <c r="B53" s="21" t="inlineStr">
         <is>
-          <t>訂閱</t>
+          <t>身份</t>
         </is>
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>利用 Azure 資源標記進行成本分類和資源分組（：帳單、部門（或營業單位）、環境（生產、階段、開發）、層（Web 層、應用層）、應用程式擁有者、專案名稱）</t>
+          <t>使用 SAP NetWeaver 的 OAuth 實現 SSO，以允許第三方或自定義應用程式訪問 SAP NetWeaver OData 服務。</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3216,19 +3263,14 @@
       <c r="G53" s="21" t="n"/>
       <c r="H53" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
+          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3239,23 +3281,23 @@
     <row r="54" ht="16.5" customHeight="1">
       <c r="A54" s="21" t="inlineStr">
         <is>
-          <t>管理和監控</t>
+          <t>標識和訪問</t>
         </is>
       </c>
       <c r="B54" s="21" t="inlineStr">
         <is>
-          <t>BCDR的</t>
+          <t>身份</t>
         </is>
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 備份服務幫助保護 HANA 資料庫。</t>
+          <t>實現SAP HANA的 SSO</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
       <c r="E54" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3266,19 +3308,15 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
-        </is>
-      </c>
-      <c r="I54" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
+        </is>
+      </c>
+      <c r="I54" s="15" t="n"/>
       <c r="J54" s="22" t="n"/>
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
+          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3289,17 +3327,17 @@
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="21" t="inlineStr">
         <is>
-          <t>管理和監控</t>
+          <t>標識和訪問</t>
         </is>
       </c>
       <c r="B55" s="21" t="inlineStr">
         <is>
-          <t>BCDR的</t>
+          <t>身份</t>
         </is>
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>如果為 HANA、Oracle 或 DB2 資料庫部署 Azure NetApp 檔，請使用 Azure 應用程式一致性快照工具 （AzAcSnap） 建立應用程式一致性快照。AzAcSnap 還支援 Oracle 資料庫。請考慮在中央 VM 上使用 AzAcSnap，而不是在單個 VM 上使用 AzAcSnap。</t>
+          <t>將 Azure AD 視為 RISE 上託管的 SAP 系統的標識提供者。有關詳細資訊，請參閱將服務與 Azure AD 集成。</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3316,14 +3354,14 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
+          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3334,23 +3372,23 @@
     <row r="56" ht="16.5" customHeight="1">
       <c r="A56" s="21" t="inlineStr">
         <is>
-          <t>管理和監控</t>
+          <t>標識和訪問</t>
         </is>
       </c>
       <c r="B56" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>身份</t>
         </is>
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>確保操作系統和 SAP 系統之間的時區匹配。</t>
+          <t>對於訪問 SAP 的應用程式，可能需要使用主體傳播來建立 SSO。</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
       <c r="E56" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3361,14 +3399,14 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
+          <t>https://github.com/azuredevcollege/SAP/blob/master/sap-oauth-saml-flow/README.md</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
+          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3379,17 +3417,17 @@
     <row r="57" ht="16.5" customHeight="1">
       <c r="A57" s="21" t="inlineStr">
         <is>
-          <t>管理和監控</t>
+          <t>標識和訪問</t>
         </is>
       </c>
       <c r="B57" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>身份</t>
         </is>
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>不要在同一集群中對不同的應用程式服務進行分組。例如，不要將DRBD和中央服務群集合並到同一個群集上。但是，可以使用同一個 Pacemaker 群集來管理大約五個不同的中央服務（多 SID 群集）。</t>
+          <t>如果使用需要 SAP Identity Authentication Service （IAS） 的 SAP BTP 服務或 SaaS 解決方案，請考慮在 SAP Cloud Identity Authentication Services 和 Azure AD 之間實現 SSO 以存取這些 SAP 服務。此集成允許 SAP IAS 充當代理標識提供者，並將身份驗證請求轉發到作為中央使用者存儲和標識提供者的 Azure AD。</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3406,19 +3444,14 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
+          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3429,23 +3462,23 @@
     <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="21" t="inlineStr">
         <is>
-          <t>管理和監控</t>
+          <t>標識和訪問</t>
         </is>
       </c>
       <c r="B58" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>身份</t>
         </is>
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>請考慮在暫停模型中運行開發/測試系統，以節省和優化 Azure 運行成本。</t>
+          <t>實現對 SAP BTP 的 SSO</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
       <c r="E58" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3456,14 +3489,14 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
+          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3474,17 +3507,17 @@
     <row r="59" ht="16.5" customHeight="1">
       <c r="A59" s="21" t="inlineStr">
         <is>
-          <t>管理和監控</t>
+          <t>標識和訪問</t>
         </is>
       </c>
       <c r="B59" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>身份</t>
         </is>
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>如果通過管理客戶的 SAP 資產與客戶合作，請考慮使用 Azure Lighthouse。Azure Lighthouse 允許託管服務提供者使用 Azure 本機標識服務向客戶環境進行身份驗證。它將控制權交到客戶手中，因為他們可以隨時撤銷訪問許可權並審核服務提供者的操作。</t>
+          <t>如果使用的是 SAP SuccessFactors，請考慮使用 Azure AD 自動使用者預配。通過此整合，在向 SAP SuccessFactors 添加新員工時，可以在 Azure AD 中自動創建其使用者帳戶。 （可選）可以在 Microsoft 365 或 Azure AD 支援的其他 SaaS 應用程式中創建使用者帳戶。 將電子郵件地址寫回 SAP SuccessFactors。</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3501,14 +3534,14 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
+          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3519,17 +3552,17 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
-          <t>管理和監控</t>
+          <t>管理組和訂閱</t>
         </is>
       </c>
       <c r="B60" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>訂閱</t>
         </is>
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 更新管理員檢查單個 VM 或多個 VM 的可用更新狀態，並考慮計劃定期修補。</t>
+          <t>對 SAP 訂閱強制實施現有管理組策略</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3546,19 +3579,19 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
+          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3569,23 +3602,23 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="21" t="inlineStr">
         <is>
-          <t>管理和監控</t>
+          <t>管理組和訂閱</t>
         </is>
       </c>
       <c r="B61" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>訂閱</t>
         </is>
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>使用 SAP Landscape Management （LaMa） 優化和管理 SAP Basis 操作。使用適用於 Azure 的 SAP LaMa 連接器重新置放、複製、克隆和刷新 SAP 系統。</t>
+          <t>將緊密耦合的應用程式集成到同一 SAP 訂閱中，以避免額外的路由和管理複雜性</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
       <c r="E61" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3596,19 +3629,19 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
+          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3619,23 +3652,23 @@
     <row r="62" ht="16.5" customHeight="1">
       <c r="A62" s="21" t="inlineStr">
         <is>
-          <t>管理和監控</t>
+          <t>管理組和訂閱</t>
         </is>
       </c>
       <c r="B62" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>訂閱</t>
         </is>
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>使用適用於 SAP 解決方案的 Azure Monitor 監視 Azure 上的 SAP 工作負載（SAP HANA、高可用性 SUSE 群集和 SQL 系統）。請考慮使用 SAP 解決方案管理器補充用於 SAP 解決方案的 Azure Monitor。</t>
+          <t>利用訂閱作為縮放單元並縮放我們的資源，請考慮按環境部署訂閱，例如。沙箱、非生產、生產</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
       <c r="E62" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3646,19 +3679,19 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
+          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3669,17 +3702,17 @@
     <row r="63" ht="16.5" customHeight="1">
       <c r="A63" s="21" t="inlineStr">
         <is>
-          <t>管理和監控</t>
+          <t>管理組和訂閱</t>
         </is>
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>訂閱</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>運行適用於 SAP 的 VM 擴展檢查。適用於 SAP 的 VM 擴展使用虛擬機 （VM） 的分配託管標識來訪問 VM 監視和配置數據。該檢查可確保 SAP 應用程式中的所有性能指標都來自適用於 SAP 的基礎 Azure 擴展。</t>
+          <t>確保在訂閱預配過程中增加配額（例如，訂閱中可用的 VM 核心總數）</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3696,19 +3729,19 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
+          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
         </is>
       </c>
       <c r="I63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
+          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3719,23 +3752,23 @@
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="21" t="inlineStr">
         <is>
-          <t>管理和監控</t>
+          <t>管理組和訂閱</t>
         </is>
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>訂閱</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Policy 進行訪問控制和合規性報告。Azure Policy 提供強制實施組織範圍設置的功能，以確保一致的策略遵守和快速的違規檢測。</t>
+          <t>配額 API 是一個 REST API，可用於查看和管理 Azure 服務的配額。如有必要，請考慮使用它。</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
       <c r="E64" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3746,19 +3779,15 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I64" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
+        </is>
+      </c>
+      <c r="I64" s="15" t="n"/>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
+          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3769,23 +3798,23 @@
     <row r="65" ht="16.5" customHeight="1">
       <c r="A65" s="21" t="inlineStr">
         <is>
-          <t>管理和監控</t>
+          <t>管理組和訂閱</t>
         </is>
       </c>
       <c r="B65" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>訂閱</t>
         </is>
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 網路觀察程式中的連接監視器監視 SAP 資料庫和應用程式伺服器的延遲指標。或者使用 Azure Monitor 收集和顯示網路延遲度量值。</t>
+          <t>如果部署到可用性區域，請確保在批准配額后，VM 的區域部署可用。提交支援請求，其中包含所需的訂閱、VM 系列、CPU 數量和可用性區域。</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
       <c r="E65" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3796,19 +3825,15 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
-        </is>
-      </c>
-      <c r="I65" s="15" t="inlineStr">
-        <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
+        </is>
+      </c>
+      <c r="I65" s="15" t="n"/>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
+          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3819,17 +3844,17 @@
     <row r="66" ht="16.5" customHeight="1">
       <c r="A66" s="21" t="inlineStr">
         <is>
-          <t>管理和監控</t>
+          <t>管理組和訂閱</t>
         </is>
       </c>
       <c r="B66" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>訂閱</t>
         </is>
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Site Recovery 監視來維護 SAP 應用程式伺服器的災難恢復服務的運行狀況。</t>
+          <t>確保所需的服務和功能在選定的部署區域內可用，例如。ANF、區域等</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
@@ -3846,19 +3871,19 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
+          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
+          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3869,17 +3894,17 @@
     <row r="67" ht="16.5" customHeight="1">
       <c r="A67" s="21" t="inlineStr">
         <is>
-          <t>管理和監控</t>
+          <t>管理組和訂閱</t>
         </is>
       </c>
       <c r="B67" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>訂閱</t>
         </is>
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>在預配的 Azure 基礎結構上對 SAP HANA 執行質量檢查，以驗證預配的 VM 是否符合 Azure 上的 SAP HANA 最佳做法。</t>
+          <t>利用 Azure 資源標記進行成本分類和資源分組（：帳單、部門（或營業單位）、環境（生產、階段、開發）、層（Web 層、應用層）、應用程式擁有者、專案名稱）</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
@@ -3896,15 +3921,19 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/QualityCheck</t>
-        </is>
-      </c>
-      <c r="I67" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
+        </is>
+      </c>
+      <c r="I67" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
+          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3920,12 +3949,12 @@
       </c>
       <c r="B68" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>BCDR的</t>
         </is>
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>對於每個 Azure 訂閱，請在區域部署之前在 Azure 可用性區域上運行延遲測試，以選擇用於在 Azure 上部署 SAP 的低延遲區域。</t>
+          <t>使用 Azure 備份服務幫助保護 HANA 資料庫。</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -3942,19 +3971,19 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-zones</t>
+          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
         </is>
       </c>
       <c r="I68" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
         </is>
       </c>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
+          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -3970,12 +3999,12 @@
       </c>
       <c r="B69" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>BCDR的</t>
         </is>
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>運行復原報告，確保整個預配的 Azure 基礎結構（計算、資料庫、網路、存儲、Site Recovery）的配置符合適用於 Azure 的 Cloud Adaption Framework 定義的配置。</t>
+          <t>如果為 HANA、Oracle 或 DB2 資料庫部署 Azure NetApp 檔，請使用 Azure 應用程式一致性快照工具 （AzAcSnap） 建立應用程式一致性快照。AzAcSnap 還支援 Oracle 資料庫。請考慮在中央 VM 上使用 AzAcSnap，而不是在單個 VM 上使用 AzAcSnap。</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
@@ -3992,19 +4021,15 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/advisor/advisor-how-to-improve-reliability</t>
-        </is>
-      </c>
-      <c r="I69" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/azure-well-architected-framework/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
+        </is>
+      </c>
+      <c r="I69" s="15" t="n"/>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>410adcba-db46-424f-a6c4-05ecde75c52e</t>
+          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4020,18 +4045,18 @@
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>使用適用於 SAP 的 Microsoft Sentinel 解決方案實施威脅防護。使用此解決方案可以監視 SAP 系統，並檢測整個業務邏輯和應用程式層的複雜威脅。</t>
+          <t>確保操作系統和 SAP 系統之間的時區匹配。</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
       <c r="E70" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4042,19 +4067,15 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/sap/deployment-overview</t>
-        </is>
-      </c>
-      <c r="I70" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/plan-microsoft-sentinel-deployment-sap/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
+        </is>
+      </c>
+      <c r="I70" s="15" t="n"/>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
+          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4070,12 +4091,12 @@
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>可以利用 Azure 標記對資源進行邏輯分組和跟蹤，自動執行其部署，最重要的是，提供對所產生成本的可見性。</t>
+          <t>不要在同一集群中對不同的應用程式服務進行分組。例如，不要將DRBD和中央服務群集合並到同一個群集上。但是，可以使用同一個 Pacemaker 群集來管理大約五個不同的中央服務（多 SID 群集）。</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -4092,19 +4113,19 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/enable-tag-inheritance</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
         </is>
       </c>
       <c r="I71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
+          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4120,12 +4141,12 @@
       </c>
       <c r="B72" s="21" t="inlineStr">
         <is>
-          <t>性能</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>對延遲敏感型應用程式使用虛擬機間延遲監視。</t>
+          <t>請考慮在暫停模型中運行開發/測試系統，以節省和優化 Azure 運行成本。</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
@@ -4142,7 +4163,7 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-test-latency?tabs=windows</t>
+          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
         </is>
       </c>
       <c r="I72" s="15" t="n"/>
@@ -4150,7 +4171,7 @@
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>04b8e5e5-13cb-4b22-af62-5a8ecfcf0337</t>
+          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4166,12 +4187,12 @@
       </c>
       <c r="B73" s="21" t="inlineStr">
         <is>
-          <t>性能</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Site Recovery 監視來維護 SAP 應用程式伺服器的災難恢復服務的運行狀況。</t>
+          <t>如果通過管理客戶的 SAP 資產與客戶合作，請考慮使用 Azure Lighthouse。Azure Lighthouse 允許託管服務提供者使用 Azure 本機標識服務向客戶環境進行身份驗證。它將控制權交到客戶手中，因為他們可以隨時撤銷訪問許可權並審核服務提供者的操作。</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -4188,19 +4209,15 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide-storage</t>
-        </is>
-      </c>
-      <c r="I73" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
+        </is>
+      </c>
+      <c r="I73" s="15" t="n"/>
       <c r="J73" s="22" t="n"/>
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>07e5ed53-3d96-43d8-87ea-631b77da5aba</t>
+          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4216,12 +4233,12 @@
       </c>
       <c r="B74" s="21" t="inlineStr">
         <is>
-          <t>性能</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>從防病毒掃描中排除所有資料庫檔系統和可執行程式。包括它們可能會導致性能問題。請與資料庫供應商聯繫，瞭解排除清單的規範性詳細資訊。例如，Oracle 建議&lt;sid&gt;從防病毒掃描中排除 /oracle}sapdata。</t>
+          <t>使用 Azure 更新管理員檢查單個 VM 或多個 VM 的可用更新狀態，並考慮計劃定期修補。</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
@@ -4238,15 +4255,19 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
-        </is>
-      </c>
-      <c r="I74" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
+        </is>
+      </c>
+      <c r="I74" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>abb6af9c-982c-4cf1-83fb-329fafd1ee56</t>
+          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4262,12 +4283,12 @@
       </c>
       <c r="B75" s="21" t="inlineStr">
         <is>
-          <t>性能</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>請考慮在遷移後收集非 HANA 資料庫的完整資料庫統計資訊。例如，實現 SAP 註釋 1020260 - Oracle 統計資訊的交付。</t>
+          <t>使用 SAP Landscape Management （LaMa） 優化和管理 SAP Basis 操作。使用適用於 Azure 的 SAP LaMa 連接器重新置放、複製、克隆和刷新 SAP 系統。</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
@@ -4284,15 +4305,19 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://sapit-forme-prod.authentication.eu11.hana.ondemand.com/login</t>
-        </is>
-      </c>
-      <c r="I75" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
+        </is>
+      </c>
+      <c r="I75" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>c027f893-f404-41a9-b33d-39d625a14964</t>
+          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4308,12 +4333,12 @@
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>性能</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>請考慮將 Oracle 自動儲存管理 （ASM） 用於使用 Azure 上的 SAP 的所有 Oracle 部署。</t>
+          <t>使用適用於 SAP 解決方案的 Azure Monitor 監視 Azure 上的 SAP 工作負載（SAP HANA、高可用性 SUSE 群集和 SQL 系統）。請考慮使用 SAP 解決方案管理器補充用於 SAP 解決方案的 Azure Monitor。</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
@@ -4330,19 +4355,19 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/configure-oracle-asm</t>
+          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
         </is>
       </c>
       <c r="I76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/administer-infrastructure-resources-in-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
         </is>
       </c>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>fdafb1f5-3eee-4354-a8c9-deb8127ebc2e</t>
+          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4358,18 +4383,18 @@
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>性能</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>對於運行 Oracle 的 Azure 上的 SAP，SQL 腳本集合可説明你診斷性能問題。 Automatic Workload Repository （AWR） 報告包含用於診斷 Oracle 系統中問題的寶貴資訊。我們建議您在多個工作階段期間運行 AWR 報告，並為其選擇高峰時間，以確保分析的廣泛覆蓋。</t>
+          <t>運行適用於 SAP 的 VM 擴展檢查。適用於 SAP 的 VM 擴展使用虛擬機 （VM） 的分配託管標識來訪問 VM 監視和配置數據。該檢查可確保 SAP 應用程式中的所有性能指標都來自適用於 SAP 的基礎 Azure 擴展。</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4380,19 +4405,19 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/announcement-sap-on-azure-oracle-performance-efficiency-scripts/ba-p/3725178</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
         </is>
       </c>
       <c r="I77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/azure/well-architected/oracle-iaas/performance-efficiency</t>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
         </is>
       </c>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>33c5d5bf-daf3-4f0d-bd50-6010fdcec22e</t>
+          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4403,17 +4428,17 @@
     <row r="78" ht="16.5" customHeight="1">
       <c r="A78" s="21" t="inlineStr">
         <is>
-          <t>網路拓撲和連接</t>
+          <t>管理和監控</t>
         </is>
       </c>
       <c r="B78" s="21" t="inlineStr">
         <is>
-          <t>應用交付</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>若要安全交付 HTTP/S 應用，請使用應用程式閘道 v2 並確保已啟用 WAF 保護和策略。</t>
+          <t>使用 Azure Policy 進行訪問控制和合規性報告。Azure Policy 提供強制實施組織範圍設置的功能，以確保一致的策略遵守和快速的違規檢測。</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
@@ -4430,19 +4455,19 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J78" s="22" t="n"/>
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
+          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4453,17 +4478,17 @@
     <row r="79" ht="16.5" customHeight="1">
       <c r="A79" s="21" t="inlineStr">
         <is>
-          <t>網路拓撲和連接</t>
+          <t>管理和監控</t>
         </is>
       </c>
       <c r="B79" s="21" t="inlineStr">
         <is>
-          <t>DNS解析</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>如果在遷移到 Azure 期間未更改虛擬機器的 DNS 或虛擬名稱，則後台 DNS 和虛擬名稱會連接 SAP 環境中的許多系統介面，並且客戶有時只知道開發人員隨時間推移定義的介面。遷移后，當虛擬名稱或 DNS 名稱發生更改時，各種系統之間會出現連接挑戰，建議保留 DNS 別名以防止出現這些類型的困難。</t>
+          <t>使用 Azure 網路觀察程式中的連接監視器監視 SAP 資料庫和應用程式伺服器的延遲指標。或者使用 Azure Monitor 收集和顯示網路延遲度量值。</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
@@ -4480,19 +4505,19 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
         </is>
       </c>
       <c r="I79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
         </is>
       </c>
       <c r="J79" s="22" t="n"/>
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
+          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4503,23 +4528,23 @@
     <row r="80" ht="16.5" customHeight="1">
       <c r="A80" s="21" t="inlineStr">
         <is>
-          <t>網路拓撲和連接</t>
+          <t>管理和監控</t>
         </is>
       </c>
       <c r="B80" s="21" t="inlineStr">
         <is>
-          <t>DNS解析</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>使用不同的 DNS 區域將每個環境（沙箱、開發、預生產和生產）彼此區分開來。例外情況是具有自己的 VNet 的 SAP 部署;在這裡，專用 DNS 區域可能不是必需的。</t>
+          <t>使用 Azure Site Recovery 監視來維護 SAP 應用程式伺服器的災難恢復服務的運行狀況。</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4530,19 +4555,19 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
         </is>
       </c>
       <c r="I80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
+          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4553,17 +4578,17 @@
     <row r="81" ht="16.5" customHeight="1">
       <c r="A81" s="21" t="inlineStr">
         <is>
-          <t>網路拓撲和連接</t>
+          <t>管理和監控</t>
         </is>
       </c>
       <c r="B81" s="21" t="inlineStr">
         <is>
-          <t>混合</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>本地和全域 VNet 對等互連提供連接，是確保跨多個 Azure 區域的 SAP 部署登陸區域之間連接的首選方法</t>
+          <t>在預配的 Azure 基礎結構上對 SAP HANA 執行質量檢查，以驗證預配的 VM 是否符合 Azure 上的 SAP HANA 最佳做法。</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4580,19 +4605,15 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
-        </is>
-      </c>
-      <c r="I81" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/QualityCheck</t>
+        </is>
+      </c>
+      <c r="I81" s="15" t="n"/>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
+          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4603,17 +4624,17 @@
     <row r="82" ht="16.5" customHeight="1">
       <c r="A82" s="21" t="inlineStr">
         <is>
-          <t>網路拓撲和連接</t>
+          <t>管理和監控</t>
         </is>
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>混合</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>不支援在 SAP 應用程式和 SAP 資料庫伺服器之間部署任何 NVA</t>
+          <t>對於每個 Azure 訂閱，請在區域部署之前在 Azure 可用性區域上運行延遲測試，以選擇用於在 Azure 上部署 SAP 的低延遲區域。</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
@@ -4630,19 +4651,19 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-zones</t>
         </is>
       </c>
       <c r="I82" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2731110</t>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
         </is>
       </c>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
+          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4653,17 +4674,17 @@
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="21" t="inlineStr">
         <is>
-          <t>網路拓撲和連接</t>
+          <t>管理和監控</t>
         </is>
       </c>
       <c r="B83" s="21" t="inlineStr">
         <is>
-          <t>混合</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>在需要跨 Azure 區域和本地位置進行全球傳輸連接的新網路、大型網路或全球網路中，將虛擬 WAN 用於 Azure 部署。使用此方法，無需手動為 Azure 網路設置可傳遞路由，並且可以遵循 Azure 上的 SAP 部署的標準。</t>
+          <t>運行復原報告，確保整個預配的 Azure 基礎結構（計算、資料庫、網路、存儲、Site Recovery）的配置符合適用於 Azure 的 Cloud Adaption Framework 定義的配置。</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
@@ -4680,19 +4701,19 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/advisor/advisor-how-to-improve-reliability</t>
         </is>
       </c>
       <c r="I83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/training/paths/azure-well-architected-framework/</t>
         </is>
       </c>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
+          <t>410adcba-db46-424f-a6c4-05ecde75c52e</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4703,17 +4724,17 @@
     <row r="84" ht="16.5" customHeight="1">
       <c r="A84" s="21" t="inlineStr">
         <is>
-          <t>網路拓撲和連接</t>
+          <t>管理和監控</t>
         </is>
       </c>
       <c r="B84" s="21" t="inlineStr">
         <is>
-          <t>混合</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>僅當使用合作夥伴 NVA 時，才考慮在區域之間部署網路虛擬設備 （NVA）。如果存在本機 NVA，則不需要區域或 VNet 之間的 NVA。部署合作夥伴網路技術和 NVA 時，請按照供應商的指南驗證與 Azure 網路的衝突配置。</t>
+          <t>使用適用於 SAP 的 Microsoft Sentinel 解決方案實施威脅防護。使用此解決方案可以監視 SAP 系統，並檢測整個業務邏輯和應用程式層的複雜威脅。</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4730,19 +4751,19 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
+          <t>https://learn.microsoft.com/azure/sentinel/sap/deployment-overview</t>
         </is>
       </c>
       <c r="I84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/plan-microsoft-sentinel-deployment-sap/?source=recommendations</t>
         </is>
       </c>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
+          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4753,17 +4774,17 @@
     <row r="85" ht="16.5" customHeight="1">
       <c r="A85" s="21" t="inlineStr">
         <is>
-          <t>網路拓撲和連接</t>
+          <t>管理和監控</t>
         </is>
       </c>
       <c r="B85" s="21" t="inlineStr">
         <is>
-          <t>混合</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>虛擬 WAN 管理基於虛擬 WAN 的拓撲的分支 VNet 之間的連接（無需設置使用者定義的路由 [UDR] 或 NVA），同一虛擬中心中 VNet 到 VNet 流量的最大網路輸送量為每秒 50 GB。如有必要，SAP 登陸區域可以使用 VNet 對等互連連接到其他登陸區域並克服此頻寬限制。</t>
+          <t>可以利用 Azure 標記對資源進行邏輯分組和跟蹤，自動執行其部署，最重要的是，提供對所產生成本的可見性。</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4780,19 +4801,19 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/enable-tag-inheritance</t>
         </is>
       </c>
       <c r="I85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/?source=recommendations</t>
         </is>
       </c>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
+          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4803,23 +4824,23 @@
     <row r="86" ht="16.5" customHeight="1">
       <c r="A86" s="21" t="inlineStr">
         <is>
-          <t>網路拓撲和連接</t>
+          <t>管理和監控</t>
         </is>
       </c>
       <c r="B86" s="21" t="inlineStr">
         <is>
-          <t>IP計劃</t>
+          <t>性能</t>
         </is>
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>不建議將公共 I.P 分配給運行 SAP 工作負載的 VM。</t>
+          <t>對延遲敏感型應用程式使用虛擬機間延遲監視。</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
       <c r="E86" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4830,19 +4851,15 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I86" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-test-latency?tabs=windows</t>
+        </is>
+      </c>
+      <c r="I86" s="15" t="n"/>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
+          <t>04b8e5e5-13cb-4b22-af62-5a8ecfcf0337</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4853,23 +4870,23 @@
     <row r="87" ht="16.5" customHeight="1">
       <c r="A87" s="21" t="inlineStr">
         <is>
-          <t>網路拓撲和連接</t>
+          <t>管理和監控</t>
         </is>
       </c>
       <c r="B87" s="21" t="inlineStr">
         <is>
-          <t>IP計劃</t>
+          <t>性能</t>
         </is>
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>配置 ASR 時，請考慮在 DR 端保留 I.P 位址</t>
+          <t>使用 Azure Site Recovery 監視來維護 SAP 應用程式伺服器的災難恢復服務的運行狀況。</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
       <c r="E87" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4880,19 +4897,19 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide-storage</t>
         </is>
       </c>
       <c r="I87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
         </is>
       </c>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
+          <t>07e5ed53-3d96-43d8-87ea-631b77da5aba</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4903,23 +4920,23 @@
     <row r="88" ht="16.5" customHeight="1">
       <c r="A88" s="21" t="inlineStr">
         <is>
-          <t>網路拓撲和連接</t>
+          <t>管理和監控</t>
         </is>
       </c>
       <c r="B88" s="21" t="inlineStr">
         <is>
-          <t>IP計劃</t>
+          <t>性能</t>
         </is>
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>避免對生產網站和DR網站使用重疊的IP位址範圍。</t>
+          <t>從防病毒掃描中排除所有資料庫檔系統和可執行程式。包括它們可能會導致性能問題。請與資料庫供應商聯繫，瞭解排除清單的規範性詳細資訊。例如，Oracle 建議&lt;sid&gt;從防病毒掃描中排除 /oracle}sapdata。</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
       <c r="E88" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4930,19 +4947,15 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I88" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
+        </is>
+      </c>
+      <c r="I88" s="15" t="n"/>
       <c r="J88" s="22" t="n"/>
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
+          <t>abb6af9c-982c-4cf1-83fb-329fafd1ee56</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4953,23 +4966,23 @@
     <row r="89" ht="16.5" customHeight="1">
       <c r="A89" s="21" t="inlineStr">
         <is>
-          <t>網路拓撲和連接</t>
+          <t>管理和監控</t>
         </is>
       </c>
       <c r="B89" s="21" t="inlineStr">
         <is>
-          <t>IP計劃</t>
+          <t>性能</t>
         </is>
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>雖然 Azure 確實有助於在 VNet 中創建多個委託子網，但 Azure NetApp 檔的 VNet 中只能存在一個委託子網。如果對 Azure NetApp 檔使用多個委託子網，則嘗試創建新卷將失敗。</t>
+          <t>請考慮在遷移後收集非 HANA 資料庫的完整資料庫統計資訊。例如，實現 SAP 註釋 1020260 - Oracle 統計資訊的交付。</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
       <c r="E89" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4980,19 +4993,15 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
-        </is>
-      </c>
-      <c r="I89" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://sapit-forme-prod.authentication.eu11.hana.ondemand.com/login</t>
+        </is>
+      </c>
+      <c r="I89" s="15" t="n"/>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
+          <t>c027f893-f404-41a9-b33d-39d625a14964</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5003,17 +5012,17 @@
     <row r="90" ht="16.5" customHeight="1">
       <c r="A90" s="21" t="inlineStr">
         <is>
-          <t>網路拓撲和連接</t>
+          <t>管理和監控</t>
         </is>
       </c>
       <c r="B90" s="21" t="inlineStr">
         <is>
-          <t>互聯網</t>
+          <t>性能</t>
         </is>
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 防火牆管理發往 Internet、非 HTTP/S 入站連接和東西方流量篩選的 Azure 出站流量（如果組織需要）</t>
+          <t>請考慮將 Oracle 自動儲存管理 （ASM） 用於使用 Azure 上的 SAP 的所有 Oracle 部署。</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -5030,19 +5039,19 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/configure-oracle-asm</t>
         </is>
       </c>
       <c r="I90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/paths/administer-infrastructure-resources-in-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
+          <t>fdafb1f5-3eee-4354-a8c9-deb8127ebc2e</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5053,17 +5062,17 @@
     <row r="91" ht="16.5" customHeight="1">
       <c r="A91" s="21" t="inlineStr">
         <is>
-          <t>網路拓撲和連接</t>
+          <t>管理和監控</t>
         </is>
       </c>
       <c r="B91" s="21" t="inlineStr">
         <is>
-          <t>互聯網</t>
+          <t>性能</t>
         </is>
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>當應用程式閘道充當 SAP Web 應用的反向代理時，應用程式閘道和 Web 應用程式防火牆存在限制，如應用程式閘道、SAP Web 調度程式和其他第三方服務之間的比較所示。</t>
+          <t>對於運行 Oracle 的 Azure 上的 SAP，SQL 腳本集合可説明你診斷性能問題。 Automatic Workload Repository （AWR） 報告包含用於診斷 Oracle 系統中問題的寶貴資訊。我們建議您在多個工作階段期間運行 AWR 報告，並為其選擇高峰時間，以確保分析的廣泛覆蓋。</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
@@ -5080,19 +5089,19 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/announcement-sap-on-azure-oracle-performance-efficiency-scripts/ba-p/3725178</t>
         </is>
       </c>
       <c r="I91" s="15" t="inlineStr">
         <is>
-          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
+          <t>https://learn.microsoft.com/ja-jp/azure/well-architected/oracle-iaas/performance-efficiency</t>
         </is>
       </c>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
+          <t>33c5d5bf-daf3-4f0d-bd50-6010fdcec22e</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5108,12 +5117,12 @@
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>互聯網</t>
+          <t>應用交付</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Front Door 和 WAF 策略跨 Azure 區域為登陸區域的入站 HTTP/S 連接提供全域保護。</t>
+          <t>若要安全交付 HTTP/S 應用，請使用應用程式閘道 v2 並確保已啟用 WAF 保護和策略。</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
@@ -5130,19 +5139,19 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
         </is>
       </c>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
+          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5158,12 +5167,12 @@
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>互聯網</t>
+          <t>DNS解析</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Front Door 和應用程式閘道來保護 HTTP/S 應用程式時，請利用 Azure Front Door 中的 Web 應用程式防火牆策略。鎖定應用程式閘道以僅接收來自 Azure Front Door 的流量。</t>
+          <t>如果在遷移到 Azure 期間未更改虛擬機器的 DNS 或虛擬名稱，則後台 DNS 和虛擬名稱會連接 SAP 環境中的許多系統介面，並且客戶有時只知道開發人員隨時間推移定義的介面。遷移后，當虛擬名稱或 DNS 名稱發生更改時，各種系統之間會出現連接挑戰，建議保留 DNS 別名以防止出現這些類型的困難。</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
@@ -5180,19 +5189,19 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
+          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5208,12 +5217,12 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>互聯網</t>
+          <t>DNS解析</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>當流量暴露在互聯網上時，使用 Web 應用程式防火牆掃描流量。另一種選擇是將其與負載均衡器或具有內置防火牆功能（如應用程式閘道或第三方解決方案）的資源一起使用。</t>
+          <t>使用不同的 DNS 區域將每個環境（沙箱、開發、預生產和生產）彼此區分開來。例外情況是具有自己的 VNet 的 SAP 部署;在這裡，專用 DNS 區域可能不是必需的。</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
@@ -5230,19 +5239,19 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
+          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5258,12 +5267,12 @@
       </c>
       <c r="B95" s="21" t="inlineStr">
         <is>
-          <t>互聯網</t>
+          <t>混合</t>
         </is>
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>在需要跨 Azure 區域和本地位置進行全球傳輸連接的新網路、大型網路或全球網路中，將虛擬 WAN 用於 Azure 部署。使用此方法，無需手動為 Azure 網路設置可傳遞路由，並且可以遵循 Azure 上的 SAP 部署的標準。</t>
+          <t>本地和全域 VNet 對等互連提供連接，是確保跨多個 Azure 區域的 SAP 部署登陸區域之間連接的首選方法</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5280,19 +5289,19 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
+          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
         </is>
       </c>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
+          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5308,18 +5317,18 @@
       </c>
       <c r="B96" s="21" t="inlineStr">
         <is>
-          <t>互聯網</t>
+          <t>混合</t>
         </is>
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>若要防止數據洩露，請使用 Azure 專用連結安全地訪問平臺即服務資源，例如 Azure Blob 存儲、Azure 檔存儲、Azure Data Lake Storage Gen2、Azure 數據工廠等。Azure 專用終結點還可以幫助保護 VNet 與 Azure 存儲、Azure 備份等服務之間的流量。VNet 與啟用了專用終結點的服務之間的流量通過 Microsoft 全球網路傳輸，從而防止其暴露給公共 Internet。</t>
+          <t>不支援在 SAP 應用程式和 SAP 資料庫伺服器之間部署任何 NVA</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5330,19 +5339,19 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
         </is>
       </c>
       <c r="I96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
+          <t>https://me.sap.com/notes/2731110</t>
         </is>
       </c>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
+          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5358,18 +5367,18 @@
       </c>
       <c r="B97" s="21" t="inlineStr">
         <is>
-          <t>分割</t>
+          <t>混合</t>
         </is>
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>請確保在 SAP 應用程式層和 DBMS 層中使用的 VM 上啟用了 Azure 加速網路。</t>
+          <t>在需要跨 Azure 區域和本地位置進行全球傳輸連接的新網路、大型網路或全球網路中，將虛擬 WAN 用於 Azure 部署。使用此方法，無需手動為 Azure 網路設置可傳遞路由，並且可以遵循 Azure 上的 SAP 部署的標準。</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
       <c r="E97" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5380,19 +5389,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
         </is>
       </c>
       <c r="I97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5408,12 +5417,12 @@
       </c>
       <c r="B98" s="21" t="inlineStr">
         <is>
-          <t>分割</t>
+          <t>混合</t>
         </is>
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>請確保將 Azure 負載均衡器的內部部署設置為使用直接伺服器返回 （DSR）。當內部負載平衡器配置用於 DBMS 層上的高可用性配置時，此設置將減少延遲。</t>
+          <t>僅當使用合作夥伴 NVA 時，才考慮在區域之間部署網路虛擬設備 （NVA）。如果存在本機 NVA，則不需要區域或 VNet 之間的 NVA。部署合作夥伴網路技術和 NVA 時，請按照供應商的指南驗證與 Azure 網路的衝突配置。</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
@@ -5430,19 +5439,19 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
         </is>
       </c>
       <c r="I98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
         </is>
       </c>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
+          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5458,12 +5467,12 @@
       </c>
       <c r="B99" s="21" t="inlineStr">
         <is>
-          <t>分割</t>
+          <t>混合</t>
         </is>
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>可以使用應用程式安全組 （ASG） 和 NSG 規則在 SAP 應用程式層和 DBMS 層之間定義網路安全存取控制清單。ASG 對虛擬機進行分組以説明管理其安全性。</t>
+          <t>虛擬 WAN 管理基於虛擬 WAN 的拓撲的分支 VNet 之間的連接（無需設置使用者定義的路由 [UDR] 或 NVA），同一虛擬中心中 VNet 到 VNet 流量的最大網路輸送量為每秒 50 GB。如有必要，SAP 登陸區域可以使用 VNet 對等互連連接到其他登陸區域並克服此頻寬限制。</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5480,19 +5489,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
         </is>
       </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
+          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5508,12 +5517,12 @@
       </c>
       <c r="B100" s="21" t="inlineStr">
         <is>
-          <t>分割</t>
+          <t>IP計劃</t>
         </is>
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>不支援將 SAP 應用程式層和 SAP DBMS 放置在未對等互連的不同 Azure VNet 中。</t>
+          <t>不建議將公共 I.P 分配給運行 SAP 工作負載的 VM。</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
@@ -5530,19 +5539,19 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
+          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5558,18 +5567,18 @@
       </c>
       <c r="B101" s="21" t="inlineStr">
         <is>
-          <t>分割</t>
+          <t>IP計劃</t>
         </is>
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>為了實現 SAP 應用程式的最佳網路延遲，請考慮使用 Azure 鄰近放置組。</t>
+          <t>配置 ASR 時，請考慮在 DR 端保留 I.P 位址</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
       <c r="E101" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5580,19 +5589,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
+          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5608,12 +5617,12 @@
       </c>
       <c r="B102" s="21" t="inlineStr">
         <is>
-          <t>分割</t>
+          <t>IP計劃</t>
         </is>
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>完全不支援運行在本地和 Azure 之間拆分的 SAP 應用程式伺服器層和 DBMS 層。這兩個層都需要完全駐留在本地或 Azure 中。</t>
+          <t>避免對生產網站和DR網站使用重疊的IP位址範圍。</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
@@ -5630,19 +5639,19 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
+          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5658,18 +5667,18 @@
       </c>
       <c r="B103" s="21" t="inlineStr">
         <is>
-          <t>分割</t>
+          <t>IP計劃</t>
         </is>
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>不建議將 SAP 系統的資料庫管理系統 （DBMS） 和應用程式層託管在不同的 VNet 中，並將它們與 VNet 對等互連連接，因為層之間的過多網路流量可能會產生大量成本。建議使用 Azure 虛擬網路中的子網來分隔 SAP 應用程式層和 DBMS 層。</t>
+          <t>雖然 Azure 確實有助於在 VNet 中創建多個委託子網，但 Azure NetApp 檔的 VNet 中只能存在一個委託子網。如果對 Azure NetApp 檔使用多個委託子網，則嘗試創建新卷將失敗。</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
       <c r="E103" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5680,19 +5689,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
         </is>
       </c>
       <c r="I103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
         </is>
       </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
+          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5708,18 +5717,18 @@
       </c>
       <c r="B104" s="21" t="inlineStr">
         <is>
-          <t>分割</t>
+          <t>互聯網</t>
         </is>
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>如果在 Linux 客戶機作業系統中使用負載均衡器，請檢查 Linux 網路參數 net.ipv4.tcp_timestamps 是否設置為 0。</t>
+          <t>使用 Azure 防火牆管理發往 Internet、非 HTTP/S 入站連接和東西方流量篩選的 Azure 出站流量（如果組織需要）</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5730,19 +5739,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
+          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5758,12 +5767,12 @@
       </c>
       <c r="B105" s="21" t="inlineStr">
         <is>
-          <t>分割</t>
+          <t>互聯網</t>
         </is>
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>對於 SAP RISE/ECS 部署，虛擬對等互連是與客戶現有 Azure 環境建立連接的首選方式。SAP VNet 和客戶 VNet 都受網路安全組 （NSG） 保護，從而通過 VNet 對等互連在 SAP 和資料庫埠上進行通信</t>
+          <t>當應用程式閘道充當 SAP Web 應用的反向代理時，應用程式閘道和 Web 應用程式防火牆存在限制，如應用程式閘道、SAP Web 調度程式和其他第三方服務之間的比較所示。</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
@@ -5780,15 +5789,19 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
-        </is>
-      </c>
-      <c r="I105" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
+        </is>
+      </c>
+      <c r="I105" s="15" t="inlineStr">
+        <is>
+          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
+        </is>
+      </c>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
+          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5799,17 +5812,17 @@
     <row r="106" ht="16.5" customHeight="1">
       <c r="A106" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>網路拓撲和連接</t>
         </is>
       </c>
       <c r="B106" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>互聯網</t>
         </is>
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>如果在 Azure、本地或其他雲環境中運行 Windows 和 Linux VM，則可以使用 Azure 自動化中的更新管理中心來管理作業系統更新，包括安全修補程式。</t>
+          <t>使用 Azure Front Door 和 WAF 策略跨 Azure 區域為登陸區域的入站 HTTP/S 連接提供全域保護。</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -5826,19 +5839,19 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
+          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5849,17 +5862,17 @@
     <row r="107" ht="16.5" customHeight="1">
       <c r="A107" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>網路拓撲和連接</t>
         </is>
       </c>
       <c r="B107" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>互聯網</t>
         </is>
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>請定期查看 SAP 安全 OSS 說明，因為 SAP 會發佈高度關鍵的安全補丁或熱修復程式，需要立即採取措施來保護 SAP 系統。</t>
+          <t>使用 Azure Front Door 和應用程式閘道來保護 HTTP/S 應用程式時，請利用 Azure Front Door 中的 Web 應用程式防火牆策略。鎖定應用程式閘道以僅接收來自 Azure Front Door 的流量。</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5876,19 +5889,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I107" s="15" t="inlineStr">
         <is>
-          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
         </is>
       </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
+          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5899,23 +5912,23 @@
     <row r="108" ht="16.5" customHeight="1">
       <c r="A108" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>網路拓撲和連接</t>
         </is>
       </c>
       <c r="B108" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>互聯網</t>
         </is>
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>對於 SQL Server 上的 SAP，可以禁用 SQL Server 系統管理員帳戶，因為 SQL Server 上的 SAP 系統不使用該帳戶。在禁用原始系統管理員帳戶之前，請確保具有系統管理員許可權的其他使用者可以訪問伺服器。</t>
+          <t>當流量暴露在互聯網上時，使用 Web 應用程式防火牆掃描流量。另一種選擇是將其與負載均衡器或具有內置防火牆功能（如應用程式閘道或第三方解決方案）的資源一起使用。</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
       <c r="E108" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5926,15 +5939,19 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
-        </is>
-      </c>
-      <c r="I108" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I108" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
+          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5945,23 +5962,23 @@
     <row r="109" ht="16.5" customHeight="1">
       <c r="A109" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>網路拓撲和連接</t>
         </is>
       </c>
       <c r="B109" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>互聯網</t>
         </is>
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>禁用xp_cmdshell。SQL Server 功能xp_cmdshell啟用 SQL Server 內部作業系統命令行介面。這是安全審計中的潛在風險。</t>
+          <t>在需要跨 Azure 區域和本地位置進行全球傳輸連接的新網路、大型網路或全球網路中，將虛擬 WAN 用於 Azure 部署。使用此方法，無需手動為 Azure 網路設置可傳遞路由，並且可以遵循 Azure 上的 SAP 部署的標準。</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
       <c r="E109" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5972,19 +5989,19 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
         </is>
       </c>
       <c r="I109" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/3019299/E</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
         </is>
       </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
+          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -5995,23 +6012,23 @@
     <row r="110" ht="16.5" customHeight="1">
       <c r="A110" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>網路拓撲和連接</t>
         </is>
       </c>
       <c r="B110" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>互聯網</t>
         </is>
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>在 Azrue 上加密 SAP HANA 資料庫伺服器使用 SAP HANA 原生加密技術。此外，如果在 Azure 上使用 SQL Server，請使用透明數據加密 （TDE） 來保護數據和日誌檔，並確保備份也已加密。</t>
+          <t>若要防止數據洩露，請使用 Azure 專用連結安全地訪問平臺即服務資源，例如 Azure Blob 存儲、Azure 檔存儲、Azure Data Lake Storage Gen2、Azure 數據工廠等。Azure 專用終結點還可以幫助保護 VNet 與 Azure 存儲、Azure 備份等服務之間的流量。VNet 與啟用了專用終結點的服務之間的流量通過 Microsoft 全球網路傳輸，從而防止其暴露給公共 Internet。</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
       <c r="E110" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -6022,19 +6039,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
+          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
         </is>
       </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
+          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6045,23 +6062,23 @@
     <row r="111" ht="16.5" customHeight="1">
       <c r="A111" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>網路拓撲和連接</t>
         </is>
       </c>
       <c r="B111" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>分割</t>
         </is>
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>已為所有 Azure 資源管理器和經典記憶體啟用 Azure 儲存加密，並且無法禁用。由於數據預設是加密的，因此無需修改代碼或應用程式即可使用 Azure 儲存加密。</t>
+          <t>請確保在 SAP 應用程式層和 DBMS 層中使用的 VM 上啟用了 Azure 加速網路。</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6072,19 +6089,19 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
+          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6095,23 +6112,23 @@
     <row r="112" ht="16.5" customHeight="1">
       <c r="A112" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>網路拓撲和連接</t>
         </is>
       </c>
       <c r="B112" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>分割</t>
         </is>
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Key Vault 儲存機密和憑據</t>
+          <t>請確保將 Azure 負載均衡器的內部部署設置為使用直接伺服器返回 （DSR）。當內部負載平衡器配置用於 DBMS 層上的高可用性配置時，此設置將減少延遲。</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
       <c r="E112" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -6122,19 +6139,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
         </is>
       </c>
       <c r="I112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
+          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6145,17 +6162,17 @@
     <row r="113" ht="16.5" customHeight="1">
       <c r="A113" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>網路拓撲和連接</t>
         </is>
       </c>
       <c r="B113" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>分割</t>
         </is>
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>建議在成功部署后鎖定 Azure 資源，以防止未經授權的更改。還可以使用自定義的 Azure 策略（自定義角色）在每個訂閱的基礎上強制實施 LOCK 約束和規則。</t>
+          <t>可以使用應用程式安全組 （ASG） 和 NSG 規則在 SAP 應用程式層和 DBMS 層之間定義網路安全存取控制清單。ASG 對虛擬機進行分組以説明管理其安全性。</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
@@ -6172,19 +6189,19 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
         </is>
       </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
+          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6195,23 +6212,23 @@
     <row r="114" ht="16.5" customHeight="1">
       <c r="A114" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>網路拓撲和連接</t>
         </is>
       </c>
       <c r="B114" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>分割</t>
         </is>
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>預配啟用軟刪除和清除策略的 Azure Key Vault，以允許對已刪除物件進行保留保護。</t>
+          <t>不支援將 SAP 應用程式層和 SAP DBMS 放置在未對等互連的不同 Azure VNet 中。</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
       <c r="E114" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6222,19 +6239,19 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
+          <t>https://me.sap.com/notes/2015553</t>
         </is>
       </c>
       <c r="I114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6245,23 +6262,23 @@
     <row r="115" ht="16.5" customHeight="1">
       <c r="A115" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>網路拓撲和連接</t>
         </is>
       </c>
       <c r="B115" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>分割</t>
         </is>
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>根據現有要求、法規和合規性控制（內部/外部） - 確定所需的 Azure 策略和 Azure RBAC 角色</t>
+          <t>為了實現 SAP 應用程式的最佳網路延遲，請考慮使用 Azure 鄰近放置組。</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
       <c r="E115" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6272,19 +6289,19 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6295,17 +6312,17 @@
     <row r="116" ht="16.5" customHeight="1">
       <c r="A116" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>網路拓撲和連接</t>
         </is>
       </c>
       <c r="B116" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>分割</t>
         </is>
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>在 SAP 環境中啟用 Microsoft Defender for Endpoint 時，建議排除 DBMS 伺服器上的數據和日誌檔，而不是面向所有伺服器。在排除目標檔時，請遵循 DBMS 供應商的建議。</t>
+          <t>完全不支援運行在本地和 Azure 之間拆分的 SAP 應用程式伺服器層和 DBMS 層。這兩個層都需要完全駐留在本地或 Azure 中。</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6322,19 +6339,19 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://me.sap.com/notes/2015553</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6345,17 +6362,17 @@
     <row r="117" ht="16.5" customHeight="1">
       <c r="A117" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>網路拓撲和連接</t>
         </is>
       </c>
       <c r="B117" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>分割</t>
         </is>
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>委派具有 Microsoft Defender for Cloud 實時訪問許可權的 SAP 管理員自定義角色。</t>
+          <t>不建議將 SAP 系統的資料庫管理系統 （DBMS） 和應用程式層託管在不同的 VNet 中，並將它們與 VNet 對等互連連接，因為層之間的過多網路流量可能會產生大量成本。建議使用 Azure 虛擬網路中的子網來分隔 SAP 應用程式層和 DBMS 層。</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
@@ -6372,19 +6389,19 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
+          <t>https://me.sap.com/notes/2015553</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6395,23 +6412,23 @@
     <row r="118" ht="16.5" customHeight="1">
       <c r="A118" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>網路拓撲和連接</t>
         </is>
       </c>
       <c r="B118" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>分割</t>
         </is>
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>通過將第三方安全產品與用於 DIAG （SAP GUI）、RFC 和用於 HTTPS 的 SPNEGO 的安全網路通信 （SNC） 集成，對傳輸中的數據進行加密</t>
+          <t>如果在 Linux 客戶機作業系統中使用負載均衡器，請檢查 Linux 網路參數 net.ipv4.tcp_timestamps 是否設置為 0。</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
       <c r="E118" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6422,19 +6439,19 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
         </is>
       </c>
       <c r="I118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6445,17 +6462,17 @@
     <row r="119" ht="16.5" customHeight="1">
       <c r="A119" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>網路拓撲和連接</t>
         </is>
       </c>
       <c r="B119" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>分割</t>
         </is>
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>預設使用 Microsoft 管理的金鑰以實現主體加密功能，並在需要時使用客戶管理的金鑰。</t>
+          <t>對於 SAP RISE/ECS 部署，虛擬對等互連是與客戶現有 Azure 環境建立連接的首選方式。SAP VNet 和客戶 VNet 都受網路安全組 （NSG） 保護，從而通過 VNet 對等互連在 SAP 和資料庫埠上進行通信</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
@@ -6472,19 +6489,14 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6500,18 +6512,18 @@
       </c>
       <c r="B120" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>每個應用程式、每個環境、每個區域使用 Azure Key Vault。</t>
+          <t>如果在 Azure、本地或其他雲環境中運行 Windows 和 Linux VM，則可以使用 Azure 自動化中的更新管理中心來管理作業系統更新，包括安全修補程式。</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6522,19 +6534,19 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
         </is>
       </c>
       <c r="I120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6550,18 +6562,18 @@
       </c>
       <c r="B121" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>若要控制和管理非 HANA Windows 和非 Windows 作業系統的磁碟加密密鑰和機密，請使用 Azure Key Vault。Azure Key Vault 不支援 SAP HANA，因此必須使用 SAP ABAP 或 SSH 密鑰等備用方法。</t>
+          <t>請定期查看 SAP 安全 OSS 說明，因為 SAP 會發佈高度關鍵的安全補丁或熱修復程式，需要立即採取措施來保護 SAP 系統。</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
       <c r="E121" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6572,19 +6584,19 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
         </is>
       </c>
       <c r="I121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
         </is>
       </c>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6600,18 +6612,18 @@
       </c>
       <c r="B122" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>對於 SQL Server 上的 SAP，可以禁用 SQL Server 系統管理員帳戶，因為 SQL Server 上的 SAP 系統不使用該帳戶。在禁用原始系統管理員帳戶之前，請確保具有系統管理員許可權的其他使用者可以訪問伺服器。</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6622,7 +6634,7 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="I122" s="15" t="n"/>
@@ -6630,7 +6642,7 @@
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6646,12 +6658,12 @@
       </c>
       <c r="B123" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>為 Azure 上的 SAP 分支訂閱自定義基於角色的訪問控制 （RBAC） 角色，以避免與網路相關的意外更改</t>
+          <t>禁用xp_cmdshell。SQL Server 功能xp_cmdshell啟用 SQL Server 內部作業系統命令行介面。這是安全審計中的潛在風險。</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
@@ -6668,19 +6680,19 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="I123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+          <t>https://me.sap.com/notes/3019299/E</t>
         </is>
       </c>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6696,12 +6708,12 @@
       </c>
       <c r="B124" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>將 DMZ 和 NVA 與 SAP 資產的其餘部分隔離開來，配置 Azure 專用連結，並安全地管理和控制 Azure 上的 SAP 資源</t>
+          <t>在 Azure 上加密 SAP HANA 資料庫伺服器使用 SAP HANA 本機加密技術。此外，如果在 Azure 上使用 SQL Server，請使用透明數據加密 （TDE） 來保護數據和日誌檔，並確保備份也已加密。</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
@@ -6718,19 +6730,19 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
         </is>
       </c>
       <c r="I124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6746,18 +6758,18 @@
       </c>
       <c r="B125" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>請考慮在 Azure 上使用 Microsoft 反惡意軟體來保護虛擬機免受惡意檔、廣告軟體和其他威脅的侵害。</t>
+          <t>已為所有 Azure 資源管理器和經典記憶體啟用 Azure 儲存加密，並且無法禁用。由於數據預設是加密的，因此無需修改代碼或應用程式即可使用 Azure 儲存加密。</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
       <c r="E125" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -6768,19 +6780,19 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
         </is>
       </c>
       <c r="I125" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
         </is>
       </c>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6796,18 +6808,18 @@
       </c>
       <c r="B126" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>若要獲得更強大的保護，請考慮使用 Microsoft Defender for Endpoint。</t>
+          <t>使用 Azure Key Vault 儲存機密和憑據</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
       <c r="E126" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -6818,19 +6830,19 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6846,18 +6858,18 @@
       </c>
       <c r="B127" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>通過將所有流量傳遞到中心虛擬網路（通過虛擬網路對等互連連接到分支網路），將 SAP 應用程式和資料庫伺服器與 Internet 或本地網路隔離開來。對等互連虛擬網路保證 Azure 上的 SAP 解決方案與公共 Internet 隔離。</t>
+          <t>建議在成功部署后鎖定 Azure 資源，以防止未經授權的更改。還可以使用自定義的 Azure 策略（自定義角色）在每個訂閱的基礎上強制實施 LOCK 約束和規則。</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
       <c r="E127" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -6868,19 +6880,19 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6896,18 +6908,18 @@
       </c>
       <c r="B128" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>對於面向 Internet 的應用程式（如 SAP Fiori），請確保在保持安全級別的同時，按應用程式要求分配負載。對於第 7 層安全性，可以使用 Azure 市場中提供的第三方 Web 應用程式防火牆 （WAF）。</t>
+          <t>預配啟用軟刪除和清除策略的 Azure Key Vault，以允許對已刪除物件進行保留保護。</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
       <c r="E128" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -6918,19 +6930,19 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6946,18 +6958,18 @@
       </c>
       <c r="B129" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>若要在用於 SAP 解決方案的 Azure Monitor 中啟用安全通信，可以選擇使用根證書或伺服器證書。我們強烈建議您使用根證書。</t>
+          <t>根據現有要求、法規和合規性控制（內部/外部） - 確定所需的 Azure 策略和 Azure RBAC 角色</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
       <c r="E129" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -6968,19 +6980,19 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6991,23 +7003,23 @@
     <row r="130" ht="16.5" customHeight="1">
       <c r="A130" s="21" t="inlineStr">
         <is>
-          <t>存儲</t>
+          <t>安全性、治理與合規性</t>
         </is>
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>適用於 Oracle、SQL、HANA 的磁碟配置</t>
+          <t>在 SAP 環境中啟用 Microsoft Defender for Endpoint 時，建議排除 DBMS 伺服器上的數據和日誌檔，而不是面向所有伺服器。在排除目標檔時，請遵循 DBMS 供應商的建議。</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
       <c r="E130" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -7016,12 +7028,21 @@
         </is>
       </c>
       <c r="G130" s="21" t="n"/>
-      <c r="H130" s="15" t="n"/>
+      <c r="H130" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+        </is>
+      </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>d579266b-cca2-475f-aa1a-bfe9d55d04c3</t>
+          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7030,208 +7051,645 @@
       <c r="P130" s="25" t="n"/>
     </row>
     <row r="131" ht="16.5" customHeight="1">
-      <c r="A131" s="21" t="n"/>
-      <c r="B131" s="21" t="n"/>
-      <c r="C131" s="21" t="n"/>
+      <c r="A131" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理與合規性</t>
+        </is>
+      </c>
+      <c r="B131" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C131" s="21" t="inlineStr">
+        <is>
+          <t>委派具有 Microsoft Defender for Cloud 實時訪問許可權的 SAP 管理員自定義角色。</t>
+        </is>
+      </c>
       <c r="D131" s="21" t="n"/>
-      <c r="E131" s="21" t="n"/>
+      <c r="E131" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G131" s="21" t="n"/>
-      <c r="H131" s="15" t="n"/>
+      <c r="H131" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
-      <c r="L131" s="25" t="n"/>
+      <c r="L131" s="25" t="inlineStr">
+        <is>
+          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+        </is>
+      </c>
       <c r="M131" s="25" t="n"/>
       <c r="N131" s="25" t="n"/>
       <c r="O131" s="25" t="n"/>
       <c r="P131" s="25" t="n"/>
     </row>
     <row r="132" ht="16.5" customHeight="1">
-      <c r="A132" s="21" t="n"/>
-      <c r="B132" s="21" t="n"/>
-      <c r="C132" s="21" t="n"/>
+      <c r="A132" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理與合規性</t>
+        </is>
+      </c>
+      <c r="B132" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C132" s="21" t="inlineStr">
+        <is>
+          <t>通過將第三方安全產品與用於 DIAG （SAP GUI）、RFC 和用於 HTTPS 的 SPNEGO 的安全網路通信 （SNC） 集成，對傳輸中的數據進行加密</t>
+        </is>
+      </c>
       <c r="D132" s="21" t="n"/>
-      <c r="E132" s="21" t="n"/>
+      <c r="E132" s="21" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G132" s="21" t="n"/>
-      <c r="H132" s="15" t="n"/>
+      <c r="H132" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
+        </is>
+      </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
-      <c r="L132" s="25" t="n"/>
+      <c r="L132" s="25" t="inlineStr">
+        <is>
+          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+        </is>
+      </c>
       <c r="M132" s="25" t="n"/>
       <c r="N132" s="25" t="n"/>
       <c r="O132" s="25" t="n"/>
       <c r="P132" s="25" t="n"/>
     </row>
     <row r="133" ht="16.5" customHeight="1">
-      <c r="A133" s="21" t="n"/>
-      <c r="B133" s="21" t="n"/>
-      <c r="C133" s="21" t="n"/>
+      <c r="A133" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理與合規性</t>
+        </is>
+      </c>
+      <c r="B133" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C133" s="21" t="inlineStr">
+        <is>
+          <t>預設使用 Microsoft 管理的金鑰以實現主體加密功能，並在需要時使用客戶管理的金鑰。</t>
+        </is>
+      </c>
       <c r="D133" s="21" t="n"/>
-      <c r="E133" s="21" t="n"/>
+      <c r="E133" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G133" s="21" t="n"/>
-      <c r="H133" s="15" t="n"/>
+      <c r="H133" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
-      <c r="L133" s="25" t="n"/>
+      <c r="L133" s="25" t="inlineStr">
+        <is>
+          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+        </is>
+      </c>
       <c r="M133" s="25" t="n"/>
       <c r="N133" s="25" t="n"/>
       <c r="O133" s="25" t="n"/>
       <c r="P133" s="25" t="n"/>
     </row>
     <row r="134" ht="16.5" customHeight="1">
-      <c r="A134" s="21" t="n"/>
-      <c r="B134" s="21" t="n"/>
-      <c r="C134" s="21" t="n"/>
+      <c r="A134" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理與合規性</t>
+        </is>
+      </c>
+      <c r="B134" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C134" s="21" t="inlineStr">
+        <is>
+          <t>每個應用程式、每個環境、每個區域使用 Azure Key Vault。</t>
+        </is>
+      </c>
       <c r="D134" s="21" t="n"/>
-      <c r="E134" s="21" t="n"/>
+      <c r="E134" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G134" s="21" t="n"/>
-      <c r="H134" s="15" t="n"/>
+      <c r="H134" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
-      <c r="L134" s="25" t="n"/>
+      <c r="L134" s="25" t="inlineStr">
+        <is>
+          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+        </is>
+      </c>
       <c r="M134" s="25" t="n"/>
       <c r="N134" s="25" t="n"/>
       <c r="O134" s="25" t="n"/>
       <c r="P134" s="25" t="n"/>
     </row>
     <row r="135" ht="16.5" customHeight="1">
-      <c r="A135" s="21" t="n"/>
-      <c r="B135" s="21" t="n"/>
-      <c r="C135" s="21" t="n"/>
+      <c r="A135" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理與合規性</t>
+        </is>
+      </c>
+      <c r="B135" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C135" s="21" t="inlineStr">
+        <is>
+          <t>若要控制和管理非 HANA Windows 和非 Windows 作業系統的磁碟加密密鑰和機密，請使用 Azure Key Vault。Azure Key Vault 不支援 SAP HANA，因此必須使用 SAP ABAP 或 SSH 密鑰等備用方法。</t>
+        </is>
+      </c>
       <c r="D135" s="21" t="n"/>
-      <c r="E135" s="21" t="n"/>
+      <c r="E135" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G135" s="21" t="n"/>
-      <c r="H135" s="15" t="n"/>
+      <c r="H135" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
-      <c r="L135" s="25" t="n"/>
+      <c r="L135" s="25" t="inlineStr">
+        <is>
+          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+        </is>
+      </c>
       <c r="M135" s="25" t="n"/>
       <c r="N135" s="25" t="n"/>
       <c r="O135" s="25" t="n"/>
       <c r="P135" s="25" t="n"/>
     </row>
     <row r="136" ht="16.5" customHeight="1">
-      <c r="A136" s="21" t="n"/>
-      <c r="B136" s="21" t="n"/>
-      <c r="C136" s="21" t="n"/>
+      <c r="A136" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理與合規性</t>
+        </is>
+      </c>
+      <c r="B136" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C136" s="21" t="inlineStr">
+        <is>
+          <t>&amp;nbsp</t>
+        </is>
+      </c>
       <c r="D136" s="21" t="n"/>
-      <c r="E136" s="21" t="n"/>
+      <c r="E136" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G136" s="21" t="n"/>
-      <c r="H136" s="15" t="n"/>
+      <c r="H136" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
-      <c r="L136" s="25" t="n"/>
+      <c r="L136" s="25" t="inlineStr">
+        <is>
+          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+        </is>
+      </c>
       <c r="M136" s="25" t="n"/>
       <c r="N136" s="25" t="n"/>
       <c r="O136" s="25" t="n"/>
       <c r="P136" s="25" t="n"/>
     </row>
     <row r="137" ht="16.5" customHeight="1">
-      <c r="A137" s="21" t="n"/>
-      <c r="B137" s="21" t="n"/>
-      <c r="C137" s="21" t="n"/>
+      <c r="A137" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理與合規性</t>
+        </is>
+      </c>
+      <c r="B137" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C137" s="21" t="inlineStr">
+        <is>
+          <t>為 Azure 上的 SAP 分支訂閱自定義基於角色的訪問控制 （RBAC） 角色，以避免與網路相關的意外更改</t>
+        </is>
+      </c>
       <c r="D137" s="21" t="n"/>
-      <c r="E137" s="21" t="n"/>
+      <c r="E137" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G137" s="21" t="n"/>
-      <c r="H137" s="15" t="n"/>
+      <c r="H137" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
-      <c r="L137" s="25" t="n"/>
+      <c r="L137" s="25" t="inlineStr">
+        <is>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+        </is>
+      </c>
       <c r="M137" s="25" t="n"/>
       <c r="N137" s="25" t="n"/>
       <c r="O137" s="25" t="n"/>
       <c r="P137" s="25" t="n"/>
     </row>
     <row r="138" ht="16.5" customHeight="1">
-      <c r="A138" s="21" t="n"/>
-      <c r="B138" s="21" t="n"/>
-      <c r="C138" s="21" t="n"/>
+      <c r="A138" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理與合規性</t>
+        </is>
+      </c>
+      <c r="B138" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C138" s="21" t="inlineStr">
+        <is>
+          <t>將 DMZ 和 NVA 與 SAP 資產的其餘部分隔離開來，配置 Azure 專用連結，並安全地管理和控制 Azure 上的 SAP 資源</t>
+        </is>
+      </c>
       <c r="D138" s="21" t="n"/>
-      <c r="E138" s="21" t="n"/>
+      <c r="E138" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G138" s="21" t="n"/>
-      <c r="H138" s="15" t="n"/>
+      <c r="H138" s="15" t="inlineStr">
+        <is>
+          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+        </is>
+      </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
-      <c r="L138" s="25" t="n"/>
+      <c r="L138" s="25" t="inlineStr">
+        <is>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+        </is>
+      </c>
       <c r="M138" s="25" t="n"/>
       <c r="N138" s="25" t="n"/>
       <c r="O138" s="25" t="n"/>
       <c r="P138" s="25" t="n"/>
     </row>
     <row r="139" ht="16.5" customHeight="1">
-      <c r="A139" s="21" t="n"/>
-      <c r="B139" s="21" t="n"/>
-      <c r="C139" s="21" t="n"/>
+      <c r="A139" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理與合規性</t>
+        </is>
+      </c>
+      <c r="B139" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C139" s="21" t="inlineStr">
+        <is>
+          <t>請考慮在 Azure 上使用 Microsoft 反惡意軟體來保護虛擬機免受惡意檔、廣告軟體和其他威脅的侵害。</t>
+        </is>
+      </c>
       <c r="D139" s="21" t="n"/>
-      <c r="E139" s="21" t="n"/>
+      <c r="E139" s="21" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G139" s="21" t="n"/>
-      <c r="H139" s="15" t="n"/>
+      <c r="H139" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+        </is>
+      </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
-      <c r="L139" s="25" t="n"/>
+      <c r="L139" s="25" t="inlineStr">
+        <is>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+        </is>
+      </c>
       <c r="M139" s="25" t="n"/>
       <c r="N139" s="25" t="n"/>
       <c r="O139" s="25" t="n"/>
       <c r="P139" s="25" t="n"/>
     </row>
     <row r="140" ht="16.5" customHeight="1">
-      <c r="A140" s="21" t="n"/>
-      <c r="B140" s="21" t="n"/>
-      <c r="C140" s="21" t="n"/>
+      <c r="A140" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理與合規性</t>
+        </is>
+      </c>
+      <c r="B140" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C140" s="21" t="inlineStr">
+        <is>
+          <t>若要獲得更強大的保護，請考慮使用 Microsoft Defender for Endpoint。</t>
+        </is>
+      </c>
       <c r="D140" s="21" t="n"/>
-      <c r="E140" s="21" t="n"/>
+      <c r="E140" s="21" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G140" s="21" t="n"/>
-      <c r="H140" s="15" t="n"/>
+      <c r="H140" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
-      <c r="L140" s="25" t="n"/>
+      <c r="L140" s="25" t="inlineStr">
+        <is>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+        </is>
+      </c>
       <c r="M140" s="25" t="n"/>
       <c r="N140" s="25" t="n"/>
       <c r="O140" s="25" t="n"/>
       <c r="P140" s="25" t="n"/>
     </row>
     <row r="141" ht="16.5" customHeight="1">
-      <c r="A141" s="21" t="n"/>
-      <c r="B141" s="21" t="n"/>
-      <c r="C141" s="21" t="n"/>
+      <c r="A141" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理與合規性</t>
+        </is>
+      </c>
+      <c r="B141" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C141" s="21" t="inlineStr">
+        <is>
+          <t>通過將所有流量傳遞到中心虛擬網路（通過虛擬網路對等互連連接到分支網路），將 SAP 應用程式和資料庫伺服器與 Internet 或本地網路隔離開來。對等互連虛擬網路保證 Azure 上的 SAP 解決方案與公共 Internet 隔離。</t>
+        </is>
+      </c>
       <c r="D141" s="21" t="n"/>
-      <c r="E141" s="21" t="n"/>
+      <c r="E141" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G141" s="21" t="n"/>
-      <c r="H141" s="15" t="n"/>
+      <c r="H141" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
-      <c r="L141" s="25" t="n"/>
+      <c r="L141" s="25" t="inlineStr">
+        <is>
+          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+        </is>
+      </c>
       <c r="M141" s="25" t="n"/>
       <c r="N141" s="25" t="n"/>
       <c r="O141" s="25" t="n"/>
       <c r="P141" s="25" t="n"/>
     </row>
     <row r="142" ht="16.5" customHeight="1">
-      <c r="A142" s="21" t="n"/>
-      <c r="B142" s="21" t="n"/>
-      <c r="C142" s="21" t="n"/>
+      <c r="A142" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理與合規性</t>
+        </is>
+      </c>
+      <c r="B142" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C142" s="21" t="inlineStr">
+        <is>
+          <t>對於面向 Internet 的應用程式（如 SAP Fiori），請確保在保持安全級別的同時，按應用程式要求分配負載。對於第 7 層安全性，可以使用 Azure 市場中提供的第三方 Web 應用程式防火牆 （WAF）。</t>
+        </is>
+      </c>
       <c r="D142" s="21" t="n"/>
-      <c r="E142" s="21" t="n"/>
+      <c r="E142" s="21" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G142" s="21" t="n"/>
-      <c r="H142" s="15" t="n"/>
+      <c r="H142" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
-      <c r="L142" s="25" t="n"/>
+      <c r="L142" s="25" t="inlineStr">
+        <is>
+          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+        </is>
+      </c>
       <c r="M142" s="25" t="n"/>
       <c r="N142" s="25" t="n"/>
       <c r="O142" s="25" t="n"/>
       <c r="P142" s="25" t="n"/>
     </row>
     <row r="143" ht="16.5" customHeight="1">
-      <c r="A143" s="21" t="n"/>
-      <c r="B143" s="21" t="n"/>
-      <c r="C143" s="21" t="n"/>
+      <c r="A143" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理與合規性</t>
+        </is>
+      </c>
+      <c r="B143" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C143" s="21" t="inlineStr">
+        <is>
+          <t>若要在用於 SAP 解決方案的 Azure Monitor 中啟用安全通信，可以選擇使用根證書或伺服器證書。我們強烈建議您使用根證書。</t>
+        </is>
+      </c>
       <c r="D143" s="21" t="n"/>
-      <c r="E143" s="21" t="n"/>
+      <c r="E143" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G143" s="21" t="n"/>
-      <c r="H143" s="15" t="n"/>
+      <c r="H143" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
-      <c r="L143" s="25" t="n"/>
+      <c r="L143" s="25" t="inlineStr">
+        <is>
+          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+        </is>
+      </c>
       <c r="M143" s="25" t="n"/>
       <c r="N143" s="25" t="n"/>
       <c r="O143" s="25" t="n"/>
@@ -9718,7 +10176,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F131" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F144" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/sap_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.zh-Hant.xlsx
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Azure SAP 解決方案中心 （ACSS） 是一種 Azure 產品/服務，可使 SAP 成為 Azure 上的頂級工作負載。ACSS 是一種端到端解決方案，可用於在 Azure 上將 SAP 系統作為統一工作負載創建和運行，併為創新提供更無縫的基礎。可以利用基於 Azure 的新 SAP 系統和現有 SAP 系統的管理功能。</t>
+          <t>Azure SAP 解決方案中心 （ACSS） 是一種 Azure 產品/服務，可使 SAP 成為 Azure 上的頂級工作負載。ACSS 是一種端到端解決方案，使你能夠在 Azure 上創建和運行 SAP 系統作為統一工作負載，並為創新提供更無縫的基礎。可以利用新的和現有的基於 Azure 的 SAP 系統的管理功能。</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1114,12 +1114,12 @@
       </c>
       <c r="B9" s="21" t="inlineStr">
         <is>
-          <t>SDAF公司</t>
+          <t>SDAF的</t>
         </is>
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Azure 支援在Linux和 Windows 中自動執行 SAP 部署。SAP Deployment Automation Framework 是一種開源編排工具，可以部署、安裝和維護 SAP 環境。</t>
+          <t>Azure 支援在Linux和 Windows 中自動執行 SAP 部署。SAP 部署自動化框架是一種開源編排工具，可以部署、安裝和維護 SAP 環境。</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>在滿足 RTO 的任何時間點和時間範圍內對生產資料庫執行時間點恢復;時間點恢復通常包括操作員在DBMS層或通過SAP刪除數據時出現錯誤</t>
+          <t>在滿足 RTO 的任何時間點和時間範圍內對生產資料庫執行時間點恢復;時間點恢復通常包括操作員在DBMS層上或通過SAP刪除數據時出現的錯誤</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>測試備份和恢復時間，以驗證它們是否滿足在災難發生后同時還原所有系統的 RTO 要求。</t>
+          <t>測試備份和恢復時間，以驗證它們是否滿足災難發生后同時還原所有系統的 RTO 要求。</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>可以在配對區域之間複製標準存儲，但不能使用標準存儲來存儲資料庫或虛擬硬碟。您只能在使用的配對區域之間複製備份。對於所有其他數據，請使用本機 DBMS 功能（如 SQL Server Always On 或 SAP HANA 系統複製）運行複製。將 Site Recovery、rsync 或 robocopy 以及其他第三方軟體結合用於 SAP 應用程式層。</t>
+          <t>可以在配對區域之間複製標準存儲，但不能使用標準存儲來存儲資料庫或虛擬硬碟。您只能在使用的配對區域之間複製備份。對於所有其他數據，請使用本機 DBMS 功能（如 SQL Server Always On 或 SAP HANA 系統複製）運行複製。將 Site Recovery、rsync 或 robocopy 與其他第三方軟體結合用於 SAP 應用程式層。</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>設置從本地到主要和次要 Azure 災難恢復區域的 ExpressRoute 連接。此外，作為使用 ExpressRoute 的替代方法，請考慮設置從本地到主要和次要 Azure 災難恢復區域的 VPN 連接。</t>
+          <t>設置從本地到主要和輔助 Azure 災難恢復區域的 ExpressRoute 連接。此外，作為使用 ExpressRoute 的替代方法，請考慮設置從本地到主要和輔助 Azure 災難恢復區域的 VPN 連接。</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>跨區域複製金鑰保管庫內容（如證書、機密或金鑰），以便解密DR區域中的數據。</t>
+          <t>跨區域複製金鑰保管庫內容（如證書、機密或金鑰），以便可以解密DR區域中的數據。</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>對等互連主虛擬網路和災難恢復虛擬網路。例如，對於 HANA 系統複製，需要將 SAP HANA DB 虛擬網路與災難恢復網站的 SAP HANA DB 虛擬網路對等互連。</t>
+          <t>對等互連主虛擬網路和災難恢復虛擬網路。例如，對於 HANA 系統複製，需要將 SAP HANA DB 虛擬網路對等互連到災難恢復網站的 SAP HANA DB 虛擬網路。</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>如果將 Azure NetApp 檔案儲存用於 SAP 部署，則至少在兩個區域的高級層中創建兩個 Azure NetApp 檔帳戶。</t>
+          <t>如果將 Azure NetApp 檔案儲存用於 SAP 部署，請至少在兩個區域的高級層中創建兩個 Azure NetApp 檔帳戶。</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>使用 Site Recovery 將應用程式伺服器複製到 DR 網站。Site Recovery 還有助於將中心服務群集 VM 複製到DR網站。調用DR時，需要在DR網站上重新配置Linux Pacemaker群集（例如，替換VIP或SBD、運行 corosync.conf 等）。</t>
+          <t>使用 Site Recovery 將應用程式伺服器複製到 DR 網站。Site Recovery 還可以説明將中心服務群集 VM 複製到DR網站。調用DR時，需要在DR網站上重新配置Linux Pacemaker群集（例如，替換VIP或SBD、運行 corosync.conf 等）。</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
@@ -1695,7 +1695,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>考慮針對單點故障的 SAP 軟體的可用性。這包括應用程式內的單點故障，例如 SAP NetWeaver 和 SAP S/4HANA 架構中使用的 DBMS、SAP ABAP 和 ASCS + SCS。此外，還有其他工具，例如 SAP Web Dispatcher。</t>
+          <t>考慮針對單點故障的 SAP 軟體的可用性。這包括應用程式中的單點故障，例如SAP NetWeaver和SAP S/4HANA架構中使用的DBMS，SAP ABAP和ASCS + SCS。此外，還有其他工具，例如 SAP Web Dispatcher。</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1712,7 +1712,7 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/sap-high-availability-architecture-scenario</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-business-continuity-and-disaster-recovery</t>
         </is>
       </c>
       <c r="I21" s="15" t="inlineStr">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Azure 不支援主 VM 和輔助 VM 共用 DBMS 數據存儲的體系結構。對於 DBMS 層，常見的體系結構模式是同時複製資料庫，並使用與主 VM 和輔助 VM 使用的儲存堆疊不同的儲存堆疊。</t>
+          <t>Azure 不支援主 VM 和輔助 VM 共用 DBMS 數據存儲的體系結構。對於 DBMS 層，常見的體系結構模式是同時複製資料庫，並且使用與主 VM 和輔助 VM 使用的儲存堆疊不同的儲存堆疊。</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>DBMS 數據和事務/重做日誌檔存儲在 Azure 支援的塊存儲或 Azure NetApp 檔中。不支援將 Azure 檔案儲存或 Azure 高級檔儲存作為 SAP 工作負載的 DBMS 資料和/或重做日誌檔的存儲。</t>
+          <t>DBMS 數據和事務/重做日誌檔存儲在 Azure 支援的塊存儲或 Azure NetApp 檔中。不支援將 Azure 檔案儲存或 Azure 高級檔用作 DBMS 資料和/或具有 SAP 工作負載的重做日誌檔的存儲。</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>可以在 Windows 中將 Azure 共用磁碟用於 ASCS + SCS 元件和特定的高可用性方案。為 SAP 應用程式層元件和 DBMS 層單獨設置故障轉移群集。Azure 目前不支援將 SAP 應用程式層元件和 DBMS 層合併到一個故障轉移群集中的高可用性體系結構。</t>
+          <t>可以在 Windows 中將 Azure 共用磁碟用於 ASCS + SCS 元件和特定的高可用性方案。分別為 SAP 應用程式層元件和 DBMS 層設置故障轉移群集。Azure 目前不支援將 SAP 應用程式層元件和 DBMS 層合併到一個故障轉移群集中的高可用性體系結構。</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>SAP 應用程式層元件 （ASCS） 和 DBMS 層的大多數故障轉移群集都需要故障轉移群集的虛擬 IP 位址。 對於所有其他情況，Azure 負載均衡器應處理虛擬IP位址。一個設計原則是每個群集配置使用一個負載均衡器。建議使用負載均衡器的標準版本（標準負載均衡器 SKU）。</t>
+          <t>SAP 應用程式層元件 （ASCS） 和 DBMS 層的大多數故障轉移群集都需要故障轉移群集的虛擬 IP 位址。 對於所有其他情況，Azure 負載均衡器應處理虛擬IP位址。一種設計原則是為每個群集配置使用一個負載均衡器。建議使用標準版負載均衡器（標準負載均衡器 SKU）。</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -2140,7 +2140,7 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>不要在同一可用性集中混合使用不同角色的伺服器。將中央服務 VM、資料庫 VM、應用程式 VM 保留在其自己的可用性集中</t>
+          <t>不要在同一可用性集中混合使用不同角色的伺服器。將中心服務 VM、資料庫 VM、應用程式 VM 保留在其自己的可用性集中</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
@@ -2190,7 +2190,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>除非使用鄰近放置組，否則無法在 Azure 可用性區域中部署 Azure 可用性集。</t>
+          <t>除非使用鄰近放置組，否則無法在 Azure 可用性區域內部署 Azure 可用性集。</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>創建可用性集時，請使用可用的容錯域和更新域的最大數量。例如，如果在一個可用性集中部署兩個以上的 VM，則除了 Azure 計劃內維護外，還要使用最大數量的容錯域（三個）和足夠的更新域來限制潛在的物理硬體故障、網路中斷或電源中斷的影響。容錯域的預設數量為 2，以後無法連線更改。</t>
+          <t>創建可用性集時，請使用最大數量的容錯域和可用更新域。例如，如果在一個可用性集中部署兩個以上的 VM，請使用最大容錯域數（三個）和足夠的更新域來限制潛在的物理硬體故障、網路中斷或電源中斷的影響，以及 Azure 計劃內維護。默認的容錯域數為兩個，以後無法連線更改。</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
@@ -2290,7 +2290,7 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>在可用性集部署中使用 Azure 鄰近放置組時，所有三個 SAP 元件（中央服務、應用程式伺服器和資料庫）都應位於同一鄰近放置組中。</t>
+          <t>在可用性集部署中使用 Azure 鄰近放置組時，所有三個 SAP 元件（中心服務、應用程式伺服器和資料庫）都應位於同一鄰近放置組中。</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
@@ -2432,7 +2432,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Azure 目前不支援在同一 Linux Pacemaker 群集中組合 ASCS 和 DB HA;將它們分成單獨的集群。但是，您最多可以將五個多個中心服務群集組合到一對 VM 中。</t>
+          <t>Azure 目前不支援將 ASCS 和 DB HA 組合到同一個 Linux Pacemaker 群集中;將它們分成單獨的集群。但是，最多可以將5個多個中心服務群集組合到一對VM中。</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2482,7 +2482,7 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>在可用性集或可用性區域中的高可用性對中部署這兩個 VM。這些 VM 的大小應相同，並且具有相同的存儲配置。</t>
+          <t>在可用性集或可用性區域中的高可用性對中部署兩個 VM。這些 VM 的大小應相同，並且具有相同的存儲配置。</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
@@ -2578,7 +2578,7 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>在高級託管 SSD 上運行所有生產系統，並使用 Azure NetApp 檔或超級磁碟存儲。至少OS磁碟應位於高級層，以便實現更好的性能和最佳SLA。</t>
+          <t>在高級託管 SSD 上運行所有生產系統，並使用 Azure NetApp 檔或超級磁碟存儲。至少OS磁碟應位於高級層，以便可以實現更好的性能和最佳SLA。</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>請考慮根據用於 SAP 工作負載的儲存類型來配置高可用性。Azure Site Recovery 不支援 Azure 中提供的某些存儲服務，因此高可用性配置可能會有所不同。</t>
+          <t>請考慮根據用於 SAP 工作負載的儲存類型配置高可用性。Azure Site Recovery 不支援 Azure 中提供的某些存儲服務，因此高可用性配置可能會有所不同。</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
@@ -2816,7 +2816,7 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>自動執行 SAP 系統啟動-停止以管理成本。</t>
+          <t>自動執行 SAP System Start-Stop 以管理成本。</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2852,23 +2852,23 @@
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>成本優化</t>
         </is>
       </c>
       <c r="B45" s="21" t="inlineStr">
         <is>
-          <t>身份</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>為管理組、訂閱、資源組和資源強制實施 RBAC 模型</t>
+          <t>如果將 Azure 高級存儲與 SAP HANA 配合使用，則可以使用 Azure 標準 SSD 儲存來選擇具有成本意識的儲存解決方案。但是，請注意，選擇標準 SSD 或標準 HDD Azure 儲存將影響各個 VM 的 SLA。此外，對於 I/O 輸送量較低且延遲較低的系統（例如非生產環境），可以使用較低系列的 VM。</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
       <c r="E45" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2879,19 +2879,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/hana-vm-premium-ssd-v1</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
+          <t>71dc00cd-4392-4262-8949-20c05e6c0333</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2902,23 +2897,23 @@
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>成本優化</t>
         </is>
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>身份</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>強制實施原則傳播，以便通過雲連接器將標識從 SAP 雲應用程式轉發到 SAP 本地（包括 IaaS）</t>
+          <t>作為成本較低的替代配置（多用途），可以為非生產 HANA 資料庫伺服器 VM 選擇低性能 SKU。但是，請務必注意，某些 VM 類型（如 E 系列）未經 HANA 認證（SAP HANA 硬體目錄），或者無法實現小於 1 毫秒的存儲延遲。</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
       <c r="E46" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2929,19 +2924,15 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
-        </is>
-      </c>
-      <c r="I46" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/sap/workloads/hana-vm-premium-ssd-v1</t>
+        </is>
+      </c>
+      <c r="I46" s="15" t="n"/>
       <c r="J46" s="22" t="n"/>
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>45911475-e39e-4530-accc-d979366bcda2</t>
+          <t>9877f353-2591-4e8b-8381-e9043fed1010</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2952,7 +2943,7 @@
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>身份和訪問</t>
         </is>
       </c>
       <c r="B47" s="21" t="inlineStr">
@@ -2962,13 +2953,13 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>使用 SAML 通過 Azure AD 實現對 SAP SaaS 應用程式（如 SAP Analytics Cloud、SAP Cloud Platform、Business by design、SAP Qualtrics 和 SAP C4C）的 SSO。</t>
+          <t>對管理組、訂閱、資源組和資源強制實施 RBAC 模型</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
       <c r="E47" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2979,15 +2970,19 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
-        </is>
-      </c>
-      <c r="I47" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
+        </is>
+      </c>
+      <c r="I47" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
+          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2998,7 +2993,7 @@
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>身份和訪問</t>
         </is>
       </c>
       <c r="B48" s="21" t="inlineStr">
@@ -3008,7 +3003,7 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>使用 SAML 實現對基於 SAP NetWeaver 的 Web 應用程式（如 SAP Fiori 和 SAP Web GUI）的 SSO。</t>
+          <t>強制實施原則傳播，以便通過雲連接器將標識從 SAP 雲應用程式轉發到本地 （包括 IaaS）</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -3025,19 +3020,19 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
+          <t>45911475-e39e-4530-accc-d979366bcda2</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -3048,7 +3043,7 @@
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>身份和訪問</t>
         </is>
       </c>
       <c r="B49" s="21" t="inlineStr">
@@ -3058,7 +3053,7 @@
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>使用 SAML 實現對基於 SAP NetWeaver 的 Web 應用程式（如 SAP Fiori 和 SAP Web GUI）的 SSO。</t>
+          <t>使用 SAML 通過 Azure AD 實現 SAP SaaS 應用程式（如 SAP Analytics Cloud、SAP Cloud Platform、Business by design、SAP Qualtrics 和 SAP C4C）的 SSO。</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -3073,17 +3068,16 @@
         </is>
       </c>
       <c r="G49" s="21" t="n"/>
-      <c r="H49" s="15" t="n"/>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
+      <c r="H49" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
+          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3094,7 +3088,7 @@
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>身份和訪問</t>
         </is>
       </c>
       <c r="B50" s="21" t="inlineStr">
@@ -3104,7 +3098,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>可以使用 SAP NetWeaver SSO 或合作夥伴解決方案實現到 SAP GUI 的 SSO。</t>
+          <t>使用 SAML 對基於 SAP NetWeaver 的 Web 應用程式（如 SAP Fiori 和 SAP Web GUI）實施 SSO。</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3133,7 +3127,7 @@
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
+          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3144,7 +3138,7 @@
     <row r="51" ht="16.5" customHeight="1">
       <c r="A51" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>身份和訪問</t>
         </is>
       </c>
       <c r="B51" s="21" t="inlineStr">
@@ -3154,7 +3148,7 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>對於 SAP GUI 和 Web 瀏覽器存取的 SSO，請實施 SNC/Kerberos/SPNEGO（簡單且受保護的 GSSAPI 協商機制），因為它易於配置和維護。對於使用 X.509 用戶端證書的 SSO，請考慮使用 SAP 安全登錄伺服器，它是 SAP SSO 解決方案的一個元件。</t>
+          <t>使用 SAML 對基於 SAP NetWeaver 的 Web 應用程式（如 SAP Fiori 和 SAP Web GUI）實施 SSO。</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
@@ -3172,14 +3166,14 @@
       <c r="H51" s="15" t="n"/>
       <c r="I51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
         </is>
       </c>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
+          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3190,7 +3184,7 @@
     <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>身份和訪問</t>
         </is>
       </c>
       <c r="B52" s="21" t="inlineStr">
@@ -3200,7 +3194,7 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>對於 SAP GUI 和 Web 瀏覽器存取的 SSO，請實施 SNC/Kerberos/SPNEGO（簡單且受保護的 GSSAPI 協商機制），因為它易於配置和維護。對於使用 X.509 用戶端證書的 SSO，請考慮使用 SAP 安全登錄伺服器，它是 SAP SSO 解決方案的一個元件。</t>
+          <t>可以使用 SAP NetWeaver SSO 或合作夥伴解決方案實現 SAP GUI 的 SSO。</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
@@ -3217,15 +3211,19 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://blogs.sap.com/2017/07/12/sap-single-sign-on-protect-your-sap-landscape-with-x.509-certificates/</t>
-        </is>
-      </c>
-      <c r="I52" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+        </is>
+      </c>
+      <c r="I52" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+        </is>
+      </c>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
+          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3236,7 +3234,7 @@
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>身份和訪問</t>
         </is>
       </c>
       <c r="B53" s="21" t="inlineStr">
@@ -3246,7 +3244,7 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>使用 SAP NetWeaver 的 OAuth 實現 SSO，以允許第三方或自定義應用程式訪問 SAP NetWeaver OData 服務。</t>
+          <t>對於用於 SAP GUI 和 Web 瀏覽器存取的 SSO，由於其易於配置和維護，請實施 SNC/Kerberos/SPNEGO（簡單且受保護的 GSSAPI 協商機制）。對於具有 X.509 用戶端證書的 SSO，請考慮 SAP 安全登錄伺服器，它是 SAP SSO 解決方案的一個元件。</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3261,16 +3259,17 @@
         </is>
       </c>
       <c r="G53" s="21" t="n"/>
-      <c r="H53" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
+      <c r="H53" s="15" t="n"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
+          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3281,7 +3280,7 @@
     <row r="54" ht="16.5" customHeight="1">
       <c r="A54" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>身份和訪問</t>
         </is>
       </c>
       <c r="B54" s="21" t="inlineStr">
@@ -3291,7 +3290,7 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>實現SAP HANA的 SSO</t>
+          <t>對於用於 SAP GUI 和 Web 瀏覽器存取的 SSO，由於其易於配置和維護，請實施 SNC/Kerberos/SPNEGO（簡單且受保護的 GSSAPI 協商機制）。對於具有 X.509 用戶端證書的 SSO，請考慮 SAP 安全登錄伺服器，它是 SAP SSO 解決方案的一個元件。</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3308,7 +3307,7 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
+          <t>https://blogs.sap.com/2017/07/12/sap-single-sign-on-protect-your-sap-landscape-with-x.509-certificates/</t>
         </is>
       </c>
       <c r="I54" s="15" t="n"/>
@@ -3316,7 +3315,7 @@
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
+          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3327,7 +3326,7 @@
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>身份和訪問</t>
         </is>
       </c>
       <c r="B55" s="21" t="inlineStr">
@@ -3337,7 +3336,7 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>將 Azure AD 視為 RISE 上託管的 SAP 系統的標識提供者。有關詳細資訊，請參閱將服務與 Azure AD 集成。</t>
+          <t>使用 OAuth for SAP NetWeaver 實現 SSO，以允許第三方或自定義應用程式訪問 SAP NetWeaver OData 服務。</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3354,14 +3353,14 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
+          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3372,7 +3371,7 @@
     <row r="56" ht="16.5" customHeight="1">
       <c r="A56" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>身份和訪問</t>
         </is>
       </c>
       <c r="B56" s="21" t="inlineStr">
@@ -3382,7 +3381,7 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>對於訪問 SAP 的應用程式，可能需要使用主體傳播來建立 SSO。</t>
+          <t>實施 SSO 到 SAP HANA</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
@@ -3399,14 +3398,14 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/azuredevcollege/SAP/blob/master/sap-oauth-saml-flow/README.md</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
+          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3417,7 +3416,7 @@
     <row r="57" ht="16.5" customHeight="1">
       <c r="A57" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>身份和訪問</t>
         </is>
       </c>
       <c r="B57" s="21" t="inlineStr">
@@ -3427,7 +3426,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>如果使用需要 SAP Identity Authentication Service （IAS） 的 SAP BTP 服務或 SaaS 解決方案，請考慮在 SAP Cloud Identity Authentication Services 和 Azure AD 之間實現 SSO 以存取這些 SAP 服務。此集成允許 SAP IAS 充當代理標識提供者，並將身份驗證請求轉發到作為中央使用者存儲和標識提供者的 Azure AD。</t>
+          <t>將 Azure AD 視為 RISE 上託管的 SAP 系統的標識提供者。有關詳細資訊，請參閱將服務與 Azure AD 集成。</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3444,14 +3443,14 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
+          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3462,7 +3461,7 @@
     <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>身份和訪問</t>
         </is>
       </c>
       <c r="B58" s="21" t="inlineStr">
@@ -3472,7 +3471,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>實現對 SAP BTP 的 SSO</t>
+          <t>對於訪問 SAP 的應用程式，您可能希望使用主體傳播來建立 SSO。</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3489,14 +3488,14 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
+          <t>https://github.com/azuredevcollege/SAP/blob/master/sap-oauth-saml-flow/README.md</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
+          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3507,7 +3506,7 @@
     <row r="59" ht="16.5" customHeight="1">
       <c r="A59" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>身份和訪問</t>
         </is>
       </c>
       <c r="B59" s="21" t="inlineStr">
@@ -3517,7 +3516,7 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>如果使用的是 SAP SuccessFactors，請考慮使用 Azure AD 自動使用者預配。通過此整合，在向 SAP SuccessFactors 添加新員工時，可以在 Azure AD 中自動創建其使用者帳戶。 （可選）可以在 Microsoft 365 或 Azure AD 支援的其他 SaaS 應用程式中創建使用者帳戶。 將電子郵件地址寫回 SAP SuccessFactors。</t>
+          <t>如果使用的是需要 SAP Identity Authentication Service （IAS） 的 SAP BTP 服務或 SaaS 解決方案，請考慮在 SAP Cloud Identity Authentication Services 和 Azure AD 之間實現 SSO 來存取這些 SAP 服務。此集成允許 SAP IAS 充當代理標識提供者，並將身份驗證請求轉發到 Azure AD 作為中央使用者存儲和標識提供者。</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3534,14 +3533,14 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
+          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3552,17 +3551,17 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
-          <t>管理組和訂閱</t>
+          <t>身份和訪問</t>
         </is>
       </c>
       <c r="B60" s="21" t="inlineStr">
         <is>
-          <t>訂閱</t>
+          <t>身份</t>
         </is>
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>對 SAP 訂閱強制實施現有管理組策略</t>
+          <t>實施 SSO 到 SAP BTP</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3579,19 +3578,14 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
+          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3602,23 +3596,23 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="21" t="inlineStr">
         <is>
-          <t>管理組和訂閱</t>
+          <t>身份和訪問</t>
         </is>
       </c>
       <c r="B61" s="21" t="inlineStr">
         <is>
-          <t>訂閱</t>
+          <t>身份</t>
         </is>
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>將緊密耦合的應用程式集成到同一 SAP 訂閱中，以避免額外的路由和管理複雜性</t>
+          <t>如果使用的是 SAP SuccessFactors，請考慮使用 Azure AD 自動使用者預配。通過此整合，在向 SAP SuccessFactors 新增員工時，可以在 Azure AD 中自動建立使用者帳戶。 （可選）可以在 Azure AD 支援的 Microsoft 365 或其他 SaaS 應用程式中建立使用者帳戶。 使用將電子郵件地址寫回 SAP SuccessFactors。</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
       <c r="E61" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3629,19 +3623,14 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
+          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3662,13 +3651,13 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>利用訂閱作為縮放單元並縮放我們的資源，請考慮按環境部署訂閱，例如。沙箱、非生產、生產</t>
+          <t>對 SAP 訂閱強制實施現有管理組策略</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
       <c r="E62" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3679,19 +3668,19 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
+          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3712,7 +3701,7 @@
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>確保在訂閱預配過程中增加配額（例如，訂閱中可用的 VM 核心總數）</t>
+          <t>將緊密耦合的應用程式集成到同一個 SAP 訂閱中，以避免額外的路由和管理複雜性</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3729,19 +3718,19 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
         </is>
       </c>
       <c r="I63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
         </is>
       </c>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
+          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3762,13 +3751,13 @@
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>配額 API 是一個 REST API，可用於查看和管理 Azure 服務的配額。如有必要，請考慮使用它。</t>
+          <t>利用訂閱作為縮放單元並擴展我們的資源，請考慮按環境部署訂閱，例如。沙箱、非生產、生產</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
       <c r="E64" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3779,15 +3768,19 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
-        </is>
-      </c>
-      <c r="I64" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+        </is>
+      </c>
+      <c r="I64" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
+          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3808,7 +3801,7 @@
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>如果部署到可用性區域，請確保在批准配額后，VM 的區域部署可用。提交支援請求，其中包含所需的訂閱、VM 系列、CPU 數量和可用性區域。</t>
+          <t>確保在訂閱預配過程中增加配額（例如，訂閱中的可用 VM 核心總數）</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
@@ -3825,15 +3818,19 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
-        </is>
-      </c>
-      <c r="I65" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
+        </is>
+      </c>
+      <c r="I65" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+        </is>
+      </c>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
+          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3854,13 +3851,13 @@
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>確保所需的服務和功能在選定的部署區域內可用，例如。ANF、區域等</t>
+          <t>配額 API 是一個 REST API，可用於查看和管理 Azure 服務的配額。如有必要，請考慮使用它。</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
       <c r="E66" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3871,19 +3868,14 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
+          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
+          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3904,13 +3896,13 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>利用 Azure 資源標記進行成本分類和資源分組（：帳單、部門（或營業單位）、環境（生產、階段、開發）、層（Web 層、應用層）、應用程式擁有者、專案名稱）</t>
+          <t>如果部署到可用性區域，請確保在配額獲得批准后，VM 的區域部署可用。提交支援請求，其中包含所需的訂閱、VM 系列、CPU 數量和可用性區域。</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
       <c r="E67" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3921,19 +3913,15 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
-        </is>
-      </c>
-      <c r="I67" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
+        </is>
+      </c>
+      <c r="I67" s="15" t="n"/>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
+          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3944,17 +3932,17 @@
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="21" t="inlineStr">
         <is>
-          <t>管理和監控</t>
+          <t>管理組和訂閱</t>
         </is>
       </c>
       <c r="B68" s="21" t="inlineStr">
         <is>
-          <t>BCDR的</t>
+          <t>訂閱</t>
         </is>
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 備份服務幫助保護 HANA 資料庫。</t>
+          <t>確保所需的服務和功能在選定的部署區域內可用，例如。ANF、區域等</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -3971,19 +3959,19 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
+          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
         </is>
       </c>
       <c r="I68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
         </is>
       </c>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
+          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -3994,17 +3982,17 @@
     <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="21" t="inlineStr">
         <is>
-          <t>管理和監控</t>
+          <t>管理組和訂閱</t>
         </is>
       </c>
       <c r="B69" s="21" t="inlineStr">
         <is>
-          <t>BCDR的</t>
+          <t>訂閱</t>
         </is>
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>如果為 HANA、Oracle 或 DB2 資料庫部署 Azure NetApp 檔，請使用 Azure 應用程式一致性快照工具 （AzAcSnap） 建立應用程式一致性快照。AzAcSnap 還支援 Oracle 資料庫。請考慮在中央 VM 上使用 AzAcSnap，而不是在單個 VM 上使用 AzAcSnap。</t>
+          <t>利用 Azure 資源標記進行成本分類和資源分組（：BillTo、部門（或營業單位）、環境（生產、階段、開發）、層（Web 層、應用層）、應用程式擁有者、ProjectName）</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
@@ -4021,15 +4009,19 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
-        </is>
-      </c>
-      <c r="I69" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
+        </is>
+      </c>
+      <c r="I69" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
+          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4045,12 +4037,12 @@
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>BCDR的</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>確保操作系統和 SAP 系統之間的時區匹配。</t>
+          <t>使用 Azure 備份服務幫助保護 HANA 資料庫。</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -4067,15 +4059,19 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
-        </is>
-      </c>
-      <c r="I70" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
+        </is>
+      </c>
+      <c r="I70" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
+          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4091,12 +4087,12 @@
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>BCDR的</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>不要在同一集群中對不同的應用程式服務進行分組。例如，不要將DRBD和中央服務群集合並到同一個群集上。但是，可以使用同一個 Pacemaker 群集來管理大約五個不同的中央服務（多 SID 群集）。</t>
+          <t>如果為 HANA、Oracle 或 DB2 資料庫部署 Azure NetApp 檔，請使用 Azure 應用程式一致性快照工具 （AzAcSnap） 拍攝應用程式一致性快照。AzAcSnap 還支援 Oracle 資料庫。請考慮在中央 VM 上使用 AzAcSnap，而不是在單個 VM 上使用 AzAcSnap。</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -4113,19 +4109,15 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
-        </is>
-      </c>
-      <c r="I71" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
+        </is>
+      </c>
+      <c r="I71" s="15" t="n"/>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
+          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4146,13 +4138,13 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>請考慮在暫停模型中運行開發/測試系統，以節省和優化 Azure 運行成本。</t>
+          <t>確保操作系統和 SAP 系統之間的時區匹配。</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4163,7 +4155,7 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
         </is>
       </c>
       <c r="I72" s="15" t="n"/>
@@ -4171,7 +4163,7 @@
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
+          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4192,7 +4184,7 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>如果通過管理客戶的 SAP 資產與客戶合作，請考慮使用 Azure Lighthouse。Azure Lighthouse 允許託管服務提供者使用 Azure 本機標識服務向客戶環境進行身份驗證。它將控制權交到客戶手中，因為他們可以隨時撤銷訪問許可權並審核服務提供者的操作。</t>
+          <t>不要將不同的應用程式服務分組到同一個集群中。例如，不要將DRBD和中心服務集群組合在同一集群上。但是，可以使用同一個 Pacemaker 群集來管理大約五個不同的中心服務（多 SID 群集）。</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -4209,15 +4201,19 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
-        </is>
-      </c>
-      <c r="I73" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
+        </is>
+      </c>
+      <c r="I73" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J73" s="22" t="n"/>
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
+          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4238,13 +4234,13 @@
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 更新管理員檢查單個 VM 或多個 VM 的可用更新狀態，並考慮計劃定期修補。</t>
+          <t>請考慮在貪睡模型中運行開發/測試系統，以節省和優化 Azure 運行成本。</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4255,19 +4251,15 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
-        </is>
-      </c>
-      <c r="I74" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
+        </is>
+      </c>
+      <c r="I74" s="15" t="n"/>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
+          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4288,13 +4280,13 @@
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>使用 SAP Landscape Management （LaMa） 優化和管理 SAP Basis 操作。使用適用於 Azure 的 SAP LaMa 連接器重新置放、複製、克隆和刷新 SAP 系統。</t>
+          <t>如果通過管理客戶的 SAP 資產與客戶合作，請考慮使用 Azure Lighthouse。Azure Lighthouse 允許託管服務提供者使用 Azure 本機標識服務對客戶環境進行身份驗證。它將控制權交到客戶手中，因為他們可以隨時撤銷訪問許可權並審核服務提供者的操作。</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
       <c r="E75" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4305,19 +4297,15 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
-        </is>
-      </c>
-      <c r="I75" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
+        </is>
+      </c>
+      <c r="I75" s="15" t="n"/>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
+          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4333,12 +4321,12 @@
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>使用適用於 SAP 解決方案的 Azure Monitor 監視 Azure 上的 SAP 工作負載（SAP HANA、高可用性 SUSE 群集和 SQL 系統）。請考慮使用 SAP 解決方案管理器補充用於 SAP 解決方案的 Azure Monitor。</t>
+          <t>使用 Azure Update Manager 檢查單個 VM 或多個 VM 的可用更新狀態，並考慮計劃定期修補。</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
@@ -4355,19 +4343,19 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
+          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
         </is>
       </c>
       <c r="I76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
         </is>
       </c>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
+          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4383,18 +4371,18 @@
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>運行適用於 SAP 的 VM 擴展檢查。適用於 SAP 的 VM 擴展使用虛擬機 （VM） 的分配託管標識來訪問 VM 監視和配置數據。該檢查可確保 SAP 應用程式中的所有性能指標都來自適用於 SAP 的基礎 Azure 擴展。</t>
+          <t>使用 SAP Landscape Management （LaMa） 優化和管理 SAP Basis 操作。使用適用於 Azure 的 SAP LaMa 連接器重新置放、複製、克隆和刷新 SAP 系統。</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4405,19 +4393,19 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
         </is>
       </c>
       <c r="I77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
         </is>
       </c>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
+          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4438,7 +4426,7 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Policy 進行訪問控制和合規性報告。Azure Policy 提供強制實施組織範圍設置的功能，以確保一致的策略遵守和快速的違規檢測。</t>
+          <t>使用適用於 SAP 解決方案的 Azure Monitor 監視 Azure 上的 SAP 工作負載（SAP HANA、高可用性 SUSE 群集和 SQL 系統）。請考慮使用 SAP 解決方案管理器補充用於 SAP 解決方案的 Azure Monitor。</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
@@ -4455,19 +4443,19 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
         </is>
       </c>
       <c r="I78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
         </is>
       </c>
       <c r="J78" s="22" t="n"/>
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
+          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4488,13 +4476,13 @@
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 網路觀察程式中的連接監視器監視 SAP 資料庫和應用程式伺服器的延遲指標。或者使用 Azure Monitor 收集和顯示網路延遲度量值。</t>
+          <t>運行 VM 擴展 SAP 檢查。適用於 SAP 的 VM 擴展使用虛擬機 （VM） 的分配託管標識來訪問 VM 監視和配置數據。該檢查可確保 SAP 應用程式中的所有性能指標都來自適用於 SAP 的基礎 Azure 擴展。</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
       <c r="E79" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4505,19 +4493,19 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
         </is>
       </c>
       <c r="I79" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
         </is>
       </c>
       <c r="J79" s="22" t="n"/>
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
+          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4538,13 +4526,13 @@
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Site Recovery 監視來維護 SAP 應用程式伺服器的災難恢復服務的運行狀況。</t>
+          <t>使用 Azure Policy 進行訪問控制和合規性報告。Azure Policy 提供強制實施組織範圍設置的功能，以確保一致的策略遵守和快速違規檢測。</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4555,19 +4543,19 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
+          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4588,7 +4576,7 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>在預配的 Azure 基礎結構上對 SAP HANA 執行質量檢查，以驗證預配的 VM 是否符合 Azure 上的 SAP HANA 最佳做法。</t>
+          <t>使用 Azure 網路觀察程式中的連接監視器來監視 SAP 資料庫和應用程式伺服器的延遲指標。或者使用 Azure Monitor 收集和顯示網路延遲度量值。</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4605,15 +4593,19 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/QualityCheck</t>
-        </is>
-      </c>
-      <c r="I81" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
+        </is>
+      </c>
+      <c r="I81" s="15" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
+        </is>
+      </c>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
+          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4634,7 +4626,7 @@
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>對於每個 Azure 訂閱，請在區域部署之前在 Azure 可用性區域上運行延遲測試，以選擇用於在 Azure 上部署 SAP 的低延遲區域。</t>
+          <t>使用 Azure Site Recovery 監視來維護 SAP 應用程式伺服器的災難恢復服務的運行狀況。</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
@@ -4651,19 +4643,19 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-zones</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
         </is>
       </c>
       <c r="I82" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
+          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4684,7 +4676,7 @@
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>運行復原報告，確保整個預配的 Azure 基礎結構（計算、資料庫、網路、存儲、Site Recovery）的配置符合適用於 Azure 的 Cloud Adaption Framework 定義的配置。</t>
+          <t>在預配的 Azure 基礎結構上對 SAP HANA 執行質量檢查，以驗證預配的 VM 是否符合 Azure 上的 SAP HANA 最佳做法。</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
@@ -4701,19 +4693,15 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/advisor/advisor-how-to-improve-reliability</t>
-        </is>
-      </c>
-      <c r="I83" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/azure-well-architected-framework/</t>
-        </is>
-      </c>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/QualityCheck</t>
+        </is>
+      </c>
+      <c r="I83" s="15" t="n"/>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>410adcba-db46-424f-a6c4-05ecde75c52e</t>
+          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4734,13 +4722,13 @@
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>使用適用於 SAP 的 Microsoft Sentinel 解決方案實施威脅防護。使用此解決方案可以監視 SAP 系統，並檢測整個業務邏輯和應用程式層的複雜威脅。</t>
+          <t>對於每個 Azure 訂閱，在區域部署之前，請在 Azure 可用性區域上運行延遲測試，以選擇低延遲區域以在 Azure 上部署 SAP。</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
       <c r="E84" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4751,19 +4739,19 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/sap/deployment-overview</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-zones</t>
         </is>
       </c>
       <c r="I84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/plan-microsoft-sentinel-deployment-sap/?source=recommendations</t>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
         </is>
       </c>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
+          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4784,7 +4772,7 @@
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>可以利用 Azure 標記對資源進行邏輯分組和跟蹤，自動執行其部署，最重要的是，提供對所產生成本的可見性。</t>
+          <t>運行復原報告，以確保整個預配的 Azure 基礎結構（計算、資料庫、網路、存儲、Site Recovery）的配置符合適用於 Azure 的 Cloud Adaption Framework 定義的配置。</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4801,19 +4789,19 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/enable-tag-inheritance</t>
+          <t>https://learn.microsoft.com/azure/advisor/advisor-how-to-improve-reliability</t>
         </is>
       </c>
       <c r="I85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/azure-well-architected-framework/</t>
         </is>
       </c>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
+          <t>410adcba-db46-424f-a6c4-05ecde75c52e</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4829,18 +4817,18 @@
       </c>
       <c r="B86" s="21" t="inlineStr">
         <is>
-          <t>性能</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>對延遲敏感型應用程式使用虛擬機間延遲監視。</t>
+          <t>使用適用於 SAP 的 Microsoft Sentinel 解決方案實施威脅防護。使用此解決方案可以監視 SAP 系統，並檢測整個業務邏輯層和應用程式層中的複雜威脅。</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
       <c r="E86" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4851,15 +4839,19 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-test-latency?tabs=windows</t>
-        </is>
-      </c>
-      <c r="I86" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sentinel/sap/deployment-overview</t>
+        </is>
+      </c>
+      <c r="I86" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/plan-microsoft-sentinel-deployment-sap/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>04b8e5e5-13cb-4b22-af62-5a8ecfcf0337</t>
+          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4875,12 +4867,12 @@
       </c>
       <c r="B87" s="21" t="inlineStr">
         <is>
-          <t>性能</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Site Recovery 監視來維護 SAP 應用程式伺服器的災難恢復服務的運行狀況。</t>
+          <t>可以利用 Azure 標記對資源進行邏輯分組和跟蹤，自動執行其部署，最重要的是，提供對所發生成本的可見性。</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
@@ -4897,19 +4889,19 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide-storage</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/enable-tag-inheritance</t>
         </is>
       </c>
       <c r="I87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/?source=recommendations</t>
         </is>
       </c>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>07e5ed53-3d96-43d8-87ea-631b77da5aba</t>
+          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4930,13 +4922,13 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>從防病毒掃描中排除所有資料庫檔系統和可執行程式。包括它們可能會導致性能問題。請與資料庫供應商聯繫，瞭解排除清單的規範性詳細資訊。例如，Oracle 建議&lt;sid&gt;從防病毒掃描中排除 /oracle}sapdata。</t>
+          <t>對延遲敏感型應用程式使用 VM 間延遲監視。</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
       <c r="E88" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4947,7 +4939,7 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-test-latency?tabs=windows</t>
         </is>
       </c>
       <c r="I88" s="15" t="n"/>
@@ -4955,7 +4947,7 @@
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>abb6af9c-982c-4cf1-83fb-329fafd1ee56</t>
+          <t>04b8e5e5-13cb-4b22-af62-5a8ecfcf0337</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4976,13 +4968,13 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>請考慮在遷移後收集非 HANA 資料庫的完整資料庫統計資訊。例如，實現 SAP 註釋 1020260 - Oracle 統計資訊的交付。</t>
+          <t>使用 Azure Site Recovery 監視來維護 SAP 應用程式伺服器的災難恢復服務的運行狀況。</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
       <c r="E89" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4993,15 +4985,19 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://sapit-forme-prod.authentication.eu11.hana.ondemand.com/login</t>
-        </is>
-      </c>
-      <c r="I89" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide-storage</t>
+        </is>
+      </c>
+      <c r="I89" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>c027f893-f404-41a9-b33d-39d625a14964</t>
+          <t>07e5ed53-3d96-43d8-87ea-631b77da5aba</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5022,7 +5018,7 @@
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>請考慮將 Oracle 自動儲存管理 （ASM） 用於使用 Azure 上的 SAP 的所有 Oracle 部署。</t>
+          <t>從防病毒掃描中排除所有資料庫檔系統和可執行程式。包含它們可能會導致性能問題。請與資料庫供應商聯繫，瞭解排除清單的規範性詳細資訊。例如，Oracle 建議&lt;sid&gt;從防病毒掃描中排除 /oracle}sapdata。</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -5039,19 +5035,15 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/configure-oracle-asm</t>
-        </is>
-      </c>
-      <c r="I90" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/administer-infrastructure-resources-in-azure/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
+        </is>
+      </c>
+      <c r="I90" s="15" t="n"/>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>fdafb1f5-3eee-4354-a8c9-deb8127ebc2e</t>
+          <t>abb6af9c-982c-4cf1-83fb-329fafd1ee56</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5072,13 +5064,13 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>對於運行 Oracle 的 Azure 上的 SAP，SQL 腳本集合可説明你診斷性能問題。 Automatic Workload Repository （AWR） 報告包含用於診斷 Oracle 系統中問題的寶貴資訊。我們建議您在多個工作階段期間運行 AWR 報告，並為其選擇高峰時間，以確保分析的廣泛覆蓋。</t>
+          <t>請考慮在遷移後收集非 HANA 資料庫的完整資料庫統計資訊。例如，實現 SAP 註釋 1020260 - Oracle 統計資訊的交付。</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
       <c r="E91" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -5089,19 +5081,15 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/announcement-sap-on-azure-oracle-performance-efficiency-scripts/ba-p/3725178</t>
-        </is>
-      </c>
-      <c r="I91" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/ja-jp/azure/well-architected/oracle-iaas/performance-efficiency</t>
-        </is>
-      </c>
+          <t>https://sapit-forme-prod.authentication.eu11.hana.ondemand.com/login</t>
+        </is>
+      </c>
+      <c r="I91" s="15" t="n"/>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>33c5d5bf-daf3-4f0d-bd50-6010fdcec22e</t>
+          <t>c027f893-f404-41a9-b33d-39d625a14964</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5112,17 +5100,17 @@
     <row r="92" ht="16.5" customHeight="1">
       <c r="A92" s="21" t="inlineStr">
         <is>
-          <t>網路拓撲和連接</t>
+          <t>管理和監控</t>
         </is>
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>應用交付</t>
+          <t>性能</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>若要安全交付 HTTP/S 應用，請使用應用程式閘道 v2 並確保已啟用 WAF 保護和策略。</t>
+          <t>請考慮將 Oracle 自動儲存管理 （ASM） 用於使用 Azure 上的 SAP 的所有 Oracle 部署。</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
@@ -5139,19 +5127,19 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/configure-oracle-asm</t>
         </is>
       </c>
       <c r="I92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
+          <t>https://learn.microsoft.com/training/paths/administer-infrastructure-resources-in-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
+          <t>fdafb1f5-3eee-4354-a8c9-deb8127ebc2e</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5162,17 +5150,17 @@
     <row r="93" ht="16.5" customHeight="1">
       <c r="A93" s="21" t="inlineStr">
         <is>
-          <t>網路拓撲和連接</t>
+          <t>管理和監控</t>
         </is>
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>DNS解析</t>
+          <t>性能</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>如果在遷移到 Azure 期間未更改虛擬機器的 DNS 或虛擬名稱，則後台 DNS 和虛擬名稱會連接 SAP 環境中的許多系統介面，並且客戶有時只知道開發人員隨時間推移定義的介面。遷移后，當虛擬名稱或 DNS 名稱發生更改時，各種系統之間會出現連接挑戰，建議保留 DNS 別名以防止出現這些類型的困難。</t>
+          <t>對於運行 Oracle 的 Azure 上的 SAP，SQL 腳本集合可説明你診斷性能問題。 Automatic Workload Repository （AWR） 報告包含用於診斷 Oracle 系統中問題的寶貴資訊。我們建議您在多個工作階段期間運行 AWR 報告，並為其選擇高峰時間，以確保分析的廣泛覆蓋。</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
@@ -5189,19 +5177,19 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/announcement-sap-on-azure-oracle-performance-efficiency-scripts/ba-p/3725178</t>
         </is>
       </c>
       <c r="I93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
+          <t>https://learn.microsoft.com/ja-jp/azure/well-architected/oracle-iaas/performance-efficiency</t>
         </is>
       </c>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
+          <t>33c5d5bf-daf3-4f0d-bd50-6010fdcec22e</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5217,12 +5205,12 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>DNS解析</t>
+          <t>應用交付</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>使用不同的 DNS 區域將每個環境（沙箱、開發、預生產和生產）彼此區分開來。例外情況是具有自己的 VNet 的 SAP 部署;在這裡，專用 DNS 區域可能不是必需的。</t>
+          <t>若要安全交付 HTTP/S 應用，請使用應用程式閘道 v2 並確保啟用 WAF 保護和策略。</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
@@ -5239,19 +5227,19 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
         </is>
       </c>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
+          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5267,12 +5255,12 @@
       </c>
       <c r="B95" s="21" t="inlineStr">
         <is>
-          <t>混合</t>
+          <t>功能變數名稱統計</t>
         </is>
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>本地和全域 VNet 對等互連提供連接，是確保跨多個 Azure 區域的 SAP 部署登陸區域之間連接的首選方法</t>
+          <t>如果在遷移到 Azure 期間未更改虛擬機器的 DNS 或虛擬名稱，則後台 DNS 和虛擬名稱將連接 SAP 環境中的許多系統介面，並且客戶有時只是偶爾知道開發人員隨時間推移定義的介面。遷移后，當虛擬名稱或 DNS 名稱發生更改時，各種系統之間會出現連接挑戰，建議保留 DNS 別名以防止出現此類困難。</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5289,19 +5277,19 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
+          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5317,18 +5305,18 @@
       </c>
       <c r="B96" s="21" t="inlineStr">
         <is>
-          <t>混合</t>
+          <t>功能變數名稱統計</t>
         </is>
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>不支援在 SAP 應用程式和 SAP 資料庫伺服器之間部署任何 NVA</t>
+          <t>使用不同的 DNS 區域來區分每個環境（沙箱、開發、預生產和生產）。例外情況是具有自己的 VNet 的 SAP 部署;在這裡，專用 DNS 區域可能不是必需的。</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5339,19 +5327,19 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I96" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2731110</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
+          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5372,7 +5360,7 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>在需要跨 Azure 區域和本地位置進行全球傳輸連接的新網路、大型網路或全球網路中，將虛擬 WAN 用於 Azure 部署。使用此方法，無需手動為 Azure 網路設置可傳遞路由，並且可以遵循 Azure 上的 SAP 部署的標準。</t>
+          <t>本地和全域 VNet 對等互連提供連接，是確保跨多個 Azure 區域的 SAP 部署的登陸區域之間連接的首選方法</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
@@ -5389,19 +5377,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
         </is>
       </c>
       <c r="I97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
         </is>
       </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
+          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5422,13 +5410,13 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>僅當使用合作夥伴 NVA 時，才考慮在區域之間部署網路虛擬設備 （NVA）。如果存在本機 NVA，則不需要區域或 VNet 之間的 NVA。部署合作夥伴網路技術和 NVA 時，請按照供應商的指南驗證與 Azure 網路的衝突配置。</t>
+          <t>不支援在 SAP 應用程式和 SAP 資料庫伺服器之間部署任何 NVA</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
       <c r="E98" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5439,19 +5427,19 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
         </is>
       </c>
       <c r="I98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
+          <t>https://me.sap.com/notes/2731110</t>
         </is>
       </c>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
+          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5472,7 +5460,7 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>虛擬 WAN 管理基於虛擬 WAN 的拓撲的分支 VNet 之間的連接（無需設置使用者定義的路由 [UDR] 或 NVA），同一虛擬中心中 VNet 到 VNet 流量的最大網路輸送量為每秒 50 GB。如有必要，SAP 登陸區域可以使用 VNet 對等互連連接到其他登陸區域並克服此頻寬限制。</t>
+          <t>在需要跨 Azure 區域和本地位置的全球傳輸連接的新網路、大型網路或全球網路中，使用虛擬 WAN 進行 Azure 部署。使用此方法，無需為 Azure 網路手動設置可傳遞路由，並且可以遵循 Azure 上的 SAP 部署的標準。</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5489,19 +5477,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
+          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5517,18 +5505,18 @@
       </c>
       <c r="B100" s="21" t="inlineStr">
         <is>
-          <t>IP計劃</t>
+          <t>混合</t>
         </is>
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>不建議將公共 I.P 分配給運行 SAP 工作負載的 VM。</t>
+          <t>僅當使用合作夥伴 NVA 時，才考慮在區域之間部署網路虛擬設備 （NVA）。如果存在本機 NVA，則不需要區域或 VNet 之間的 NVA。部署合作夥伴網路技術和 NVA 時，請按照供應商的指南驗證與 Azure 網路衝突的配置。</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5539,19 +5527,19 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
         </is>
       </c>
       <c r="I100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
         </is>
       </c>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
+          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5567,18 +5555,18 @@
       </c>
       <c r="B101" s="21" t="inlineStr">
         <is>
-          <t>IP計劃</t>
+          <t>混合</t>
         </is>
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>配置 ASR 時，請考慮在 DR 端保留 I.P 位址</t>
+          <t>虛擬 WAN 管理基於虛擬 WAN 的拓撲的分支 VNet 之間的連接（無需設置使用者定義的路由 [UDR] 或 NVA），同一虛擬中心中 VNet 到 VNet 流量的最大網路輸送量為每秒 50 Gb。如有必要，SAP 登陸區域可以使用 VNet 對等互連連接到其他登陸區域，並克服此頻寬限制。</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
       <c r="E101" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5589,19 +5577,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
         </is>
       </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
+          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5617,12 +5605,12 @@
       </c>
       <c r="B102" s="21" t="inlineStr">
         <is>
-          <t>IP計劃</t>
+          <t>知識產權計劃</t>
         </is>
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>避免對生產網站和DR網站使用重疊的IP位址範圍。</t>
+          <t>不建議將公共IP分配給運行SAP工作負載的 VM。</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
@@ -5651,7 +5639,7 @@
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
+          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5667,18 +5655,18 @@
       </c>
       <c r="B103" s="21" t="inlineStr">
         <is>
-          <t>IP計劃</t>
+          <t>知識產權計劃</t>
         </is>
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>雖然 Azure 確實有助於在 VNet 中創建多個委託子網，但 Azure NetApp 檔的 VNet 中只能存在一個委託子網。如果對 Azure NetApp 檔使用多個委託子網，則嘗試創建新卷將失敗。</t>
+          <t>配置 ASR 時，請考慮在 DR 端保留 IP 位址</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
       <c r="E103" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5689,19 +5677,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="I103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
+          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5717,18 +5705,18 @@
       </c>
       <c r="B104" s="21" t="inlineStr">
         <is>
-          <t>互聯網</t>
+          <t>知識產權計劃</t>
         </is>
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 防火牆管理發往 Internet、非 HTTP/S 入站連接和東西方流量篩選的 Azure 出站流量（如果組織需要）</t>
+          <t>避免對生產網站和DR網站使用重疊的IP位址範圍。</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5739,19 +5727,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
+          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5767,12 +5755,12 @@
       </c>
       <c r="B105" s="21" t="inlineStr">
         <is>
-          <t>互聯網</t>
+          <t>知識產權計劃</t>
         </is>
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>當應用程式閘道充當 SAP Web 應用的反向代理時，應用程式閘道和 Web 應用程式防火牆存在限制，如應用程式閘道、SAP Web 調度程式和其他第三方服務之間的比較所示。</t>
+          <t>雖然 Azure 確實可以説明您在 VNet 中創建多個委託子網，但 Azure NetApp 檔的 VNet 中只能存在一個委託子網。如果對 Azure NetApp 檔使用多個委託子網，則嘗試創建新卷將失敗。</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
@@ -5789,19 +5777,19 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
         </is>
       </c>
       <c r="I105" s="15" t="inlineStr">
         <is>
-          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
         </is>
       </c>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
+          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5822,7 +5810,7 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Front Door 和 WAF 策略跨 Azure 區域為登陸區域的入站 HTTP/S 連接提供全域保護。</t>
+          <t>使用 Azure 防火牆管理發往 Internet 的 Azure 出站流量、非 HTTP/S 入站連接和東西向流量篩選（如果組織需要）</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -5839,19 +5827,19 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
         </is>
       </c>
       <c r="I106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
+          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5872,7 +5860,7 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Front Door 和應用程式閘道來保護 HTTP/S 應用程式時，請利用 Azure Front Door 中的 Web 應用程式防火牆策略。鎖定應用程式閘道以僅接收來自 Azure Front Door 的流量。</t>
+          <t>當應用程式閘道充當 SAP Web 應用的反向代理時，應用程式閘道和 Web 應用程式防火牆存在限制，如應用程式閘道、SAP Web 調度程式和其他第三方服務之間的比較所示。</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5889,19 +5877,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
         </is>
       </c>
       <c r="I107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
         </is>
       </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
+          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5922,7 +5910,7 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>當流量暴露在互聯網上時，使用 Web 應用程式防火牆掃描流量。另一種選擇是將其與負載均衡器或具有內置防火牆功能（如應用程式閘道或第三方解決方案）的資源一起使用。</t>
+          <t>使用 Azure Front Door 和 WAF 策略跨 Azure 區域為到登陸區域的入站 HTTP/S 連接提供全域保護。</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
@@ -5944,14 +5932,14 @@
       </c>
       <c r="I108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
+          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5972,7 +5960,7 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>在需要跨 Azure 區域和本地位置進行全球傳輸連接的新網路、大型網路或全球網路中，將虛擬 WAN 用於 Azure 部署。使用此方法，無需手動為 Azure 網路設置可傳遞路由，並且可以遵循 Azure 上的 SAP 部署的標準。</t>
+          <t>使用 Azure Front Door 和應用程式閘道保護 HTTP/S 應用程式時，請利用 Azure Front Door 中的 Web 應用程式防火牆策略。鎖定應用程式閘道以僅接收來自 Azure Front Door 的流量。</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
@@ -5989,19 +5977,19 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
         </is>
       </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
+          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -6022,7 +6010,7 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>若要防止數據洩露，請使用 Azure 專用連結安全地訪問平臺即服務資源，例如 Azure Blob 存儲、Azure 檔存儲、Azure Data Lake Storage Gen2、Azure 數據工廠等。Azure 專用終結點還可以幫助保護 VNet 與 Azure 存儲、Azure 備份等服務之間的流量。VNet 與啟用了專用終結點的服務之間的流量通過 Microsoft 全球網路傳輸，從而防止其暴露給公共 Internet。</t>
+          <t>當流量暴露在 Internet 上時，使用 Web 應用程式防火牆掃描流量。另一種選擇是將其與負載均衡器或具有內置防火牆功能（如應用程式閘道或第三方解決方案）的資源一起使用。</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -6039,19 +6027,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
         </is>
       </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
+          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6067,18 +6055,18 @@
       </c>
       <c r="B111" s="21" t="inlineStr">
         <is>
-          <t>分割</t>
+          <t>互聯網</t>
         </is>
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>請確保在 SAP 應用程式層和 DBMS 層中使用的 VM 上啟用了 Azure 加速網路。</t>
+          <t>在需要跨 Azure 區域和本地位置的全球傳輸連接的新網路、大型網路或全球網路中，使用虛擬 WAN 進行 Azure 部署。使用此方法，無需為 Azure 網路手動設置可傳遞路由，並且可以遵循 Azure 上的 SAP 部署的標準。</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6089,19 +6077,19 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6117,12 +6105,12 @@
       </c>
       <c r="B112" s="21" t="inlineStr">
         <is>
-          <t>分割</t>
+          <t>互聯網</t>
         </is>
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>請確保將 Azure 負載均衡器的內部部署設置為使用直接伺服器返回 （DSR）。當內部負載平衡器配置用於 DBMS 層上的高可用性配置時，此設置將減少延遲。</t>
+          <t>若要防止數據洩露，請使用 Azure 專用連結安全地訪問平臺即服務資源，例如 Azure Blob 存儲、Azure 檔存儲、Azure Data Lake Storage Gen2、Azure 數據工廠等。Azure 專用終結點還有助於保護 VNet 與 Azure 存儲、Azure 備份等服務之間的流量。VNet 與啟用專用終結點的服務之間的流量通過 Microsoft 全球網路傳輸，從而防止其暴露到公共 Internet。</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
@@ -6139,19 +6127,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
         </is>
       </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
+          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6172,13 +6160,13 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>可以使用應用程式安全組 （ASG） 和 NSG 規則在 SAP 應用程式層和 DBMS 層之間定義網路安全存取控制清單。ASG 對虛擬機進行分組以説明管理其安全性。</t>
+          <t>確保在 SAP 應用程式和 DBMS 層中使用的 VM 上啟用了 Azure 加速網路。</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
       <c r="E113" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -6189,19 +6177,19 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
         </is>
       </c>
       <c r="I113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
         </is>
       </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
+          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6222,13 +6210,13 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>不支援將 SAP 應用程式層和 SAP DBMS 放置在未對等互連的不同 Azure VNet 中。</t>
+          <t>請確保將 Azure 負載均衡器的內部部署設置為使用直接伺服器返回 （DSR）。當內部負載均衡器配置用於 DBMS 層上的高可用性配置時，此設置將減少延遲。</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
       <c r="E114" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6239,19 +6227,19 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
         </is>
       </c>
       <c r="I114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
+          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6272,7 +6260,7 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>為了實現 SAP 應用程式的最佳網路延遲，請考慮使用 Azure 鄰近放置組。</t>
+          <t>可以使用應用程式安全組 （ASG） 和 NSG 規則在 SAP 應用程式層和 DBMS 層之間定義網路安全存取控制清單。ASG 對虛擬機進行分組以説明管理其安全性。</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
@@ -6289,19 +6277,19 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
+          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
+          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6322,7 +6310,7 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>完全不支援運行在本地和 Azure 之間拆分的 SAP 應用程式伺服器層和 DBMS 層。這兩個層都需要完全駐留在本地或 Azure 中。</t>
+          <t>不支援將 SAP 應用程式層和 SAP DBMS 放置在未對等互連的不同 Azure VNet 中。</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6351,7 +6339,7 @@
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
+          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6372,13 +6360,13 @@
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>不建議將 SAP 系統的資料庫管理系統 （DBMS） 和應用程式層託管在不同的 VNet 中，並將它們與 VNet 對等互連連接，因為層之間的過多網路流量可能會產生大量成本。建議使用 Azure 虛擬網路中的子網來分隔 SAP 應用程式層和 DBMS 層。</t>
+          <t>為了實現 SAP 應用程式的最佳網路延遲，請考慮使用 Azure 鄰近放置組。</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
       <c r="E117" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6389,19 +6377,19 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
+          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6422,7 +6410,7 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>如果在 Linux 客戶機作業系統中使用負載均衡器，請檢查 Linux 網路參數 net.ipv4.tcp_timestamps 是否設置為 0。</t>
+          <t>完全不支援在本地和 Azure 之間運行分割的 SAP 應用程式伺服器層和 DBMS 層。這兩個層都需要完全駐留在本地或 Azure 中。</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
@@ -6439,19 +6427,19 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
+          <t>https://me.sap.com/notes/2015553</t>
         </is>
       </c>
       <c r="I118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
+          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6472,13 +6460,13 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>對於 SAP RISE/ECS 部署，虛擬對等互連是與客戶現有 Azure 環境建立連接的首選方式。SAP VNet 和客戶 VNet 都受網路安全組 （NSG） 保護，從而通過 VNet 對等互連在 SAP 和資料庫埠上進行通信</t>
+          <t>不建議在不同的 VNet 中託管 SAP 系統的資料庫管理系統 （DBMS） 和應用程式層，並將其與 VNet 對等互連連接起來，因為層之間過多的網路流量會產生大量成本。建議使用 Azure 虛擬網路中的子網來分隔 SAP 應用程式層和 DBMS 層。</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
       <c r="E119" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -6489,14 +6477,19 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
+          <t>https://me.sap.com/notes/2015553</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
+          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6507,23 +6500,23 @@
     <row r="120" ht="16.5" customHeight="1">
       <c r="A120" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>網路拓撲和連接</t>
         </is>
       </c>
       <c r="B120" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>分割</t>
         </is>
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>如果在 Azure、本地或其他雲環境中運行 Windows 和 Linux VM，則可以使用 Azure 自動化中的更新管理中心來管理作業系統更新，包括安全修補程式。</t>
+          <t>如果將負載均衡器用於 Linux 客戶機作業系統，請檢查 Linux 網路參數 net.ipv4.tcp_timestamps 是否設置為 0。</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6534,19 +6527,19 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
         </is>
       </c>
       <c r="I120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
+          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6557,17 +6550,17 @@
     <row r="121" ht="16.5" customHeight="1">
       <c r="A121" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>網路拓撲和連接</t>
         </is>
       </c>
       <c r="B121" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>分割</t>
         </is>
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>請定期查看 SAP 安全 OSS 說明，因為 SAP 會發佈高度關鍵的安全補丁或熱修復程式，需要立即採取措施來保護 SAP 系統。</t>
+          <t>對於 SAP RISE/ECS 部署，虛擬對等互連是與客戶現有 Azure 環境建立連接的首選方式。SAP VNet 和客戶 VNet 都受網路安全組 （NSG） 保護，從而通過 VNet 對等互連在 SAP 和資料庫埠上實現通信</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
@@ -6584,19 +6577,15 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
-        </is>
-      </c>
-      <c r="I121" s="15" t="inlineStr">
-        <is>
-          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
+        </is>
+      </c>
+      <c r="I121" s="15" t="n"/>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
+          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6607,23 +6596,23 @@
     <row r="122" ht="16.5" customHeight="1">
       <c r="A122" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>卓越運營</t>
         </is>
       </c>
       <c r="B122" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>對於 SQL Server 上的 SAP，可以禁用 SQL Server 系統管理員帳戶，因為 SQL Server 上的 SAP 系統不使用該帳戶。在禁用原始系統管理員帳戶之前，請確保具有系統管理員許可權的其他使用者可以訪問伺服器。</t>
+          <t>查看 Azure VM 的 SAP HANA 資料庫備份。</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6634,7 +6623,7 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
+          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
         </is>
       </c>
       <c r="I122" s="15" t="n"/>
@@ -6642,7 +6631,7 @@
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
+          <t>ff5136bd-dcf1-4d2b-ae52-39333efdf45a</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6653,23 +6642,23 @@
     <row r="123" ht="16.5" customHeight="1">
       <c r="A123" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>卓越運營</t>
         </is>
       </c>
       <c r="B123" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>禁用xp_cmdshell。SQL Server 功能xp_cmdshell啟用 SQL Server 內部作業系統命令行介面。這是安全審計中的潛在風險。</t>
+          <t>查看用於 SAP 的 Site Recovery 內置監視。</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
       <c r="E123" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -6680,19 +6669,15 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
-        </is>
-      </c>
-      <c r="I123" s="15" t="inlineStr">
-        <is>
-          <t>https://me.sap.com/notes/3019299/E</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
+        </is>
+      </c>
+      <c r="I123" s="15" t="n"/>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
+          <t>cafde29d-a0af-4bcd-87c0-0f299d63f0e8</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6703,17 +6688,17 @@
     <row r="124" ht="16.5" customHeight="1">
       <c r="A124" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>卓越運營</t>
         </is>
       </c>
       <c r="B124" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>在 Azure 上加密 SAP HANA 資料庫伺服器使用 SAP HANA 本機加密技術。此外，如果在 Azure 上使用 SQL Server，請使用透明數據加密 （TDE） 來保護數據和日誌檔，並確保備份也已加密。</t>
+          <t>查看監視 SAP HANA 系統環境指南。</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
@@ -6730,19 +6715,15 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
-        </is>
-      </c>
-      <c r="I124" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
-        </is>
-      </c>
+          <t>https://help.sap.com/docs/SAP_HANA_PLATFORM/c4d7c773af4a4e5dbebb6548d6e2d4f4/e3111d2ebb5710149510cc120646bf3f.html?locale=en-US</t>
+        </is>
+      </c>
+      <c r="I124" s="15" t="n"/>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
+          <t>82d7b8de-d3f1-44a0-830b-38e200e82acf</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6753,17 +6734,17 @@
     <row r="125" ht="16.5" customHeight="1">
       <c r="A125" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>卓越運營</t>
         </is>
       </c>
       <c r="B125" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>已為所有 Azure 資源管理器和經典記憶體啟用 Azure 儲存加密，並且無法禁用。由於數據預設是加密的，因此無需修改代碼或應用程式即可使用 Azure 儲存加密。</t>
+          <t>查看 Azure Linux VM 中的 Oracle 資料庫備份策略。</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
@@ -6780,19 +6761,15 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
-        </is>
-      </c>
-      <c r="I125" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/oracle-database-backup-strategies</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="n"/>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
+          <t>c823873a-2bec-4c2a-b684-a1ce8ae80efd</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6803,23 +6780,23 @@
     <row r="126" ht="16.5" customHeight="1">
       <c r="A126" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>卓越運營</t>
         </is>
       </c>
       <c r="B126" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Key Vault 儲存機密和憑據</t>
+          <t>查看 Azure Blob 儲存與 SQL Server 2016 的配合使用。</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
       <c r="E126" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -6830,19 +6807,14 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/sql/relational-databases/tutorial-use-azure-blob-storage-service-with-sql-server-2016?view=sql-server-ver16</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
+          <t>2943b6d8-1d31-4e19-ade7-78e6b26d1962</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6853,17 +6825,17 @@
     <row r="127" ht="16.5" customHeight="1">
       <c r="A127" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>卓越運營</t>
         </is>
       </c>
       <c r="B127" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>建議在成功部署后鎖定 Azure 資源，以防止未經授權的更改。還可以使用自定義的 Azure 策略（自定義角色）在每個訂閱的基礎上強制實施 LOCK 約束和規則。</t>
+          <t>查看適用於 Azure VM 的自動備份 v2 的使用方式。</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
@@ -6880,19 +6852,14 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/azure-sql/virtual-machines/windows/automated-backup?view=azuresql</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
+          <t>b82e650f-676d-417d-994d-fc33ca54ec14</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6903,23 +6870,23 @@
     <row r="128" ht="16.5" customHeight="1">
       <c r="A128" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>卓越運營</t>
         </is>
       </c>
       <c r="B128" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>預配啟用軟刪除和清除策略的 Azure Key Vault，以允許對已刪除物件進行保留保護。</t>
+          <t>使用進階磁碟時為 M 系列開啟寫入加速器 （V1）</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
       <c r="E128" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -6928,21 +6895,12 @@
         </is>
       </c>
       <c r="G128" s="21" t="n"/>
-      <c r="H128" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
-        </is>
-      </c>
+      <c r="H128" s="15" t="n"/>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+          <t>347c2dcc-e6eb-4b04-80c5-628b171aa62d</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6953,23 +6911,23 @@
     <row r="129" ht="16.5" customHeight="1">
       <c r="A129" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>性能</t>
         </is>
       </c>
       <c r="B129" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>根據現有要求、法規和合規性控制（內部/外部） - 確定所需的 Azure 策略和 Azure RBAC 角色</t>
+          <t>測試可用性區域延遲。</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
       <c r="E129" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -6980,19 +6938,14 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+          <t>b96512cf-996f-4b17-b9b8-6b16db1a2a94</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -7003,23 +6956,23 @@
     <row r="130" ht="16.5" customHeight="1">
       <c r="A130" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>性能</t>
         </is>
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>在 SAP 環境中啟用 Microsoft Defender for Endpoint 時，建議排除 DBMS 伺服器上的數據和日誌檔，而不是面向所有伺服器。在排除目標檔時，請遵循 DBMS 供應商的建議。</t>
+          <t>為所有 SAP 元件啟動 SAP EarlyWatch Alert。</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
       <c r="E130" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -7030,19 +6983,19 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://support.sap.com/en/offerings-programs/support-services/earlywatch-alert.html</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+          <t>https://help.sap.com/docs/SUPPORT_CONTENT/techops/3362700736.html</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+          <t>9fd7ffd4-da11-49f6-a374-8d03e94c511d</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7053,23 +7006,23 @@
     <row r="131" ht="16.5" customHeight="1">
       <c r="A131" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>性能</t>
         </is>
       </c>
       <c r="B131" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>委派具有 Microsoft Defender for Cloud 實時訪問許可權的 SAP 管理員自定義角色。</t>
+          <t>使用 SAP ABAPMeter 報告 /SSA/CAT 查看 SAP 應用程式伺服器到資料庫伺服器的延遲。</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
       <c r="E131" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -7080,19 +7033,19 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/sap-on-azure-general-update-march-2019/ba-p/377456</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+          <t>https://me.sap.com/notes/0002879613</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+          <t>b9b140cf-413a-483d-aad2-8802c4e3c017</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7103,23 +7056,23 @@
     <row r="132" ht="16.5" customHeight="1">
       <c r="A132" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>性能</t>
         </is>
       </c>
       <c r="B132" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>通過將第三方安全產品與用於 DIAG （SAP GUI）、RFC 和用於 HTTPS 的 SPNEGO 的安全網路通信 （SNC） 集成，對傳輸中的數據進行加密</t>
+          <t>查看使用 CCMS 的 SQL Server 性能監視。</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
       <c r="E132" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -7128,21 +7081,12 @@
         </is>
       </c>
       <c r="G132" s="21" t="n"/>
-      <c r="H132" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
-        </is>
-      </c>
+      <c r="H132" s="15" t="n"/>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+          <t>62fbf0f8-51db-49e1-a961-bb5df7a35f80</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7153,17 +7097,17 @@
     <row r="133" ht="16.5" customHeight="1">
       <c r="A133" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>性能</t>
         </is>
       </c>
       <c r="B133" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>預設使用 Microsoft 管理的金鑰以實現主體加密功能，並在需要時使用客戶管理的金鑰。</t>
+          <t>測試 SAP 應用程式層 VM 和 DBMS VM 之間的網路延遲 （NIPING）。</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7180,19 +7124,19 @@
       <c r="G133" s="21" t="n"/>
       <c r="H133" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
+          <t>https://me.sap.com/notes/500235</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://me.sap.com/notes/1100926/E</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+          <t>35709da7-fc7d-4efe-bb20-2e91547b7390</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7203,23 +7147,23 @@
     <row r="134" ht="16.5" customHeight="1">
       <c r="A134" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>性能</t>
         </is>
       </c>
       <c r="B134" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>每個應用程式、每個環境、每個區域使用 Azure Key Vault。</t>
+          <t>查看 SAP HANA Studio 警報。</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
       <c r="E134" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -7230,19 +7174,14 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/en-us/azure/sap/large-instances/hana-monitor-troubleshoot</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+          <t>9e9bb4c8-e934-4e4b-a13c-6f7c7c38eb43</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7253,23 +7192,23 @@
     <row r="135" ht="16.5" customHeight="1">
       <c r="A135" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>性能</t>
         </is>
       </c>
       <c r="B135" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>若要控制和管理非 HANA Windows 和非 Windows 作業系統的磁碟加密密鑰和機密，請使用 Azure Key Vault。Azure Key Vault 不支援 SAP HANA，因此必須使用 SAP ABAP 或 SSH 密鑰等備用方法。</t>
+          <t>使用 HANA_Configuration_Minichecks 執行 SAP HANA 執行狀況檢查。</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
       <c r="E135" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -7280,19 +7219,14 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+          <t>https://me.sap.com/notes/1969700</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+          <t>f1a92ab5-9509-4b57-86ff-b0ade361b694</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7303,17 +7237,17 @@
     <row r="136" ht="16.5" customHeight="1">
       <c r="A136" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>安全性、治理和合規性</t>
         </is>
       </c>
       <c r="B136" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>如果在 Azure、本地或其他雲環境中運行 Windows 和 Linux VM，則可以使用 Azure 自動化中的更新管理中心來管理作業系統更新，包括安全修補程式。</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
@@ -7330,14 +7264,19 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7348,23 +7287,23 @@
     <row r="137" ht="16.5" customHeight="1">
       <c r="A137" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>安全性、治理和合規性</t>
         </is>
       </c>
       <c r="B137" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>為 Azure 上的 SAP 分支訂閱自定義基於角色的訪問控制 （RBAC） 角色，以避免與網路相關的意外更改</t>
+          <t>定期查看 SAP 安全 OSS 說明，因為 SAP 會發佈高度關鍵的安全補丁或修補程式，這些補丁或修補程式需要立即採取措施來保護您的 SAP 系統。</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
       <c r="E137" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -7375,19 +7314,19 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7398,23 +7337,23 @@
     <row r="138" ht="16.5" customHeight="1">
       <c r="A138" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>安全性、治理和合規性</t>
         </is>
       </c>
       <c r="B138" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>將 DMZ 和 NVA 與 SAP 資產的其餘部分隔離開來，配置 Azure 專用連結，並安全地管理和控制 Azure 上的 SAP 資源</t>
+          <t>對於 SQL Server 上的 SAP，可以禁用 SQL Server 系統管理員帳戶，因為 SQL Server 上的 SAP 系統不使用該帳戶。在禁用原始系統管理員帳戶之前，請確保具有系統管理員許可權的其他使用者可以訪問伺服器。</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
       <c r="E138" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -7425,19 +7364,14 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7448,23 +7382,23 @@
     <row r="139" ht="16.5" customHeight="1">
       <c r="A139" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>安全性、治理和合規性</t>
         </is>
       </c>
       <c r="B139" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>請考慮在 Azure 上使用 Microsoft 反惡意軟體來保護虛擬機免受惡意檔、廣告軟體和其他威脅的侵害。</t>
+          <t>禁用xp_cmdshell。SQL Server 功能xp_cmdshell啟用 SQL Server 內部作業系統命令行介面。這是安全審計中的潛在風險。</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
       <c r="E139" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -7475,19 +7409,19 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+          <t>https://me.sap.com/notes/3019299/E</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7498,23 +7432,23 @@
     <row r="140" ht="16.5" customHeight="1">
       <c r="A140" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>安全性、治理和合規性</t>
         </is>
       </c>
       <c r="B140" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>若要獲得更強大的保護，請考慮使用 Microsoft Defender for Endpoint。</t>
+          <t>在 Azure 上加密 SAP HANA 資料庫伺服器使用 SAP HANA 本機加密技術。此外，如果使用 Azure 上的 SQL Server，請使用透明數據加密 （TDE） 來保護數據和日誌檔，並確保備份也已加密。</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
       <c r="E140" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7525,19 +7459,19 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7548,23 +7482,23 @@
     <row r="141" ht="16.5" customHeight="1">
       <c r="A141" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>安全性、治理和合規性</t>
         </is>
       </c>
       <c r="B141" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>通過將所有流量傳遞到中心虛擬網路（通過虛擬網路對等互連連接到分支網路），將 SAP 應用程式和資料庫伺服器與 Internet 或本地網路隔離開來。對等互連虛擬網路保證 Azure 上的 SAP 解決方案與公共 Internet 隔離。</t>
+          <t>Azure 儲存加密已為所有 Azure 資源管理器和經典儲存帳戶啟用，但無法禁用。由於數據預設加密，因此無需修改代碼或應用程式即可使用 Azure 儲存加密。</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
       <c r="E141" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -7575,19 +7509,19 @@
       <c r="G141" s="21" t="n"/>
       <c r="H141" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7598,23 +7532,23 @@
     <row r="142" ht="16.5" customHeight="1">
       <c r="A142" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>安全性、治理和合規性</t>
         </is>
       </c>
       <c r="B142" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>對於面向 Internet 的應用程式（如 SAP Fiori），請確保在保持安全級別的同時，按應用程式要求分配負載。對於第 7 層安全性，可以使用 Azure 市場中提供的第三方 Web 應用程式防火牆 （WAF）。</t>
+          <t>使用 Azure Key Vault 儲存機密和憑據</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
       <c r="E142" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7625,19 +7559,19 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7648,17 +7582,17 @@
     <row r="143" ht="16.5" customHeight="1">
       <c r="A143" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>安全性、治理和合規性</t>
         </is>
       </c>
       <c r="B143" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>若要在用於 SAP 解決方案的 Azure Monitor 中啟用安全通信，可以選擇使用根證書或伺服器證書。我們強烈建議您使用根證書。</t>
+          <t>建議在成功部署后鎖定 Azure 資源，以防止未經授權的更改。還可以使用自定義的 Azure 策略（自定義角色）對每個訂閱強制實施 LOCK 約束和規則。</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
@@ -7675,19 +7609,19 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7696,256 +7630,795 @@
       <c r="P143" s="25" t="n"/>
     </row>
     <row r="144" ht="16.5" customHeight="1">
-      <c r="A144" s="21" t="n"/>
-      <c r="B144" s="21" t="n"/>
-      <c r="C144" s="21" t="n"/>
+      <c r="A144" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理和合規性</t>
+        </is>
+      </c>
+      <c r="B144" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C144" s="21" t="inlineStr">
+        <is>
+          <t>預配 Azure Key Vault，啟用軟刪除和清除策略，以允許對已刪除的物件提供保留保護。</t>
+        </is>
+      </c>
       <c r="D144" s="21" t="n"/>
-      <c r="E144" s="21" t="n"/>
+      <c r="E144" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G144" s="21" t="n"/>
-      <c r="H144" s="15" t="n"/>
+      <c r="H144" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
-      <c r="L144" s="25" t="n"/>
+      <c r="L144" s="25" t="inlineStr">
+        <is>
+          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+        </is>
+      </c>
       <c r="M144" s="25" t="n"/>
       <c r="N144" s="25" t="n"/>
       <c r="O144" s="25" t="n"/>
       <c r="P144" s="25" t="n"/>
     </row>
     <row r="145" ht="16.5" customHeight="1">
-      <c r="A145" s="21" t="n"/>
-      <c r="B145" s="21" t="n"/>
-      <c r="C145" s="21" t="n"/>
+      <c r="A145" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理和合規性</t>
+        </is>
+      </c>
+      <c r="B145" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C145" s="21" t="inlineStr">
+        <is>
+          <t>根據現有要求、法規和合規性控制（內部/外部）- 確定需要哪些 Azure 策略和 Azure RBAC 角色</t>
+        </is>
+      </c>
       <c r="D145" s="21" t="n"/>
-      <c r="E145" s="21" t="n"/>
+      <c r="E145" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G145" s="21" t="n"/>
-      <c r="H145" s="15" t="n"/>
+      <c r="H145" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
-      <c r="L145" s="25" t="n"/>
+      <c r="L145" s="25" t="inlineStr">
+        <is>
+          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+        </is>
+      </c>
       <c r="M145" s="25" t="n"/>
       <c r="N145" s="25" t="n"/>
       <c r="O145" s="25" t="n"/>
       <c r="P145" s="25" t="n"/>
     </row>
     <row r="146" ht="16.5" customHeight="1">
-      <c r="A146" s="21" t="n"/>
-      <c r="B146" s="21" t="n"/>
-      <c r="C146" s="21" t="n"/>
+      <c r="A146" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理和合規性</t>
+        </is>
+      </c>
+      <c r="B146" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C146" s="21" t="inlineStr">
+        <is>
+          <t>在 SAP 環境中啟用 Microsoft Defender for Endpoint 時，建議排除 DBMS 伺服器上的數據和日誌檔，而不是面向所有伺服器。在排除目標檔時，請遵循 DBMS 供應商的建議。</t>
+        </is>
+      </c>
       <c r="D146" s="21" t="n"/>
-      <c r="E146" s="21" t="n"/>
+      <c r="E146" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G146" s="21" t="n"/>
-      <c r="H146" s="15" t="n"/>
+      <c r="H146" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+        </is>
+      </c>
       <c r="J146" s="22" t="n"/>
       <c r="K146" s="22" t="n"/>
-      <c r="L146" s="25" t="n"/>
+      <c r="L146" s="25" t="inlineStr">
+        <is>
+          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+        </is>
+      </c>
       <c r="M146" s="25" t="n"/>
       <c r="N146" s="25" t="n"/>
       <c r="O146" s="25" t="n"/>
       <c r="P146" s="25" t="n"/>
     </row>
     <row r="147" ht="16.5" customHeight="1">
-      <c r="A147" s="21" t="n"/>
-      <c r="B147" s="21" t="n"/>
-      <c r="C147" s="21" t="n"/>
+      <c r="A147" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理和合規性</t>
+        </is>
+      </c>
+      <c r="B147" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C147" s="21" t="inlineStr">
+        <is>
+          <t>委派具有 Microsoft Defender for Cloud 實時訪問許可權的 SAP 管理員自定義角色。</t>
+        </is>
+      </c>
       <c r="D147" s="21" t="n"/>
-      <c r="E147" s="21" t="n"/>
+      <c r="E147" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G147" s="21" t="n"/>
-      <c r="H147" s="15" t="n"/>
+      <c r="H147" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
-      <c r="L147" s="25" t="n"/>
+      <c r="L147" s="25" t="inlineStr">
+        <is>
+          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+        </is>
+      </c>
       <c r="M147" s="25" t="n"/>
       <c r="N147" s="25" t="n"/>
       <c r="O147" s="25" t="n"/>
       <c r="P147" s="25" t="n"/>
     </row>
     <row r="148" ht="16.5" customHeight="1">
-      <c r="A148" s="21" t="n"/>
-      <c r="B148" s="21" t="n"/>
-      <c r="C148" s="21" t="n"/>
+      <c r="A148" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理和合規性</t>
+        </is>
+      </c>
+      <c r="B148" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C148" s="21" t="inlineStr">
+        <is>
+          <t>通過將第三方安全產品與用於 DIAG （SAP GUI）、RFC 和 SPNEGO for HTTPS 的安全網路通信 （SNC） 集成，對傳輸中的數據進行加密</t>
+        </is>
+      </c>
       <c r="D148" s="21" t="n"/>
-      <c r="E148" s="21" t="n"/>
+      <c r="E148" s="21" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G148" s="21" t="n"/>
-      <c r="H148" s="15" t="n"/>
+      <c r="H148" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
+        </is>
+      </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
-      <c r="L148" s="25" t="n"/>
+      <c r="L148" s="25" t="inlineStr">
+        <is>
+          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+        </is>
+      </c>
       <c r="M148" s="25" t="n"/>
       <c r="N148" s="25" t="n"/>
       <c r="O148" s="25" t="n"/>
       <c r="P148" s="25" t="n"/>
     </row>
     <row r="149" ht="16.5" customHeight="1">
-      <c r="A149" s="21" t="n"/>
-      <c r="B149" s="21" t="n"/>
-      <c r="C149" s="21" t="n"/>
+      <c r="A149" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理和合規性</t>
+        </is>
+      </c>
+      <c r="B149" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C149" s="21" t="inlineStr">
+        <is>
+          <t>默認為 Microsoft 管理的金鑰以實現主體加密功能，並在需要時使用客戶管理的金鑰。</t>
+        </is>
+      </c>
       <c r="D149" s="21" t="n"/>
-      <c r="E149" s="21" t="n"/>
+      <c r="E149" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G149" s="21" t="n"/>
-      <c r="H149" s="15" t="n"/>
+      <c r="H149" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
-      <c r="L149" s="25" t="n"/>
+      <c r="L149" s="25" t="inlineStr">
+        <is>
+          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+        </is>
+      </c>
       <c r="M149" s="25" t="n"/>
       <c r="N149" s="25" t="n"/>
       <c r="O149" s="25" t="n"/>
       <c r="P149" s="25" t="n"/>
     </row>
     <row r="150" ht="16.5" customHeight="1">
-      <c r="A150" s="21" t="n"/>
-      <c r="B150" s="21" t="n"/>
-      <c r="C150" s="21" t="n"/>
+      <c r="A150" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理和合規性</t>
+        </is>
+      </c>
+      <c r="B150" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C150" s="21" t="inlineStr">
+        <is>
+          <t>每個應用程式、每個環境、每個區域使用 Azure Key Vault。</t>
+        </is>
+      </c>
       <c r="D150" s="21" t="n"/>
-      <c r="E150" s="21" t="n"/>
+      <c r="E150" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G150" s="21" t="n"/>
-      <c r="H150" s="15" t="n"/>
+      <c r="H150" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
-      <c r="L150" s="25" t="n"/>
+      <c r="L150" s="25" t="inlineStr">
+        <is>
+          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+        </is>
+      </c>
       <c r="M150" s="25" t="n"/>
       <c r="N150" s="25" t="n"/>
       <c r="O150" s="25" t="n"/>
       <c r="P150" s="25" t="n"/>
     </row>
     <row r="151" ht="16.5" customHeight="1">
-      <c r="A151" s="21" t="n"/>
-      <c r="B151" s="21" t="n"/>
-      <c r="C151" s="21" t="n"/>
+      <c r="A151" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理和合規性</t>
+        </is>
+      </c>
+      <c r="B151" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C151" s="21" t="inlineStr">
+        <is>
+          <t>若要控制和管理非 HANA Windows 和非 Windows 作業系統的磁碟加密密鑰和機密，請使用 Azure Key Vault。Azure Key Vault 不支援 SAP HANA，因此必須使用 SAP ABAP 或 SSH 密鑰等替代方法。</t>
+        </is>
+      </c>
       <c r="D151" s="21" t="n"/>
-      <c r="E151" s="21" t="n"/>
+      <c r="E151" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G151" s="21" t="n"/>
-      <c r="H151" s="15" t="n"/>
+      <c r="H151" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
-      <c r="L151" s="25" t="n"/>
+      <c r="L151" s="25" t="inlineStr">
+        <is>
+          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+        </is>
+      </c>
       <c r="M151" s="25" t="n"/>
       <c r="N151" s="25" t="n"/>
       <c r="O151" s="25" t="n"/>
       <c r="P151" s="25" t="n"/>
     </row>
     <row r="152" ht="16.5" customHeight="1">
-      <c r="A152" s="21" t="n"/>
-      <c r="B152" s="21" t="n"/>
-      <c r="C152" s="21" t="n"/>
+      <c r="A152" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理和合規性</t>
+        </is>
+      </c>
+      <c r="B152" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C152" s="21" t="inlineStr">
+        <is>
+          <t>&amp;nbsp</t>
+        </is>
+      </c>
       <c r="D152" s="21" t="n"/>
-      <c r="E152" s="21" t="n"/>
+      <c r="E152" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G152" s="21" t="n"/>
-      <c r="H152" s="15" t="n"/>
+      <c r="H152" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
-      <c r="L152" s="25" t="n"/>
+      <c r="L152" s="25" t="inlineStr">
+        <is>
+          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+        </is>
+      </c>
       <c r="M152" s="25" t="n"/>
       <c r="N152" s="25" t="n"/>
       <c r="O152" s="25" t="n"/>
       <c r="P152" s="25" t="n"/>
     </row>
     <row r="153" ht="16.5" customHeight="1">
-      <c r="A153" s="21" t="n"/>
-      <c r="B153" s="21" t="n"/>
-      <c r="C153" s="21" t="n"/>
+      <c r="A153" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理和合規性</t>
+        </is>
+      </c>
+      <c r="B153" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C153" s="21" t="inlineStr">
+        <is>
+          <t>為 Azure 上的 SAP 分支訂閱自定義基於角色的訪問控制 （RBAC） 角色，以避免與網路相關的意外更改</t>
+        </is>
+      </c>
       <c r="D153" s="21" t="n"/>
-      <c r="E153" s="21" t="n"/>
+      <c r="E153" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G153" s="21" t="n"/>
-      <c r="H153" s="15" t="n"/>
+      <c r="H153" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
-      <c r="L153" s="25" t="n"/>
+      <c r="L153" s="25" t="inlineStr">
+        <is>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+        </is>
+      </c>
       <c r="M153" s="25" t="n"/>
       <c r="N153" s="25" t="n"/>
       <c r="O153" s="25" t="n"/>
       <c r="P153" s="25" t="n"/>
     </row>
     <row r="154" ht="16.5" customHeight="1">
-      <c r="A154" s="21" t="n"/>
-      <c r="B154" s="21" t="n"/>
-      <c r="C154" s="21" t="n"/>
+      <c r="A154" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理和合規性</t>
+        </is>
+      </c>
+      <c r="B154" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C154" s="21" t="inlineStr">
+        <is>
+          <t>將 DMZ 和 NVA 與 SAP 資產的其餘部分隔離開來，配置 Azure 專用連結，並安全地管理和控制 Azure 上的 SAP 資源</t>
+        </is>
+      </c>
       <c r="D154" s="21" t="n"/>
-      <c r="E154" s="21" t="n"/>
+      <c r="E154" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G154" s="21" t="n"/>
-      <c r="H154" s="15" t="n"/>
+      <c r="H154" s="15" t="inlineStr">
+        <is>
+          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+        </is>
+      </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
-      <c r="L154" s="25" t="n"/>
+      <c r="L154" s="25" t="inlineStr">
+        <is>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+        </is>
+      </c>
       <c r="M154" s="25" t="n"/>
       <c r="N154" s="25" t="n"/>
       <c r="O154" s="25" t="n"/>
       <c r="P154" s="25" t="n"/>
     </row>
     <row r="155" ht="16.5" customHeight="1">
-      <c r="A155" s="21" t="n"/>
-      <c r="B155" s="21" t="n"/>
-      <c r="C155" s="21" t="n"/>
+      <c r="A155" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理和合規性</t>
+        </is>
+      </c>
+      <c r="B155" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C155" s="21" t="inlineStr">
+        <is>
+          <t>請考慮在 Azure 上使用 Microsoft 反惡意軟體來保護虛擬機免受惡意檔、廣告軟體和其他威脅的侵害。</t>
+        </is>
+      </c>
       <c r="D155" s="21" t="n"/>
-      <c r="E155" s="21" t="n"/>
+      <c r="E155" s="21" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G155" s="21" t="n"/>
-      <c r="H155" s="15" t="n"/>
+      <c r="H155" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+        </is>
+      </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
-      <c r="L155" s="25" t="n"/>
+      <c r="L155" s="25" t="inlineStr">
+        <is>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+        </is>
+      </c>
       <c r="M155" s="25" t="n"/>
       <c r="N155" s="25" t="n"/>
       <c r="O155" s="25" t="n"/>
       <c r="P155" s="25" t="n"/>
     </row>
     <row r="156" ht="16.5" customHeight="1">
-      <c r="A156" s="21" t="n"/>
-      <c r="B156" s="21" t="n"/>
-      <c r="C156" s="21" t="n"/>
+      <c r="A156" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理和合規性</t>
+        </is>
+      </c>
+      <c r="B156" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C156" s="21" t="inlineStr">
+        <is>
+          <t>若要獲得更強大的保護，請考慮使用 Microsoft Defender for Endpoint。</t>
+        </is>
+      </c>
       <c r="D156" s="21" t="n"/>
-      <c r="E156" s="21" t="n"/>
+      <c r="E156" s="21" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G156" s="21" t="n"/>
-      <c r="H156" s="15" t="n"/>
+      <c r="H156" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
-      <c r="L156" s="25" t="n"/>
+      <c r="L156" s="25" t="inlineStr">
+        <is>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+        </is>
+      </c>
       <c r="M156" s="25" t="n"/>
       <c r="N156" s="25" t="n"/>
       <c r="O156" s="25" t="n"/>
       <c r="P156" s="25" t="n"/>
     </row>
     <row r="157" ht="16.5" customHeight="1">
-      <c r="A157" s="21" t="n"/>
-      <c r="B157" s="21" t="n"/>
-      <c r="C157" s="21" t="n"/>
+      <c r="A157" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理和合規性</t>
+        </is>
+      </c>
+      <c r="B157" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C157" s="21" t="inlineStr">
+        <is>
+          <t>通過中心虛擬網路傳遞所有流量，將 SAP 應用程式和資料庫伺服器與 Internet 或本地網路隔離開來，該中心虛擬網路通過虛擬網路對等互連連接到分支網路。對等互連虛擬網路可保證 Azure 上的 SAP 解決方案與公共 Internet 隔離。</t>
+        </is>
+      </c>
       <c r="D157" s="21" t="n"/>
-      <c r="E157" s="21" t="n"/>
+      <c r="E157" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G157" s="21" t="n"/>
-      <c r="H157" s="15" t="n"/>
+      <c r="H157" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
-      <c r="L157" s="25" t="n"/>
+      <c r="L157" s="25" t="inlineStr">
+        <is>
+          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+        </is>
+      </c>
       <c r="M157" s="25" t="n"/>
       <c r="N157" s="25" t="n"/>
       <c r="O157" s="25" t="n"/>
       <c r="P157" s="25" t="n"/>
     </row>
     <row r="158" ht="16.5" customHeight="1">
-      <c r="A158" s="21" t="n"/>
-      <c r="B158" s="21" t="n"/>
-      <c r="C158" s="21" t="n"/>
+      <c r="A158" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理和合規性</t>
+        </is>
+      </c>
+      <c r="B158" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C158" s="21" t="inlineStr">
+        <is>
+          <t>對於 SAP Fiori 等面向 Internet 的應用程式，請確保在保持安全級別的同時，按應用程式要求分配負載。對於第 7 層安全性，可以使用 Azure 市場中提供的第三方 Web 應用程式防火牆 （WAF）。</t>
+        </is>
+      </c>
       <c r="D158" s="21" t="n"/>
-      <c r="E158" s="21" t="n"/>
+      <c r="E158" s="21" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G158" s="21" t="n"/>
-      <c r="H158" s="15" t="n"/>
+      <c r="H158" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
-      <c r="L158" s="25" t="n"/>
+      <c r="L158" s="25" t="inlineStr">
+        <is>
+          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+        </is>
+      </c>
       <c r="M158" s="25" t="n"/>
       <c r="N158" s="25" t="n"/>
       <c r="O158" s="25" t="n"/>
       <c r="P158" s="25" t="n"/>
     </row>
     <row r="159" ht="16.5" customHeight="1">
-      <c r="A159" s="21" t="n"/>
-      <c r="B159" s="21" t="n"/>
-      <c r="C159" s="21" t="n"/>
+      <c r="A159" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理和合規性</t>
+        </is>
+      </c>
+      <c r="B159" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C159" s="21" t="inlineStr">
+        <is>
+          <t>若要在用於 SAP 解決方案的 Azure Monitor 中啟用安全通信，可以選擇使用根證書或伺服器證書。我們強烈建議您使用根證書。</t>
+        </is>
+      </c>
       <c r="D159" s="21" t="n"/>
-      <c r="E159" s="21" t="n"/>
+      <c r="E159" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G159" s="21" t="n"/>
-      <c r="H159" s="15" t="n"/>
+      <c r="H159" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
-      <c r="L159" s="25" t="n"/>
+      <c r="L159" s="25" t="inlineStr">
+        <is>
+          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+        </is>
+      </c>
       <c r="M159" s="25" t="n"/>
       <c r="N159" s="25" t="n"/>
       <c r="O159" s="25" t="n"/>
@@ -10176,7 +10649,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F144" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F160" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -10267,7 +10740,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>身份和訪問</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -10321,7 +10794,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>安全性、治理和合規性</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">

--- a/spreadsheet/macrofree/sap_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.zh-Hant.xlsx
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Azure SAP 解決方案中心 （ACSS） 是一種 Azure 產品/服務，可使 SAP 成為 Azure 上的頂級工作負載。ACSS 是一種端到端解決方案，可用於在 Azure 上將 SAP 系統作為統一工作負載創建和運行，併為創新提供更無縫的基礎。可以利用基於 Azure 的新 SAP 系統和現有 SAP 系統的管理功能。</t>
+          <t>Azure SAP 解決方案中心 （ACSS） 是一種 Azure 產品/服務，可使 SAP 成為 Azure 上的頂級工作負載。ACSS 是一種端到端解決方案，使你能夠在 Azure 上創建和運行 SAP 系統作為統一工作負載，並為創新提供更無縫的基礎。可以利用新的和現有的基於 Azure 的 SAP 系統的管理功能。</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1114,12 +1114,12 @@
       </c>
       <c r="B9" s="21" t="inlineStr">
         <is>
-          <t>SDAF公司</t>
+          <t>SDAF的</t>
         </is>
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Azure 支援在Linux和 Windows 中自動執行 SAP 部署。SAP Deployment Automation Framework 是一種開源編排工具，可以部署、安裝和維護 SAP 環境。</t>
+          <t>Azure 支援在Linux和 Windows 中自動執行 SAP 部署。SAP 部署自動化框架是一種開源編排工具，可以部署、安裝和維護 SAP 環境。</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>在滿足 RTO 的任何時間點和時間範圍內對生產資料庫執行時間點恢復;時間點恢復通常包括操作員在DBMS層或通過SAP刪除數據時出現錯誤</t>
+          <t>在滿足 RTO 的任何時間點和時間範圍內對生產資料庫執行時間點恢復;時間點恢復通常包括操作員在DBMS層上或通過SAP刪除數據時出現的錯誤</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>測試備份和恢復時間，以驗證它們是否滿足在災難發生后同時還原所有系統的 RTO 要求。</t>
+          <t>測試備份和恢復時間，以驗證它們是否滿足災難發生后同時還原所有系統的 RTO 要求。</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>可以在配對區域之間複製標準存儲，但不能使用標準存儲來存儲資料庫或虛擬硬碟。您只能在使用的配對區域之間複製備份。對於所有其他數據，請使用本機 DBMS 功能（如 SQL Server Always On 或 SAP HANA 系統複製）運行複製。將 Site Recovery、rsync 或 robocopy 以及其他第三方軟體結合用於 SAP 應用程式層。</t>
+          <t>可以在配對區域之間複製標準存儲，但不能使用標準存儲來存儲資料庫或虛擬硬碟。您只能在使用的配對區域之間複製備份。對於所有其他數據，請使用本機 DBMS 功能（如 SQL Server Always On 或 SAP HANA 系統複製）運行複製。將 Site Recovery、rsync 或 robocopy 與其他第三方軟體結合用於 SAP 應用程式層。</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>設置從本地到主要和次要 Azure 災難恢復區域的 ExpressRoute 連接。此外，作為使用 ExpressRoute 的替代方法，請考慮設置從本地到主要和次要 Azure 災難恢復區域的 VPN 連接。</t>
+          <t>設置從本地到主要和輔助 Azure 災難恢復區域的 ExpressRoute 連接。此外，作為使用 ExpressRoute 的替代方法，請考慮設置從本地到主要和輔助 Azure 災難恢復區域的 VPN 連接。</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>跨區域複製金鑰保管庫內容（如證書、機密或金鑰），以便解密DR區域中的數據。</t>
+          <t>跨區域複製金鑰保管庫內容（如證書、機密或金鑰），以便可以解密DR區域中的數據。</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>對等互連主虛擬網路和災難恢復虛擬網路。例如，對於 HANA 系統複製，需要將 SAP HANA DB 虛擬網路與災難恢復網站的 SAP HANA DB 虛擬網路對等互連。</t>
+          <t>對等互連主虛擬網路和災難恢復虛擬網路。例如，對於 HANA 系統複製，需要將 SAP HANA DB 虛擬網路對等互連到災難恢復網站的 SAP HANA DB 虛擬網路。</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>如果將 Azure NetApp 檔案儲存用於 SAP 部署，則至少在兩個區域的高級層中創建兩個 Azure NetApp 檔帳戶。</t>
+          <t>如果將 Azure NetApp 檔案儲存用於 SAP 部署，請至少在兩個區域的高級層中創建兩個 Azure NetApp 檔帳戶。</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>使用 Site Recovery 將應用程式伺服器複製到 DR 網站。Site Recovery 還有助於將中心服務群集 VM 複製到DR網站。調用DR時，需要在DR網站上重新配置Linux Pacemaker群集（例如，替換VIP或SBD、運行 corosync.conf 等）。</t>
+          <t>使用 Site Recovery 將應用程式伺服器複製到 DR 網站。Site Recovery 還可以説明將中心服務群集 VM 複製到DR網站。調用DR時，需要在DR網站上重新配置Linux Pacemaker群集（例如，替換VIP或SBD、運行 corosync.conf 等）。</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
@@ -1695,7 +1695,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>考慮針對單點故障的 SAP 軟體的可用性。這包括應用程式內的單點故障，例如 SAP NetWeaver 和 SAP S/4HANA 架構中使用的 DBMS、SAP ABAP 和 ASCS + SCS。此外，還有其他工具，例如 SAP Web Dispatcher。</t>
+          <t>考慮針對單點故障的 SAP 軟體的可用性。這包括應用程式中的單點故障，例如SAP NetWeaver和SAP S/4HANA架構中使用的DBMS，SAP ABAP和ASCS + SCS。此外，還有其他工具，例如 SAP Web Dispatcher。</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1712,7 +1712,7 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/sap-high-availability-architecture-scenario</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-business-continuity-and-disaster-recovery</t>
         </is>
       </c>
       <c r="I21" s="15" t="inlineStr">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Azure 不支援主 VM 和輔助 VM 共用 DBMS 數據存儲的體系結構。對於 DBMS 層，常見的體系結構模式是同時複製資料庫，並使用與主 VM 和輔助 VM 使用的儲存堆疊不同的儲存堆疊。</t>
+          <t>Azure 不支援主 VM 和輔助 VM 共用 DBMS 數據存儲的體系結構。對於 DBMS 層，常見的體系結構模式是同時複製資料庫，並且使用與主 VM 和輔助 VM 使用的儲存堆疊不同的儲存堆疊。</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>DBMS 數據和事務/重做日誌檔存儲在 Azure 支援的塊存儲或 Azure NetApp 檔中。不支援將 Azure 檔案儲存或 Azure 高級檔儲存作為 SAP 工作負載的 DBMS 資料和/或重做日誌檔的存儲。</t>
+          <t>DBMS 數據和事務/重做日誌檔存儲在 Azure 支援的塊存儲或 Azure NetApp 檔中。不支援將 Azure 檔案儲存或 Azure 高級檔用作 DBMS 資料和/或具有 SAP 工作負載的重做日誌檔的存儲。</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>可以在 Windows 中將 Azure 共用磁碟用於 ASCS + SCS 元件和特定的高可用性方案。為 SAP 應用程式層元件和 DBMS 層單獨設置故障轉移群集。Azure 目前不支援將 SAP 應用程式層元件和 DBMS 層合併到一個故障轉移群集中的高可用性體系結構。</t>
+          <t>可以在 Windows 中將 Azure 共用磁碟用於 ASCS + SCS 元件和特定的高可用性方案。分別為 SAP 應用程式層元件和 DBMS 層設置故障轉移群集。Azure 目前不支援將 SAP 應用程式層元件和 DBMS 層合併到一個故障轉移群集中的高可用性體系結構。</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>SAP 應用程式層元件 （ASCS） 和 DBMS 層的大多數故障轉移群集都需要故障轉移群集的虛擬 IP 位址。 對於所有其他情況，Azure 負載均衡器應處理虛擬IP位址。一個設計原則是每個群集配置使用一個負載均衡器。建議使用負載均衡器的標準版本（標準負載均衡器 SKU）。</t>
+          <t>SAP 應用程式層元件 （ASCS） 和 DBMS 層的大多數故障轉移群集都需要故障轉移群集的虛擬 IP 位址。 對於所有其他情況，Azure 負載均衡器應處理虛擬IP位址。一種設計原則是為每個群集配置使用一個負載均衡器。建議使用標準版負載均衡器（標準負載均衡器 SKU）。</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -2140,7 +2140,7 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>不要在同一可用性集中混合使用不同角色的伺服器。將中央服務 VM、資料庫 VM、應用程式 VM 保留在其自己的可用性集中</t>
+          <t>不要在同一可用性集中混合使用不同角色的伺服器。將中心服務 VM、資料庫 VM、應用程式 VM 保留在其自己的可用性集中</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
@@ -2190,7 +2190,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>除非使用鄰近放置組，否則無法在 Azure 可用性區域中部署 Azure 可用性集。</t>
+          <t>除非使用鄰近放置組，否則無法在 Azure 可用性區域內部署 Azure 可用性集。</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>創建可用性集時，請使用可用的容錯域和更新域的最大數量。例如，如果在一個可用性集中部署兩個以上的 VM，則除了 Azure 計劃內維護外，還要使用最大數量的容錯域（三個）和足夠的更新域來限制潛在的物理硬體故障、網路中斷或電源中斷的影響。容錯域的預設數量為 2，以後無法連線更改。</t>
+          <t>創建可用性集時，請使用最大數量的容錯域和可用更新域。例如，如果在一個可用性集中部署兩個以上的 VM，請使用最大容錯域數（三個）和足夠的更新域來限制潛在的物理硬體故障、網路中斷或電源中斷的影響，以及 Azure 計劃內維護。默認的容錯域數為兩個，以後無法連線更改。</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
@@ -2290,7 +2290,7 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>在可用性集部署中使用 Azure 鄰近放置組時，所有三個 SAP 元件（中央服務、應用程式伺服器和資料庫）都應位於同一鄰近放置組中。</t>
+          <t>在可用性集部署中使用 Azure 鄰近放置組時，所有三個 SAP 元件（中心服務、應用程式伺服器和資料庫）都應位於同一鄰近放置組中。</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
@@ -2432,7 +2432,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Azure 目前不支援在同一 Linux Pacemaker 群集中組合 ASCS 和 DB HA;將它們分成單獨的集群。但是，您最多可以將五個多個中心服務群集組合到一對 VM 中。</t>
+          <t>Azure 目前不支援將 ASCS 和 DB HA 組合到同一個 Linux Pacemaker 群集中;將它們分成單獨的集群。但是，最多可以將5個多個中心服務群集組合到一對VM中。</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2482,7 +2482,7 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>在可用性集或可用性區域中的高可用性對中部署這兩個 VM。這些 VM 的大小應相同，並且具有相同的存儲配置。</t>
+          <t>在可用性集或可用性區域中的高可用性對中部署兩個 VM。這些 VM 的大小應相同，並且具有相同的存儲配置。</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
@@ -2578,7 +2578,7 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>在高級託管 SSD 上運行所有生產系統，並使用 Azure NetApp 檔或超級磁碟存儲。至少OS磁碟應位於高級層，以便實現更好的性能和最佳SLA。</t>
+          <t>在高級託管 SSD 上運行所有生產系統，並使用 Azure NetApp 檔或超級磁碟存儲。至少OS磁碟應位於高級層，以便可以實現更好的性能和最佳SLA。</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>請考慮根據用於 SAP 工作負載的儲存類型來配置高可用性。Azure Site Recovery 不支援 Azure 中提供的某些存儲服務，因此高可用性配置可能會有所不同。</t>
+          <t>請考慮根據用於 SAP 工作負載的儲存類型配置高可用性。Azure Site Recovery 不支援 Azure 中提供的某些存儲服務，因此高可用性配置可能會有所不同。</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
@@ -2816,7 +2816,7 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>自動執行 SAP 系統啟動-停止以管理成本。</t>
+          <t>自動執行 SAP System Start-Stop 以管理成本。</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2852,23 +2852,23 @@
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>成本優化</t>
         </is>
       </c>
       <c r="B45" s="21" t="inlineStr">
         <is>
-          <t>身份</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>為管理組、訂閱、資源組和資源強制實施 RBAC 模型</t>
+          <t>如果將 Azure 高級存儲與 SAP HANA 配合使用，則可以使用 Azure 標準 SSD 儲存來選擇具有成本意識的儲存解決方案。但是，請注意，選擇標準 SSD 或標準 HDD Azure 儲存將影響各個 VM 的 SLA。此外，對於 I/O 輸送量較低且延遲較低的系統（例如非生產環境），可以使用較低系列的 VM。</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
       <c r="E45" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2879,19 +2879,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/hana-vm-premium-ssd-v1</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
+          <t>71dc00cd-4392-4262-8949-20c05e6c0333</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2902,23 +2897,23 @@
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>成本優化</t>
         </is>
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>身份</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>強制實施原則傳播，以便通過雲連接器將標識從 SAP 雲應用程式轉發到 SAP 本地（包括 IaaS）</t>
+          <t>作為成本較低的替代配置（多用途），可以為非生產 HANA 資料庫伺服器 VM 選擇低性能 SKU。但是，請務必注意，某些 VM 類型（如 E 系列）未經 HANA 認證（SAP HANA 硬體目錄），或者無法實現小於 1 毫秒的存儲延遲。</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
       <c r="E46" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2929,19 +2924,15 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
-        </is>
-      </c>
-      <c r="I46" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/sap/workloads/hana-vm-premium-ssd-v1</t>
+        </is>
+      </c>
+      <c r="I46" s="15" t="n"/>
       <c r="J46" s="22" t="n"/>
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>45911475-e39e-4530-accc-d979366bcda2</t>
+          <t>9877f353-2591-4e8b-8381-e9043fed1010</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2952,7 +2943,7 @@
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>身份和訪問</t>
         </is>
       </c>
       <c r="B47" s="21" t="inlineStr">
@@ -2962,13 +2953,13 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>使用 SAML 通過 Azure AD 實現對 SAP SaaS 應用程式（如 SAP Analytics Cloud、SAP Cloud Platform、Business by design、SAP Qualtrics 和 SAP C4C）的 SSO。</t>
+          <t>對管理組、訂閱、資源組和資源強制實施 RBAC 模型</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
       <c r="E47" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2979,15 +2970,19 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
-        </is>
-      </c>
-      <c r="I47" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
+        </is>
+      </c>
+      <c r="I47" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
+          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2998,7 +2993,7 @@
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>身份和訪問</t>
         </is>
       </c>
       <c r="B48" s="21" t="inlineStr">
@@ -3008,7 +3003,7 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>使用 SAML 實現對基於 SAP NetWeaver 的 Web 應用程式（如 SAP Fiori 和 SAP Web GUI）的 SSO。</t>
+          <t>強制實施主體傳播，以便通過雲連接器將標識從 SAP 雲應用程式轉發到本地 SAP（包括 IaaS）</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -3025,19 +3020,19 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
+          <t>45911475-e39e-4530-accc-d979366bcda2</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -3048,7 +3043,7 @@
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>身份和訪問</t>
         </is>
       </c>
       <c r="B49" s="21" t="inlineStr">
@@ -3058,7 +3053,7 @@
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>使用 SAML 實現對基於 SAP NetWeaver 的 Web 應用程式（如 SAP Fiori 和 SAP Web GUI）的 SSO。</t>
+          <t>使用 SAML 通過 Azure AD 實現 SAP SaaS 應用程式（如 SAP Analytics Cloud、SAP Cloud Platform、Business by design、SAP Qualtrics 和 SAP C4C）的 SSO。</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -3073,17 +3068,16 @@
         </is>
       </c>
       <c r="G49" s="21" t="n"/>
-      <c r="H49" s="15" t="n"/>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
+      <c r="H49" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
+          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3094,7 +3088,7 @@
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>身份和訪問</t>
         </is>
       </c>
       <c r="B50" s="21" t="inlineStr">
@@ -3104,7 +3098,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>可以使用 SAP NetWeaver SSO 或合作夥伴解決方案實現到 SAP GUI 的 SSO。</t>
+          <t>使用 SAML 對基於 SAP NetWeaver 的 Web 應用程式（如 SAP Fiori 和 SAP Web GUI）實施 SSO。</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3133,7 +3127,7 @@
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
+          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3144,7 +3138,7 @@
     <row r="51" ht="16.5" customHeight="1">
       <c r="A51" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>身份和訪問</t>
         </is>
       </c>
       <c r="B51" s="21" t="inlineStr">
@@ -3154,7 +3148,7 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>對於 SAP GUI 和 Web 瀏覽器存取的 SSO，請實施 SNC/Kerberos/SPNEGO（簡單且受保護的 GSSAPI 協商機制），因為它易於配置和維護。對於使用 X.509 用戶端證書的 SSO，請考慮使用 SAP 安全登錄伺服器，它是 SAP SSO 解決方案的一個元件。</t>
+          <t>使用 SAML 對基於 SAP NetWeaver 的 Web 應用程式（如 SAP Fiori 和 SAP Web GUI）實施 SSO。</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
@@ -3172,14 +3166,14 @@
       <c r="H51" s="15" t="n"/>
       <c r="I51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
         </is>
       </c>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
+          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3190,7 +3184,7 @@
     <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>身份和訪問</t>
         </is>
       </c>
       <c r="B52" s="21" t="inlineStr">
@@ -3200,7 +3194,7 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>對於 SAP GUI 和 Web 瀏覽器存取的 SSO，請實施 SNC/Kerberos/SPNEGO（簡單且受保護的 GSSAPI 協商機制），因為它易於配置和維護。對於使用 X.509 用戶端證書的 SSO，請考慮使用 SAP 安全登錄伺服器，它是 SAP SSO 解決方案的一個元件。</t>
+          <t>可以使用 SAP NetWeaver SSO 或合作夥伴解決方案實現 SAP GUI 的 SSO。</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
@@ -3217,15 +3211,19 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://blogs.sap.com/2017/07/12/sap-single-sign-on-protect-your-sap-landscape-with-x.509-certificates/</t>
-        </is>
-      </c>
-      <c r="I52" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+        </is>
+      </c>
+      <c r="I52" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+        </is>
+      </c>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
+          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3236,7 +3234,7 @@
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>身份和訪問</t>
         </is>
       </c>
       <c r="B53" s="21" t="inlineStr">
@@ -3246,7 +3244,7 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>使用 SAP NetWeaver 的 OAuth 實現 SSO，以允許第三方或自定義應用程式訪問 SAP NetWeaver OData 服務。</t>
+          <t>對於用於 SAP GUI 和 Web 瀏覽器存取的 SSO，由於其易於配置和維護，請實施 SNC/Kerberos/SPNEGO（簡單且受保護的 GSSAPI 協商機制）。對於具有 X.509 用戶端證書的 SSO，請考慮 SAP 安全登錄伺服器，它是 SAP SSO 解決方案的一個元件。</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3261,16 +3259,17 @@
         </is>
       </c>
       <c r="G53" s="21" t="n"/>
-      <c r="H53" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
+      <c r="H53" s="15" t="n"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
+          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3281,7 +3280,7 @@
     <row r="54" ht="16.5" customHeight="1">
       <c r="A54" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>身份和訪問</t>
         </is>
       </c>
       <c r="B54" s="21" t="inlineStr">
@@ -3291,7 +3290,7 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>實現SAP HANA的 SSO</t>
+          <t>對於用於 SAP GUI 和 Web 瀏覽器存取的 SSO，由於其易於配置和維護，請實施 SNC/Kerberos/SPNEGO（簡單且受保護的 GSSAPI 協商機制）。對於具有 X.509 用戶端證書的 SSO，請考慮 SAP 安全登錄伺服器，它是 SAP SSO 解決方案的一個元件。</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3308,7 +3307,7 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
+          <t>https://blogs.sap.com/2017/07/12/sap-single-sign-on-protect-your-sap-landscape-with-x.509-certificates/</t>
         </is>
       </c>
       <c r="I54" s="15" t="n"/>
@@ -3316,7 +3315,7 @@
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
+          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3327,7 +3326,7 @@
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>身份和訪問</t>
         </is>
       </c>
       <c r="B55" s="21" t="inlineStr">
@@ -3337,7 +3336,7 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>將 Azure AD 視為 RISE 上託管的 SAP 系統的標識提供者。有關詳細資訊，請參閱將服務與 Azure AD 集成。</t>
+          <t>使用 OAuth for SAP NetWeaver 實現 SSO，以允許第三方或自定義應用程式訪問 SAP NetWeaver OData 服務。</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3354,14 +3353,14 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
+          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3372,7 +3371,7 @@
     <row r="56" ht="16.5" customHeight="1">
       <c r="A56" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>身份和訪問</t>
         </is>
       </c>
       <c r="B56" s="21" t="inlineStr">
@@ -3382,7 +3381,7 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>對於訪問 SAP 的應用程式，可能需要使用主體傳播來建立 SSO。</t>
+          <t>實施 SSO 到 SAP HANA</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
@@ -3399,14 +3398,14 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/azuredevcollege/SAP/blob/master/sap-oauth-saml-flow/README.md</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
+          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3417,7 +3416,7 @@
     <row r="57" ht="16.5" customHeight="1">
       <c r="A57" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>身份和訪問</t>
         </is>
       </c>
       <c r="B57" s="21" t="inlineStr">
@@ -3427,7 +3426,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>如果使用需要 SAP Identity Authentication Service （IAS） 的 SAP BTP 服務或 SaaS 解決方案，請考慮在 SAP Cloud Identity Authentication Services 和 Azure AD 之間實現 SSO 以存取這些 SAP 服務。此集成允許 SAP IAS 充當代理標識提供者，並將身份驗證請求轉發到作為中央使用者存儲和標識提供者的 Azure AD。</t>
+          <t>將 Azure AD 視為 RISE 上託管的 SAP 系統的標識提供者。有關詳細資訊，請參閱將服務與 Azure AD 集成。</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3444,14 +3443,14 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
+          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3462,7 +3461,7 @@
     <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>身份和訪問</t>
         </is>
       </c>
       <c r="B58" s="21" t="inlineStr">
@@ -3472,7 +3471,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>實現對 SAP BTP 的 SSO</t>
+          <t>對於訪問 SAP 的應用程式，您可能希望使用主體傳播來建立 SSO。</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3489,14 +3488,14 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
+          <t>https://github.com/azuredevcollege/SAP/blob/master/sap-oauth-saml-flow/README.md</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
+          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3507,7 +3506,7 @@
     <row r="59" ht="16.5" customHeight="1">
       <c r="A59" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>身份和訪問</t>
         </is>
       </c>
       <c r="B59" s="21" t="inlineStr">
@@ -3517,7 +3516,7 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>如果使用的是 SAP SuccessFactors，請考慮使用 Azure AD 自動使用者預配。通過此整合，在向 SAP SuccessFactors 添加新員工時，可以在 Azure AD 中自動創建其使用者帳戶。 （可選）可以在 Microsoft 365 或 Azure AD 支援的其他 SaaS 應用程式中創建使用者帳戶。 將電子郵件地址寫回 SAP SuccessFactors。</t>
+          <t>如果使用的是需要 SAP Identity Authentication Service （IAS） 的 SAP BTP 服務或 SaaS 解決方案，請考慮在 SAP Cloud Identity Authentication Services 和 Azure AD 之間實現 SSO 來存取這些 SAP 服務。此集成允許 SAP IAS 充當代理標識提供者，並將身份驗證請求轉發到 Azure AD 作為中央使用者存儲和標識提供者。</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3534,14 +3533,14 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
+          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3552,17 +3551,17 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
-          <t>管理組和訂閱</t>
+          <t>身份和訪問</t>
         </is>
       </c>
       <c r="B60" s="21" t="inlineStr">
         <is>
-          <t>訂閱</t>
+          <t>身份</t>
         </is>
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>對 SAP 訂閱強制實施現有管理組策略</t>
+          <t>實施 SSO 到 SAP BTP</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3579,19 +3578,14 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
+          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3602,23 +3596,23 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="21" t="inlineStr">
         <is>
-          <t>管理組和訂閱</t>
+          <t>身份和訪問</t>
         </is>
       </c>
       <c r="B61" s="21" t="inlineStr">
         <is>
-          <t>訂閱</t>
+          <t>身份</t>
         </is>
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>將緊密耦合的應用程式集成到同一 SAP 訂閱中，以避免額外的路由和管理複雜性</t>
+          <t>如果使用的是 SAP SuccessFactors，請考慮使用 Azure AD 自動使用者預配。通過此整合，在向 SAP SuccessFactors 新增員工時，可以在 Azure AD 中自動建立使用者帳戶。 （可選）可以在 Azure AD 支援的 Microsoft 365 或其他 SaaS 應用程式中建立使用者帳戶。 使用將電子郵件地址寫回 SAP SuccessFactors。</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
       <c r="E61" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3629,19 +3623,14 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
+          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3662,13 +3651,13 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>利用訂閱作為縮放單元並縮放我們的資源，請考慮按環境部署訂閱，例如。沙箱、非生產、生產</t>
+          <t>對 SAP 訂閱強制實施現有管理組策略</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
       <c r="E62" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3679,19 +3668,19 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
+          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3712,7 +3701,7 @@
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>確保在訂閱預配過程中增加配額（例如，訂閱中可用的 VM 核心總數）</t>
+          <t>將緊密耦合的應用程式集成到同一個 SAP 訂閱中，以避免額外的路由和管理複雜性</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3729,19 +3718,19 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
         </is>
       </c>
       <c r="I63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
         </is>
       </c>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
+          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3762,13 +3751,13 @@
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>配額 API 是一個 REST API，可用於查看和管理 Azure 服務的配額。如有必要，請考慮使用它。</t>
+          <t>利用訂閱作為縮放單元並擴展我們的資源，請考慮按環境部署訂閱，例如。沙箱、非生產、生產</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
       <c r="E64" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3779,15 +3768,19 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
-        </is>
-      </c>
-      <c r="I64" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+        </is>
+      </c>
+      <c r="I64" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
+          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3808,7 +3801,7 @@
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>如果部署到可用性區域，請確保在批准配額后，VM 的區域部署可用。提交支援請求，其中包含所需的訂閱、VM 系列、CPU 數量和可用性區域。</t>
+          <t>確保在訂閱預配過程中增加配額（例如，訂閱中的可用 VM 核心總數）</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
@@ -3825,15 +3818,19 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
-        </is>
-      </c>
-      <c r="I65" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
+        </is>
+      </c>
+      <c r="I65" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+        </is>
+      </c>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
+          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3854,13 +3851,13 @@
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>確保所需的服務和功能在選定的部署區域內可用，例如。ANF、區域等</t>
+          <t>配額 API 是一個 REST API，可用於查看和管理 Azure 服務的配額。如有必要，請考慮使用它。</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
       <c r="E66" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3871,19 +3868,14 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
+          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
+          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3904,13 +3896,13 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>利用 Azure 資源標記進行成本分類和資源分組（：帳單、部門（或營業單位）、環境（生產、階段、開發）、層（Web 層、應用層）、應用程式擁有者、專案名稱）</t>
+          <t>如果部署到可用性區域，請確保在配額獲得批准后，VM 的區域部署可用。提交支援請求，其中包含所需的訂閱、VM 系列、CPU 數量和可用性區域。</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
       <c r="E67" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3921,19 +3913,15 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
-        </is>
-      </c>
-      <c r="I67" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
+        </is>
+      </c>
+      <c r="I67" s="15" t="n"/>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
+          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3944,17 +3932,17 @@
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="21" t="inlineStr">
         <is>
-          <t>管理和監控</t>
+          <t>管理組和訂閱</t>
         </is>
       </c>
       <c r="B68" s="21" t="inlineStr">
         <is>
-          <t>BCDR的</t>
+          <t>訂閱</t>
         </is>
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 備份服務幫助保護 HANA 資料庫。</t>
+          <t>確保所需的服務和功能在選定的部署區域內可用，例如。ANF、區域等</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -3971,19 +3959,19 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
+          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
         </is>
       </c>
       <c r="I68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
         </is>
       </c>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
+          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -3994,17 +3982,17 @@
     <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="21" t="inlineStr">
         <is>
-          <t>管理和監控</t>
+          <t>管理組和訂閱</t>
         </is>
       </c>
       <c r="B69" s="21" t="inlineStr">
         <is>
-          <t>BCDR的</t>
+          <t>訂閱</t>
         </is>
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>如果為 HANA、Oracle 或 DB2 資料庫部署 Azure NetApp 檔，請使用 Azure 應用程式一致性快照工具 （AzAcSnap） 建立應用程式一致性快照。AzAcSnap 還支援 Oracle 資料庫。請考慮在中央 VM 上使用 AzAcSnap，而不是在單個 VM 上使用 AzAcSnap。</t>
+          <t>利用 Azure 資源標記進行成本分類和資源分組（：BillTo、部門（或營業單位）、環境（生產、階段、開發）、層（Web 層、應用層）、應用程式擁有者、ProjectName）</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
@@ -4021,15 +4009,19 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
-        </is>
-      </c>
-      <c r="I69" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
+        </is>
+      </c>
+      <c r="I69" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
+          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4045,12 +4037,12 @@
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>BCDR的</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>確保操作系統和 SAP 系統之間的時區匹配。</t>
+          <t>使用 Azure 備份服務幫助保護 HANA 資料庫。</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -4067,15 +4059,19 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
-        </is>
-      </c>
-      <c r="I70" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
+        </is>
+      </c>
+      <c r="I70" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
+          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4091,12 +4087,12 @@
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>BCDR的</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>不要在同一集群中對不同的應用程式服務進行分組。例如，不要將DRBD和中央服務群集合並到同一個群集上。但是，可以使用同一個 Pacemaker 群集來管理大約五個不同的中央服務（多 SID 群集）。</t>
+          <t>如果為 HANA、Oracle 或 DB2 資料庫部署 Azure NetApp 檔，請使用 Azure 應用程式一致性快照工具 （AzAcSnap） 拍攝應用程式一致性快照。AzAcSnap 還支援 Oracle 資料庫。請考慮在中央 VM 上使用 AzAcSnap，而不是在單個 VM 上使用 AzAcSnap。</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -4113,19 +4109,15 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
-        </is>
-      </c>
-      <c r="I71" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
+        </is>
+      </c>
+      <c r="I71" s="15" t="n"/>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
+          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4146,13 +4138,13 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>請考慮在暫停模型中運行開發/測試系統，以節省和優化 Azure 運行成本。</t>
+          <t>確保操作系統和 SAP 系統之間的時區匹配。</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4163,7 +4155,7 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
         </is>
       </c>
       <c r="I72" s="15" t="n"/>
@@ -4171,7 +4163,7 @@
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
+          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4192,7 +4184,7 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>如果通過管理客戶的 SAP 資產與客戶合作，請考慮使用 Azure Lighthouse。Azure Lighthouse 允許託管服務提供者使用 Azure 本機標識服務向客戶環境進行身份驗證。它將控制權交到客戶手中，因為他們可以隨時撤銷訪問許可權並審核服務提供者的操作。</t>
+          <t>不要將不同的應用程式服務分組到同一個集群中。例如，不要將DRBD和中心服務集群組合在同一集群上。但是，可以使用同一個 Pacemaker 群集來管理大約五個不同的中心服務（多 SID 群集）。</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -4209,15 +4201,19 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
-        </is>
-      </c>
-      <c r="I73" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
+        </is>
+      </c>
+      <c r="I73" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J73" s="22" t="n"/>
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
+          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4238,13 +4234,13 @@
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 更新管理員檢查單個 VM 或多個 VM 的可用更新狀態，並考慮計劃定期修補。</t>
+          <t>請考慮在貪睡模型中運行開發/測試系統，以節省和優化 Azure 運行成本。</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4255,19 +4251,15 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
-        </is>
-      </c>
-      <c r="I74" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
+        </is>
+      </c>
+      <c r="I74" s="15" t="n"/>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
+          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4288,13 +4280,13 @@
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>使用 SAP Landscape Management （LaMa） 優化和管理 SAP Basis 操作。使用適用於 Azure 的 SAP LaMa 連接器重新置放、複製、克隆和刷新 SAP 系統。</t>
+          <t>如果通過管理客戶的 SAP 資產與客戶合作，請考慮使用 Azure Lighthouse。Azure Lighthouse 允許託管服務提供者使用 Azure 本機標識服務對客戶環境進行身份驗證。它將控制權交到客戶手中，因為他們可以隨時撤銷訪問許可權並審核服務提供者的操作。</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
       <c r="E75" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4305,19 +4297,15 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
-        </is>
-      </c>
-      <c r="I75" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
+        </is>
+      </c>
+      <c r="I75" s="15" t="n"/>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
+          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4333,12 +4321,12 @@
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>使用適用於 SAP 解決方案的 Azure Monitor 監視 Azure 上的 SAP 工作負載（SAP HANA、高可用性 SUSE 群集和 SQL 系統）。請考慮使用 SAP 解決方案管理器補充用於 SAP 解決方案的 Azure Monitor。</t>
+          <t>使用 Azure Update Manager 檢查單個 VM 或多個 VM 的可用更新狀態，並考慮計劃定期修補。</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
@@ -4355,19 +4343,19 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
+          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
         </is>
       </c>
       <c r="I76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
         </is>
       </c>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
+          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4383,18 +4371,18 @@
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>運行適用於 SAP 的 VM 擴展檢查。適用於 SAP 的 VM 擴展使用虛擬機 （VM） 的分配託管標識來訪問 VM 監視和配置數據。該檢查可確保 SAP 應用程式中的所有性能指標都來自適用於 SAP 的基礎 Azure 擴展。</t>
+          <t>使用 SAP Landscape Management （LaMa） 優化和管理 SAP Basis 操作。使用適用於 Azure 的 SAP LaMa 連接器重新置放、複製、克隆和刷新 SAP 系統。</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4405,19 +4393,19 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
         </is>
       </c>
       <c r="I77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
         </is>
       </c>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
+          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4438,7 +4426,7 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Policy 進行訪問控制和合規性報告。Azure Policy 提供強制實施組織範圍設置的功能，以確保一致的策略遵守和快速的違規檢測。</t>
+          <t>使用適用於 SAP 解決方案的 Azure Monitor 監視 Azure 上的 SAP 工作負載（SAP HANA、高可用性 SUSE 群集和 SQL 系統）。請考慮使用 SAP 解決方案管理器補充用於 SAP 解決方案的 Azure Monitor。</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
@@ -4455,19 +4443,19 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
         </is>
       </c>
       <c r="I78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
         </is>
       </c>
       <c r="J78" s="22" t="n"/>
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
+          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4488,13 +4476,13 @@
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 網路觀察程式中的連接監視器監視 SAP 資料庫和應用程式伺服器的延遲指標。或者使用 Azure Monitor 收集和顯示網路延遲度量值。</t>
+          <t>運行 VM 擴展 SAP 檢查。適用於 SAP 的 VM 擴展使用虛擬機 （VM） 的分配託管標識來訪問 VM 監視和配置數據。該檢查可確保 SAP 應用程式中的所有性能指標都來自適用於 SAP 的基礎 Azure 擴展。</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
       <c r="E79" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4505,19 +4493,19 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
         </is>
       </c>
       <c r="I79" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
         </is>
       </c>
       <c r="J79" s="22" t="n"/>
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
+          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4538,13 +4526,13 @@
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Site Recovery 監視來維護 SAP 應用程式伺服器的災難恢復服務的運行狀況。</t>
+          <t>使用 Azure Policy 進行訪問控制和合規性報告。Azure Policy 提供強制實施組織範圍設置的功能，以確保一致的策略遵守和快速違規檢測。</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4555,19 +4543,19 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
+          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4588,7 +4576,7 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>在預配的 Azure 基礎結構上對 SAP HANA 執行質量檢查，以驗證預配的 VM 是否符合 Azure 上的 SAP HANA 最佳做法。</t>
+          <t>使用 Azure 網路觀察程式中的連接監視器來監視 SAP 資料庫和應用程式伺服器的延遲指標。或者使用 Azure Monitor 收集和顯示網路延遲度量值。</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4605,15 +4593,19 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/QualityCheck</t>
-        </is>
-      </c>
-      <c r="I81" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
+        </is>
+      </c>
+      <c r="I81" s="15" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
+        </is>
+      </c>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
+          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4634,13 +4626,13 @@
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>對於每個 Azure 訂閱，請在區域部署之前在 Azure 可用性區域上運行延遲測試，以選擇用於在 Azure 上部署 SAP 的低延遲區域。</t>
+          <t>在預配的 Azure 基礎結構上對 SAP HANA 執行質量檢查，以驗證預配的 VM 是否符合 Azure 上的 SAP HANA 最佳做法。</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4651,19 +4643,15 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-zones</t>
-        </is>
-      </c>
-      <c r="I82" s="15" t="inlineStr">
-        <is>
-          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
-        </is>
-      </c>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/QualityCheck</t>
+        </is>
+      </c>
+      <c r="I82" s="15" t="n"/>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
+          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4684,13 +4672,13 @@
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>運行復原報告，確保整個預配的 Azure 基礎結構（計算、資料庫、網路、存儲、Site Recovery）的配置符合適用於 Azure 的 Cloud Adaption Framework 定義的配置。</t>
+          <t>對於每個 Azure 訂閱，在區域部署之前，請在 Azure 可用性區域上運行延遲測試，以選擇低延遲區域以在 Azure 上部署 SAP。</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
       <c r="E83" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4701,19 +4689,19 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/advisor/advisor-how-to-improve-reliability</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-zones</t>
         </is>
       </c>
       <c r="I83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/azure-well-architected-framework/</t>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
         </is>
       </c>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>410adcba-db46-424f-a6c4-05ecde75c52e</t>
+          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4734,7 +4722,7 @@
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>使用適用於 SAP 的 Microsoft Sentinel 解決方案實施威脅防護。使用此解決方案可以監視 SAP 系統，並檢測整個業務邏輯和應用程式層的複雜威脅。</t>
+          <t>運行復原報告，以確保整個預配的 Azure 基礎結構（計算、資料庫、網路、存儲、Site Recovery）的配置符合適用於 Azure 的 Cloud Adaption Framework 定義的配置。</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4751,19 +4739,19 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/sap/deployment-overview</t>
+          <t>https://learn.microsoft.com/azure/advisor/advisor-how-to-improve-reliability</t>
         </is>
       </c>
       <c r="I84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/plan-microsoft-sentinel-deployment-sap/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/azure-well-architected-framework/</t>
         </is>
       </c>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
+          <t>410adcba-db46-424f-a6c4-05ecde75c52e</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4784,7 +4772,7 @@
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>可以利用 Azure 標記對資源進行邏輯分組和跟蹤，自動執行其部署，最重要的是，提供對所產生成本的可見性。</t>
+          <t>使用適用於 SAP 的 Microsoft Sentinel 解決方案實施威脅防護。使用此解決方案可以監視 SAP 系統，並檢測整個業務邏輯層和應用程式層中的複雜威脅。</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4801,19 +4789,19 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/enable-tag-inheritance</t>
+          <t>https://learn.microsoft.com/azure/sentinel/sap/deployment-overview</t>
         </is>
       </c>
       <c r="I85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/plan-microsoft-sentinel-deployment-sap/?source=recommendations</t>
         </is>
       </c>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
+          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4829,18 +4817,18 @@
       </c>
       <c r="B86" s="21" t="inlineStr">
         <is>
-          <t>性能</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>對延遲敏感型應用程式使用虛擬機間延遲監視。</t>
+          <t>可以利用 Azure 標記對資源進行邏輯分組和跟蹤，自動執行其部署，最重要的是，提供對所發生成本的可見性。</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
       <c r="E86" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4851,15 +4839,19 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-test-latency?tabs=windows</t>
-        </is>
-      </c>
-      <c r="I86" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/enable-tag-inheritance</t>
+        </is>
+      </c>
+      <c r="I86" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>04b8e5e5-13cb-4b22-af62-5a8ecfcf0337</t>
+          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4880,13 +4872,13 @@
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Site Recovery 監視來維護 SAP 應用程式伺服器的災難恢復服務的運行狀況。</t>
+          <t>對延遲敏感型應用程式使用 VM 間延遲監視。</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
       <c r="E87" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4897,19 +4889,15 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide-storage</t>
-        </is>
-      </c>
-      <c r="I87" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-test-latency?tabs=windows</t>
+        </is>
+      </c>
+      <c r="I87" s="15" t="n"/>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>07e5ed53-3d96-43d8-87ea-631b77da5aba</t>
+          <t>04b8e5e5-13cb-4b22-af62-5a8ecfcf0337</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4930,7 +4918,7 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>從防病毒掃描中排除所有資料庫檔系統和可執行程式。包括它們可能會導致性能問題。請與資料庫供應商聯繫，瞭解排除清單的規範性詳細資訊。例如，Oracle 建議&lt;sid&gt;從防病毒掃描中排除 /oracle}sapdata。</t>
+          <t>使用 Azure Site Recovery 監視來維護 SAP 應用程式伺服器的災難恢復服務的運行狀況。</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4947,15 +4935,19 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
-        </is>
-      </c>
-      <c r="I88" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide-storage</t>
+        </is>
+      </c>
+      <c r="I88" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J88" s="22" t="n"/>
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>abb6af9c-982c-4cf1-83fb-329fafd1ee56</t>
+          <t>07e5ed53-3d96-43d8-87ea-631b77da5aba</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4976,13 +4968,13 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>請考慮在遷移後收集非 HANA 資料庫的完整資料庫統計資訊。例如，實現 SAP 註釋 1020260 - Oracle 統計資訊的交付。</t>
+          <t>從防病毒掃描中排除所有資料庫檔系統和可執行程式。包含它們可能會導致性能問題。請與資料庫供應商聯繫，瞭解排除清單的規範性詳細資訊。例如，Oracle 建議&lt;sid&gt;從防病毒掃描中排除 /oracle}sapdata。</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
       <c r="E89" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4993,7 +4985,7 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://sapit-forme-prod.authentication.eu11.hana.ondemand.com/login</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
         </is>
       </c>
       <c r="I89" s="15" t="n"/>
@@ -5001,7 +4993,7 @@
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>c027f893-f404-41a9-b33d-39d625a14964</t>
+          <t>abb6af9c-982c-4cf1-83fb-329fafd1ee56</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5022,13 +5014,13 @@
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>請考慮將 Oracle 自動儲存管理 （ASM） 用於使用 Azure 上的 SAP 的所有 Oracle 部署。</t>
+          <t>請考慮在遷移後收集非 HANA 資料庫的完整資料庫統計資訊。例如，實現 SAP 註釋 1020260 - Oracle 統計資訊的交付。</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
       <c r="E90" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -5039,19 +5031,15 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/configure-oracle-asm</t>
-        </is>
-      </c>
-      <c r="I90" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/administer-infrastructure-resources-in-azure/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://sapit-forme-prod.authentication.eu11.hana.ondemand.com/login</t>
+        </is>
+      </c>
+      <c r="I90" s="15" t="n"/>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>fdafb1f5-3eee-4354-a8c9-deb8127ebc2e</t>
+          <t>c027f893-f404-41a9-b33d-39d625a14964</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5072,7 +5060,7 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>對於運行 Oracle 的 Azure 上的 SAP，SQL 腳本集合可説明你診斷性能問題。 Automatic Workload Repository （AWR） 報告包含用於診斷 Oracle 系統中問題的寶貴資訊。我們建議您在多個工作階段期間運行 AWR 報告，並為其選擇高峰時間，以確保分析的廣泛覆蓋。</t>
+          <t>請考慮將 Oracle 自動儲存管理 （ASM） 用於使用 Azure 上的 SAP 的所有 Oracle 部署。</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
@@ -5089,19 +5077,19 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/announcement-sap-on-azure-oracle-performance-efficiency-scripts/ba-p/3725178</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/configure-oracle-asm</t>
         </is>
       </c>
       <c r="I91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/azure/well-architected/oracle-iaas/performance-efficiency</t>
+          <t>https://learn.microsoft.com/training/paths/administer-infrastructure-resources-in-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>33c5d5bf-daf3-4f0d-bd50-6010fdcec22e</t>
+          <t>fdafb1f5-3eee-4354-a8c9-deb8127ebc2e</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5112,17 +5100,17 @@
     <row r="92" ht="16.5" customHeight="1">
       <c r="A92" s="21" t="inlineStr">
         <is>
-          <t>網路拓撲和連接</t>
+          <t>管理和監控</t>
         </is>
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>應用交付</t>
+          <t>性能</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>若要安全交付 HTTP/S 應用，請使用應用程式閘道 v2 並確保已啟用 WAF 保護和策略。</t>
+          <t>對於運行 Oracle 的 Azure 上的 SAP，SQL 腳本集合可説明你診斷性能問題。 Automatic Workload Repository （AWR） 報告包含用於診斷 Oracle 系統中問題的寶貴資訊。我們建議您在多個工作階段期間運行 AWR 報告，並為其選擇高峰時間，以確保分析的廣泛覆蓋。</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
@@ -5139,19 +5127,19 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/announcement-sap-on-azure-oracle-performance-efficiency-scripts/ba-p/3725178</t>
         </is>
       </c>
       <c r="I92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
+          <t>https://learn.microsoft.com/ja-jp/azure/well-architected/oracle-iaas/performance-efficiency</t>
         </is>
       </c>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
+          <t>33c5d5bf-daf3-4f0d-bd50-6010fdcec22e</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5162,23 +5150,23 @@
     <row r="93" ht="16.5" customHeight="1">
       <c r="A93" s="21" t="inlineStr">
         <is>
-          <t>網路拓撲和連接</t>
+          <t>管理和監控</t>
         </is>
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>DNS解析</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>如果在遷移到 Azure 期間未更改虛擬機器的 DNS 或虛擬名稱，則後台 DNS 和虛擬名稱會連接 SAP 環境中的許多系統介面，並且客戶有時只知道開發人員隨時間推移定義的介面。遷移后，當虛擬名稱或 DNS 名稱發生更改時，各種系統之間會出現連接挑戰，建議保留 DNS 別名以防止出現這些類型的困難。</t>
+          <t>使用 Azure Site Recovery 監視來維護 SAP 應用程式伺服器的災難恢復服務的運行狀況。</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
       <c r="E93" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5189,19 +5177,19 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
         </is>
       </c>
       <c r="I93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
+          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5217,12 +5205,12 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>DNS解析</t>
+          <t>應用交付</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>使用不同的 DNS 區域將每個環境（沙箱、開發、預生產和生產）彼此區分開來。例外情況是具有自己的 VNet 的 SAP 部署;在這裡，專用 DNS 區域可能不是必需的。</t>
+          <t>若要安全交付 HTTP/S 應用，請使用應用程式閘道 v2 並確保啟用 WAF 保護和策略。</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
@@ -5239,19 +5227,19 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
         </is>
       </c>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
+          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5267,12 +5255,12 @@
       </c>
       <c r="B95" s="21" t="inlineStr">
         <is>
-          <t>混合</t>
+          <t>功能變數名稱統計</t>
         </is>
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>本地和全域 VNet 對等互連提供連接，是確保跨多個 Azure 區域的 SAP 部署登陸區域之間連接的首選方法</t>
+          <t>如果在遷移到 Azure 期間未更改虛擬機器的 DNS 或虛擬名稱，則後台 DNS 和虛擬名稱將連接 SAP 環境中的許多系統介面，並且客戶有時只是偶爾知道開發人員隨時間推移定義的介面。遷移后，當虛擬名稱或 DNS 名稱發生更改時，各種系統之間會出現連接挑戰，建議保留 DNS 別名以防止出現此類困難。</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5289,19 +5277,19 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
+          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5317,18 +5305,18 @@
       </c>
       <c r="B96" s="21" t="inlineStr">
         <is>
-          <t>混合</t>
+          <t>功能變數名稱統計</t>
         </is>
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>不支援在 SAP 應用程式和 SAP 資料庫伺服器之間部署任何 NVA</t>
+          <t>使用不同的 DNS 區域來區分每個環境（沙箱、開發、預生產和生產）。例外情況是具有自己的 VNet 的 SAP 部署;在這裡，專用 DNS 區域可能不是必需的。</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5339,19 +5327,19 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I96" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2731110</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
+          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5372,7 +5360,7 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>在需要跨 Azure 區域和本地位置進行全球傳輸連接的新網路、大型網路或全球網路中，將虛擬 WAN 用於 Azure 部署。使用此方法，無需手動為 Azure 網路設置可傳遞路由，並且可以遵循 Azure 上的 SAP 部署的標準。</t>
+          <t>本地和全域 VNet 對等互連提供連接，是確保跨多個 Azure 區域的 SAP 部署的登陸區域之間連接的首選方法</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
@@ -5389,19 +5377,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
         </is>
       </c>
       <c r="I97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
         </is>
       </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
+          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5422,13 +5410,13 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>僅當使用合作夥伴 NVA 時，才考慮在區域之間部署網路虛擬設備 （NVA）。如果存在本機 NVA，則不需要區域或 VNet 之間的 NVA。部署合作夥伴網路技術和 NVA 時，請按照供應商的指南驗證與 Azure 網路的衝突配置。</t>
+          <t>不支援在 SAP 應用程式和 SAP 資料庫伺服器之間部署任何 NVA</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
       <c r="E98" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5439,19 +5427,19 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
         </is>
       </c>
       <c r="I98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
+          <t>https://me.sap.com/notes/2731110</t>
         </is>
       </c>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
+          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5472,7 +5460,7 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>虛擬 WAN 管理基於虛擬 WAN 的拓撲的分支 VNet 之間的連接（無需設置使用者定義的路由 [UDR] 或 NVA），同一虛擬中心中 VNet 到 VNet 流量的最大網路輸送量為每秒 50 GB。如有必要，SAP 登陸區域可以使用 VNet 對等互連連接到其他登陸區域並克服此頻寬限制。</t>
+          <t>在需要跨 Azure 區域和本地位置的全球傳輸連接的新網路、大型網路或全球網路中，使用虛擬 WAN 進行 Azure 部署。使用此方法，無需為 Azure 網路手動設置可傳遞路由，並且可以遵循 Azure 上的 SAP 部署的標準。</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5489,19 +5477,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
+          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5517,18 +5505,18 @@
       </c>
       <c r="B100" s="21" t="inlineStr">
         <is>
-          <t>IP計劃</t>
+          <t>混合</t>
         </is>
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>不建議將公共 I.P 分配給運行 SAP 工作負載的 VM。</t>
+          <t>僅當使用合作夥伴 NVA 時，才考慮在區域之間部署網路虛擬設備 （NVA）。如果存在本機 NVA，則不需要區域或 VNet 之間的 NVA。部署合作夥伴網路技術和 NVA 時，請按照供應商的指南驗證與 Azure 網路衝突的配置。</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5539,19 +5527,19 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
         </is>
       </c>
       <c r="I100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
         </is>
       </c>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
+          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5567,18 +5555,18 @@
       </c>
       <c r="B101" s="21" t="inlineStr">
         <is>
-          <t>IP計劃</t>
+          <t>混合</t>
         </is>
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>配置 ASR 時，請考慮在 DR 端保留 I.P 位址</t>
+          <t>虛擬 WAN 管理基於虛擬 WAN 的拓撲的分支 VNet 之間的連接（無需設置使用者定義的路由 [UDR] 或 NVA），同一虛擬中心中 VNet 到 VNet 流量的最大網路輸送量為每秒 50 Gb。如有必要，SAP 登陸區域可以使用 VNet 對等互連連接到其他登陸區域，並克服此頻寬限制。</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
       <c r="E101" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5589,19 +5577,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
         </is>
       </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
+          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5617,12 +5605,12 @@
       </c>
       <c r="B102" s="21" t="inlineStr">
         <is>
-          <t>IP計劃</t>
+          <t>知識產權計劃</t>
         </is>
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>避免對生產網站和DR網站使用重疊的IP位址範圍。</t>
+          <t>不建議將公共IP分配給運行SAP工作負載的 VM。</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
@@ -5651,7 +5639,7 @@
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
+          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5667,18 +5655,18 @@
       </c>
       <c r="B103" s="21" t="inlineStr">
         <is>
-          <t>IP計劃</t>
+          <t>知識產權計劃</t>
         </is>
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>雖然 Azure 確實有助於在 VNet 中創建多個委託子網，但 Azure NetApp 檔的 VNet 中只能存在一個委託子網。如果對 Azure NetApp 檔使用多個委託子網，則嘗試創建新卷將失敗。</t>
+          <t>配置 ASR 時，請考慮在 DR 端保留 IP 位址</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
       <c r="E103" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5689,19 +5677,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="I103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
+          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5717,18 +5705,18 @@
       </c>
       <c r="B104" s="21" t="inlineStr">
         <is>
-          <t>互聯網</t>
+          <t>知識產權計劃</t>
         </is>
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 防火牆管理發往 Internet、非 HTTP/S 入站連接和東西方流量篩選的 Azure 出站流量（如果組織需要）</t>
+          <t>避免對生產網站和DR網站使用重疊的IP位址範圍。</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5739,19 +5727,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
+          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5767,12 +5755,12 @@
       </c>
       <c r="B105" s="21" t="inlineStr">
         <is>
-          <t>互聯網</t>
+          <t>知識產權計劃</t>
         </is>
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>當應用程式閘道充當 SAP Web 應用的反向代理時，應用程式閘道和 Web 應用程式防火牆存在限制，如應用程式閘道、SAP Web 調度程式和其他第三方服務之間的比較所示。</t>
+          <t>雖然 Azure 確實可以説明您在 VNet 中創建多個委託子網，但 Azure NetApp 檔的 VNet 中只能存在一個委託子網。如果對 Azure NetApp 檔使用多個委託子網，則嘗試創建新卷將失敗。</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
@@ -5789,19 +5777,19 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
         </is>
       </c>
       <c r="I105" s="15" t="inlineStr">
         <is>
-          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
         </is>
       </c>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
+          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5822,7 +5810,7 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Front Door 和 WAF 策略跨 Azure 區域為登陸區域的入站 HTTP/S 連接提供全域保護。</t>
+          <t>使用 Azure 防火牆管理發往 Internet 的 Azure 出站流量、非 HTTP/S 入站連接和東西向流量篩選（如果組織需要）</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -5839,19 +5827,19 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
         </is>
       </c>
       <c r="I106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
+          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5872,7 +5860,7 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Front Door 和應用程式閘道來保護 HTTP/S 應用程式時，請利用 Azure Front Door 中的 Web 應用程式防火牆策略。鎖定應用程式閘道以僅接收來自 Azure Front Door 的流量。</t>
+          <t>當應用程式閘道充當 SAP Web 應用的反向代理時，應用程式閘道和 Web 應用程式防火牆存在限制，如應用程式閘道、SAP Web 調度程式和其他第三方服務之間的比較所示。</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5889,19 +5877,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
         </is>
       </c>
       <c r="I107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
         </is>
       </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
+          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5922,7 +5910,7 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>當流量暴露在互聯網上時，使用 Web 應用程式防火牆掃描流量。另一種選擇是將其與負載均衡器或具有內置防火牆功能（如應用程式閘道或第三方解決方案）的資源一起使用。</t>
+          <t>使用 Azure Front Door 和 WAF 策略跨 Azure 區域為到登陸區域的入站 HTTP/S 連接提供全域保護。</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
@@ -5944,14 +5932,14 @@
       </c>
       <c r="I108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
+          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5972,7 +5960,7 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>在需要跨 Azure 區域和本地位置進行全球傳輸連接的新網路、大型網路或全球網路中，將虛擬 WAN 用於 Azure 部署。使用此方法，無需手動為 Azure 網路設置可傳遞路由，並且可以遵循 Azure 上的 SAP 部署的標準。</t>
+          <t>使用 Azure Front Door 和應用程式閘道保護 HTTP/S 應用程式時，請利用 Azure Front Door 中的 Web 應用程式防火牆策略。鎖定應用程式閘道以僅接收來自 Azure Front Door 的流量。</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
@@ -5989,19 +5977,19 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
         </is>
       </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
+          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -6022,7 +6010,7 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>若要防止數據洩露，請使用 Azure 專用連結安全地訪問平臺即服務資源，例如 Azure Blob 存儲、Azure 檔存儲、Azure Data Lake Storage Gen2、Azure 數據工廠等。Azure 專用終結點還可以幫助保護 VNet 與 Azure 存儲、Azure 備份等服務之間的流量。VNet 與啟用了專用終結點的服務之間的流量通過 Microsoft 全球網路傳輸，從而防止其暴露給公共 Internet。</t>
+          <t>當流量暴露在 Internet 上時，使用 Web 應用程式防火牆掃描流量。另一種選擇是將其與負載均衡器或具有內置防火牆功能（如應用程式閘道或第三方解決方案）的資源一起使用。</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -6039,19 +6027,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
         </is>
       </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
+          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6067,18 +6055,18 @@
       </c>
       <c r="B111" s="21" t="inlineStr">
         <is>
-          <t>分割</t>
+          <t>互聯網</t>
         </is>
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>請確保在 SAP 應用程式層和 DBMS 層中使用的 VM 上啟用了 Azure 加速網路。</t>
+          <t>在需要跨 Azure 區域和本地位置的全球傳輸連接的新網路、大型網路或全球網路中，使用虛擬 WAN 進行 Azure 部署。使用此方法，無需為 Azure 網路手動設置可傳遞路由，並且可以遵循 Azure 上的 SAP 部署的標準。</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6089,19 +6077,19 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6117,12 +6105,12 @@
       </c>
       <c r="B112" s="21" t="inlineStr">
         <is>
-          <t>分割</t>
+          <t>互聯網</t>
         </is>
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>請確保將 Azure 負載均衡器的內部部署設置為使用直接伺服器返回 （DSR）。當內部負載平衡器配置用於 DBMS 層上的高可用性配置時，此設置將減少延遲。</t>
+          <t>若要防止數據洩露，請使用 Azure 專用連結安全地訪問平臺即服務資源，例如 Azure Blob 存儲、Azure 檔存儲、Azure Data Lake Storage Gen2、Azure 數據工廠等。Azure 專用終結點還有助於保護 VNet 與 Azure 存儲、Azure 備份等服務之間的流量。VNet 與啟用專用終結點的服務之間的流量通過 Microsoft 全球網路傳輸，從而防止其暴露到公共 Internet。</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
@@ -6139,19 +6127,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
         </is>
       </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
+          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6172,13 +6160,13 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>可以使用應用程式安全組 （ASG） 和 NSG 規則在 SAP 應用程式層和 DBMS 層之間定義網路安全存取控制清單。ASG 對虛擬機進行分組以説明管理其安全性。</t>
+          <t>確保在 SAP 應用程式和 DBMS 層中使用的 VM 上啟用了 Azure 加速網路。</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
       <c r="E113" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -6189,19 +6177,19 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
         </is>
       </c>
       <c r="I113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
         </is>
       </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
+          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6222,13 +6210,13 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>不支援將 SAP 應用程式層和 SAP DBMS 放置在未對等互連的不同 Azure VNet 中。</t>
+          <t>請確保將 Azure 負載均衡器的內部部署設置為使用直接伺服器返回 （DSR）。當內部負載均衡器配置用於 DBMS 層上的高可用性配置時，此設置將減少延遲。</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
       <c r="E114" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6239,19 +6227,19 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
         </is>
       </c>
       <c r="I114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
+          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6272,7 +6260,7 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>為了實現 SAP 應用程式的最佳網路延遲，請考慮使用 Azure 鄰近放置組。</t>
+          <t>可以使用應用程式安全組 （ASG） 和 NSG 規則在 SAP 應用程式層和 DBMS 層之間定義網路安全存取控制清單。ASG 對虛擬機進行分組以説明管理其安全性。</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
@@ -6289,19 +6277,19 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
+          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
+          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6322,7 +6310,7 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>完全不支援運行在本地和 Azure 之間拆分的 SAP 應用程式伺服器層和 DBMS 層。這兩個層都需要完全駐留在本地或 Azure 中。</t>
+          <t>不支援將 SAP 應用程式層和 SAP DBMS 放置在未對等互連的不同 Azure VNet 中。</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6351,7 +6339,7 @@
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
+          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6372,13 +6360,13 @@
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>不建議將 SAP 系統的資料庫管理系統 （DBMS） 和應用程式層託管在不同的 VNet 中，並將它們與 VNet 對等互連連接，因為層之間的過多網路流量可能會產生大量成本。建議使用 Azure 虛擬網路中的子網來分隔 SAP 應用程式層和 DBMS 層。</t>
+          <t>為了實現 SAP 應用程式的最佳網路延遲，請考慮使用 Azure 鄰近放置組。</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
       <c r="E117" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6389,19 +6377,19 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
+          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6422,7 +6410,7 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>如果在 Linux 客戶機作業系統中使用負載均衡器，請檢查 Linux 網路參數 net.ipv4.tcp_timestamps 是否設置為 0。</t>
+          <t>完全不支援在本地和 Azure 之間運行分割的 SAP 應用程式伺服器層和 DBMS 層。這兩個層都需要完全駐留在本地或 Azure 中。</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
@@ -6439,19 +6427,19 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
+          <t>https://me.sap.com/notes/2015553</t>
         </is>
       </c>
       <c r="I118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
+          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6472,13 +6460,13 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>對於 SAP RISE/ECS 部署，虛擬對等互連是與客戶現有 Azure 環境建立連接的首選方式。SAP VNet 和客戶 VNet 都受網路安全組 （NSG） 保護，從而通過 VNet 對等互連在 SAP 和資料庫埠上進行通信</t>
+          <t>不建議在不同的 VNet 中託管 SAP 系統的資料庫管理系統 （DBMS） 和應用程式層，並將其與 VNet 對等互連連接起來，因為層之間過多的網路流量會產生大量成本。建議使用 Azure 虛擬網路中的子網來分隔 SAP 應用程式層和 DBMS 層。</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
       <c r="E119" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -6489,14 +6477,19 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
+          <t>https://me.sap.com/notes/2015553</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
+          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6507,23 +6500,23 @@
     <row r="120" ht="16.5" customHeight="1">
       <c r="A120" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>網路拓撲和連接</t>
         </is>
       </c>
       <c r="B120" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>分割</t>
         </is>
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>如果在 Azure、本地或其他雲環境中運行 Windows 和 Linux VM，則可以使用 Azure 自動化中的更新管理中心來管理作業系統更新，包括安全修補程式。</t>
+          <t>如果將負載均衡器用於 Linux 客戶機作業系統，請檢查 Linux 網路參數 net.ipv4.tcp_timestamps 是否設置為 0。</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6534,19 +6527,19 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
         </is>
       </c>
       <c r="I120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
+          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6557,17 +6550,17 @@
     <row r="121" ht="16.5" customHeight="1">
       <c r="A121" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>網路拓撲和連接</t>
         </is>
       </c>
       <c r="B121" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>分割</t>
         </is>
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>請定期查看 SAP 安全 OSS 說明，因為 SAP 會發佈高度關鍵的安全補丁或熱修復程式，需要立即採取措施來保護 SAP 系統。</t>
+          <t>對於 SAP RISE/ECS 部署，虛擬對等互連是與客戶現有 Azure 環境建立連接的首選方式。SAP VNet 和客戶 VNet 都受網路安全組 （NSG） 保護，從而通過 VNet 對等互連在 SAP 和資料庫埠上實現通信</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
@@ -6584,19 +6577,15 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
-        </is>
-      </c>
-      <c r="I121" s="15" t="inlineStr">
-        <is>
-          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
+        </is>
+      </c>
+      <c r="I121" s="15" t="n"/>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
+          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6607,23 +6596,23 @@
     <row r="122" ht="16.5" customHeight="1">
       <c r="A122" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>卓越運營</t>
         </is>
       </c>
       <c r="B122" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>對於 SQL Server 上的 SAP，可以禁用 SQL Server 系統管理員帳戶，因為 SQL Server 上的 SAP 系統不使用該帳戶。在禁用原始系統管理員帳戶之前，請確保具有系統管理員許可權的其他使用者可以訪問伺服器。</t>
+          <t>查看 Azure VM 的 SAP HANA 資料庫備份。</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6634,7 +6623,7 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
+          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
         </is>
       </c>
       <c r="I122" s="15" t="n"/>
@@ -6642,7 +6631,7 @@
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
+          <t>ff5136bd-dcf1-4d2b-ae52-39333efdf45a</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6653,23 +6642,23 @@
     <row r="123" ht="16.5" customHeight="1">
       <c r="A123" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>卓越運營</t>
         </is>
       </c>
       <c r="B123" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>禁用xp_cmdshell。SQL Server 功能xp_cmdshell啟用 SQL Server 內部作業系統命令行介面。這是安全審計中的潛在風險。</t>
+          <t>查看用於 SAP 的 Site Recovery 內置監視。</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
       <c r="E123" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -6680,19 +6669,15 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
-        </is>
-      </c>
-      <c r="I123" s="15" t="inlineStr">
-        <is>
-          <t>https://me.sap.com/notes/3019299/E</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
+        </is>
+      </c>
+      <c r="I123" s="15" t="n"/>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
+          <t>cafde29d-a0af-4bcd-87c0-0f299d63f0e8</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6703,17 +6688,17 @@
     <row r="124" ht="16.5" customHeight="1">
       <c r="A124" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>卓越運營</t>
         </is>
       </c>
       <c r="B124" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>在 Azure 上加密 SAP HANA 資料庫伺服器使用 SAP HANA 本機加密技術。此外，如果在 Azure 上使用 SQL Server，請使用透明數據加密 （TDE） 來保護數據和日誌檔，並確保備份也已加密。</t>
+          <t>查看監視 SAP HANA 系統環境指南。</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
@@ -6730,19 +6715,15 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
-        </is>
-      </c>
-      <c r="I124" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
-        </is>
-      </c>
+          <t>https://help.sap.com/docs/SAP_HANA_PLATFORM/c4d7c773af4a4e5dbebb6548d6e2d4f4/e3111d2ebb5710149510cc120646bf3f.html?locale=en-US</t>
+        </is>
+      </c>
+      <c r="I124" s="15" t="n"/>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
+          <t>82d7b8de-d3f1-44a0-830b-38e200e82acf</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6753,17 +6734,17 @@
     <row r="125" ht="16.5" customHeight="1">
       <c r="A125" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>卓越運營</t>
         </is>
       </c>
       <c r="B125" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>已為所有 Azure 資源管理器和經典記憶體啟用 Azure 儲存加密，並且無法禁用。由於數據預設是加密的，因此無需修改代碼或應用程式即可使用 Azure 儲存加密。</t>
+          <t>查看 Azure Linux VM 中的 Oracle 資料庫備份策略。</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
@@ -6780,19 +6761,15 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
-        </is>
-      </c>
-      <c r="I125" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/oracle-database-backup-strategies</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="n"/>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
+          <t>c823873a-2bec-4c2a-b684-a1ce8ae80efd</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6803,23 +6780,23 @@
     <row r="126" ht="16.5" customHeight="1">
       <c r="A126" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>卓越運營</t>
         </is>
       </c>
       <c r="B126" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Key Vault 儲存機密和憑據</t>
+          <t>查看 Azure Blob 儲存與 SQL Server 2016 的配合使用。</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
       <c r="E126" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -6830,19 +6807,14 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/sql/relational-databases/tutorial-use-azure-blob-storage-service-with-sql-server-2016?view=sql-server-ver16</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
+          <t>2943b6d8-1d31-4e19-ade7-78e6b26d1962</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6853,17 +6825,17 @@
     <row r="127" ht="16.5" customHeight="1">
       <c r="A127" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>卓越運營</t>
         </is>
       </c>
       <c r="B127" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>建議在成功部署后鎖定 Azure 資源，以防止未經授權的更改。還可以使用自定義的 Azure 策略（自定義角色）在每個訂閱的基礎上強制實施 LOCK 約束和規則。</t>
+          <t>查看適用於 Azure VM 的自動備份 v2 的使用方式。</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
@@ -6880,19 +6852,14 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/azure-sql/virtual-machines/windows/automated-backup?view=azuresql</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
+          <t>b82e650f-676d-417d-994d-fc33ca54ec14</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6903,23 +6870,23 @@
     <row r="128" ht="16.5" customHeight="1">
       <c r="A128" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>卓越運營</t>
         </is>
       </c>
       <c r="B128" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>預配啟用軟刪除和清除策略的 Azure Key Vault，以允許對已刪除物件進行保留保護。</t>
+          <t>使用進階磁碟時為 M 系列開啟寫入加速器 （V1）</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
       <c r="E128" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -6928,21 +6895,12 @@
         </is>
       </c>
       <c r="G128" s="21" t="n"/>
-      <c r="H128" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
-        </is>
-      </c>
+      <c r="H128" s="15" t="n"/>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+          <t>347c2dcc-e6eb-4b04-80c5-628b171aa62d</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6953,23 +6911,23 @@
     <row r="129" ht="16.5" customHeight="1">
       <c r="A129" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>性能</t>
         </is>
       </c>
       <c r="B129" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>根據現有要求、法規和合規性控制（內部/外部） - 確定所需的 Azure 策略和 Azure RBAC 角色</t>
+          <t>測試可用性區域延遲。</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
       <c r="E129" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -6980,19 +6938,14 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+          <t>b96512cf-996f-4b17-b9b8-6b16db1a2a94</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -7003,23 +6956,23 @@
     <row r="130" ht="16.5" customHeight="1">
       <c r="A130" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>性能</t>
         </is>
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>在 SAP 環境中啟用 Microsoft Defender for Endpoint 時，建議排除 DBMS 伺服器上的數據和日誌檔，而不是面向所有伺服器。在排除目標檔時，請遵循 DBMS 供應商的建議。</t>
+          <t>為所有 SAP 元件啟動 SAP EarlyWatch Alert。</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
       <c r="E130" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -7030,19 +6983,19 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://support.sap.com/en/offerings-programs/support-services/earlywatch-alert.html</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+          <t>https://help.sap.com/docs/SUPPORT_CONTENT/techops/3362700736.html</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+          <t>9fd7ffd4-da11-49f6-a374-8d03e94c511d</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7053,23 +7006,23 @@
     <row r="131" ht="16.5" customHeight="1">
       <c r="A131" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>性能</t>
         </is>
       </c>
       <c r="B131" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>委派具有 Microsoft Defender for Cloud 實時訪問許可權的 SAP 管理員自定義角色。</t>
+          <t>使用 SAP ABAPMeter 報告 /SSA/CAT 查看 SAP 應用程式伺服器到資料庫伺服器的延遲。</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
       <c r="E131" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -7080,19 +7033,19 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/sap-on-azure-general-update-march-2019/ba-p/377456</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+          <t>https://me.sap.com/notes/0002879613</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+          <t>b9b140cf-413a-483d-aad2-8802c4e3c017</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7103,23 +7056,23 @@
     <row r="132" ht="16.5" customHeight="1">
       <c r="A132" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>性能</t>
         </is>
       </c>
       <c r="B132" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>通過將第三方安全產品與用於 DIAG （SAP GUI）、RFC 和用於 HTTPS 的 SPNEGO 的安全網路通信 （SNC） 集成，對傳輸中的數據進行加密</t>
+          <t>查看使用 CCMS 的 SQL Server 性能監視。</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
       <c r="E132" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -7128,21 +7081,12 @@
         </is>
       </c>
       <c r="G132" s="21" t="n"/>
-      <c r="H132" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
-        </is>
-      </c>
+      <c r="H132" s="15" t="n"/>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+          <t>62fbf0f8-51db-49e1-a961-bb5df7a35f80</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7153,17 +7097,17 @@
     <row r="133" ht="16.5" customHeight="1">
       <c r="A133" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>性能</t>
         </is>
       </c>
       <c r="B133" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>預設使用 Microsoft 管理的金鑰以實現主體加密功能，並在需要時使用客戶管理的金鑰。</t>
+          <t>測試 SAP 應用程式層 VM 和 DBMS VM 之間的網路延遲 （NIPING）。</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7180,19 +7124,19 @@
       <c r="G133" s="21" t="n"/>
       <c r="H133" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
+          <t>https://me.sap.com/notes/500235</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://me.sap.com/notes/1100926/E</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+          <t>35709da7-fc7d-4efe-bb20-2e91547b7390</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7203,23 +7147,23 @@
     <row r="134" ht="16.5" customHeight="1">
       <c r="A134" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>性能</t>
         </is>
       </c>
       <c r="B134" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>每個應用程式、每個環境、每個區域使用 Azure Key Vault。</t>
+          <t>查看 SAP HANA Studio 警報。</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
       <c r="E134" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -7230,19 +7174,14 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/en-us/azure/sap/large-instances/hana-monitor-troubleshoot</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+          <t>9e9bb4c8-e934-4e4b-a13c-6f7c7c38eb43</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7253,23 +7192,23 @@
     <row r="135" ht="16.5" customHeight="1">
       <c r="A135" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>性能</t>
         </is>
       </c>
       <c r="B135" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>若要控制和管理非 HANA Windows 和非 Windows 作業系統的磁碟加密密鑰和機密，請使用 Azure Key Vault。Azure Key Vault 不支援 SAP HANA，因此必須使用 SAP ABAP 或 SSH 密鑰等備用方法。</t>
+          <t>使用 HANA_Configuration_Minichecks 執行 SAP HANA 執行狀況檢查。</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
       <c r="E135" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -7280,19 +7219,14 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+          <t>https://me.sap.com/notes/1969700</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+          <t>f1a92ab5-9509-4b57-86ff-b0ade361b694</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7303,17 +7237,17 @@
     <row r="136" ht="16.5" customHeight="1">
       <c r="A136" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>安全性、治理和合規性</t>
         </is>
       </c>
       <c r="B136" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>如果在 Azure、本地或其他雲環境中運行 Windows 和 Linux VM，則可以使用 Azure 自動化中的更新管理中心來管理作業系統更新，包括安全修補程式。</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
@@ -7330,14 +7264,19 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7348,23 +7287,23 @@
     <row r="137" ht="16.5" customHeight="1">
       <c r="A137" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>安全性、治理和合規性</t>
         </is>
       </c>
       <c r="B137" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>為 Azure 上的 SAP 分支訂閱自定義基於角色的訪問控制 （RBAC） 角色，以避免與網路相關的意外更改</t>
+          <t>定期查看 SAP 安全 OSS 說明，因為 SAP 會發佈高度關鍵的安全補丁或修補程式，這些補丁或修補程式需要立即採取措施來保護您的 SAP 系統。</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
       <c r="E137" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -7375,19 +7314,19 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7398,23 +7337,23 @@
     <row r="138" ht="16.5" customHeight="1">
       <c r="A138" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>安全性、治理和合規性</t>
         </is>
       </c>
       <c r="B138" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>將 DMZ 和 NVA 與 SAP 資產的其餘部分隔離開來，配置 Azure 專用連結，並安全地管理和控制 Azure 上的 SAP 資源</t>
+          <t>對於 SQL Server 上的 SAP，可以禁用 SQL Server 系統管理員帳戶，因為 SQL Server 上的 SAP 系統不使用該帳戶。在禁用原始系統管理員帳戶之前，請確保具有系統管理員許可權的其他使用者可以訪問伺服器。</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
       <c r="E138" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -7425,19 +7364,14 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7448,23 +7382,23 @@
     <row r="139" ht="16.5" customHeight="1">
       <c r="A139" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>安全性、治理和合規性</t>
         </is>
       </c>
       <c r="B139" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>請考慮在 Azure 上使用 Microsoft 反惡意軟體來保護虛擬機免受惡意檔、廣告軟體和其他威脅的侵害。</t>
+          <t>禁用xp_cmdshell。SQL Server 功能xp_cmdshell啟用 SQL Server 內部作業系統命令行介面。這是安全審計中的潛在風險。</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
       <c r="E139" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -7475,19 +7409,19 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+          <t>https://me.sap.com/notes/3019299/E</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7498,23 +7432,23 @@
     <row r="140" ht="16.5" customHeight="1">
       <c r="A140" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>安全性、治理和合規性</t>
         </is>
       </c>
       <c r="B140" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>若要獲得更強大的保護，請考慮使用 Microsoft Defender for Endpoint。</t>
+          <t>在 Azure 上加密 SAP HANA 資料庫伺服器使用 SAP HANA 本機加密技術。此外，如果使用 Azure 上的 SQL Server，請使用透明數據加密 （TDE） 來保護數據和日誌檔，並確保備份也已加密。</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
       <c r="E140" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7525,19 +7459,19 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7548,23 +7482,23 @@
     <row r="141" ht="16.5" customHeight="1">
       <c r="A141" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>安全性、治理和合規性</t>
         </is>
       </c>
       <c r="B141" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>通過將所有流量傳遞到中心虛擬網路（通過虛擬網路對等互連連接到分支網路），將 SAP 應用程式和資料庫伺服器與 Internet 或本地網路隔離開來。對等互連虛擬網路保證 Azure 上的 SAP 解決方案與公共 Internet 隔離。</t>
+          <t>Azure 儲存加密已為所有 Azure 資源管理器和經典儲存帳戶啟用，但無法禁用。由於數據預設加密，因此無需修改代碼或應用程式即可使用 Azure 儲存加密。</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
       <c r="E141" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -7575,19 +7509,19 @@
       <c r="G141" s="21" t="n"/>
       <c r="H141" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7598,23 +7532,23 @@
     <row r="142" ht="16.5" customHeight="1">
       <c r="A142" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>安全性、治理和合規性</t>
         </is>
       </c>
       <c r="B142" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>對於面向 Internet 的應用程式（如 SAP Fiori），請確保在保持安全級別的同時，按應用程式要求分配負載。對於第 7 層安全性，可以使用 Azure 市場中提供的第三方 Web 應用程式防火牆 （WAF）。</t>
+          <t>使用 Azure Key Vault 儲存機密和憑據</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
       <c r="E142" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7625,19 +7559,19 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7648,17 +7582,17 @@
     <row r="143" ht="16.5" customHeight="1">
       <c r="A143" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>安全性、治理和合規性</t>
         </is>
       </c>
       <c r="B143" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>若要在用於 SAP 解決方案的 Azure Monitor 中啟用安全通信，可以選擇使用根證書或伺服器證書。我們強烈建議您使用根證書。</t>
+          <t>建議在成功部署后鎖定 Azure 資源，以防止未經授權的更改。還可以使用自定義的 Azure 策略（自定義角色）對每個訂閱強制實施 LOCK 約束和規則。</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
@@ -7675,19 +7609,19 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7696,256 +7630,795 @@
       <c r="P143" s="25" t="n"/>
     </row>
     <row r="144" ht="16.5" customHeight="1">
-      <c r="A144" s="21" t="n"/>
-      <c r="B144" s="21" t="n"/>
-      <c r="C144" s="21" t="n"/>
+      <c r="A144" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理和合規性</t>
+        </is>
+      </c>
+      <c r="B144" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C144" s="21" t="inlineStr">
+        <is>
+          <t>預配 Azure Key Vault，啟用軟刪除和清除策略，以允許對已刪除的物件提供保留保護。</t>
+        </is>
+      </c>
       <c r="D144" s="21" t="n"/>
-      <c r="E144" s="21" t="n"/>
+      <c r="E144" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G144" s="21" t="n"/>
-      <c r="H144" s="15" t="n"/>
+      <c r="H144" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
-      <c r="L144" s="25" t="n"/>
+      <c r="L144" s="25" t="inlineStr">
+        <is>
+          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+        </is>
+      </c>
       <c r="M144" s="25" t="n"/>
       <c r="N144" s="25" t="n"/>
       <c r="O144" s="25" t="n"/>
       <c r="P144" s="25" t="n"/>
     </row>
     <row r="145" ht="16.5" customHeight="1">
-      <c r="A145" s="21" t="n"/>
-      <c r="B145" s="21" t="n"/>
-      <c r="C145" s="21" t="n"/>
+      <c r="A145" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理和合規性</t>
+        </is>
+      </c>
+      <c r="B145" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C145" s="21" t="inlineStr">
+        <is>
+          <t>根據現有要求、法規和合規性控制（內部/外部）- 確定需要哪些 Azure 策略和 Azure RBAC 角色</t>
+        </is>
+      </c>
       <c r="D145" s="21" t="n"/>
-      <c r="E145" s="21" t="n"/>
+      <c r="E145" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G145" s="21" t="n"/>
-      <c r="H145" s="15" t="n"/>
+      <c r="H145" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
-      <c r="L145" s="25" t="n"/>
+      <c r="L145" s="25" t="inlineStr">
+        <is>
+          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+        </is>
+      </c>
       <c r="M145" s="25" t="n"/>
       <c r="N145" s="25" t="n"/>
       <c r="O145" s="25" t="n"/>
       <c r="P145" s="25" t="n"/>
     </row>
     <row r="146" ht="16.5" customHeight="1">
-      <c r="A146" s="21" t="n"/>
-      <c r="B146" s="21" t="n"/>
-      <c r="C146" s="21" t="n"/>
+      <c r="A146" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理和合規性</t>
+        </is>
+      </c>
+      <c r="B146" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C146" s="21" t="inlineStr">
+        <is>
+          <t>在 SAP 環境中啟用 Microsoft Defender for Endpoint 時，建議排除 DBMS 伺服器上的數據和日誌檔，而不是面向所有伺服器。在排除目標檔時，請遵循 DBMS 供應商的建議。</t>
+        </is>
+      </c>
       <c r="D146" s="21" t="n"/>
-      <c r="E146" s="21" t="n"/>
+      <c r="E146" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G146" s="21" t="n"/>
-      <c r="H146" s="15" t="n"/>
+      <c r="H146" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+        </is>
+      </c>
       <c r="J146" s="22" t="n"/>
       <c r="K146" s="22" t="n"/>
-      <c r="L146" s="25" t="n"/>
+      <c r="L146" s="25" t="inlineStr">
+        <is>
+          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+        </is>
+      </c>
       <c r="M146" s="25" t="n"/>
       <c r="N146" s="25" t="n"/>
       <c r="O146" s="25" t="n"/>
       <c r="P146" s="25" t="n"/>
     </row>
     <row r="147" ht="16.5" customHeight="1">
-      <c r="A147" s="21" t="n"/>
-      <c r="B147" s="21" t="n"/>
-      <c r="C147" s="21" t="n"/>
+      <c r="A147" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理和合規性</t>
+        </is>
+      </c>
+      <c r="B147" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C147" s="21" t="inlineStr">
+        <is>
+          <t>委派具有 Microsoft Defender for Cloud 實時訪問許可權的 SAP 管理員自定義角色。</t>
+        </is>
+      </c>
       <c r="D147" s="21" t="n"/>
-      <c r="E147" s="21" t="n"/>
+      <c r="E147" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G147" s="21" t="n"/>
-      <c r="H147" s="15" t="n"/>
+      <c r="H147" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
-      <c r="L147" s="25" t="n"/>
+      <c r="L147" s="25" t="inlineStr">
+        <is>
+          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+        </is>
+      </c>
       <c r="M147" s="25" t="n"/>
       <c r="N147" s="25" t="n"/>
       <c r="O147" s="25" t="n"/>
       <c r="P147" s="25" t="n"/>
     </row>
     <row r="148" ht="16.5" customHeight="1">
-      <c r="A148" s="21" t="n"/>
-      <c r="B148" s="21" t="n"/>
-      <c r="C148" s="21" t="n"/>
+      <c r="A148" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理和合規性</t>
+        </is>
+      </c>
+      <c r="B148" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C148" s="21" t="inlineStr">
+        <is>
+          <t>通過將第三方安全產品與用於 DIAG （SAP GUI）、RFC 和 SPNEGO for HTTPS 的安全網路通信 （SNC） 集成，對傳輸中的數據進行加密</t>
+        </is>
+      </c>
       <c r="D148" s="21" t="n"/>
-      <c r="E148" s="21" t="n"/>
+      <c r="E148" s="21" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G148" s="21" t="n"/>
-      <c r="H148" s="15" t="n"/>
+      <c r="H148" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
+        </is>
+      </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
-      <c r="L148" s="25" t="n"/>
+      <c r="L148" s="25" t="inlineStr">
+        <is>
+          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+        </is>
+      </c>
       <c r="M148" s="25" t="n"/>
       <c r="N148" s="25" t="n"/>
       <c r="O148" s="25" t="n"/>
       <c r="P148" s="25" t="n"/>
     </row>
     <row r="149" ht="16.5" customHeight="1">
-      <c r="A149" s="21" t="n"/>
-      <c r="B149" s="21" t="n"/>
-      <c r="C149" s="21" t="n"/>
+      <c r="A149" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理和合規性</t>
+        </is>
+      </c>
+      <c r="B149" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C149" s="21" t="inlineStr">
+        <is>
+          <t>默認為 Microsoft 管理的金鑰以實現主體加密功能，並在需要時使用客戶管理的金鑰。</t>
+        </is>
+      </c>
       <c r="D149" s="21" t="n"/>
-      <c r="E149" s="21" t="n"/>
+      <c r="E149" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G149" s="21" t="n"/>
-      <c r="H149" s="15" t="n"/>
+      <c r="H149" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
-      <c r="L149" s="25" t="n"/>
+      <c r="L149" s="25" t="inlineStr">
+        <is>
+          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+        </is>
+      </c>
       <c r="M149" s="25" t="n"/>
       <c r="N149" s="25" t="n"/>
       <c r="O149" s="25" t="n"/>
       <c r="P149" s="25" t="n"/>
     </row>
     <row r="150" ht="16.5" customHeight="1">
-      <c r="A150" s="21" t="n"/>
-      <c r="B150" s="21" t="n"/>
-      <c r="C150" s="21" t="n"/>
+      <c r="A150" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理和合規性</t>
+        </is>
+      </c>
+      <c r="B150" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C150" s="21" t="inlineStr">
+        <is>
+          <t>每個應用程式、每個環境、每個區域使用 Azure Key Vault。</t>
+        </is>
+      </c>
       <c r="D150" s="21" t="n"/>
-      <c r="E150" s="21" t="n"/>
+      <c r="E150" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G150" s="21" t="n"/>
-      <c r="H150" s="15" t="n"/>
+      <c r="H150" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
-      <c r="L150" s="25" t="n"/>
+      <c r="L150" s="25" t="inlineStr">
+        <is>
+          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+        </is>
+      </c>
       <c r="M150" s="25" t="n"/>
       <c r="N150" s="25" t="n"/>
       <c r="O150" s="25" t="n"/>
       <c r="P150" s="25" t="n"/>
     </row>
     <row r="151" ht="16.5" customHeight="1">
-      <c r="A151" s="21" t="n"/>
-      <c r="B151" s="21" t="n"/>
-      <c r="C151" s="21" t="n"/>
+      <c r="A151" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理和合規性</t>
+        </is>
+      </c>
+      <c r="B151" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C151" s="21" t="inlineStr">
+        <is>
+          <t>若要控制和管理非 HANA Windows 和非 Windows 作業系統的磁碟加密密鑰和機密，請使用 Azure Key Vault。Azure Key Vault 不支援 SAP HANA，因此必須使用 SAP ABAP 或 SSH 密鑰等替代方法。</t>
+        </is>
+      </c>
       <c r="D151" s="21" t="n"/>
-      <c r="E151" s="21" t="n"/>
+      <c r="E151" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G151" s="21" t="n"/>
-      <c r="H151" s="15" t="n"/>
+      <c r="H151" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
-      <c r="L151" s="25" t="n"/>
+      <c r="L151" s="25" t="inlineStr">
+        <is>
+          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+        </is>
+      </c>
       <c r="M151" s="25" t="n"/>
       <c r="N151" s="25" t="n"/>
       <c r="O151" s="25" t="n"/>
       <c r="P151" s="25" t="n"/>
     </row>
     <row r="152" ht="16.5" customHeight="1">
-      <c r="A152" s="21" t="n"/>
-      <c r="B152" s="21" t="n"/>
-      <c r="C152" s="21" t="n"/>
+      <c r="A152" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理和合規性</t>
+        </is>
+      </c>
+      <c r="B152" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C152" s="21" t="inlineStr">
+        <is>
+          <t>&amp;nbsp</t>
+        </is>
+      </c>
       <c r="D152" s="21" t="n"/>
-      <c r="E152" s="21" t="n"/>
+      <c r="E152" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G152" s="21" t="n"/>
-      <c r="H152" s="15" t="n"/>
+      <c r="H152" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
-      <c r="L152" s="25" t="n"/>
+      <c r="L152" s="25" t="inlineStr">
+        <is>
+          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+        </is>
+      </c>
       <c r="M152" s="25" t="n"/>
       <c r="N152" s="25" t="n"/>
       <c r="O152" s="25" t="n"/>
       <c r="P152" s="25" t="n"/>
     </row>
     <row r="153" ht="16.5" customHeight="1">
-      <c r="A153" s="21" t="n"/>
-      <c r="B153" s="21" t="n"/>
-      <c r="C153" s="21" t="n"/>
+      <c r="A153" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理和合規性</t>
+        </is>
+      </c>
+      <c r="B153" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C153" s="21" t="inlineStr">
+        <is>
+          <t>為 Azure 上的 SAP 分支訂閱自定義基於角色的訪問控制 （RBAC） 角色，以避免與網路相關的意外更改</t>
+        </is>
+      </c>
       <c r="D153" s="21" t="n"/>
-      <c r="E153" s="21" t="n"/>
+      <c r="E153" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G153" s="21" t="n"/>
-      <c r="H153" s="15" t="n"/>
+      <c r="H153" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
-      <c r="L153" s="25" t="n"/>
+      <c r="L153" s="25" t="inlineStr">
+        <is>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+        </is>
+      </c>
       <c r="M153" s="25" t="n"/>
       <c r="N153" s="25" t="n"/>
       <c r="O153" s="25" t="n"/>
       <c r="P153" s="25" t="n"/>
     </row>
     <row r="154" ht="16.5" customHeight="1">
-      <c r="A154" s="21" t="n"/>
-      <c r="B154" s="21" t="n"/>
-      <c r="C154" s="21" t="n"/>
+      <c r="A154" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理和合規性</t>
+        </is>
+      </c>
+      <c r="B154" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C154" s="21" t="inlineStr">
+        <is>
+          <t>將 DMZ 和 NVA 與 SAP 資產的其餘部分隔離開來，配置 Azure 專用連結，並安全地管理和控制 Azure 上的 SAP 資源</t>
+        </is>
+      </c>
       <c r="D154" s="21" t="n"/>
-      <c r="E154" s="21" t="n"/>
+      <c r="E154" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G154" s="21" t="n"/>
-      <c r="H154" s="15" t="n"/>
+      <c r="H154" s="15" t="inlineStr">
+        <is>
+          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+        </is>
+      </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
-      <c r="L154" s="25" t="n"/>
+      <c r="L154" s="25" t="inlineStr">
+        <is>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+        </is>
+      </c>
       <c r="M154" s="25" t="n"/>
       <c r="N154" s="25" t="n"/>
       <c r="O154" s="25" t="n"/>
       <c r="P154" s="25" t="n"/>
     </row>
     <row r="155" ht="16.5" customHeight="1">
-      <c r="A155" s="21" t="n"/>
-      <c r="B155" s="21" t="n"/>
-      <c r="C155" s="21" t="n"/>
+      <c r="A155" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理和合規性</t>
+        </is>
+      </c>
+      <c r="B155" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C155" s="21" t="inlineStr">
+        <is>
+          <t>請考慮在 Azure 上使用 Microsoft 反惡意軟體來保護虛擬機免受惡意檔、廣告軟體和其他威脅的侵害。</t>
+        </is>
+      </c>
       <c r="D155" s="21" t="n"/>
-      <c r="E155" s="21" t="n"/>
+      <c r="E155" s="21" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G155" s="21" t="n"/>
-      <c r="H155" s="15" t="n"/>
+      <c r="H155" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+        </is>
+      </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
-      <c r="L155" s="25" t="n"/>
+      <c r="L155" s="25" t="inlineStr">
+        <is>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+        </is>
+      </c>
       <c r="M155" s="25" t="n"/>
       <c r="N155" s="25" t="n"/>
       <c r="O155" s="25" t="n"/>
       <c r="P155" s="25" t="n"/>
     </row>
     <row r="156" ht="16.5" customHeight="1">
-      <c r="A156" s="21" t="n"/>
-      <c r="B156" s="21" t="n"/>
-      <c r="C156" s="21" t="n"/>
+      <c r="A156" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理和合規性</t>
+        </is>
+      </c>
+      <c r="B156" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C156" s="21" t="inlineStr">
+        <is>
+          <t>若要獲得更強大的保護，請考慮使用 Microsoft Defender for Endpoint。</t>
+        </is>
+      </c>
       <c r="D156" s="21" t="n"/>
-      <c r="E156" s="21" t="n"/>
+      <c r="E156" s="21" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G156" s="21" t="n"/>
-      <c r="H156" s="15" t="n"/>
+      <c r="H156" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
-      <c r="L156" s="25" t="n"/>
+      <c r="L156" s="25" t="inlineStr">
+        <is>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+        </is>
+      </c>
       <c r="M156" s="25" t="n"/>
       <c r="N156" s="25" t="n"/>
       <c r="O156" s="25" t="n"/>
       <c r="P156" s="25" t="n"/>
     </row>
     <row r="157" ht="16.5" customHeight="1">
-      <c r="A157" s="21" t="n"/>
-      <c r="B157" s="21" t="n"/>
-      <c r="C157" s="21" t="n"/>
+      <c r="A157" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理和合規性</t>
+        </is>
+      </c>
+      <c r="B157" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C157" s="21" t="inlineStr">
+        <is>
+          <t>通過中心虛擬網路傳遞所有流量，將 SAP 應用程式和資料庫伺服器與 Internet 或本地網路隔離開來，該中心虛擬網路通過虛擬網路對等互連連接到分支網路。對等互連虛擬網路可保證 Azure 上的 SAP 解決方案與公共 Internet 隔離。</t>
+        </is>
+      </c>
       <c r="D157" s="21" t="n"/>
-      <c r="E157" s="21" t="n"/>
+      <c r="E157" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G157" s="21" t="n"/>
-      <c r="H157" s="15" t="n"/>
+      <c r="H157" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
-      <c r="L157" s="25" t="n"/>
+      <c r="L157" s="25" t="inlineStr">
+        <is>
+          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+        </is>
+      </c>
       <c r="M157" s="25" t="n"/>
       <c r="N157" s="25" t="n"/>
       <c r="O157" s="25" t="n"/>
       <c r="P157" s="25" t="n"/>
     </row>
     <row r="158" ht="16.5" customHeight="1">
-      <c r="A158" s="21" t="n"/>
-      <c r="B158" s="21" t="n"/>
-      <c r="C158" s="21" t="n"/>
+      <c r="A158" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理和合規性</t>
+        </is>
+      </c>
+      <c r="B158" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C158" s="21" t="inlineStr">
+        <is>
+          <t>對於 SAP Fiori 等面向 Internet 的應用程式，請確保在保持安全級別的同時，按應用程式要求分配負載。對於第 7 層安全性，可以使用 Azure 市場中提供的第三方 Web 應用程式防火牆 （WAF）。</t>
+        </is>
+      </c>
       <c r="D158" s="21" t="n"/>
-      <c r="E158" s="21" t="n"/>
+      <c r="E158" s="21" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G158" s="21" t="n"/>
-      <c r="H158" s="15" t="n"/>
+      <c r="H158" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
-      <c r="L158" s="25" t="n"/>
+      <c r="L158" s="25" t="inlineStr">
+        <is>
+          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+        </is>
+      </c>
       <c r="M158" s="25" t="n"/>
       <c r="N158" s="25" t="n"/>
       <c r="O158" s="25" t="n"/>
       <c r="P158" s="25" t="n"/>
     </row>
     <row r="159" ht="16.5" customHeight="1">
-      <c r="A159" s="21" t="n"/>
-      <c r="B159" s="21" t="n"/>
-      <c r="C159" s="21" t="n"/>
+      <c r="A159" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理和合規性</t>
+        </is>
+      </c>
+      <c r="B159" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C159" s="21" t="inlineStr">
+        <is>
+          <t>若要在用於 SAP 解決方案的 Azure Monitor 中啟用安全通信，可以選擇使用根證書或伺服器證書。我們強烈建議您使用根證書。</t>
+        </is>
+      </c>
       <c r="D159" s="21" t="n"/>
-      <c r="E159" s="21" t="n"/>
+      <c r="E159" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G159" s="21" t="n"/>
-      <c r="H159" s="15" t="n"/>
+      <c r="H159" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
-      <c r="L159" s="25" t="n"/>
+      <c r="L159" s="25" t="inlineStr">
+        <is>
+          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+        </is>
+      </c>
       <c r="M159" s="25" t="n"/>
       <c r="N159" s="25" t="n"/>
       <c r="O159" s="25" t="n"/>
@@ -10176,7 +10649,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F144" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F160" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -10267,7 +10740,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>身份和訪問</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -10321,7 +10794,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>安全性、治理和合規性</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">

--- a/spreadsheet/macrofree/sap_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.zh-Hant.xlsx
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Azure SAP 解決方案中心 （ACSS） 是一種 Azure 產品/服務，可使 SAP 成為 Azure 上的頂級工作負載。ACSS 是一種端到端解決方案，可用於在 Azure 上將 SAP 系統作為統一工作負載創建和運行，併為創新提供更無縫的基礎。可以利用基於 Azure 的新 SAP 系統和現有 SAP 系統的管理功能。</t>
+          <t>Azure SAP 解決方案中心 （ACSS） 是一項 Azure 產品/服務，可使 SAP 成為 Azure 上的頂級工作負載。ACSS 是一種端到端解決方案，使你能夠在 Azure 上創建和運行 SAP 系統作為統一的工作負載，並為創新提供更無縫的基礎。可以利用新的和現有的基於 Azure 的 SAP 系統的管理功能。</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1114,12 +1114,12 @@
       </c>
       <c r="B9" s="21" t="inlineStr">
         <is>
-          <t>SDAF公司</t>
+          <t>SDAF型</t>
         </is>
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Azure 支援在Linux和 Windows 中自動執行 SAP 部署。SAP Deployment Automation Framework 是一種開源編排工具，可以部署、安裝和維護 SAP 環境。</t>
+          <t>Azure 支援在Linux和 Windows 中自動執行 SAP 部署。SAP 部署自動化框架是一種開源編排工具，可以部署、安裝和維護 SAP 環境。</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1164,12 +1164,12 @@
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>備份和還原</t>
+          <t>備份和恢復</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>在滿足 RTO 的任何時間點和時間範圍內對生產資料庫執行時間點恢復;時間點恢復通常包括操作員在DBMS層或通過SAP刪除數據時出現錯誤</t>
+          <t>在符合 RTO 要求的任何時間點和時間範圍內對生產資料庫執行時間點恢復;時間點恢復通常包括操作員在DBMS層上或通過SAP刪除數據時出現的錯誤</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>可以在配對區域之間複製標準存儲，但不能使用標準存儲來存儲資料庫或虛擬硬碟。您只能在使用的配對區域之間複製備份。對於所有其他數據，請使用本機 DBMS 功能（如 SQL Server Always On 或 SAP HANA 系統複製）運行複製。將 Site Recovery、rsync 或 robocopy 以及其他第三方軟體結合用於 SAP 應用程式層。</t>
+          <t>可以在配對區域之間複製標準存儲，但不能使用標準存儲來存儲資料庫或虛擬硬碟。您只能在使用的配對區域之間複製備份。對於所有其他數據，請使用本機 DBMS 功能（如 SQL Server Always On 或 SAP HANA 系統複製）運行複製。將 Site Recovery、rsync 或 robocopy 以及其他第三方軟體組合用於 SAP 應用程式層。</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>設置從本地到主要和次要 Azure 災難恢復區域的 ExpressRoute 連接。此外，作為使用 ExpressRoute 的替代方法，請考慮設置從本地到主要和次要 Azure 災難恢復區域的 VPN 連接。</t>
+          <t>設置從本地到主要和次要 Azure 災難恢復區域的 ExpressRoute 連接。此外，作為使用 ExpressRoute 的替代方法，請考慮設置從本地到主要和輔助 Azure 災難恢復區域的 VPN 連接。</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>跨區域複製金鑰保管庫內容（如證書、機密或金鑰），以便解密DR區域中的數據。</t>
+          <t>跨區域複製證書、機密或密鑰等金鑰保管庫內容，以便解密DR區域中的數據。</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>對等互連主虛擬網路和災難恢復虛擬網路。例如，對於 HANA 系統複製，需要將 SAP HANA DB 虛擬網路與災難恢復網站的 SAP HANA DB 虛擬網路對等互連。</t>
+          <t>對等連接主虛擬網路和災難恢復虛擬網路。例如，對於 HANA 系統複製，需要將 SAP HANA DB 虛擬網路對等互連到災難恢復網站的 SAP HANA DB 虛擬網路。</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>如果將 Azure NetApp 檔案儲存用於 SAP 部署，則至少在兩個區域的高級層中創建兩個 Azure NetApp 檔帳戶。</t>
+          <t>如果將 Azure NetApp 檔案儲存用於 SAP 部署，則至少要在兩個區域的高級層中創建兩個 Azure NetApp 檔帳戶。</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>使用 Site Recovery 將應用程式伺服器複製到 DR 網站。Site Recovery 還有助於將中心服務群集 VM 複製到DR網站。調用DR時，需要在DR網站上重新配置Linux Pacemaker群集（例如，替換VIP或SBD、運行 corosync.conf 等）。</t>
+          <t>使用 Site Recovery 將應用程式伺服器複製到 DR 網站。Site Recovery 還可以説明將中心服務群集 VM 複製到DR網站。調用DR時，需要在DR網站上重新配置Linux Pacemaker群集（例如，替換VIP或SBD、運行 corosync.conf 等）。</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
@@ -1695,7 +1695,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>考慮針對單點故障的 SAP 軟體的可用性。這包括應用程式內的單點故障，例如 SAP NetWeaver 和 SAP S/4HANA 架構中使用的 DBMS、SAP ABAP 和 ASCS + SCS。此外，還有其他工具，例如 SAP Web Dispatcher。</t>
+          <t>考慮 SAP 軟體針對單點故障的可用性。這包括應用程式中的單點故障，例如 SAP NetWeaver 和 SAP S/4HANA 架構中使用的 DBMS、SAP ABAP 和 ASCS + SCS。此外，還有其他工具，例如 SAP Web Dispatcher。</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1712,7 +1712,7 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/sap-high-availability-architecture-scenario</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-business-continuity-and-disaster-recovery</t>
         </is>
       </c>
       <c r="I21" s="15" t="inlineStr">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Azure 不支援主 VM 和輔助 VM 共用 DBMS 數據存儲的體系結構。對於 DBMS 層，常見的體系結構模式是同時複製資料庫，並使用與主 VM 和輔助 VM 使用的儲存堆疊不同的儲存堆疊。</t>
+          <t>Azure 不支援主 VM 和輔助 VM 共用 DBMS 數據存儲的體系結構。對於 DBMS 層，常見的體系結構模式是同時複製資料庫，並使用與主虛擬機和輔助虛擬機使用的存儲堆疊不同的存儲堆疊。</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>DBMS 數據和事務/重做日誌檔存儲在 Azure 支援的塊存儲或 Azure NetApp 檔中。不支援將 Azure 檔案儲存或 Azure 高級檔儲存作為 SAP 工作負載的 DBMS 資料和/或重做日誌檔的存儲。</t>
+          <t>DBMS 數據和事務/重做日誌檔存儲在 Azure 支援的塊存儲或 Azure NetApp 檔中。不支援將 Azure 檔案儲存或 Azure 高級檔儲存作為 DBMS 資料和/或使用 SAP 工作負載重做日誌檔的存儲。</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>SAP 應用程式層元件 （ASCS） 和 DBMS 層的大多數故障轉移群集都需要故障轉移群集的虛擬 IP 位址。 對於所有其他情況，Azure 負載均衡器應處理虛擬IP位址。一個設計原則是每個群集配置使用一個負載均衡器。建議使用負載均衡器的標準版本（標準負載均衡器 SKU）。</t>
+          <t>SAP 應用程式層元件 （ASCS） 和 DBMS 層的大多數故障轉移群集都需要故障轉移群集的虛擬 IP 位址。 Azure 負載均衡器應處理所有其他情況的虛擬IP位址。一個設計原則是每個集群配置使用一個負載均衡器。建議使用標準版本的負載均衡器（標準負載均衡器 SKU）。</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>在部署高可用性基礎結構之前，根據所選區域，確定是使用 Azure 可用性集還是可用性區域進行部署。</t>
+          <t>在部署高可用性基礎結構之前，請根據所選的區域確定是使用 Azure 可用性集還是可用性區域進行部署。</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2140,7 +2140,7 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>不要在同一可用性集中混合使用不同角色的伺服器。將中央服務 VM、資料庫 VM、應用程式 VM 保留在其自己的可用性集中</t>
+          <t>不要在同一可用性集中混合使用不同角色的伺服器。將中央服務 VM、資料庫 VM、應用程式 VM 保留在自己的可用性集中</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
@@ -2190,7 +2190,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>除非使用鄰近放置組，否則無法在 Azure 可用性區域中部署 Azure 可用性集。</t>
+          <t>除非使用鄰近放置組，否則無法在 Azure 可用性區域內部署 Azure 可用性集。</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>創建可用性集時，請使用可用的容錯域和更新域的最大數量。例如，如果在一個可用性集中部署兩個以上的 VM，則除了 Azure 計劃內維護外，還要使用最大數量的容錯域（三個）和足夠的更新域來限制潛在的物理硬體故障、網路中斷或電源中斷的影響。容錯域的預設數量為 2，以後無法連線更改。</t>
+          <t>創建可用性集時，請使用最大數量的容錯域和更新可用的域。例如，如果在一個可用性集中部署兩個以上的 VM，請使用最大數量的容錯域（三個）和足夠的更新域來限制潛在的物理硬體故障、網路中斷或電源中斷的影響，以及 Azure 計劃內維護。默認的容錯域數為 2，以後無法連線更改。</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
@@ -2382,7 +2382,7 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>使用以下服務之一運行 SAP 中心服務群集，具體取決於作業系統。</t>
+          <t>根據操作系統的不同，使用以下服務之一來運行 SAP 中心服務群集。</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2432,7 +2432,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Azure 目前不支援在同一 Linux Pacemaker 群集中組合 ASCS 和 DB HA;將它們分成單獨的集群。但是，您最多可以將五個多個中心服務群集組合到一對 VM 中。</t>
+          <t>Azure 目前不支援將 ASCS 和 DB HA 組合在同一 Linux Pacemaker 群集中;將它們分成單獨的集群。但是，最多可以將五個多個中心服務群集合併到一對 VM 中。</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2482,7 +2482,7 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>在可用性集或可用性區域中的高可用性對中部署這兩個 VM。這些 VM 的大小應相同，並且具有相同的存儲配置。</t>
+          <t>在可用性集或可用性區域中的高可用性對中部署兩個 VM。這些 VM 的大小應相同，並具有相同的存儲配置。</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
@@ -2528,7 +2528,7 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Azure 支援在 Red Hat Enterprise Linux （RHEL） 上運行的同一高可用性群集上安裝和配置 SAP HANA 以及 ASCS/SCS 和 ERS 實例。</t>
+          <t>Azure 支援在 Red Hat Enterprise Linux （RHEL） 上運行的同一高可用性群集上安裝和配置 SAP HANA 和 ASCS/SCS 和 ERS 實例。</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
@@ -2578,7 +2578,7 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>在高級託管 SSD 上運行所有生產系統，並使用 Azure NetApp 檔或超級磁碟存儲。至少OS磁碟應位於高級層，以便實現更好的性能和最佳SLA。</t>
+          <t>在高級託管 SSD 上運行所有生產系統，並使用 Azure NetApp 檔或超級磁碟存儲。至少OS磁碟應位於高級層，以便您可以獲得更好的性能和最佳SLA。</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -2628,7 +2628,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>應僅在 SAP 認證的存儲類型上運行 Azure 上的 SAP HANA。請注意，某些卷必須在某些磁碟配置上運行（如果適用）。這些配置包括啟用寫入加速器和使用高級存儲。您還需要確保在儲存上運行的檔案系統與計算機上運行的 DBMS 相容。</t>
+          <t>應僅在 SAP 認證的存儲類型上運行 Azure 上的 SAP HANA。請注意，某些卷必須在某些磁碟配置（如果適用）上運行。這些配置包括啟用寫入加速器和使用高級存儲。您還需要確保在儲存上運行的檔案系統與在電腦上運行的 DBMS 相容。</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>請考慮根據用於 SAP 工作負載的儲存類型來配置高可用性。Azure Site Recovery 不支援 Azure 中提供的某些存儲服務，因此高可用性配置可能會有所不同。</t>
+          <t>請考慮根據用於 SAP 工作負載的儲存類型配置高可用性。Azure Site Recovery 不支援 Azure 中提供的某些存儲服務，因此高可用性配置可能會有所不同。</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
@@ -2728,7 +2728,7 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>不同的本機 Azure 儲存服務（如 Azure 檔存儲、Azure NetApp 檔、Azure 共用磁碟）可能並非在所有區域都可用。因此，若要在故障轉移后在DR區域上進行類似的SAP設置，請確保在DR網站中提供相應的存儲服務。</t>
+          <t>不同的本機 Azure 儲存服務（如 Azure 檔存儲、Azure NetApp 檔、Azure 共用磁碟）可能並非在所有區域都可用。因此，若要在故障轉移后在DR區域上設置類似的SAP，請確保在DR網站中提供相應的存儲服務。</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
@@ -2764,7 +2764,7 @@
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="21" t="inlineStr">
         <is>
-          <t>計算</t>
+          <t>成本優化</t>
         </is>
       </c>
       <c r="B43" s="21" t="inlineStr">
@@ -2774,7 +2774,7 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>為正確的 VM SKU 和區域發出配額請求</t>
+          <t>自動執行 SAP System Start-Stop 以管理成本。</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2789,13 +2789,17 @@
         </is>
       </c>
       <c r="G43" s="21" t="n"/>
-      <c r="H43" s="15" t="n"/>
+      <c r="H43" s="15" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/optimize-your-azure-costs-by-automating-sap-system-start-stop/ba-p/2120675</t>
+        </is>
+      </c>
       <c r="I43" s="15" t="n"/>
       <c r="J43" s="22" t="n"/>
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>2829e2ed-b217-4367-9aff-6691b4935ada</t>
+          <t>925d1f8c-01f3-4a67-948e-aabf0a1fad60</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2816,13 +2820,13 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>自動執行 SAP 系統啟動-停止以管理成本。</t>
+          <t>如果將 Azure 高級存儲與 SAP HANA 配合使用，則可以使用 Azure 標準 SSD 儲存來選擇成本敏感的儲存解決方案。但是，請注意，選擇“標準 SSD”或“標準 HDD Azure”存儲將影響各個 VM 的 SLA。此外，對於具有較低 I/O 輸送量和低延遲的系統（例如非生產環境），可以使用較低系列的 VM。</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
       <c r="E44" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2833,7 +2837,7 @@
       <c r="G44" s="21" t="n"/>
       <c r="H44" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/optimize-your-azure-costs-by-automating-sap-system-start-stop/ba-p/2120675</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/hana-vm-premium-ssd-v1</t>
         </is>
       </c>
       <c r="I44" s="15" t="n"/>
@@ -2841,7 +2845,7 @@
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>925d1f8c-01f3-4a67-948e-aabf0a1fad60</t>
+          <t>71dc00cd-4392-4262-8949-20c05e6c0333</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2852,23 +2856,23 @@
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>成本優化</t>
         </is>
       </c>
       <c r="B45" s="21" t="inlineStr">
         <is>
-          <t>身份</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>為管理組、訂閱、資源組和資源強制實施 RBAC 模型</t>
+          <t>作為成本較低的替代配置（多用途），可以為非生產 HANA 資料庫伺服器 VM 選擇低性能 SKU。但是，請務必注意，某些 VM 類型（如 E 系列）未經 HANA 認證（SAP HANA 硬體目錄），或者無法實現小於 1 毫秒的存儲延遲。</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
       <c r="E45" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2879,19 +2883,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/hana-vm-premium-ssd-v1</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
+          <t>9877f353-2591-4e8b-8381-e9043fed1010</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2902,7 +2901,7 @@
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>身份和訪問</t>
         </is>
       </c>
       <c r="B46" s="21" t="inlineStr">
@@ -2912,13 +2911,13 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>強制實施原則傳播，以便通過雲連接器將標識從 SAP 雲應用程式轉發到 SAP 本地（包括 IaaS）</t>
+          <t>對管理組、訂閱、資源組和資源強制實施 RBAC 模型</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
       <c r="E46" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2929,19 +2928,19 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
+          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
         </is>
       </c>
       <c r="I46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J46" s="22" t="n"/>
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>45911475-e39e-4530-accc-d979366bcda2</t>
+          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2952,7 +2951,7 @@
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>身份和訪問</t>
         </is>
       </c>
       <c r="B47" s="21" t="inlineStr">
@@ -2962,7 +2961,7 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>使用 SAML 通過 Azure AD 實現對 SAP SaaS 應用程式（如 SAP Analytics Cloud、SAP Cloud Platform、Business by design、SAP Qualtrics 和 SAP C4C）的 SSO。</t>
+          <t>強制實施主體傳播，以便透過雲連接器將身份從 SAP 雲應用程式轉發到 SAP 本地（包括 IaaS）</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -2982,12 +2981,16 @@
           <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
         </is>
       </c>
-      <c r="I47" s="15" t="n"/>
+      <c r="I47" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
+        </is>
+      </c>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
+          <t>45911475-e39e-4530-accc-d979366bcda2</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2998,7 +3001,7 @@
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>身份和訪問</t>
         </is>
       </c>
       <c r="B48" s="21" t="inlineStr">
@@ -3008,7 +3011,7 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>使用 SAML 實現對基於 SAP NetWeaver 的 Web 應用程式（如 SAP Fiori 和 SAP Web GUI）的 SSO。</t>
+          <t>使用 SAML 通過 Azure AD 實現 SAP SaaS 應用程式（如 SAP Analytics Cloud、SAP Cloud Platform、Business by Design、SAP Qualtrics 和 SAP C4C）的 SSO。</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -3025,19 +3028,14 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
+          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -3048,7 +3046,7 @@
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>身份和訪問</t>
         </is>
       </c>
       <c r="B49" s="21" t="inlineStr">
@@ -3058,7 +3056,7 @@
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>使用 SAML 實現對基於 SAP NetWeaver 的 Web 應用程式（如 SAP Fiori 和 SAP Web GUI）的 SSO。</t>
+          <t>使用 SAML 對基於 SAP NetWeaver 的 Web 應用程式（如 SAP Fiori 和 SAP Web GUI）實施 SSO。</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -3073,17 +3071,21 @@
         </is>
       </c>
       <c r="G49" s="21" t="n"/>
-      <c r="H49" s="15" t="n"/>
+      <c r="H49" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+        </is>
+      </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
+          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3094,7 +3096,7 @@
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>身份和訪問</t>
         </is>
       </c>
       <c r="B50" s="21" t="inlineStr">
@@ -3104,7 +3106,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>可以使用 SAP NetWeaver SSO 或合作夥伴解決方案實現到 SAP GUI 的 SSO。</t>
+          <t>使用 SAML 對基於 SAP NetWeaver 的 Web 應用程式（如 SAP Fiori 和 SAP Web GUI）實施 SSO。</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3119,21 +3121,17 @@
         </is>
       </c>
       <c r="G50" s="21" t="n"/>
-      <c r="H50" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
-        </is>
-      </c>
+      <c r="H50" s="15" t="n"/>
       <c r="I50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
         </is>
       </c>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
+          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3144,7 +3142,7 @@
     <row r="51" ht="16.5" customHeight="1">
       <c r="A51" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>身份和訪問</t>
         </is>
       </c>
       <c r="B51" s="21" t="inlineStr">
@@ -3154,7 +3152,7 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>對於 SAP GUI 和 Web 瀏覽器存取的 SSO，請實施 SNC/Kerberos/SPNEGO（簡單且受保護的 GSSAPI 協商機制），因為它易於配置和維護。對於使用 X.509 用戶端證書的 SSO，請考慮使用 SAP 安全登錄伺服器，它是 SAP SSO 解決方案的一個元件。</t>
+          <t>可以使用SAP NetWeaver SSO 或合作夥伴解決方案將 SSO 實現到 SAP GUI。</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
@@ -3169,17 +3167,21 @@
         </is>
       </c>
       <c r="G51" s="21" t="n"/>
-      <c r="H51" s="15" t="n"/>
+      <c r="H51" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+        </is>
+      </c>
       <c r="I51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
         </is>
       </c>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
+          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3190,7 +3192,7 @@
     <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>身份和訪問</t>
         </is>
       </c>
       <c r="B52" s="21" t="inlineStr">
@@ -3200,7 +3202,7 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>對於 SAP GUI 和 Web 瀏覽器存取的 SSO，請實施 SNC/Kerberos/SPNEGO（簡單且受保護的 GSSAPI 協商機制），因為它易於配置和維護。對於使用 X.509 用戶端證書的 SSO，請考慮使用 SAP 安全登錄伺服器，它是 SAP SSO 解決方案的一個元件。</t>
+          <t>對於 SAP GUI 和 Web 瀏覽器存取的 SSO，請實施 SNC/Kerberos/SPNEGO（簡單且受保護的 GSSAPI 協商機制），因為它易於配置和維護。對於使用 X.509 用戶端證書的 SSO，請考慮 SAP 安全登錄伺服器，它是 SAP SSO 解決方案的一個元件。</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
@@ -3215,17 +3217,17 @@
         </is>
       </c>
       <c r="G52" s="21" t="n"/>
-      <c r="H52" s="15" t="inlineStr">
-        <is>
-          <t>https://blogs.sap.com/2017/07/12/sap-single-sign-on-protect-your-sap-landscape-with-x.509-certificates/</t>
-        </is>
-      </c>
-      <c r="I52" s="15" t="n"/>
+      <c r="H52" s="15" t="n"/>
+      <c r="I52" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
+        </is>
+      </c>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
+          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3236,7 +3238,7 @@
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>身份和訪問</t>
         </is>
       </c>
       <c r="B53" s="21" t="inlineStr">
@@ -3246,7 +3248,7 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>使用 SAP NetWeaver 的 OAuth 實現 SSO，以允許第三方或自定義應用程式訪問 SAP NetWeaver OData 服務。</t>
+          <t>對於 SAP GUI 和 Web 瀏覽器存取的 SSO，請實施 SNC/Kerberos/SPNEGO（簡單且受保護的 GSSAPI 協商機制），因為它易於配置和維護。對於使用 X.509 用戶端證書的 SSO，請考慮 SAP 安全登錄伺服器，它是 SAP SSO 解決方案的一個元件。</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3263,14 +3265,14 @@
       <c r="G53" s="21" t="n"/>
       <c r="H53" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
+          <t>https://blogs.sap.com/2017/07/12/sap-single-sign-on-protect-your-sap-landscape-with-x.509-certificates/</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
+          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3281,7 +3283,7 @@
     <row r="54" ht="16.5" customHeight="1">
       <c r="A54" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>身份和訪問</t>
         </is>
       </c>
       <c r="B54" s="21" t="inlineStr">
@@ -3291,7 +3293,7 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>實現SAP HANA的 SSO</t>
+          <t>使用 OAuth for SAP NetWeaver 實現 SSO，以允許第三方或自定義應用程式訪問 SAP NetWeaver OData 服務。</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3308,7 +3310,7 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
         </is>
       </c>
       <c r="I54" s="15" t="n"/>
@@ -3316,7 +3318,7 @@
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
+          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3327,7 +3329,7 @@
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>身份和訪問</t>
         </is>
       </c>
       <c r="B55" s="21" t="inlineStr">
@@ -3337,7 +3339,7 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>將 Azure AD 視為 RISE 上託管的 SAP 系統的標識提供者。有關詳細資訊，請參閱將服務與 Azure AD 集成。</t>
+          <t>實現 SSO 到 SAP HANA</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3354,14 +3356,14 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
+          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3372,7 +3374,7 @@
     <row r="56" ht="16.5" customHeight="1">
       <c r="A56" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>身份和訪問</t>
         </is>
       </c>
       <c r="B56" s="21" t="inlineStr">
@@ -3382,7 +3384,7 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>對於訪問 SAP 的應用程式，可能需要使用主體傳播來建立 SSO。</t>
+          <t>將 Azure AD 視為 RISE 上託管的 SAP 系統的標識提供者。有關詳細資訊，請參閱將服務與 Azure AD 集成。</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
@@ -3399,14 +3401,14 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/azuredevcollege/SAP/blob/master/sap-oauth-saml-flow/README.md</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
+          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3417,7 +3419,7 @@
     <row r="57" ht="16.5" customHeight="1">
       <c r="A57" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>身份和訪問</t>
         </is>
       </c>
       <c r="B57" s="21" t="inlineStr">
@@ -3427,7 +3429,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>如果使用需要 SAP Identity Authentication Service （IAS） 的 SAP BTP 服務或 SaaS 解決方案，請考慮在 SAP Cloud Identity Authentication Services 和 Azure AD 之間實現 SSO 以存取這些 SAP 服務。此集成允許 SAP IAS 充當代理標識提供者，並將身份驗證請求轉發到作為中央使用者存儲和標識提供者的 Azure AD。</t>
+          <t>對於訪問 SAP 的應用程式，可能需要使用主體傳播來建立 SSO。</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3444,14 +3446,14 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
+          <t>https://github.com/azuredevcollege/SAP/blob/master/sap-oauth-saml-flow/README.md</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
+          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3462,7 +3464,7 @@
     <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>身份和訪問</t>
         </is>
       </c>
       <c r="B58" s="21" t="inlineStr">
@@ -3472,7 +3474,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>實現對 SAP BTP 的 SSO</t>
+          <t>如果使用的是需要 SAP Identity Authentication Service （IAS） 的 SAP BTP 服務或 SaaS 解決方案，請考慮在 SAP Cloud Identity Authentication Services 和 Azure AD 之間實現 SSO 以存取這些 SAP 服務。此集成允許 SAP IAS 充當代理標識提供者，並將身份驗證請求轉發到 Azure AD，作為中央使用者存儲和標識提供者。</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3489,14 +3491,14 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
+          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3507,7 +3509,7 @@
     <row r="59" ht="16.5" customHeight="1">
       <c r="A59" s="21" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>身份和訪問</t>
         </is>
       </c>
       <c r="B59" s="21" t="inlineStr">
@@ -3517,7 +3519,7 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>如果使用的是 SAP SuccessFactors，請考慮使用 Azure AD 自動使用者預配。通過此整合，在向 SAP SuccessFactors 添加新員工時，可以在 Azure AD 中自動創建其使用者帳戶。 （可選）可以在 Microsoft 365 或 Azure AD 支援的其他 SaaS 應用程式中創建使用者帳戶。 將電子郵件地址寫回 SAP SuccessFactors。</t>
+          <t>實現 SSO 到 SAP BTP</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3534,14 +3536,14 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
+          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3552,17 +3554,17 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
-          <t>管理組和訂閱</t>
+          <t>身份和訪問</t>
         </is>
       </c>
       <c r="B60" s="21" t="inlineStr">
         <is>
-          <t>訂閱</t>
+          <t>身份</t>
         </is>
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>對 SAP 訂閱強制實施現有管理組策略</t>
+          <t>如果使用的是 SAP SuccessFactors，請考慮使用 Azure AD 自動使用者預配。通過此整合，當你向 SAP SuccessFactors 添加新員工時，可以在 Azure AD 中自動建立使用者帳戶。 （可選）可以在 Microsoft 365 或 Azure AD 支援的其他 SaaS 應用程式中建立使用者帳戶。 使用將電子郵件地址寫回 SAP SuccessFactors。</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3579,19 +3581,14 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
+          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3612,13 +3609,13 @@
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>將緊密耦合的應用程式集成到同一 SAP 訂閱中，以避免額外的路由和管理複雜性</t>
+          <t>對 SAP 訂閱強制實施現有管理組策略</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
       <c r="E61" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3629,19 +3626,19 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
+          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
+          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3662,7 +3659,7 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>利用訂閱作為縮放單元並縮放我們的資源，請考慮按環境部署訂閱，例如。沙箱、非生產、生產</t>
+          <t>將緊密耦合的應用程式集成到同一個 SAP 訂閱中，以避免額外的路由和管理複雜性</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3684,14 +3681,14 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
+          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3712,7 +3709,7 @@
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>確保在訂閱預配過程中增加配額（例如，訂閱中可用的 VM 核心總數）</t>
+          <t>利用訂閱作為縮放單元並擴展我們的資源，請考慮按環境部署訂閱，例如。沙箱、非生產、生產</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3729,19 +3726,19 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
         </is>
       </c>
       <c r="I63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
         </is>
       </c>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
+          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3762,13 +3759,13 @@
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>配額 API 是一個 REST API，可用於查看和管理 Azure 服務的配額。如有必要，請考慮使用它。</t>
+          <t>確保在訂閱預配過程中增加配額（例如，訂閱中可用的 VM 核心總數）</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
       <c r="E64" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3779,15 +3776,19 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
-        </is>
-      </c>
-      <c r="I64" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
+        </is>
+      </c>
+      <c r="I64" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+        </is>
+      </c>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
+          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3808,13 +3809,13 @@
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>如果部署到可用性區域，請確保在批准配額后，VM 的區域部署可用。提交支援請求，其中包含所需的訂閱、VM 系列、CPU 數量和可用性區域。</t>
+          <t>配額 API 是一個 REST API，可用於查看和管理 Azure 服務的配額。如有必要，請考慮使用它。</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
       <c r="E65" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3825,7 +3826,7 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
+          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
         </is>
       </c>
       <c r="I65" s="15" t="n"/>
@@ -3833,7 +3834,7 @@
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
+          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3854,7 +3855,7 @@
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>確保所需的服務和功能在選定的部署區域內可用，例如。ANF、區域等</t>
+          <t>如果部署到可用性區域，請確保在配額獲得批准后，VM 的區域部署可用。提交支援請求，其中包含所需的訂閱、VM 系列、CPU 數量和可用性區域。</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
@@ -3871,19 +3872,14 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
+          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3904,13 +3900,13 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>利用 Azure 資源標記進行成本分類和資源分組（：帳單、部門（或營業單位）、環境（生產、階段、開發）、層（Web 層、應用層）、應用程式擁有者、專案名稱）</t>
+          <t>確保所需的服務和功能在所選部署區域內可用，例如。ANF、區域等</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
       <c r="E67" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3921,19 +3917,19 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
+          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
         </is>
       </c>
       <c r="I67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
         </is>
       </c>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
+          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3944,23 +3940,23 @@
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="21" t="inlineStr">
         <is>
-          <t>管理和監控</t>
+          <t>管理組和訂閱</t>
         </is>
       </c>
       <c r="B68" s="21" t="inlineStr">
         <is>
-          <t>BCDR的</t>
+          <t>訂閱</t>
         </is>
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 備份服務幫助保護 HANA 資料庫。</t>
+          <t>利用 Azure 資源標記進行成本分類和資源分組（：BillTo、部門（或營業單位）、環境（生產、階段、開發）、層（Web 層、應用層）、應用程式擁有者、ProjectName）</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
       <c r="E68" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3971,19 +3967,19 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
         </is>
       </c>
       <c r="I68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
+          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -3999,18 +3995,18 @@
       </c>
       <c r="B69" s="21" t="inlineStr">
         <is>
-          <t>BCDR的</t>
+          <t>BCDR公司</t>
         </is>
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>如果為 HANA、Oracle 或 DB2 資料庫部署 Azure NetApp 檔，請使用 Azure 應用程式一致性快照工具 （AzAcSnap） 建立應用程式一致性快照。AzAcSnap 還支援 Oracle 資料庫。請考慮在中央 VM 上使用 AzAcSnap，而不是在單個 VM 上使用 AzAcSnap。</t>
+          <t>使用 Azure 備份服務幫助保護 HANA 資料庫。</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
       <c r="E69" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4021,15 +4017,19 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
-        </is>
-      </c>
-      <c r="I69" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
+        </is>
+      </c>
+      <c r="I69" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
+          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4045,18 +4045,18 @@
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>BCDR公司</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>確保操作系統和 SAP 系統之間的時區匹配。</t>
+          <t>如果為 HANA、Oracle 或 DB2 資料庫部署 Azure NetApp 檔，請使用 Azure 應用程式一致性快照工具（ AzAcSnap ）來創建應用程式一致性快照。AzAcSnap 還支援 Oracle 資料庫。請考慮在中央 VM 上使用 AzAcSnap，而不是在單個 VM 上使用 AzAcSnap。</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
       <c r="E70" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4067,7 +4067,7 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
         </is>
       </c>
       <c r="I70" s="15" t="n"/>
@@ -4075,7 +4075,7 @@
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
+          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4096,13 +4096,13 @@
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>不要在同一集群中對不同的應用程式服務進行分組。例如，不要將DRBD和中央服務群集合並到同一個群集上。但是，可以使用同一個 Pacemaker 群集來管理大約五個不同的中央服務（多 SID 群集）。</t>
+          <t>確保操作系統和 SAP 系統之間的時區匹配。</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
       <c r="E71" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4113,19 +4113,15 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
-        </is>
-      </c>
-      <c r="I71" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
+        </is>
+      </c>
+      <c r="I71" s="15" t="n"/>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
+          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4146,13 +4142,13 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>請考慮在暫停模型中運行開發/測試系統，以節省和優化 Azure 運行成本。</t>
+          <t>不要將不同的應用程式服務分組到同一個集群中。例如，不要將DRBD和中央服務集群組合在同一集群上。但是，可以使用同一個 Pacemaker 群集來管理大約五個不同的中心服務（多 SID 群集）。</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4163,15 +4159,19 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
-        </is>
-      </c>
-      <c r="I72" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
+        </is>
+      </c>
+      <c r="I72" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J72" s="22" t="n"/>
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
+          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4192,13 +4192,13 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>如果通過管理客戶的 SAP 資產與客戶合作，請考慮使用 Azure Lighthouse。Azure Lighthouse 允許託管服務提供者使用 Azure 本機標識服務向客戶環境進行身份驗證。它將控制權交到客戶手中，因為他們可以隨時撤銷訪問許可權並審核服務提供者的操作。</t>
+          <t>請考慮在暫停模型中運行開發/測試系統，以節省和優化 Azure 運行成本。</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
       <c r="E73" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4209,7 +4209,7 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
+          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
         </is>
       </c>
       <c r="I73" s="15" t="n"/>
@@ -4217,7 +4217,7 @@
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
+          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4238,7 +4238,7 @@
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 更新管理員檢查單個 VM 或多個 VM 的可用更新狀態，並考慮計劃定期修補。</t>
+          <t>如果通過管理客戶的 SAP 資產與客戶合作，請考慮使用 Azure Lighthouse。Azure Lighthouse 允許託管服務提供者使用 Azure 本機標識服務對客戶的環境進行身份驗證。它將控制權交到客戶手中，因為他們可以隨時撤銷訪問許可權並審核服務提供者的行為。</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
@@ -4255,19 +4255,15 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
-        </is>
-      </c>
-      <c r="I74" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
+        </is>
+      </c>
+      <c r="I74" s="15" t="n"/>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
+          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4288,13 +4284,13 @@
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>使用 SAP Landscape Management （LaMa） 優化和管理 SAP Basis 操作。使用適用於 Azure 的 SAP LaMa 連接器重新置放、複製、克隆和刷新 SAP 系統。</t>
+          <t>使用 Azure Update Manager 檢查單個 VM 或多個 VM 的可用更新狀態，並考慮計劃定期修補。</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
       <c r="E75" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4305,19 +4301,19 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
+          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
         </is>
       </c>
       <c r="I75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
         </is>
       </c>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
+          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4333,18 +4329,18 @@
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>使用適用於 SAP 解決方案的 Azure Monitor 監視 Azure 上的 SAP 工作負載（SAP HANA、高可用性 SUSE 群集和 SQL 系統）。請考慮使用 SAP 解決方案管理器補充用於 SAP 解決方案的 Azure Monitor。</t>
+          <t>使用 SAP Landscape Management （LaMa） 優化和管理 SAP Basis 運營。使用適用於 Azure 的 SAP LaMa 連接器重新置放、複製、克隆和刷新 SAP 系統。</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
       <c r="E76" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4355,19 +4351,19 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
         </is>
       </c>
       <c r="I76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
         </is>
       </c>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
+          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4388,13 +4384,13 @@
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>運行適用於 SAP 的 VM 擴展檢查。適用於 SAP 的 VM 擴展使用虛擬機 （VM） 的分配託管標識來訪問 VM 監視和配置數據。該檢查可確保 SAP 應用程式中的所有性能指標都來自適用於 SAP 的基礎 Azure 擴展。</t>
+          <t>使用用於 SAP 解決方案的 Azure Monitor 監視 Azure 上的 SAP 工作負載（SAP HANA、高可用性 SUSE 群集和 SQL 系統）。請考慮使用 SAP 解決方案管理器補充用於 SAP 解決方案的 Azure Monitor。</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4405,19 +4401,19 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
+          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
         </is>
       </c>
       <c r="I77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
         </is>
       </c>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
+          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4438,13 +4434,13 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Policy 進行訪問控制和合規性報告。Azure Policy 提供強制實施組織範圍設置的功能，以確保一致的策略遵守和快速的違規檢測。</t>
+          <t>運行適用於 SAP 的 VM 擴展檢查。適用於 SAP 的 VM 擴展使用虛擬機 （VM） 的分配託管標識來訪問 VM 監視和配置數據。該檢查可確保 SAP 應用程式中的所有性能指標都來自適用於 SAP 的基礎 Azure 擴展。</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
       <c r="E78" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4455,19 +4451,19 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
         </is>
       </c>
       <c r="I78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
         </is>
       </c>
       <c r="J78" s="22" t="n"/>
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
+          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4488,7 +4484,7 @@
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 網路觀察程式中的連接監視器監視 SAP 資料庫和應用程式伺服器的延遲指標。或者使用 Azure Monitor 收集和顯示網路延遲度量值。</t>
+          <t>使用 Azure Policy 進行訪問控制和合規性報告。Azure Policy 提供了強制實施組織範圍設置的功能，以確保一致的策略遵守和快速違規檢測。</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
@@ -4505,19 +4501,19 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I79" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J79" s="22" t="n"/>
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
+          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4538,13 +4534,13 @@
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Site Recovery 監視來維護 SAP 應用程式伺服器的災難恢復服務的運行狀況。</t>
+          <t>使用 Azure 網路觀察程式中的連接監視器監視 SAP 資料庫和應用程式伺服器的延遲指標。或者使用 Azure Monitor 收集和顯示網路延遲度量。</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4555,19 +4551,19 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
         </is>
       </c>
       <c r="I80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
         </is>
       </c>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
+          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4634,7 +4630,7 @@
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>對於每個 Azure 訂閱，請在區域部署之前在 Azure 可用性區域上運行延遲測試，以選擇用於在 Azure 上部署 SAP 的低延遲區域。</t>
+          <t>對於每個 Azure 訂閱，請在區域部署之前對 Azure 可用性區域運行延遲測試，以選擇用於在 Azure 上部署 SAP 的低延遲區域。</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
@@ -4734,7 +4730,7 @@
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>使用適用於 SAP 的 Microsoft Sentinel 解決方案實施威脅防護。使用此解決方案可以監視 SAP 系統，並檢測整個業務邏輯和應用程式層的複雜威脅。</t>
+          <t>使用適用於 SAP 的 Microsoft Sentinel 解決方案實施威脅防護。使用此解決方案監視 SAP 系統，並檢測整個業務邏輯和應用程式層的複雜威脅。</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4784,7 +4780,7 @@
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>可以利用 Azure 標記對資源進行邏輯分組和跟蹤，自動執行其部署，最重要的是，提供對所產生成本的可見性。</t>
+          <t>Azure 標記可用於對資源進行邏輯分組和跟蹤，自動執行其部署，最重要的是，提供對所發生成本的可見性。</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4930,7 +4926,7 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>從防病毒掃描中排除所有資料庫檔系統和可執行程式。包括它們可能會導致性能問題。請與資料庫供應商聯繫，瞭解排除清單的規範性詳細資訊。例如，Oracle 建議&lt;sid&gt;從防病毒掃描中排除 /oracle}sapdata。</t>
+          <t>從防病毒掃描中排除所有資料庫檔系統和可執行程式。包含它們可能會導致性能問題。請與資料庫供應商聯繫，瞭解排除清單中的規範性詳細資訊。例如，Oracle 建議&lt;sid&gt;從防病毒掃描中排除 /oracle}sapdata。</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4976,7 +4972,7 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>請考慮在遷移後收集非 HANA 資料庫的完整資料庫統計資訊。例如，實現 SAP 註釋 1020260 - Oracle 統計資訊的交付。</t>
+          <t>請考慮在遷移後收集非 HANA 資料庫的完整資料庫統計資訊。例如，實施SAP 註釋1020260 - 交付 Oracle 統計資訊。</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
@@ -5072,7 +5068,7 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>對於運行 Oracle 的 Azure 上的 SAP，SQL 腳本集合可説明你診斷性能問題。 Automatic Workload Repository （AWR） 報告包含用於診斷 Oracle 系統中問題的寶貴資訊。我們建議您在多個工作階段期間運行 AWR 報告，並為其選擇高峰時間，以確保分析的廣泛覆蓋。</t>
+          <t>對於運行 Oracle 的 Azure 上的 SAP，SQL 腳本集合可説明你診斷性能問題。 自動工作負載存儲庫 （AWR） 報告包含用於診斷 Oracle 系統中問題的寶貴資訊。我們建議您在多個工作階段期間運行 AWR 報告，並為其選擇高峰時間，以確保分析的廣泛覆蓋範圍。</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
@@ -5112,23 +5108,23 @@
     <row r="92" ht="16.5" customHeight="1">
       <c r="A92" s="21" t="inlineStr">
         <is>
-          <t>網路拓撲和連接</t>
+          <t>管理和監控</t>
         </is>
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>應用交付</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>若要安全交付 HTTP/S 應用，請使用應用程式閘道 v2 並確保已啟用 WAF 保護和策略。</t>
+          <t>使用 Azure Site Recovery 監視來維護 SAP 應用程式伺服器的災難恢復服務的運行狀況。</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
       <c r="E92" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5139,19 +5135,19 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
         </is>
       </c>
       <c r="I92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
+          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5167,12 +5163,12 @@
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>DNS解析</t>
+          <t>應用交付</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>如果在遷移到 Azure 期間未更改虛擬機器的 DNS 或虛擬名稱，則後台 DNS 和虛擬名稱會連接 SAP 環境中的許多系統介面，並且客戶有時只知道開發人員隨時間推移定義的介面。遷移后，當虛擬名稱或 DNS 名稱發生更改時，各種系統之間會出現連接挑戰，建議保留 DNS 別名以防止出現這些類型的困難。</t>
+          <t>若要安全交付 HTTP/S 應用，請使用應用程式閘道 v2 並確保啟用 WAF 保護和策略。</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
@@ -5189,19 +5185,19 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
         </is>
       </c>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
+          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5217,12 +5213,12 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>DNS解析</t>
+          <t>DNS功能變數名稱</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>使用不同的 DNS 區域將每個環境（沙箱、開發、預生產和生產）彼此區分開來。例外情況是具有自己的 VNet 的 SAP 部署;在這裡，專用 DNS 區域可能不是必需的。</t>
+          <t>如果在遷移到 Azure 期間未更改虛擬機器的 DNS 或虛擬名稱，則後台 DNS 和虛擬名稱將連接 SAP 環境中的許多系統介面，並且客戶有時只會知道開發人員隨時間推移定義的介面。遷移后，當虛擬或 DNS 名稱更改時，各種系統之間會出現連接挑戰，建議保留 DNS 別名以防止出現此類困難。</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
@@ -5251,7 +5247,7 @@
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
+          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5267,12 +5263,12 @@
       </c>
       <c r="B95" s="21" t="inlineStr">
         <is>
-          <t>混合</t>
+          <t>DNS功能變數名稱</t>
         </is>
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>本地和全域 VNet 對等互連提供連接，是確保跨多個 Azure 區域的 SAP 部署登陸區域之間連接的首選方法</t>
+          <t>使用不同的 DNS 區域來區分每個環境（沙箱、開發、預生產和生產）。具有自己的 VNet 的 SAP 部署除外;在這裡，私有 DNS 區域可能不是必需的。</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5289,19 +5285,19 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
+          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5322,13 +5318,13 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>不支援在 SAP 應用程式和 SAP 資料庫伺服器之間部署任何 NVA</t>
+          <t>本地和全域 VNet 對等互連提供連接，是確保跨多個 Azure 區域的 SAP 部署的登陸區域之間的連接的首選方法</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5339,19 +5335,19 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
         </is>
       </c>
       <c r="I96" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2731110</t>
+          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
         </is>
       </c>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
+          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5372,13 +5368,13 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>在需要跨 Azure 區域和本地位置進行全球傳輸連接的新網路、大型網路或全球網路中，將虛擬 WAN 用於 Azure 部署。使用此方法，無需手動為 Azure 網路設置可傳遞路由，並且可以遵循 Azure 上的 SAP 部署的標準。</t>
+          <t>不支援在 SAP 應用程式和 SAP 資料庫伺服器之間部署任何 NVA</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
       <c r="E97" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5389,19 +5385,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
         </is>
       </c>
       <c r="I97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://me.sap.com/notes/2731110</t>
         </is>
       </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
+          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5422,7 +5418,7 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>僅當使用合作夥伴 NVA 時，才考慮在區域之間部署網路虛擬設備 （NVA）。如果存在本機 NVA，則不需要區域或 VNet 之間的 NVA。部署合作夥伴網路技術和 NVA 時，請按照供應商的指南驗證與 Azure 網路的衝突配置。</t>
+          <t>在需要跨 Azure 區域和本地位置的全域傳輸連接的新網路、大型網路或全球網路中使用虛擬 WAN 進行 Azure 部署。使用此方法，無需手動設置 Azure 網路的可傳遞路由，並且可以遵循 Azure 部署上的 SAP 標準。</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
@@ -5439,19 +5435,19 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
         </is>
       </c>
       <c r="I98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
+          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5472,7 +5468,7 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>虛擬 WAN 管理基於虛擬 WAN 的拓撲的分支 VNet 之間的連接（無需設置使用者定義的路由 [UDR] 或 NVA），同一虛擬中心中 VNet 到 VNet 流量的最大網路輸送量為每秒 50 GB。如有必要，SAP 登陸區域可以使用 VNet 對等互連連接到其他登陸區域並克服此頻寬限制。</t>
+          <t>僅當使用合作夥伴 NVA 時，才考慮在區域之間部署網路虛擬設備 （NVA）。如果存在本機 NVA，則不需要區域或 VNet 之間的 NVA。部署合作夥伴網路技術和 NVA 時，請按照供應商的指南驗證與 Azure 網路衝突的配置。</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5489,19 +5485,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
         </is>
       </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
+          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5517,18 +5513,18 @@
       </c>
       <c r="B100" s="21" t="inlineStr">
         <is>
-          <t>IP計劃</t>
+          <t>混合</t>
         </is>
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>不建議將公共 I.P 分配給運行 SAP 工作負載的 VM。</t>
+          <t>虛擬 WAN 管理基於虛擬 WAN 的拓撲的分支 VNet 之間的連接（無需設置使用者定義的路由 [UDR] 或 NVA），同一虛擬中心中 VNet 到 VNet 流量的最大網路輸送量為每秒 50 G。如有必要，SAP 登陸區域可以使用 VNet 對等互連連接到其他登陸區域並克服此頻寬限制。</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5539,19 +5535,19 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
         </is>
       </c>
       <c r="I100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
         </is>
       </c>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
+          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5567,12 +5563,12 @@
       </c>
       <c r="B101" s="21" t="inlineStr">
         <is>
-          <t>IP計劃</t>
+          <t>知識產權計劃</t>
         </is>
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>配置 ASR 時，請考慮在 DR 端保留 I.P 位址</t>
+          <t>不建議將公共IP分配給運行SAP工作負載的 VM。</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
@@ -5589,19 +5585,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
+          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5617,12 +5613,12 @@
       </c>
       <c r="B102" s="21" t="inlineStr">
         <is>
-          <t>IP計劃</t>
+          <t>知識產權計劃</t>
         </is>
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>避免對生產網站和DR網站使用重疊的IP位址範圍。</t>
+          <t>配置 ASR 時，請考慮在 DR 端保留 IP 位址</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
@@ -5639,19 +5635,19 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="I102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
+          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5667,18 +5663,18 @@
       </c>
       <c r="B103" s="21" t="inlineStr">
         <is>
-          <t>IP計劃</t>
+          <t>知識產權計劃</t>
         </is>
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>雖然 Azure 確實有助於在 VNet 中創建多個委託子網，但 Azure NetApp 檔的 VNet 中只能存在一個委託子網。如果對 Azure NetApp 檔使用多個委託子網，則嘗試創建新卷將失敗。</t>
+          <t>避免對生產網站和DR網站使用重疊的IP位址範圍。</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
       <c r="E103" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5689,19 +5685,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
+          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5717,12 +5713,12 @@
       </c>
       <c r="B104" s="21" t="inlineStr">
         <is>
-          <t>互聯網</t>
+          <t>知識產權計劃</t>
         </is>
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 防火牆管理發往 Internet、非 HTTP/S 入站連接和東西方流量篩選的 Azure 出站流量（如果組織需要）</t>
+          <t>雖然 Azure 確實可以説明您在 VNet 中創建多個委派子網，但 Azure NetApp 檔的 VNet 中只能存在一個委派子網。如果對 Azure NetApp 檔使用多個委託子網，則嘗試創建新卷將失敗。</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
@@ -5739,19 +5735,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
         </is>
       </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
+          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5772,7 +5768,7 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>當應用程式閘道充當 SAP Web 應用的反向代理時，應用程式閘道和 Web 應用程式防火牆存在限制，如應用程式閘道、SAP Web 調度程式和其他第三方服務之間的比較所示。</t>
+          <t>使用 Azure 防火牆管理發往 Internet 的 Azure 出站流量、非 HTTP/S 入站連接和東西向流量篩選（如果組織需要）</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
@@ -5789,19 +5785,19 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
         </is>
       </c>
       <c r="I105" s="15" t="inlineStr">
         <is>
-          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
+          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
+          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5822,7 +5818,7 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Front Door 和 WAF 策略跨 Azure 區域為登陸區域的入站 HTTP/S 連接提供全域保護。</t>
+          <t>當應用程式閘道充當 SAP Web 應用的反向代理時，應用程式閘道和 Web 應用程式防火牆存在限制，如應用程式閘道、SAP Web 調度程式和其他第三方服務之間的比較所示。</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -5839,19 +5835,19 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
         </is>
       </c>
       <c r="I106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
+          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
         </is>
       </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
+          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5872,7 +5868,7 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Front Door 和應用程式閘道來保護 HTTP/S 應用程式時，請利用 Azure Front Door 中的 Web 應用程式防火牆策略。鎖定應用程式閘道以僅接收來自 Azure Front Door 的流量。</t>
+          <t>使用 Azure Front Door 和 WAF 策略跨 Azure 區域為與登陸區域的入站 HTTP/S 連接提供全域保護。</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5889,19 +5885,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
+          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5922,7 +5918,7 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>當流量暴露在互聯網上時，使用 Web 應用程式防火牆掃描流量。另一種選擇是將其與負載均衡器或具有內置防火牆功能（如應用程式閘道或第三方解決方案）的資源一起使用。</t>
+          <t>使用 Azure Front Door 和應用程式閘道保護 HTTP/S 應用程式時，請利用 Azure Front Door 中的 Web 應用程式防火牆策略。鎖定應用程式閘道以僅接收來自 Azure Front Door 的流量。</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
@@ -5939,7 +5935,7 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I108" s="15" t="inlineStr">
@@ -5951,7 +5947,7 @@
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
+          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5972,7 +5968,7 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>在需要跨 Azure 區域和本地位置進行全球傳輸連接的新網路、大型網路或全球網路中，將虛擬 WAN 用於 Azure 部署。使用此方法，無需手動為 Azure 網路設置可傳遞路由，並且可以遵循 Azure 上的 SAP 部署的標準。</t>
+          <t>使用 Web 應用程式防火牆在流量暴露於 Internet 時對其進行掃描。另一種選擇是將其與負載均衡器或具有內置防火牆功能（如應用程式閘道或第三方解決方案）的資源一起使用。</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
@@ -5989,19 +5985,19 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
         </is>
       </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
+          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -6022,7 +6018,7 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>若要防止數據洩露，請使用 Azure 專用連結安全地訪問平臺即服務資源，例如 Azure Blob 存儲、Azure 檔存儲、Azure Data Lake Storage Gen2、Azure 數據工廠等。Azure 專用終結點還可以幫助保護 VNet 與 Azure 存儲、Azure 備份等服務之間的流量。VNet 與啟用了專用終結點的服務之間的流量通過 Microsoft 全球網路傳輸，從而防止其暴露給公共 Internet。</t>
+          <t>在需要跨 Azure 區域和本地位置的全域傳輸連接的新網路、大型網路或全球網路中使用虛擬 WAN 進行 Azure 部署。使用此方法，無需手動設置 Azure 網路的可傳遞路由，並且可以遵循 Azure 部署上的 SAP 標準。</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -6039,19 +6035,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
         </is>
       </c>
       <c r="I110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
         </is>
       </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
+          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6067,18 +6063,18 @@
       </c>
       <c r="B111" s="21" t="inlineStr">
         <is>
-          <t>分割</t>
+          <t>互聯網</t>
         </is>
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>請確保在 SAP 應用程式層和 DBMS 層中使用的 VM 上啟用了 Azure 加速網路。</t>
+          <t>若要防止數據洩露，請使用 Azure 專用連結安全地訪問平臺即服務資源，例如 Azure Blob 存儲、Azure 檔存儲、Azure Data Lake Storage Gen2、Azure 數據工廠等。Azure 專用終結點還有助於保護 VNet 與 Azure 存儲、Azure 備份等服務之間的流量。VNet 與啟用專用終結點的服務之間的流量通過 Microsoft 全球網路傳輸，從而防止其暴露在公共 Internet 上。</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6089,19 +6085,19 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6122,13 +6118,13 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>請確保將 Azure 負載均衡器的內部部署設置為使用直接伺服器返回 （DSR）。當內部負載平衡器配置用於 DBMS 層上的高可用性配置時，此設置將減少延遲。</t>
+          <t>請確保在 SAP 應用程式和 DBMS 層中使用的 VM 上啟用了 Azure 加速網路。</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
       <c r="E112" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -6139,19 +6135,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
         </is>
       </c>
       <c r="I112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
         </is>
       </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
+          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6172,7 +6168,7 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>可以使用應用程式安全組 （ASG） 和 NSG 規則在 SAP 應用程式層和 DBMS 層之間定義網路安全存取控制清單。ASG 對虛擬機進行分組以説明管理其安全性。</t>
+          <t>請確保將 Azure 負載均衡器的內部部署設置為使用直接伺服器返回 （DSR）。當內部負載均衡器配置用於 DBMS 層上的高可用性配置時，此設置將減少延遲。</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
@@ -6189,19 +6185,19 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
         </is>
       </c>
       <c r="I113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
+          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
+          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6222,13 +6218,13 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>不支援將 SAP 應用程式層和 SAP DBMS 放置在未對等互連的不同 Azure VNet 中。</t>
+          <t>可以使用應用程式安全組 （ASG） 和 NSG 規則在 SAP 應用程式層和 DBMS 層之間定義網路安全存取控制清單。ASG 對虛擬機進行分組，以説明管理其安全性。</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
       <c r="E114" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6239,19 +6235,19 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
         </is>
       </c>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
+          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6272,13 +6268,13 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>為了實現 SAP 應用程式的最佳網路延遲，請考慮使用 Azure 鄰近放置組。</t>
+          <t>不支援將 SAP 應用程式層和 SAP DBMS 放置在未對等互連的不同 Azure VNet 中。</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
       <c r="E115" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6289,19 +6285,19 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+          <t>https://me.sap.com/notes/2015553</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
+          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6322,13 +6318,13 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>完全不支援運行在本地和 Azure 之間拆分的 SAP 應用程式伺服器層和 DBMS 層。這兩個層都需要完全駐留在本地或 Azure 中。</t>
+          <t>若要優化 SAP 應用程式的網路延遲，請考慮使用 Azure 鄰近放置組。</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
       <c r="E116" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -6339,19 +6335,19 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
+          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6372,7 +6368,7 @@
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>不建議將 SAP 系統的資料庫管理系統 （DBMS） 和應用程式層託管在不同的 VNet 中，並將它們與 VNet 對等互連連接，因為層之間的過多網路流量可能會產生大量成本。建議使用 Azure 虛擬網路中的子網來分隔 SAP 應用程式層和 DBMS 層。</t>
+          <t>根本不支援在本地和 Azure 之間運行 SAP Application Server 層和 DBMS 層拆分。這兩個層都需要完全駐留在本地或 Azure 中。</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
@@ -6401,7 +6397,7 @@
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
+          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6422,7 +6418,7 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>如果在 Linux 客戶機作業系統中使用負載均衡器，請檢查 Linux 網路參數 net.ipv4.tcp_timestamps 是否設置為 0。</t>
+          <t>不建議將資料庫管理系統 （DBMS） 和 SAP 系統的應用程式層託管在不同的 VNet 中，並將它們與 VNet 對等互連連接，因為層之間的過多網路流量可能會產生大量成本。建議使用 Azure 虛擬網路中的子網來分隔 SAP 應用程式層和 DBMS 層。</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
@@ -6439,19 +6435,19 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
+          <t>https://me.sap.com/notes/2015553</t>
         </is>
       </c>
       <c r="I118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
+          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6472,13 +6468,13 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>對於 SAP RISE/ECS 部署，虛擬對等互連是與客戶現有 Azure 環境建立連接的首選方式。SAP VNet 和客戶 VNet 都受網路安全組 （NSG） 保護，從而通過 VNet 對等互連在 SAP 和資料庫埠上進行通信</t>
+          <t>如果將負載均衡器與Linux客戶機作業系統配合使用，請檢查Linux網路參數 net.ipv4.tcp_timestamps是否設置為0。</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
       <c r="E119" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -6489,14 +6485,19 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
+          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6507,17 +6508,17 @@
     <row r="120" ht="16.5" customHeight="1">
       <c r="A120" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>網路拓撲和連接</t>
         </is>
       </c>
       <c r="B120" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>分割</t>
         </is>
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>如果在 Azure、本地或其他雲環境中運行 Windows 和 Linux VM，則可以使用 Azure 自動化中的更新管理中心來管理作業系統更新，包括安全修補程式。</t>
+          <t>對於 SAP RISE/ECS 部署，虛擬對等互連是與客戶現有 Azure 環境建立連接的首選方式。SAP vnet 和客戶 vnet 都受網路安全組 （NSG） 保護，從而通過 VNet 對等互連在 SAP 和資料庫埠上進行通信</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
@@ -6534,19 +6535,15 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
-        </is>
-      </c>
-      <c r="I120" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
+        </is>
+      </c>
+      <c r="I120" s="15" t="n"/>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
+          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6557,23 +6554,23 @@
     <row r="121" ht="16.5" customHeight="1">
       <c r="A121" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>卓越運營</t>
         </is>
       </c>
       <c r="B121" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>請定期查看 SAP 安全 OSS 說明，因為 SAP 會發佈高度關鍵的安全補丁或熱修復程式，需要立即採取措施來保護 SAP 系統。</t>
+          <t>查看 Azure VM 的 SAP HANA 資料庫備份。</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
       <c r="E121" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6584,19 +6581,15 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
-        </is>
-      </c>
-      <c r="I121" s="15" t="inlineStr">
-        <is>
-          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
+        </is>
+      </c>
+      <c r="I121" s="15" t="n"/>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
+          <t>ff5136bd-dcf1-4d2b-ae52-39333efdf45a</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6607,23 +6600,23 @@
     <row r="122" ht="16.5" customHeight="1">
       <c r="A122" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>卓越運營</t>
         </is>
       </c>
       <c r="B122" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>對於 SQL Server 上的 SAP，可以禁用 SQL Server 系統管理員帳戶，因為 SQL Server 上的 SAP 系統不使用該帳戶。在禁用原始系統管理員帳戶之前，請確保具有系統管理員許可權的其他使用者可以訪問伺服器。</t>
+          <t>查看用於 SAP 的 Site Recovery 內置監視。</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6634,7 +6627,7 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
         </is>
       </c>
       <c r="I122" s="15" t="n"/>
@@ -6642,7 +6635,7 @@
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
+          <t>cafde29d-a0af-4bcd-87c0-0f299d63f0e8</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6653,17 +6646,17 @@
     <row r="123" ht="16.5" customHeight="1">
       <c r="A123" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>卓越運營</t>
         </is>
       </c>
       <c r="B123" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>禁用xp_cmdshell。SQL Server 功能xp_cmdshell啟用 SQL Server 內部作業系統命令行介面。這是安全審計中的潛在風險。</t>
+          <t>查看監視 SAP HANA 系統環境指南。</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
@@ -6680,19 +6673,15 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
-        </is>
-      </c>
-      <c r="I123" s="15" t="inlineStr">
-        <is>
-          <t>https://me.sap.com/notes/3019299/E</t>
-        </is>
-      </c>
+          <t>https://help.sap.com/docs/SAP_HANA_PLATFORM/c4d7c773af4a4e5dbebb6548d6e2d4f4/e3111d2ebb5710149510cc120646bf3f.html?locale=en-US</t>
+        </is>
+      </c>
+      <c r="I123" s="15" t="n"/>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
+          <t>82d7b8de-d3f1-44a0-830b-38e200e82acf</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6703,23 +6692,23 @@
     <row r="124" ht="16.5" customHeight="1">
       <c r="A124" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>卓越運營</t>
         </is>
       </c>
       <c r="B124" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>在 Azure 上加密 SAP HANA 資料庫伺服器使用 SAP HANA 本機加密技術。此外，如果在 Azure 上使用 SQL Server，請使用透明數據加密 （TDE） 來保護數據和日誌檔，並確保備份也已加密。</t>
+          <t>查看 Azure Linux VM 中的 Oracle 資料庫備份策略。</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
       <c r="E124" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -6730,19 +6719,15 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
-        </is>
-      </c>
-      <c r="I124" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/oracle-database-backup-strategies</t>
+        </is>
+      </c>
+      <c r="I124" s="15" t="n"/>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
+          <t>c823873a-2bec-4c2a-b684-a1ce8ae80efd</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6753,17 +6738,17 @@
     <row r="125" ht="16.5" customHeight="1">
       <c r="A125" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>卓越運營</t>
         </is>
       </c>
       <c r="B125" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>已為所有 Azure 資源管理器和經典記憶體啟用 Azure 儲存加密，並且無法禁用。由於數據預設是加密的，因此無需修改代碼或應用程式即可使用 Azure 儲存加密。</t>
+          <t>查看 Azure Blob 儲存與 SQL Server 2016 的配合。</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
@@ -6780,19 +6765,15 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
-        </is>
-      </c>
-      <c r="I125" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/sql/relational-databases/tutorial-use-azure-blob-storage-service-with-sql-server-2016?view=sql-server-ver16</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="n"/>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
+          <t>2943b6d8-1d31-4e19-ade7-78e6b26d1962</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6803,23 +6784,23 @@
     <row r="126" ht="16.5" customHeight="1">
       <c r="A126" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>卓越運營</t>
         </is>
       </c>
       <c r="B126" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Key Vault 儲存機密和憑據</t>
+          <t>查看 Azure VM 自動備份 v2 的使用方式。</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
       <c r="E126" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -6830,19 +6811,14 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/azure-sql/virtual-machines/windows/automated-backup?view=azuresql</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
+          <t>b82e650f-676d-417d-994d-fc33ca54ec14</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6853,23 +6829,23 @@
     <row r="127" ht="16.5" customHeight="1">
       <c r="A127" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>卓越運營</t>
         </is>
       </c>
       <c r="B127" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>建議在成功部署后鎖定 Azure 資源，以防止未經授權的更改。還可以使用自定義的 Azure 策略（自定義角色）在每個訂閱的基礎上強制實施 LOCK 約束和規則。</t>
+          <t>使用進階磁碟時開啟M系列的寫入加速器（V1）</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
       <c r="E127" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -6878,21 +6854,12 @@
         </is>
       </c>
       <c r="G127" s="21" t="n"/>
-      <c r="H127" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
-        </is>
-      </c>
+      <c r="H127" s="15" t="n"/>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
+          <t>347c2dcc-e6eb-4b04-80c5-628b171aa62d</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6903,17 +6870,17 @@
     <row r="128" ht="16.5" customHeight="1">
       <c r="A128" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>性能</t>
         </is>
       </c>
       <c r="B128" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>預配啟用軟刪除和清除策略的 Azure Key Vault，以允許對已刪除物件進行保留保護。</t>
+          <t>測試可用性區域延遲。</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
@@ -6930,19 +6897,14 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+          <t>b96512cf-996f-4b17-b9b8-6b16db1a2a94</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6953,23 +6915,23 @@
     <row r="129" ht="16.5" customHeight="1">
       <c r="A129" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>性能</t>
         </is>
       </c>
       <c r="B129" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>根據現有要求、法規和合規性控制（內部/外部） - 確定所需的 Azure 策略和 Azure RBAC 角色</t>
+          <t>為所有 SAP 元件啟動 SAP EarlyWatch Alert。</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
       <c r="E129" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -6980,19 +6942,19 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
+          <t>https://support.sap.com/en/offerings-programs/support-services/earlywatch-alert.html</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
+          <t>https://help.sap.com/docs/SUPPORT_CONTENT/techops/3362700736.html</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+          <t>9fd7ffd4-da11-49f6-a374-8d03e94c511d</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -7003,23 +6965,23 @@
     <row r="130" ht="16.5" customHeight="1">
       <c r="A130" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>性能</t>
         </is>
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>在 SAP 環境中啟用 Microsoft Defender for Endpoint 時，建議排除 DBMS 伺服器上的數據和日誌檔，而不是面向所有伺服器。在排除目標檔時，請遵循 DBMS 供應商的建議。</t>
+          <t>使用 SAP ABAPMeter 報表 /SSA/CAT 查看 SAP 應用程式伺服器到資料庫伺服器的延遲。</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
       <c r="E130" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -7030,19 +6992,19 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/sap-on-azure-general-update-march-2019/ba-p/377456</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+          <t>https://me.sap.com/notes/0002879613</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+          <t>b9b140cf-413a-483d-aad2-8802c4e3c017</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7053,23 +7015,23 @@
     <row r="131" ht="16.5" customHeight="1">
       <c r="A131" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>性能</t>
         </is>
       </c>
       <c r="B131" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>委派具有 Microsoft Defender for Cloud 實時訪問許可權的 SAP 管理員自定義角色。</t>
+          <t>查看使用 CCMS 的 SQL Server 性能監視。</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
       <c r="E131" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -7078,21 +7040,12 @@
         </is>
       </c>
       <c r="G131" s="21" t="n"/>
-      <c r="H131" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
-        </is>
-      </c>
+      <c r="H131" s="15" t="n"/>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+          <t>62fbf0f8-51db-49e1-a961-bb5df7a35f80</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7103,23 +7056,23 @@
     <row r="132" ht="16.5" customHeight="1">
       <c r="A132" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>性能</t>
         </is>
       </c>
       <c r="B132" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>通過將第三方安全產品與用於 DIAG （SAP GUI）、RFC 和用於 HTTPS 的 SPNEGO 的安全網路通信 （SNC） 集成，對傳輸中的數據進行加密</t>
+          <t>測試 SAP 應用程式層 VM 和 DBMS VM （NIPING） 之間的網路延遲。</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
       <c r="E132" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -7130,19 +7083,19 @@
       <c r="G132" s="21" t="n"/>
       <c r="H132" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://me.sap.com/notes/500235</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
+          <t>https://me.sap.com/notes/1100926/E</t>
         </is>
       </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+          <t>35709da7-fc7d-4efe-bb20-2e91547b7390</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7153,17 +7106,17 @@
     <row r="133" ht="16.5" customHeight="1">
       <c r="A133" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>性能</t>
         </is>
       </c>
       <c r="B133" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>預設使用 Microsoft 管理的金鑰以實現主體加密功能，並在需要時使用客戶管理的金鑰。</t>
+          <t>查看 SAP HANA Studio 警報。</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7180,19 +7133,14 @@
       <c r="G133" s="21" t="n"/>
       <c r="H133" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/en-us/azure/sap/large-instances/hana-monitor-troubleshoot</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+          <t>9e9bb4c8-e934-4e4b-a13c-6f7c7c38eb43</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7203,23 +7151,23 @@
     <row r="134" ht="16.5" customHeight="1">
       <c r="A134" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>性能</t>
         </is>
       </c>
       <c r="B134" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>每個應用程式、每個環境、每個區域使用 Azure Key Vault。</t>
+          <t>使用 HANA_Configuration_Minichecks 執行 SAP HANA 執行狀況檢查。</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
       <c r="E134" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -7230,19 +7178,14 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://me.sap.com/notes/1969700</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+          <t>f1a92ab5-9509-4b57-86ff-b0ade361b694</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7258,18 +7201,18 @@
       </c>
       <c r="B135" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>若要控制和管理非 HANA Windows 和非 Windows 作業系統的磁碟加密密鑰和機密，請使用 Azure Key Vault。Azure Key Vault 不支援 SAP HANA，因此必須使用 SAP ABAP 或 SSH 密鑰等備用方法。</t>
+          <t>如果在 Azure、本地或其他雲環境中運行 Windows 和 Linux VM，則可以使用 Azure 自動化中的更新管理中心來管理作業系統更新，包括安全修補程式。</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
       <c r="E135" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -7280,19 +7223,19 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7308,12 +7251,12 @@
       </c>
       <c r="B136" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>定期查看 SAP 安全 OSS 說明，因為 SAP 會發佈高度關鍵的安全補丁或熱修復程式，需要立即採取行動來保護 SAP 系統。</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
@@ -7330,14 +7273,19 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7353,18 +7301,18 @@
       </c>
       <c r="B137" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>為 Azure 上的 SAP 分支訂閱自定義基於角色的訪問控制 （RBAC） 角色，以避免與網路相關的意外更改</t>
+          <t>對於 SQL Server 上的 SAP，可以禁用 SQL Server 系統管理員帳戶，因為 SQL Server 上的 SAP 系統不使用該帳戶。在禁用原始系統管理員帳戶之前，請確保具有系統管理員許可權的其他使用者可以訪問伺服器。</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
       <c r="E137" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -7375,19 +7323,14 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7403,12 +7346,12 @@
       </c>
       <c r="B138" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>將 DMZ 和 NVA 與 SAP 資產的其餘部分隔離開來，配置 Azure 專用連結，並安全地管理和控制 Azure 上的 SAP 資源</t>
+          <t>禁用xp_cmdshell。SQL Server 功能xp_cmdshell啟用 SQL Server 內部作業系統命令行介面。這是安全審計中的潛在風險。</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
@@ -7425,19 +7368,19 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+          <t>https://me.sap.com/notes/3019299/E</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7453,18 +7396,18 @@
       </c>
       <c r="B139" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>請考慮在 Azure 上使用 Microsoft 反惡意軟體來保護虛擬機免受惡意檔、廣告軟體和其他威脅的侵害。</t>
+          <t>加密 Azure 上的 SAP HANA 資料庫伺服器使用 SAP HANA 本機加密技術。此外，如果在 Azure 上使用 SQL Server，請使用透明數據加密 （TDE） 來保護數據和日誌檔，並確保備份也已加密。</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
       <c r="E139" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -7475,19 +7418,19 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7503,18 +7446,18 @@
       </c>
       <c r="B140" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>若要獲得更強大的保護，請考慮使用 Microsoft Defender for Endpoint。</t>
+          <t>為所有 Azure 資源管理器和經典記憶體啟用了 Azure 儲存加密，並且無法禁用。由於預設情況下數據是加密的，因此無需修改代碼或應用程式即可使用 Azure 儲存加密。</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
       <c r="E140" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7525,19 +7468,19 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7553,12 +7496,12 @@
       </c>
       <c r="B141" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>通過將所有流量傳遞到中心虛擬網路（通過虛擬網路對等互連連接到分支網路），將 SAP 應用程式和資料庫伺服器與 Internet 或本地網路隔離開來。對等互連虛擬網路保證 Azure 上的 SAP 解決方案與公共 Internet 隔離。</t>
+          <t>使用 Azure Key Vault 儲存機密和憑據</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
@@ -7575,19 +7518,19 @@
       <c r="G141" s="21" t="n"/>
       <c r="H141" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7603,18 +7546,18 @@
       </c>
       <c r="B142" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>對於面向 Internet 的應用程式（如 SAP Fiori），請確保在保持安全級別的同時，按應用程式要求分配負載。對於第 7 層安全性，可以使用 Azure 市場中提供的第三方 Web 應用程式防火牆 （WAF）。</t>
+          <t>建議在成功部署后鎖定 Azure 資源，以防止未經授權的更改。還可以使用自定義的 Azure 策略（自定義角色）在每個訂閱的基礎上強制實施 LOCK 約束和規則。</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
       <c r="E142" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7625,19 +7568,19 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7653,12 +7596,12 @@
       </c>
       <c r="B143" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>若要在用於 SAP 解決方案的 Azure Monitor 中啟用安全通信，可以選擇使用根證書或伺服器證書。我們強烈建議您使用根證書。</t>
+          <t>預配啟用軟刪除和清除策略的 Azure Key Vault，以允許對已刪除物件進行保留保護。</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
@@ -7675,19 +7618,19 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7696,240 +7639,745 @@
       <c r="P143" s="25" t="n"/>
     </row>
     <row r="144" ht="16.5" customHeight="1">
-      <c r="A144" s="21" t="n"/>
-      <c r="B144" s="21" t="n"/>
-      <c r="C144" s="21" t="n"/>
+      <c r="A144" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理與合規性</t>
+        </is>
+      </c>
+      <c r="B144" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C144" s="21" t="inlineStr">
+        <is>
+          <t>根據現有要求、法規和合規性控制（內部/外部） - 確定所需的 Azure 策略和 Azure RBAC 角色</t>
+        </is>
+      </c>
       <c r="D144" s="21" t="n"/>
-      <c r="E144" s="21" t="n"/>
+      <c r="E144" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G144" s="21" t="n"/>
-      <c r="H144" s="15" t="n"/>
+      <c r="H144" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
-      <c r="L144" s="25" t="n"/>
+      <c r="L144" s="25" t="inlineStr">
+        <is>
+          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+        </is>
+      </c>
       <c r="M144" s="25" t="n"/>
       <c r="N144" s="25" t="n"/>
       <c r="O144" s="25" t="n"/>
       <c r="P144" s="25" t="n"/>
     </row>
     <row r="145" ht="16.5" customHeight="1">
-      <c r="A145" s="21" t="n"/>
-      <c r="B145" s="21" t="n"/>
-      <c r="C145" s="21" t="n"/>
+      <c r="A145" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理與合規性</t>
+        </is>
+      </c>
+      <c r="B145" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C145" s="21" t="inlineStr">
+        <is>
+          <t>在 SAP 環境中啟用 Microsoft Defender for Endpoint 時，建議排除 DBMS 伺服器上的數據和日誌檔，而不是面向所有伺服器。排除目標檔時，請遵循 DBMS 供應商的建議。</t>
+        </is>
+      </c>
       <c r="D145" s="21" t="n"/>
-      <c r="E145" s="21" t="n"/>
+      <c r="E145" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G145" s="21" t="n"/>
-      <c r="H145" s="15" t="n"/>
+      <c r="H145" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+        </is>
+      </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
-      <c r="L145" s="25" t="n"/>
+      <c r="L145" s="25" t="inlineStr">
+        <is>
+          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+        </is>
+      </c>
       <c r="M145" s="25" t="n"/>
       <c r="N145" s="25" t="n"/>
       <c r="O145" s="25" t="n"/>
       <c r="P145" s="25" t="n"/>
     </row>
     <row r="146" ht="16.5" customHeight="1">
-      <c r="A146" s="21" t="n"/>
-      <c r="B146" s="21" t="n"/>
-      <c r="C146" s="21" t="n"/>
+      <c r="A146" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理與合規性</t>
+        </is>
+      </c>
+      <c r="B146" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C146" s="21" t="inlineStr">
+        <is>
+          <t>委派具有 Microsoft Defender for Cloud 實時訪問許可權的 SAP 管理員自定義角色。</t>
+        </is>
+      </c>
       <c r="D146" s="21" t="n"/>
-      <c r="E146" s="21" t="n"/>
+      <c r="E146" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G146" s="21" t="n"/>
-      <c r="H146" s="15" t="n"/>
+      <c r="H146" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J146" s="22" t="n"/>
       <c r="K146" s="22" t="n"/>
-      <c r="L146" s="25" t="n"/>
+      <c r="L146" s="25" t="inlineStr">
+        <is>
+          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+        </is>
+      </c>
       <c r="M146" s="25" t="n"/>
       <c r="N146" s="25" t="n"/>
       <c r="O146" s="25" t="n"/>
       <c r="P146" s="25" t="n"/>
     </row>
     <row r="147" ht="16.5" customHeight="1">
-      <c r="A147" s="21" t="n"/>
-      <c r="B147" s="21" t="n"/>
-      <c r="C147" s="21" t="n"/>
+      <c r="A147" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理與合規性</t>
+        </is>
+      </c>
+      <c r="B147" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C147" s="21" t="inlineStr">
+        <is>
+          <t>通過將第三方安全產品與 DIAG （SAP GUI）、RFC 和 SPNEGO for HTTPS 的安全網路通信 （SNC） 集成，對傳輸中的數據進行加密</t>
+        </is>
+      </c>
       <c r="D147" s="21" t="n"/>
-      <c r="E147" s="21" t="n"/>
+      <c r="E147" s="21" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G147" s="21" t="n"/>
-      <c r="H147" s="15" t="n"/>
+      <c r="H147" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
+        </is>
+      </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
-      <c r="L147" s="25" t="n"/>
+      <c r="L147" s="25" t="inlineStr">
+        <is>
+          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+        </is>
+      </c>
       <c r="M147" s="25" t="n"/>
       <c r="N147" s="25" t="n"/>
       <c r="O147" s="25" t="n"/>
       <c r="P147" s="25" t="n"/>
     </row>
     <row r="148" ht="16.5" customHeight="1">
-      <c r="A148" s="21" t="n"/>
-      <c r="B148" s="21" t="n"/>
-      <c r="C148" s="21" t="n"/>
+      <c r="A148" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理與合規性</t>
+        </is>
+      </c>
+      <c r="B148" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C148" s="21" t="inlineStr">
+        <is>
+          <t>對於主體加密功能，預設使用 Microsoft 管理的金鑰，並在需要時使用客戶管理的密鑰。</t>
+        </is>
+      </c>
       <c r="D148" s="21" t="n"/>
-      <c r="E148" s="21" t="n"/>
+      <c r="E148" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G148" s="21" t="n"/>
-      <c r="H148" s="15" t="n"/>
+      <c r="H148" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
-      <c r="L148" s="25" t="n"/>
+      <c r="L148" s="25" t="inlineStr">
+        <is>
+          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+        </is>
+      </c>
       <c r="M148" s="25" t="n"/>
       <c r="N148" s="25" t="n"/>
       <c r="O148" s="25" t="n"/>
       <c r="P148" s="25" t="n"/>
     </row>
     <row r="149" ht="16.5" customHeight="1">
-      <c r="A149" s="21" t="n"/>
-      <c r="B149" s="21" t="n"/>
-      <c r="C149" s="21" t="n"/>
+      <c r="A149" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理與合規性</t>
+        </is>
+      </c>
+      <c r="B149" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C149" s="21" t="inlineStr">
+        <is>
+          <t>對每個應用程式、每個環境、每個區域使用 Azure Key Vault。</t>
+        </is>
+      </c>
       <c r="D149" s="21" t="n"/>
-      <c r="E149" s="21" t="n"/>
+      <c r="E149" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G149" s="21" t="n"/>
-      <c r="H149" s="15" t="n"/>
+      <c r="H149" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
-      <c r="L149" s="25" t="n"/>
+      <c r="L149" s="25" t="inlineStr">
+        <is>
+          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+        </is>
+      </c>
       <c r="M149" s="25" t="n"/>
       <c r="N149" s="25" t="n"/>
       <c r="O149" s="25" t="n"/>
       <c r="P149" s="25" t="n"/>
     </row>
     <row r="150" ht="16.5" customHeight="1">
-      <c r="A150" s="21" t="n"/>
-      <c r="B150" s="21" t="n"/>
-      <c r="C150" s="21" t="n"/>
+      <c r="A150" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理與合規性</t>
+        </is>
+      </c>
+      <c r="B150" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C150" s="21" t="inlineStr">
+        <is>
+          <t>若要控制和管理非 HANA Windows 和非 Windows 作業系統的磁碟加密密鑰和機密，請使用 Azure Key Vault。Azure Key Vault 不支援 SAP HANA，因此必須使用 SAP ABAP 或 SSH 密鑰等替代方法。</t>
+        </is>
+      </c>
       <c r="D150" s="21" t="n"/>
-      <c r="E150" s="21" t="n"/>
+      <c r="E150" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G150" s="21" t="n"/>
-      <c r="H150" s="15" t="n"/>
+      <c r="H150" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
-      <c r="L150" s="25" t="n"/>
+      <c r="L150" s="25" t="inlineStr">
+        <is>
+          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+        </is>
+      </c>
       <c r="M150" s="25" t="n"/>
       <c r="N150" s="25" t="n"/>
       <c r="O150" s="25" t="n"/>
       <c r="P150" s="25" t="n"/>
     </row>
     <row r="151" ht="16.5" customHeight="1">
-      <c r="A151" s="21" t="n"/>
-      <c r="B151" s="21" t="n"/>
-      <c r="C151" s="21" t="n"/>
+      <c r="A151" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理與合規性</t>
+        </is>
+      </c>
+      <c r="B151" s="21" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C151" s="21" t="inlineStr">
+        <is>
+          <t>&amp;nbsp</t>
+        </is>
+      </c>
       <c r="D151" s="21" t="n"/>
-      <c r="E151" s="21" t="n"/>
+      <c r="E151" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G151" s="21" t="n"/>
-      <c r="H151" s="15" t="n"/>
+      <c r="H151" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
-      <c r="L151" s="25" t="n"/>
+      <c r="L151" s="25" t="inlineStr">
+        <is>
+          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+        </is>
+      </c>
       <c r="M151" s="25" t="n"/>
       <c r="N151" s="25" t="n"/>
       <c r="O151" s="25" t="n"/>
       <c r="P151" s="25" t="n"/>
     </row>
     <row r="152" ht="16.5" customHeight="1">
-      <c r="A152" s="21" t="n"/>
-      <c r="B152" s="21" t="n"/>
-      <c r="C152" s="21" t="n"/>
+      <c r="A152" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理與合規性</t>
+        </is>
+      </c>
+      <c r="B152" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C152" s="21" t="inlineStr">
+        <is>
+          <t>為 Azure 上的 SAP 分支訂閱自定義基於角色的訪問控制 （RBAC） 角色，以避免與網路相關的意外更改</t>
+        </is>
+      </c>
       <c r="D152" s="21" t="n"/>
-      <c r="E152" s="21" t="n"/>
+      <c r="E152" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G152" s="21" t="n"/>
-      <c r="H152" s="15" t="n"/>
+      <c r="H152" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
-      <c r="L152" s="25" t="n"/>
+      <c r="L152" s="25" t="inlineStr">
+        <is>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+        </is>
+      </c>
       <c r="M152" s="25" t="n"/>
       <c r="N152" s="25" t="n"/>
       <c r="O152" s="25" t="n"/>
       <c r="P152" s="25" t="n"/>
     </row>
     <row r="153" ht="16.5" customHeight="1">
-      <c r="A153" s="21" t="n"/>
-      <c r="B153" s="21" t="n"/>
-      <c r="C153" s="21" t="n"/>
+      <c r="A153" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理與合規性</t>
+        </is>
+      </c>
+      <c r="B153" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C153" s="21" t="inlineStr">
+        <is>
+          <t>將 DMZ 和 NVA 與 SAP 資產的其餘部分隔離，配置 Azure 專用連結，並安全地管理和控制 Azure 上的 SAP 資源</t>
+        </is>
+      </c>
       <c r="D153" s="21" t="n"/>
-      <c r="E153" s="21" t="n"/>
+      <c r="E153" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G153" s="21" t="n"/>
-      <c r="H153" s="15" t="n"/>
+      <c r="H153" s="15" t="inlineStr">
+        <is>
+          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+        </is>
+      </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
-      <c r="L153" s="25" t="n"/>
+      <c r="L153" s="25" t="inlineStr">
+        <is>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+        </is>
+      </c>
       <c r="M153" s="25" t="n"/>
       <c r="N153" s="25" t="n"/>
       <c r="O153" s="25" t="n"/>
       <c r="P153" s="25" t="n"/>
     </row>
     <row r="154" ht="16.5" customHeight="1">
-      <c r="A154" s="21" t="n"/>
-      <c r="B154" s="21" t="n"/>
-      <c r="C154" s="21" t="n"/>
+      <c r="A154" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理與合規性</t>
+        </is>
+      </c>
+      <c r="B154" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C154" s="21" t="inlineStr">
+        <is>
+          <t>請考慮在 Azure 上使用 Microsoft 反惡意軟體來保護虛擬機免受惡意檔、廣告軟體和其他威脅的侵害。</t>
+        </is>
+      </c>
       <c r="D154" s="21" t="n"/>
-      <c r="E154" s="21" t="n"/>
+      <c r="E154" s="21" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G154" s="21" t="n"/>
-      <c r="H154" s="15" t="n"/>
+      <c r="H154" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+        </is>
+      </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
-      <c r="L154" s="25" t="n"/>
+      <c r="L154" s="25" t="inlineStr">
+        <is>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+        </is>
+      </c>
       <c r="M154" s="25" t="n"/>
       <c r="N154" s="25" t="n"/>
       <c r="O154" s="25" t="n"/>
       <c r="P154" s="25" t="n"/>
     </row>
     <row r="155" ht="16.5" customHeight="1">
-      <c r="A155" s="21" t="n"/>
-      <c r="B155" s="21" t="n"/>
-      <c r="C155" s="21" t="n"/>
+      <c r="A155" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理與合規性</t>
+        </is>
+      </c>
+      <c r="B155" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C155" s="21" t="inlineStr">
+        <is>
+          <t>若要獲得更強大的保護，請考慮使用 Microsoft Defender for Endpoint。</t>
+        </is>
+      </c>
       <c r="D155" s="21" t="n"/>
-      <c r="E155" s="21" t="n"/>
+      <c r="E155" s="21" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G155" s="21" t="n"/>
-      <c r="H155" s="15" t="n"/>
+      <c r="H155" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
-      <c r="L155" s="25" t="n"/>
+      <c r="L155" s="25" t="inlineStr">
+        <is>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+        </is>
+      </c>
       <c r="M155" s="25" t="n"/>
       <c r="N155" s="25" t="n"/>
       <c r="O155" s="25" t="n"/>
       <c r="P155" s="25" t="n"/>
     </row>
     <row r="156" ht="16.5" customHeight="1">
-      <c r="A156" s="21" t="n"/>
-      <c r="B156" s="21" t="n"/>
-      <c r="C156" s="21" t="n"/>
+      <c r="A156" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理與合規性</t>
+        </is>
+      </c>
+      <c r="B156" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C156" s="21" t="inlineStr">
+        <is>
+          <t>通過中心虛擬網路傳遞所有流量，將 SAP 應用程式和資料庫伺服器與 Internet 或本地網路隔離開來，該中心虛擬網路通過虛擬網路對等互連連接到分支網路。對等互連虛擬網路保證 Azure 上的 SAP 解決方案與公共 Internet 隔離。</t>
+        </is>
+      </c>
       <c r="D156" s="21" t="n"/>
-      <c r="E156" s="21" t="n"/>
+      <c r="E156" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G156" s="21" t="n"/>
-      <c r="H156" s="15" t="n"/>
+      <c r="H156" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
-      <c r="L156" s="25" t="n"/>
+      <c r="L156" s="25" t="inlineStr">
+        <is>
+          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+        </is>
+      </c>
       <c r="M156" s="25" t="n"/>
       <c r="N156" s="25" t="n"/>
       <c r="O156" s="25" t="n"/>
       <c r="P156" s="25" t="n"/>
     </row>
     <row r="157" ht="16.5" customHeight="1">
-      <c r="A157" s="21" t="n"/>
-      <c r="B157" s="21" t="n"/>
-      <c r="C157" s="21" t="n"/>
+      <c r="A157" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理與合規性</t>
+        </is>
+      </c>
+      <c r="B157" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C157" s="21" t="inlineStr">
+        <is>
+          <t>對於面向 Internet 的應用程式（如 SAP Fiori），請確保根據應用程式要求分配負載，同時保持安全級別。對於第 7 層安全性，可以使用 Azure 市場中提供的第三方 Web 應用程式防火牆 （WAF）。</t>
+        </is>
+      </c>
       <c r="D157" s="21" t="n"/>
-      <c r="E157" s="21" t="n"/>
+      <c r="E157" s="21" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G157" s="21" t="n"/>
-      <c r="H157" s="15" t="n"/>
+      <c r="H157" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
-      <c r="L157" s="25" t="n"/>
+      <c r="L157" s="25" t="inlineStr">
+        <is>
+          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+        </is>
+      </c>
       <c r="M157" s="25" t="n"/>
       <c r="N157" s="25" t="n"/>
       <c r="O157" s="25" t="n"/>
       <c r="P157" s="25" t="n"/>
     </row>
     <row r="158" ht="16.5" customHeight="1">
-      <c r="A158" s="21" t="n"/>
-      <c r="B158" s="21" t="n"/>
-      <c r="C158" s="21" t="n"/>
+      <c r="A158" s="21" t="inlineStr">
+        <is>
+          <t>安全性、治理與合規性</t>
+        </is>
+      </c>
+      <c r="B158" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C158" s="21" t="inlineStr">
+        <is>
+          <t>若要在用於 SAP 解決方案的 Azure Monitor 中啟用安全通信，可以選擇使用根證書或伺服器證書。我們強烈建議您使用根證書。</t>
+        </is>
+      </c>
       <c r="D158" s="21" t="n"/>
-      <c r="E158" s="21" t="n"/>
+      <c r="E158" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G158" s="21" t="n"/>
-      <c r="H158" s="15" t="n"/>
+      <c r="H158" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
-      <c r="L158" s="25" t="n"/>
+      <c r="L158" s="25" t="inlineStr">
+        <is>
+          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+        </is>
+      </c>
       <c r="M158" s="25" t="n"/>
       <c r="N158" s="25" t="n"/>
       <c r="O158" s="25" t="n"/>
@@ -10176,7 +10624,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F144" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F159" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -10267,7 +10715,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>標識和訪問</t>
+          <t>身份和訪問</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">

--- a/spreadsheet/macrofree/sap_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.zh-Hant.xlsx
@@ -941,7 +941,7 @@
     <row r="4" ht="17.25" customFormat="1" customHeight="1" s="5">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B4" s="4" t="n"/>
@@ -10728,6 +10728,11 @@
           <t>Use the "Import latest checklist" button to get the latest version of a review checklist</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>此檢查尚未查看</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr">
         <is>
           <t>en</t>
@@ -10750,6 +10755,11 @@
           <t>網路拓撲和連接</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>有一個與此檢查關聯的操作項</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr">
         <is>
           <t>ja</t>
@@ -10772,6 +10782,11 @@
           <t>安全性、治理與合規性</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>此檢查已通過驗證，並且沒有與之關聯的進一步操作項</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>ko</t>
@@ -10781,12 +10796,17 @@
     <row r="5">
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t>不適用</t>
+          <t>不需要</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>管理和監控</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>建議已理解，但當前需求不需要</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -10798,7 +10818,7 @@
     <row r="6">
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>不適用</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -10808,7 +10828,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Not applicable for current design</t>
+          <t>不適用於當前設計</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">

--- a/spreadsheet/macrofree/sap_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.zh-Hant.xlsx
@@ -7996,18 +7996,18 @@
       </c>
       <c r="B151" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>為 Azure 上的 SAP 分支訂閱自定義基於角色的訪問控制 （RBAC） 角色，以避免與網路相關的意外更改</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
       <c r="E151" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -8018,14 +8018,19 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -8046,7 +8051,7 @@
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>為 Azure 上的 SAP 分支訂閱自定義基於角色的訪問控制 （RBAC） 角色，以避免與網路相關的意外更改</t>
+          <t>將 DMZ 和 NVA 與 SAP 資產的其餘部分隔離，配置 Azure 專用連結，並安全地管理和控制 Azure 上的 SAP 資源</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -8063,19 +8068,19 @@
       <c r="G152" s="21" t="n"/>
       <c r="H152" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
         </is>
       </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -8096,13 +8101,13 @@
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>將 DMZ 和 NVA 與 SAP 資產的其餘部分隔離，配置 Azure 專用連結，並安全地管理和控制 Azure 上的 SAP 資源</t>
+          <t>請考慮在 Azure 上使用 Microsoft 反惡意軟體來保護虛擬機免受惡意檔、廣告軟體和其他威脅的侵害。</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
       <c r="E153" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -8113,19 +8118,19 @@
       <c r="G153" s="21" t="n"/>
       <c r="H153" s="15" t="inlineStr">
         <is>
-          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
+          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
         </is>
       </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8146,7 +8151,7 @@
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>請考慮在 Azure 上使用 Microsoft 反惡意軟體來保護虛擬機免受惡意檔、廣告軟體和其他威脅的侵害。</t>
+          <t>若要獲得更強大的保護，請考慮使用 Microsoft Defender for Endpoint。</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
@@ -8163,19 +8168,19 @@
       <c r="G154" s="21" t="n"/>
       <c r="H154" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
         </is>
       </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8196,13 +8201,13 @@
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>若要獲得更強大的保護，請考慮使用 Microsoft Defender for Endpoint。</t>
+          <t>通過中心虛擬網路傳遞所有流量，將 SAP 應用程式和資料庫伺服器與 Internet 或本地網路隔離開來，該中心虛擬網路通過虛擬網路對等互連連接到分支網路。對等互連虛擬網路保證 Azure 上的 SAP 解決方案與公共 Internet 隔離。</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
       <c r="E155" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -8213,19 +8218,19 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8246,13 +8251,13 @@
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>通過中心虛擬網路傳遞所有流量，將 SAP 應用程式和資料庫伺服器與 Internet 或本地網路隔離開來，該中心虛擬網路通過虛擬網路對等互連連接到分支網路。對等互連虛擬網路保證 Azure 上的 SAP 解決方案與公共 Internet 隔離。</t>
+          <t>對於面向 Internet 的應用程式（如 SAP Fiori），請確保根據應用程式要求分配負載，同時保持安全級別。對於第 7 層安全性，可以使用 Azure 市場中提供的第三方 Web 應用程式防火牆 （WAF）。</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
       <c r="E156" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8263,19 +8268,19 @@
       <c r="G156" s="21" t="n"/>
       <c r="H156" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
         </is>
       </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8296,13 +8301,13 @@
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>對於面向 Internet 的應用程式（如 SAP Fiori），請確保根據應用程式要求分配負載，同時保持安全級別。對於第 7 層安全性，可以使用 Azure 市場中提供的第三方 Web 應用程式防火牆 （WAF）。</t>
+          <t>若要在用於 SAP 解決方案的 Azure Monitor 中啟用安全通信，可以選擇使用根證書或伺服器證書。我們強烈建議您使用根證書。</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
       <c r="E157" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8313,19 +8318,19 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8334,50 +8339,16 @@
       <c r="P157" s="25" t="n"/>
     </row>
     <row r="158" ht="16.5" customHeight="1">
-      <c r="A158" s="21" t="inlineStr">
-        <is>
-          <t>安全性、治理與合規性</t>
-        </is>
-      </c>
-      <c r="B158" s="21" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
-      <c r="C158" s="21" t="inlineStr">
-        <is>
-          <t>若要在用於 SAP 解決方案的 Azure Monitor 中啟用安全通信，可以選擇使用根證書或伺服器證書。我們強烈建議您使用根證書。</t>
-        </is>
-      </c>
+      <c r="A158" s="21" t="n"/>
+      <c r="B158" s="21" t="n"/>
+      <c r="C158" s="21" t="n"/>
       <c r="D158" s="21" t="n"/>
-      <c r="E158" s="21" t="inlineStr">
-        <is>
-          <t>中等</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>未驗證</t>
-        </is>
-      </c>
+      <c r="E158" s="21" t="n"/>
       <c r="G158" s="21" t="n"/>
-      <c r="H158" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
-        </is>
-      </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
-        </is>
-      </c>
+      <c r="H158" s="15" t="n"/>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
-      <c r="L158" s="25" t="inlineStr">
-        <is>
-          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
-        </is>
-      </c>
+      <c r="L158" s="25" t="n"/>
       <c r="M158" s="25" t="n"/>
       <c r="N158" s="25" t="n"/>
       <c r="O158" s="25" t="n"/>
@@ -10624,7 +10595,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F159" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F158" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/sap_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.zh-Hant.xlsx
@@ -6168,7 +6168,7 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>請確保將 Azure 負載均衡器的內部部署設置為使用直接伺服器返回 （DSR）。當內部負載均衡器配置用於 DBMS 層上的高可用性配置時，此設置將減少延遲。</t>
+          <t>請確保將 Azure 負載均衡器的內部部署設置為使用直接伺服器返回 （DSR）。此設置（啟用浮動IP）將減少內部負載均衡器配置用於 DBMS 層上的高可用性配置時的延遲。</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>

--- a/spreadsheet/macrofree/sap_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.zh-Hant.xlsx
@@ -1064,12 +1064,12 @@
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>ACSS公司</t>
+          <t>原子芯 ACSS</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Azure SAP 解決方案中心 （ACSS） 是一項 Azure 產品/服務，可使 SAP 成為 Azure 上的頂級工作負載。ACSS 是一種端到端解決方案，使你能夠在 Azure 上創建和運行 SAP 系統作為統一的工作負載，並為創新提供更無縫的基礎。可以利用新的和現有的基於 Azure 的 SAP 系統的管理功能。</t>
+          <t>Azure SAP 解決方案 中心 （ACSS） 是一種 Azure 產品/服務，它使 SAP 成為 Azure 上的頂級工作負載。ACSS 是一種端到端解決方案，使你能夠在 Azure 上將 SAP 系統作為統一工作負載創建和運行，併為創新提供更無縫的基礎。您可以利用新的和現有的基於 Azure 的 SAP 系統的管理功能。</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1114,12 +1114,12 @@
       </c>
       <c r="B9" s="21" t="inlineStr">
         <is>
-          <t>SDAF型</t>
+          <t>SDAF</t>
         </is>
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Azure 支援在Linux和 Windows 中自動執行 SAP 部署。SAP 部署自動化框架是一種開源編排工具，可以部署、安裝和維護 SAP 環境。</t>
+          <t>Azure 支援在Linux和 Windows 中自動執行 SAP 部署。SAP Deployment Automation Framework 是一種開源編排工具，可以部署、安裝和維護 SAP 環境。</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1164,12 +1164,12 @@
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>備份和恢復</t>
+          <t>備份和還原</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>在符合 RTO 要求的任何時間點和時間範圍內對生產資料庫執行時間點恢復;時間點恢復通常包括操作員在DBMS層上或通過SAP刪除數據時出現的錯誤</t>
+          <t>在滿足 RTO 的任何時間和時間範圍內對生產資料庫執行時間點恢復;時間點恢復通常包括操作員錯誤地刪除 DBMS 層或透過 SAP 刪除數據</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>可以在配對區域之間複製標準存儲，但不能使用標準存儲來存儲資料庫或虛擬硬碟。您只能在使用的配對區域之間複製備份。對於所有其他數據，請使用本機 DBMS 功能（如 SQL Server Always On 或 SAP HANA 系統複製）運行複製。將 Site Recovery、rsync 或 robocopy 以及其他第三方軟體組合用於 SAP 應用程式層。</t>
+          <t>您可以在配對區域之間複製標準存儲，但不能使用標準存儲來存儲資料庫或虛擬硬碟。您只能在您使用的配對區域之間複製備份。對於所有其他數據，請使用 SQL Server Always On 或 SAP HANA 系統複製等本機 DBMS 功能運行複製。將 Site Recovery、rsync 或 robocopy 以及其他第三方軟體組合用於 SAP 應用程式層。</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>設置從本地到主要和次要 Azure 災難恢復區域的 ExpressRoute 連接。此外，作為使用 ExpressRoute 的替代方法，請考慮設置從本地到主要和輔助 Azure 災難恢復區域的 VPN 連接。</t>
+          <t>設置從本地到主要和輔助 Azure 災難恢復區域的 ExpressRoute 連接。此外，作為使用 ExpressRoute 的替代方法，請考慮設置從本地到主要和輔助 Azure 災難恢復區域的 VPN 連接。</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>跨區域複製證書、機密或密鑰等金鑰保管庫內容，以便解密DR區域中的數據。</t>
+          <t>跨區域複製金鑰保管庫內容（如證書、機密或金鑰），以便可以在DR區域中解密資料。</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>對等連接主虛擬網路和災難恢復虛擬網路。例如，對於 HANA 系統複製，需要將 SAP HANA DB 虛擬網路對等互連到災難恢復網站的 SAP HANA DB 虛擬網路。</t>
+          <t>將主虛擬網路和災難恢復虛擬網路對等互連。例如，對於 HANA 系統複製，SAP HANA DB 虛擬網路需要與災難恢復網站的 SAP HANA DB 虛擬網路對等互連。</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>如果將 Azure NetApp 檔案儲存用於 SAP 部署，則至少要在兩個區域的高級層中創建兩個 Azure NetApp 檔帳戶。</t>
+          <t>如果將 Azure NetApp Files 儲存用於 SAP 部署，則至少在兩個區域中的高級層中創建兩個 Azure NetApp Files 帳戶。</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>使用 Site Recovery 將應用程式伺服器複製到 DR 網站。Site Recovery 還可以説明將中心服務群集 VM 複製到DR網站。調用DR時，需要在DR網站上重新配置Linux Pacemaker群集（例如，替換VIP或SBD、運行 corosync.conf 等）。</t>
+          <t>使用 Site Recovery 將應用程式伺服器複製到 DR 網站。Site Recovery 還可以説明將中心服務群集 VM 複製到DR網站。調用DR時，您需要在DR網站上重新配置Linux Pacemaker集群（例如，替換VIP或SBD、運行 corosync.conf 等）。</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
@@ -1695,7 +1695,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>考慮 SAP 軟體針對單點故障的可用性。這包括應用程式中的單點故障，例如 SAP NetWeaver 和 SAP S/4HANA 架構中使用的 DBMS、SAP ABAP 和 ASCS + SCS。此外，還有其他工具，例如 SAP Web Dispatcher。</t>
+          <t>考慮 SAP 軟體的可用性，防止單點故障。這包括應用程式中的單點故障，例如 SAP NetWeaver 和 SAP S/4HANA 架構中使用的 DBMS、SAP ABAP 和 ASCS + SCS。此外，還可以使用其他工具，例如 SAP Web Dispatcher。</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>對於 SAP 和 SAP 資料庫，請考慮實現自動故障轉移群集。在 Windows 中，Windows Server 故障轉移群集支援故障轉移。在 Linux 中，Linux Pacemaker 或第三方工具（如 SIOS Protection Suite 和 Veritas InfoScale）支援故障轉移。</t>
+          <t>對於 SAP 和 SAP 資料庫，請考慮實現自動故障轉移群集。在 Windows 中，Windows Server 故障轉移群集支援故障轉移。在Linux中，Linux Pacemaker或SIOS Protection Suite 和 Veritas InfoScale 等第三方工具支援故障轉移。</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Azure 不支援主 VM 和輔助 VM 共用 DBMS 數據存儲的體系結構。對於 DBMS 層，常見的體系結構模式是同時複製資料庫，並使用與主虛擬機和輔助虛擬機使用的存儲堆疊不同的存儲堆疊。</t>
+          <t>Azure 不支援主 VM 和輔助 VM 共用 DBMS 數據存儲的體系結構。對於 DBMS 層，常見的架構模式是同時複製資料庫，並且使用與主 VM 和輔助 VM 使用的儲存堆疊不同的儲存堆疊。</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>DBMS 數據和事務/重做日誌檔存儲在 Azure 支援的塊存儲或 Azure NetApp 檔中。不支援將 Azure 檔案儲存或 Azure 高級檔儲存作為 DBMS 資料和/或使用 SAP 工作負載重做日誌檔的存儲。</t>
+          <t>DBMS 數據和事務/重做日誌檔存儲在 Azure 支援的塊存儲或 Azure NetApp 檔中。不支援將 Azure 檔案儲存或 Azure 高級檔儲存作為 SAP 工作負載的 DBMS 資料和/或重做日誌檔的存儲。</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>可以在 Windows 中將 Azure 共用磁碟用於 ASCS + SCS 元件和特定的高可用性方案。為 SAP 應用程式層元件和 DBMS 層單獨設置故障轉移群集。Azure 目前不支援將 SAP 應用程式層元件和 DBMS 層合併到一個故障轉移群集中的高可用性體系結構。</t>
+          <t>您可以在 Windows 中使用 Azure 共用磁碟，以實現 ASCS + SCS 元件和特定的高可用性方案。分別為 SAP 應用程式層元件和 DBMS 層設置故障轉移集群。Azure 目前不支援將 SAP 應用程式層元件和 DBMS 層合併到一個故障轉移群集中的高可用性體系結構。</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>SAP 應用程式層元件 （ASCS） 和 DBMS 層的大多數故障轉移群集都需要故障轉移群集的虛擬 IP 位址。 Azure 負載均衡器應處理所有其他情況的虛擬IP位址。一個設計原則是每個集群配置使用一個負載均衡器。建議使用標準版本的負載均衡器（標準負載均衡器 SKU）。</t>
+          <t>SAP 應用程式層元件 （ASCS） 和 DBMS 層的大多數故障轉移群集都需要故障轉移群集的虛擬 IP 位址。 Azure 負載均衡器應處理所有其他情況下的虛擬IP位址。一種設計原則是每個集群配置使用一個負載均衡器。我們建議您使用標準版本的負載均衡器 （Standard Load Balancer SKU）。</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>在部署高可用性基礎結構之前，請根據所選的區域確定是使用 Azure 可用性集還是可用性區域進行部署。</t>
+          <t>在部署高可用性基礎結構之前，根據您選擇的區域，確定是使用 Azure 可用性集還是可用性區域進行部署。</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>如果要滿足 SAP 元件（中央服務、應用程式伺服器和資料庫）應用程式的基礎結構 SLA，則必須為所有元件選擇相同的高可用性選項（VM、可用性集、可用性區域）。</t>
+          <t>如果要滿足 SAP 元件（中央服務、應用程式伺服器和資料庫）的應用程式的基礎設施 SLA，則必須為所有元件選擇相同的高可用性選項（VM、可用性集、可用區）。</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2140,7 +2140,7 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>不要在同一可用性集中混合使用不同角色的伺服器。將中央服務 VM、資料庫 VM、應用程式 VM 保留在自己的可用性集中</t>
+          <t>不要在同一可用性集中混合使用不同角色的伺服器。將中心服務 VM、資料庫 VM、應用程式 VM 保留在其自己的可用性集中</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
@@ -2190,7 +2190,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>除非使用鄰近放置組，否則無法在 Azure 可用性區域內部署 Azure 可用性集。</t>
+          <t>除非使用鄰近放置組，否則無法在 Azure 可用性區域中部署 Azure 可用性集。</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>創建可用性集時，請使用最大數量的容錯域和更新可用的域。例如，如果在一個可用性集中部署兩個以上的 VM，請使用最大數量的容錯域（三個）和足夠的更新域來限制潛在的物理硬體故障、網路中斷或電源中斷的影響，以及 Azure 計劃內維護。默認的容錯域數為 2，以後無法連線更改。</t>
+          <t>創建可用性集時，請使用可用的容錯域和更新域的最大數量。例如，如果您在一個可用性集中部署兩個以上的 VM，除了 Azure 計劃內維護之外，還請使用最大數量的容錯域 （三個） 和足夠的更新域，以限制潛在物理硬體故障、網路中斷或電源中斷的影響。容錯域的預設數量為 2，以後無法在線更改。</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
@@ -2382,7 +2382,7 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>根據操作系統的不同，使用以下服務之一來運行 SAP 中心服務群集。</t>
+          <t>使用以下服務之一運行 SAP Central Services 集群，具體取決於操作系統。</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2432,7 +2432,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Azure 目前不支援將 ASCS 和 DB HA 組合在同一 Linux Pacemaker 群集中;將它們分成單獨的集群。但是，最多可以將五個多個中心服務群集合併到一對 VM 中。</t>
+          <t>Azure 目前不支援在同一個 Linux Pacemaker 群集中組合 ASCS 和 DB HA;將它們分成單獨的集群。但是，您最多可以將5個多個中央服務集群組合成一對VM。</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2482,7 +2482,7 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>在可用性集或可用性區域中的高可用性對中部署兩個 VM。這些 VM 的大小應相同，並具有相同的存儲配置。</t>
+          <t>將高可用性對中的兩個 VM 部署在可用性集或可用性區域中。這些 VM 的大小應相同，並且具有相同的存儲配置。</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
@@ -2528,7 +2528,7 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Azure 支援在 Red Hat Enterprise Linux （RHEL） 上運行的同一高可用性群集上安裝和配置 SAP HANA 和 ASCS/SCS 和 ERS 實例。</t>
+          <t>Azure 支援在 Red Hat Enterprise Linux （RHEL） 上運行的同一高可用性群集上安裝和配置 SAP HANA 以及 ASCS/SCS 和 ERS 實例。</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
@@ -2578,7 +2578,7 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>在高級託管 SSD 上運行所有生產系統，並使用 Azure NetApp 檔或超級磁碟存儲。至少OS磁碟應位於高級層，以便您可以獲得更好的性能和最佳SLA。</t>
+          <t>在高級託管 SSD 上運行所有生產系統，並使用 Azure NetApp Files 或超級磁碟存儲。至少OS磁碟應位於高級層上，以便您可以獲得更好的性能和最佳SLA。</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -2628,7 +2628,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>應僅在 SAP 認證的存儲類型上運行 Azure 上的 SAP HANA。請注意，某些卷必須在某些磁碟配置（如果適用）上運行。這些配置包括啟用寫入加速器和使用高級存儲。您還需要確保在儲存上運行的檔案系統與在電腦上運行的 DBMS 相容。</t>
+          <t>應僅在 SAP 認證的存儲類型上運行 Azure 上的 SAP HANA。請注意，某些卷必須在某些磁碟配置上運行（如果適用）。這些配置包括啟用 Write Accelerator 和使用高級存儲。您還需要確保在儲存上運行的檔案系統與計算機上運行的 DBMS 相容。</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>請考慮根據用於 SAP 工作負載的儲存類型配置高可用性。Azure Site Recovery 不支援 Azure 中提供的某些存儲服務，因此高可用性配置可能會有所不同。</t>
+          <t>考慮根據您用於 SAP 工作負載的儲存類型配置高可用性。Azure Site Recovery 不支援 Azure 中提供的某些存儲服務，因此高可用性配置可能會有所不同。</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
@@ -2728,7 +2728,7 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>不同的本機 Azure 儲存服務（如 Azure 檔存儲、Azure NetApp 檔、Azure 共用磁碟）可能並非在所有區域都可用。因此，若要在故障轉移后在DR區域上設置類似的SAP，請確保在DR網站中提供相應的存儲服務。</t>
+          <t>不同的本機 Azure 儲存服務（如 Azure 檔、Azure NetApp 檔、Azure 共用磁碟）可能並非在所有區域都可用。因此，要在故障轉移后在DR區域上進行類似的SAP設置，請確保在DR網站中提供相應的存儲服務。</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
@@ -2774,7 +2774,7 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>自動執行 SAP System Start-Stop 以管理成本。</t>
+          <t>自動化 SAP System Start-Stop 以管理成本。</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>如果將 Azure 高級存儲與 SAP HANA 配合使用，則可以使用 Azure 標準 SSD 儲存來選擇成本敏感的儲存解決方案。但是，請注意，選擇“標準 SSD”或“標準 HDD Azure”存儲將影響各個 VM 的 SLA。此外，對於具有較低 I/O 輸送量和低延遲的系統（例如非生產環境），可以使用較低系列的 VM。</t>
+          <t>如果將 Azure 高級存儲與 SAP HANA 配合使用，則可以使用 Azure 標準 SSD 儲存來選擇注重成本的儲存解決方案。但是，請注意，選擇標準 SSD 或標準 HDD Azure 儲存將影響單個 VM 的 SLA。此外，對於 I/O 輸送量較低且延遲較低的系統（如非生產環境），可以使用較低系列的 VM。</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2866,7 +2866,7 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>作為成本較低的替代配置（多用途），可以為非生產 HANA 資料庫伺服器 VM 選擇低性能 SKU。但是，請務必注意，某些 VM 類型（如 E 系列）未經 HANA 認證（SAP HANA 硬體目錄），或者無法實現小於 1 毫秒的存儲延遲。</t>
+          <t>作為成本較低的替代配置（多用途），您可以為非生產 HANA 資料庫伺服器 VM 選擇低性能 SKU。但是，請務必注意，某些 VM 類型（如 E 系列）未經過 HANA 認證（SAP HANA 硬體目錄），或者無法實現小於 1 毫秒的存儲延遲。</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -3011,7 +3011,7 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>使用 SAML 通過 Azure AD 實現 SAP SaaS 應用程式（如 SAP Analytics Cloud、SAP Cloud Platform、Business by Design、SAP Qualtrics 和 SAP C4C）的 SSO。</t>
+          <t>使用 SAML 通過 Azure AD 實現對 SAP SaaS 應用程式（如 SAP Analytics Cloud、SAP Cloud Platform、Business by design、SAP Qualtrics 和 SAP C4C）的 SSO。</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -3152,7 +3152,7 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>可以使用SAP NetWeaver SSO 或合作夥伴解決方案將 SSO 實現到 SAP GUI。</t>
+          <t>您可以使用 SAP NetWeaver SSO 或合作夥伴解決方案實現對 SAP GUI 的 SSO。</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
@@ -3202,7 +3202,7 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>對於 SAP GUI 和 Web 瀏覽器存取的 SSO，請實施 SNC/Kerberos/SPNEGO（簡單且受保護的 GSSAPI 協商機制），因為它易於配置和維護。對於使用 X.509 用戶端證書的 SSO，請考慮 SAP 安全登錄伺服器，它是 SAP SSO 解決方案的一個元件。</t>
+          <t>對於 SAP GUI 和 Web 瀏覽器訪問的 SSO，實施 SNC / Kerberos/SPNEGO（簡單且受保護的 GSSAPI 協商機制），因為它易於配置和維護。對於使用 X.509 用戶端證書的 SSO，請考慮使用 SAP Secure Login Server，它是 SAP SSO 解決方案的一個元件。</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
@@ -3248,7 +3248,7 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>對於 SAP GUI 和 Web 瀏覽器存取的 SSO，請實施 SNC/Kerberos/SPNEGO（簡單且受保護的 GSSAPI 協商機制），因為它易於配置和維護。對於使用 X.509 用戶端證書的 SSO，請考慮 SAP 安全登錄伺服器，它是 SAP SSO 解決方案的一個元件。</t>
+          <t>對於 SAP GUI 和 Web 瀏覽器訪問的 SSO，實施 SNC / Kerberos/SPNEGO（簡單且受保護的 GSSAPI 協商機制），因為它易於配置和維護。對於使用 X.509 用戶端證書的 SSO，請考慮使用 SAP Secure Login Server，它是 SAP SSO 解決方案的一個元件。</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3293,7 +3293,7 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>使用 OAuth for SAP NetWeaver 實現 SSO，以允許第三方或自定義應用程式訪問 SAP NetWeaver OData 服務。</t>
+          <t>通過使用 SAP NetWeaver 的 OAuth 實施 SSO，以允許第三方或自定義應用程式訪問 SAP NetWeaver OData 服務。</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3339,7 +3339,7 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>實現 SSO 到 SAP HANA</t>
+          <t>實施SAP HANA的 SSO</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>對於訪問 SAP 的應用程式，可能需要使用主體傳播來建立 SSO。</t>
+          <t>對於訪問 SAP 的應用程式，您可能希望使用主體傳播來建立 SSO。</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3474,7 +3474,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>如果使用的是需要 SAP Identity Authentication Service （IAS） 的 SAP BTP 服務或 SaaS 解決方案，請考慮在 SAP Cloud Identity Authentication Services 和 Azure AD 之間實現 SSO 以存取這些 SAP 服務。此集成允許 SAP IAS 充當代理標識提供者，並將身份驗證請求轉發到 Azure AD，作為中央使用者存儲和標識提供者。</t>
+          <t>如果使用需要 SAP 身份驗證服務 （IAS） 的 SAP BTP 服務或 SaaS 解決方案，請考慮在 SAP Cloud Identity Authentication 服務和 Azure AD 之間實現 SSO 以存取這些 SAP 服務。此集成允許 SAP IAS 充當代理標識提供者，並將身份驗證請求轉發到作為中央使用者存儲和標識提供者的 Azure AD。</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3519,7 +3519,7 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>實現 SSO 到 SAP BTP</t>
+          <t>實施 SSO 到 SAP BTP</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3564,7 +3564,7 @@
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>如果使用的是 SAP SuccessFactors，請考慮使用 Azure AD 自動使用者預配。通過此整合，當你向 SAP SuccessFactors 添加新員工時，可以在 Azure AD 中自動建立使用者帳戶。 （可選）可以在 Microsoft 365 或 Azure AD 支援的其他 SaaS 應用程式中建立使用者帳戶。 使用將電子郵件地址寫回 SAP SuccessFactors。</t>
+          <t>如果使用的是 SAP SuccessFactors，請考慮使用 Azure AD 自動使用者預配。通過此整合，當您將新員工添加到 SAP SuccessFactors 時，您可以在 Azure AD 中自動建立其用戶帳戶。（可選）您可以在 Microsoft 365 或 Azure AD 支援的其他 SaaS 應用程式中創建用戶帳戶。</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3609,10 +3609,14 @@
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>對 SAP 訂閱強制實施現有管理組策略</t>
-        </is>
-      </c>
-      <c r="D61" s="21" t="n"/>
+          <t>對 SAP 訂閱實施現有管理組策略</t>
+        </is>
+      </c>
+      <c r="D61" s="21" t="inlineStr">
+        <is>
+          <t>保持管理組層次結構合理平坦，不超過 4 個。</t>
+        </is>
+      </c>
       <c r="E61" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -3659,7 +3663,7 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>將緊密耦合的應用程式集成到同一個 SAP 訂閱中，以避免額外的路由和管理複雜性</t>
+          <t>將緊密耦合的應用程式集成到同一 SAP 訂閱中，以避免額外的路由和管理複雜性</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3709,7 +3713,7 @@
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>利用訂閱作為縮放單元並擴展我們的資源，請考慮按環境部署訂閱，例如。沙箱、非生產、生產</t>
+          <t>利用 Subscription 作為縮放單元並擴展我們的資源，考慮為每個環境部署 Subscription，例如。沙箱、非生產、生產</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3759,7 +3763,7 @@
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>確保在訂閱預配過程中增加配額（例如，訂閱中可用的 VM 核心總數）</t>
+          <t>確保在訂閱預配過程中增加配額（例如，訂閱中的可用 VM 核心總數）</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
@@ -3855,7 +3859,7 @@
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>如果部署到可用性區域，請確保在配額獲得批准后，VM 的區域部署可用。提交支援請求，其中包含所需的訂閱、VM 系列、CPU 數量和可用性區域。</t>
+          <t>如果部署到可用區，請確保在配額獲得批准后，VM 的區域部署可用。提交支援請求，其中包含所需的訂閱、VM 系列、CPU 數量和可用區。</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
@@ -3900,7 +3904,7 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>確保所需的服務和功能在所選部署區域內可用，例如。ANF、區域等</t>
+          <t>確保所需的服務和功能在選定的部署區域內可用，例如。ANF 、 Zone 等</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
@@ -3950,7 +3954,7 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>利用 Azure 資源標記進行成本分類和資源分組（：BillTo、部門（或營業單位）、環境（生產、階段、開發）、層（Web 層、應用層）、應用程式擁有者、ProjectName）</t>
+          <t>利用 Azure 資源標籤進行成本分類和資源組（：BillTo、部門（或營業單位）、環境（生產、階段、開發）、層（Web 層、應用程式層）、應用程式擁有者、ProjectName）</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -3995,7 +3999,7 @@
       </c>
       <c r="B69" s="21" t="inlineStr">
         <is>
-          <t>BCDR公司</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="C69" s="21" t="inlineStr">
@@ -4045,12 +4049,12 @@
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>BCDR公司</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>如果為 HANA、Oracle 或 DB2 資料庫部署 Azure NetApp 檔，請使用 Azure 應用程式一致性快照工具（ AzAcSnap ）來創建應用程式一致性快照。AzAcSnap 還支援 Oracle 資料庫。請考慮在中央 VM 上使用 AzAcSnap，而不是在單個 VM 上使用 AzAcSnap。</t>
+          <t>如果您為 HANA、Oracle 或 DB2 資料庫部署 Azure NetApp 檔，請使用 Azure 應用程式一致性快照工具 （AzAcSnap） 拍攝應用程式一致性快照。AzAcSnap 還支援 Oracle 資料庫。考慮在中央 VM 上使用 AzAcSnap ，而不是在單個 VM 上使用。</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -4142,7 +4146,7 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>不要將不同的應用程式服務分組到同一個集群中。例如，不要將DRBD和中央服務集群組合在同一集群上。但是，可以使用同一個 Pacemaker 群集來管理大約五個不同的中心服務（多 SID 群集）。</t>
+          <t>不要將不同的應用程式服務分組到同一個集群中。例如，不要將DRBD和中央服務集群合併到同一個集群上。但是，您可以使用同一個 Pacemaker 集群來管理大約五個不同的中央服務（多 SID 集群）。</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
@@ -4192,7 +4196,7 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>請考慮在暫停模型中運行開發/測試系統，以節省和優化 Azure 運行成本。</t>
+          <t>考慮在推遲模型中運行開發/測試系統，以節省和優化 Azure 運行成本。</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -4238,7 +4242,7 @@
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>如果通過管理客戶的 SAP 資產與客戶合作，請考慮使用 Azure Lighthouse。Azure Lighthouse 允許託管服務提供者使用 Azure 本機標識服務對客戶的環境進行身份驗證。它將控制權交到客戶手中，因為他們可以隨時撤銷訪問許可權並審核服務提供者的行為。</t>
+          <t>如果你通過管理客戶的 SAP 資產來與客戶合作，請考慮使用 Azure Lighthouse。Azure Lighthouse 允許託管服務提供者使用 Azure 原生標識服務對客戶的環境進行身份驗證。它將控制權交到客戶手中，因為他們可以隨時撤銷訪問許可權並審核服務提供者的行為。</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
@@ -4284,7 +4288,7 @@
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Update Manager 檢查單個 VM 或多個 VM 的可用更新狀態，並考慮計劃定期修補。</t>
+          <t>使用 Azure Update Manager 檢查單個 VM 或多個 VM 的可用更新的狀態，並考慮計劃定期修補。</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
@@ -4334,7 +4338,7 @@
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>使用 SAP Landscape Management （LaMa） 優化和管理 SAP Basis 運營。使用適用於 Azure 的 SAP LaMa 連接器重新置放、複製、克隆和刷新 SAP 系統。</t>
+          <t>使用 SAP Landscape Management （LaMa） 優化和管理 SAP Basis 運營。使用適用於 Azure 的 SAP LaMa 連接器來重新定位、複製、克隆和刷新 SAP 系統。</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
@@ -4384,7 +4388,7 @@
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>使用用於 SAP 解決方案的 Azure Monitor 監視 Azure 上的 SAP 工作負載（SAP HANA、高可用性 SUSE 群集和 SQL 系統）。請考慮使用 SAP 解決方案管理器補充用於 SAP 解決方案的 Azure Monitor。</t>
+          <t>使用適用於 SAP 解決方案的 Azure Monitor 監視 Azure 上的 SAP 工作負載（SAP HANA、高可用性 SUSE 群集和 SQL 系統）。請考慮使用 SAP 解決方案管理器補充適用於 SAP 解決方案的 Azure Monitor。</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
@@ -4434,7 +4438,7 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>運行適用於 SAP 的 VM 擴展檢查。適用於 SAP 的 VM 擴展使用虛擬機 （VM） 的分配託管標識來訪問 VM 監視和配置數據。該檢查可確保 SAP 應用程式中的所有性能指標都來自適用於 SAP 的基礎 Azure 擴展。</t>
+          <t>運行 VM Extension for SAP 檢查。適用於 SAP 的 VM 擴展使用虛擬機 （VM） 的分配託管標識來訪問 VM 監視和配置數據。該檢查可確保 SAP 應用程式中的所有性能指標都來自適用於 SAP 的基礎 Azure 擴展。</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
@@ -4484,7 +4488,7 @@
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Policy 進行訪問控制和合規性報告。Azure Policy 提供了強制實施組織範圍設置的功能，以確保一致的策略遵守和快速違規檢測。</t>
+          <t>使用 Azure Policy 進行訪問控制和合規性報告。Azure Policy 提供了強制實施組織範圍設置的功能，以確保一致的策略遵守和快速的違規檢測。</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
@@ -4534,7 +4538,7 @@
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 網路觀察程式中的連接監視器監視 SAP 資料庫和應用程式伺服器的延遲指標。或者使用 Azure Monitor 收集和顯示網路延遲度量。</t>
+          <t>使用 Azure 網路觀察程式中的連接監視器來監視 SAP 資料庫和應用程式伺服器的延遲指標。或者使用 Azure Monitor 收集和顯示網路延遲測量值。</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
@@ -4630,7 +4634,7 @@
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>對於每個 Azure 訂閱，請在區域部署之前對 Azure 可用性區域運行延遲測試，以選擇用於在 Azure 上部署 SAP 的低延遲區域。</t>
+          <t>對於每個 Azure 訂閱，在區域部署之前，請在 Azure 可用性區域上運行延遲測試，以選擇低延遲區域以在 Azure 上部署 SAP。</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
@@ -4680,7 +4684,7 @@
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>運行復原報告，確保整個預配的 Azure 基礎結構（計算、資料庫、網路、存儲、Site Recovery）的配置符合適用於 Azure 的 Cloud Adaption Framework 定義的配置。</t>
+          <t>運行彈性報告，確保整個預配的 Azure 基礎結構（計算、資料庫、網路、存儲、Site Recovery）的配置符合 Cloud Adaption Framework for Azure 定義的配置。</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
@@ -4730,7 +4734,7 @@
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>使用適用於 SAP 的 Microsoft Sentinel 解決方案實施威脅防護。使用此解決方案監視 SAP 系統，並檢測整個業務邏輯和應用程式層的複雜威脅。</t>
+          <t>使用適用於 SAP 的 Microsoft Sentinel 解決方案實現威脅防護。使用此解決方案可監控您的 SAP 系統並檢測整個業務邏輯和應用程式層的複雜威脅。</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4780,7 +4784,7 @@
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>Azure 標記可用於對資源進行邏輯分組和跟蹤，自動執行其部署，最重要的是，提供對所發生成本的可見性。</t>
+          <t>可以利用 Azure 標記對資源進行邏輯分組和跟蹤、自動化部署，最重要的是，提供對所產生成本的可見性。</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4830,7 +4834,7 @@
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>對延遲敏感型應用程式使用虛擬機間延遲監視。</t>
+          <t>對延遲敏感型應用程式使用虛擬機間延遲監控。</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
@@ -4926,7 +4930,7 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>從防病毒掃描中排除所有資料庫檔系統和可執行程式。包含它們可能會導致性能問題。請與資料庫供應商聯繫，瞭解排除清單中的規範性詳細資訊。例如，Oracle 建議&lt;sid&gt;從防病毒掃描中排除 /oracle}sapdata。</t>
+          <t>從防病毒掃描中排除所有資料庫檔系統和可執行程式。包含它們可能會導致性能問題。請與資料庫供應商聯繫，瞭解有關排除清單的規範性詳細資訊。例如，Oracle 建議從防病毒掃描中排除 /oracle/&lt;sid&gt;/sapdata。</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4972,7 +4976,7 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>請考慮在遷移後收集非 HANA 資料庫的完整資料庫統計資訊。例如，實施SAP 註釋1020260 - 交付 Oracle 統計資訊。</t>
+          <t>考慮在遷移後收集非 HANA 資料庫的完整資料庫統計資訊。例如，實施SAP註釋 1020260 - Oracle 統計資訊的交付。</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
@@ -5018,7 +5022,7 @@
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>請考慮將 Oracle 自動儲存管理 （ASM） 用於使用 Azure 上的 SAP 的所有 Oracle 部署。</t>
+          <t>請考慮將 Oracle Automatic Storage Management （ASM） 用於使用 Azure 上的 SAP 的所有 Oracle 部署。</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -5068,7 +5072,7 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>對於運行 Oracle 的 Azure 上的 SAP，SQL 腳本集合可説明你診斷性能問題。 自動工作負載存儲庫 （AWR） 報告包含用於診斷 Oracle 系統中問題的寶貴資訊。我們建議您在多個工作階段期間運行 AWR 報告，並為其選擇高峰時間，以確保分析的廣泛覆蓋範圍。</t>
+          <t>對於運行 Oracle 的 Azure 上的 SAP，一組 SQL 腳本可以説明你診斷性能問題。 Automatic Workload Repository （AWR） 報告包含用於診斷 Oracle 系統中問題的寶貴資訊。我們建議您在多個工作階段期間運行 AWR 報告，並為其選擇高峰時間，以確保分析的廣泛覆蓋範圍。</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
@@ -5168,7 +5172,7 @@
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>若要安全交付 HTTP/S 應用，請使用應用程式閘道 v2 並確保啟用 WAF 保護和策略。</t>
+          <t>為了安全交付 HTTP/S 應用程式，請使用應用程式閘道 v2 並確保啟用 WAF 保護和策略。</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
@@ -5213,12 +5217,12 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>DNS功能變數名稱</t>
+          <t>DNS 解析</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>如果在遷移到 Azure 期間未更改虛擬機器的 DNS 或虛擬名稱，則後台 DNS 和虛擬名稱將連接 SAP 環境中的許多系統介面，並且客戶有時只會知道開發人員隨時間推移定義的介面。遷移后，當虛擬或 DNS 名稱更改時，各種系統之間會出現連接挑戰，建議保留 DNS 別名以防止出現此類困難。</t>
+          <t>如果在遷移到 Azure 期間未更改虛擬機器的 DNS 或虛擬名稱，則後台 DNS 和虛擬名稱將連接 SAP 環境中的許多系統介面，並且客戶有時只會知道開發人員隨時間定義的介面。遷移后，當虛擬或 DNS 名稱發生變化時，各種系統之間會出現連接挑戰，建議保留 DNS 別名以防止出現這些類型的困難。</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
@@ -5263,7 +5267,7 @@
       </c>
       <c r="B95" s="21" t="inlineStr">
         <is>
-          <t>DNS功能變數名稱</t>
+          <t>DNS 解析</t>
         </is>
       </c>
       <c r="C95" s="21" t="inlineStr">
@@ -5318,10 +5322,14 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>本地和全域 VNet 對等互連提供連接，是確保跨多個 Azure 區域的 SAP 部署的登陸區域之間的連接的首選方法</t>
-        </is>
-      </c>
-      <c r="D96" s="21" t="n"/>
+          <t>本地和全域 VNet 對等互連提供連接，是確保跨多個 Azure 區域進行 SAP 部署的登陸區域之間建立連接的首選方法</t>
+        </is>
+      </c>
+      <c r="D96" s="21" t="inlineStr">
+        <is>
+          <t>配置 VNet 對等互連時，請使用允許流量流向遠端虛擬網路設置。</t>
+        </is>
+      </c>
       <c r="E96" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -5418,7 +5426,7 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>在需要跨 Azure 區域和本地位置的全域傳輸連接的新網路、大型網路或全球網路中使用虛擬 WAN 進行 Azure 部署。使用此方法，無需手動設置 Azure 網路的可傳遞路由，並且可以遵循 Azure 部署上的 SAP 標準。</t>
+          <t>在需要跨 Azure 區域和本地位置建立全球傳輸連接的新網路、大型網路或全球網路中，使用虛擬 WAN 進行 Azure 部署。使用此方法，無需手動為 Azure 網路設置可傳遞路由，並且可以遵循 Azure 上的 SAP 部署標準。</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
@@ -5468,7 +5476,7 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>僅當使用合作夥伴 NVA 時，才考慮在區域之間部署網路虛擬設備 （NVA）。如果存在本機 NVA，則不需要區域或 VNet 之間的 NVA。部署合作夥伴網路技術和 NVA 時，請按照供應商的指南驗證與 Azure 網路衝突的配置。</t>
+          <t>僅當使用合作夥伴 NVA 時，才考慮在區域之間部署網路虛擬設備 （NVA）。如果存在本機 NVA，則不需要區域或 VNet 之間的 NVA。部署合作夥伴網路技術和 NVA 時，請按照供應商的指南驗證與 Azure 網路的衝突配置。</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5518,7 +5526,7 @@
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>虛擬 WAN 管理基於虛擬 WAN 的拓撲的分支 VNet 之間的連接（無需設置使用者定義的路由 [UDR] 或 NVA），同一虛擬中心中 VNet 到 VNet 流量的最大網路輸送量為每秒 50 G。如有必要，SAP 登陸區域可以使用 VNet 對等互連連接到其他登陸區域並克服此頻寬限制。</t>
+          <t>虛擬 WAN 管理基於虛擬 WAN 的拓撲的分支 VNet 之間的連接（無需設置使用者定義的路由 [UDR] 或 NVA），同一虛擬中心中 VNet 到 VNet 流量的最大網路輸送量為每秒 50 Gb。如有必要，SAP 登陸區域可以使用 VNet 對等互連連接到其他登陸區域並克服此頻寬限制。</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
@@ -5563,7 +5571,7 @@
       </c>
       <c r="B101" s="21" t="inlineStr">
         <is>
-          <t>知識產權計劃</t>
+          <t>IP 計劃</t>
         </is>
       </c>
       <c r="C101" s="21" t="inlineStr">
@@ -5613,7 +5621,7 @@
       </c>
       <c r="B102" s="21" t="inlineStr">
         <is>
-          <t>知識產權計劃</t>
+          <t>IP 計劃</t>
         </is>
       </c>
       <c r="C102" s="21" t="inlineStr">
@@ -5663,12 +5671,12 @@
       </c>
       <c r="B103" s="21" t="inlineStr">
         <is>
-          <t>知識產權計劃</t>
+          <t>IP 計劃</t>
         </is>
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>避免對生產網站和DR網站使用重疊的IP位址範圍。</t>
+          <t>避免對生產和DR網站使用重疊的IP位址範圍。</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
@@ -5713,12 +5721,12 @@
       </c>
       <c r="B104" s="21" t="inlineStr">
         <is>
-          <t>知識產權計劃</t>
+          <t>IP 計劃</t>
         </is>
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>雖然 Azure 確實可以説明您在 VNet 中創建多個委派子網，但 Azure NetApp 檔的 VNet 中只能存在一個委派子網。如果對 Azure NetApp 檔使用多個委託子網，則嘗試創建新卷將失敗。</t>
+          <t>雖然 Azure 確實可以説明您在 VNet 中創建多個委託子網，但 Azure NetApp 檔的 VNet 中只能存在一個委託子網。如果為 Azure NetApp Files 使用多個委託子網，則嘗試創建新卷將失敗。</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
@@ -5768,7 +5776,7 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 防火牆管理發往 Internet 的 Azure 出站流量、非 HTTP/S 入站連接和東西向流量篩選（如果組織需要）</t>
+          <t>使用 Azure 防火牆來管理到 Internet 的 Azure 出站流量、非 HTTP/S 入站連接和東西向流量篩選（如果組織需要）</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
@@ -5868,7 +5876,7 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Front Door 和 WAF 策略跨 Azure 區域為與登陸區域的入站 HTTP/S 連接提供全域保護。</t>
+          <t>使用 Azure Front Door 和 WAF 策略跨 Azure 區域為到登陸區域的入站 HTTP/S 連接提供全域保護。</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5968,7 +5976,7 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>使用 Web 應用程式防火牆在流量暴露於 Internet 時對其進行掃描。另一種選擇是將其與負載均衡器或具有內置防火牆功能（如應用程式閘道或第三方解決方案）的資源一起使用。</t>
+          <t>使用 Web 應用程式防火牆在流量暴露於 Internet 時對其進行掃描。另一種選擇是將它與負載均衡器或具有內置防火牆功能的資源（如應用程式閘道或第三方解決方案）一起使用。</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
@@ -6018,7 +6026,7 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>在需要跨 Azure 區域和本地位置的全域傳輸連接的新網路、大型網路或全球網路中使用虛擬 WAN 進行 Azure 部署。使用此方法，無需手動設置 Azure 網路的可傳遞路由，並且可以遵循 Azure 部署上的 SAP 標準。</t>
+          <t>在需要跨 Azure 區域和本地位置建立全球傳輸連接的新網路、大型網路或全球網路中，使用虛擬 WAN 進行 Azure 部署。使用此方法，無需手動為 Azure 網路設置可傳遞路由，並且可以遵循 Azure 上的 SAP 部署標準。</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -6068,7 +6076,7 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>若要防止數據洩露，請使用 Azure 專用連結安全地訪問平臺即服務資源，例如 Azure Blob 存儲、Azure 檔存儲、Azure Data Lake Storage Gen2、Azure 數據工廠等。Azure 專用終結點還有助於保護 VNet 與 Azure 存儲、Azure 備份等服務之間的流量。VNet 與啟用專用終結點的服務之間的流量通過 Microsoft 全球網路傳輸，從而防止其暴露在公共 Internet 上。</t>
+          <t>為了防止數據洩露，請使用 Azure 專用連結安全地訪問平臺即服務資源，例如 Azure Blob 存儲、Azure 檔存儲、Azure Data Lake Storage Gen2、Azure 數據工廠等。Azure 專用終結點還可以幫助保護 VNet 與 Azure 存儲、Azure 備份等服務之間的流量。VNet 與啟用了專用終結點的服務之間的流量通過 Microsoft 全球網路傳輸，從而防止其暴露在公共 Internet 上。</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
@@ -6118,7 +6126,7 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>請確保在 SAP 應用程式和 DBMS 層中使用的 VM 上啟用了 Azure 加速網路。</t>
+          <t>確保在 SAP 應用程式和 DBMS 層中使用的 VM 上啟用了 Azure 加速網路。</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
@@ -6168,7 +6176,7 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>請確保將 Azure 負載均衡器的內部部署設置為使用直接伺服器返回 （DSR）。此設置（啟用浮動IP）將減少內部負載均衡器配置用於 DBMS 層上的高可用性配置時的延遲。</t>
+          <t>確保將 Azure 負載均衡器的內部部署設置為使用直接伺服器返回 （DSR）。當內部負載均衡器配置用於 DBMS 層上的高可用性配置時，此設置 （Enabling Floating IP） 將減少延遲。</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
@@ -6218,7 +6226,7 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>可以使用應用程式安全組 （ASG） 和 NSG 規則在 SAP 應用程式層和 DBMS 層之間定義網路安全存取控制清單。ASG 對虛擬機進行分組，以説明管理其安全性。</t>
+          <t>您可以使用應用程式安全組 （ASG） 和 NSG 規則來定義 SAP 應用程式和 DBMS 層之間的網路安全存取控制清單。ASG 對虛擬機進行分組以説明管理其安全性。</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
@@ -6318,7 +6326,7 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>若要優化 SAP 應用程式的網路延遲，請考慮使用 Azure 鄰近放置組。</t>
+          <t>為了實現 SAP 應用程式的最佳網路延遲，請考慮使用 Azure 鄰近放置組。</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6368,7 +6376,7 @@
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>根本不支援在本地和 Azure 之間運行 SAP Application Server 層和 DBMS 層拆分。這兩個層都需要完全駐留在本地或 Azure 中。</t>
+          <t>根本不支援在本地和 Azure 之間運行 SAP Application Server 層和 DBMS 層。這兩個層都需要完全駐留在本地或 Azure 中。</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
@@ -6418,7 +6426,7 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>不建議將資料庫管理系統 （DBMS） 和 SAP 系統的應用程式層託管在不同的 VNet 中，並將它們與 VNet 對等互連連接，因為層之間的過多網路流量可能會產生大量成本。建議使用 Azure 虛擬網路中的子網來分隔 SAP 應用程式層和 DBMS 層。</t>
+          <t>建議不要將 SAP 系統的資料庫管理系統 （DBMS） 和應用程式層託管在不同的 VNet 中，並將它們與 VNet 對等互連連接，因為層之間過多的網路流量可能會產生大量成本。建議使用 Azure 虛擬網路中的子網來分隔 SAP 應用程式層和 DBMS 層。</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
@@ -6468,7 +6476,7 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>如果將負載均衡器與Linux客戶機作業系統配合使用，請檢查Linux網路參數 net.ipv4.tcp_timestamps是否設置為0。</t>
+          <t>如果將負載均衡器與 Linux 客戶機作業系統一起使用，請檢查 Linux 網路參數 net.ipv4.tcp_timestamps 是否設置為 0。</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
@@ -6518,7 +6526,7 @@
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>對於 SAP RISE/ECS 部署，虛擬對等互連是與客戶現有 Azure 環境建立連接的首選方式。SAP vnet 和客戶 vnet 都受網路安全組 （NSG） 保護，從而通過 VNet 對等互連在 SAP 和資料庫埠上進行通信</t>
+          <t>對於 SAP RISE/ECS 部署，虛擬對等互連是與客戶的現有 Azure 環境建立連接的首選方式。SAP VNet 和客戶 VNet 都受到網路安全組 （NSG） 的保護，從而通過 VNet 對等互連在 SAP 和資料庫埠上進行通信</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
@@ -6656,7 +6664,7 @@
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>查看監視 SAP HANA 系統環境指南。</t>
+          <t>查看監控 SAP HANA 系統環境指南。</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
@@ -6702,7 +6710,7 @@
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>查看 Azure Linux VM 中的 Oracle 資料庫備份策略。</t>
+          <t>查看 Azure Linux VM 中的 Oracle Database 備份策略。</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
@@ -6748,7 +6756,7 @@
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>查看 Azure Blob 儲存與 SQL Server 2016 的配合。</t>
+          <t>查看 Azure Blob Storage 與 SQL Server 2016 的使用方式。</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
@@ -6794,7 +6802,7 @@
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>查看 Azure VM 自動備份 v2 的使用方式。</t>
+          <t>查看 Azure VM 的自動備份 v2 的使用方式。</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
@@ -6839,7 +6847,7 @@
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>使用進階磁碟時開啟M系列的寫入加速器（V1）</t>
+          <t>使用進階磁碟時為 M 系列開啟寫入加速器 （V1）</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
@@ -6880,7 +6888,7 @@
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>測試可用性區域延遲。</t>
+          <t>測試可用區延遲。</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
@@ -6975,7 +6983,7 @@
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>使用 SAP ABAPMeter 報表 /SSA/CAT 查看 SAP 應用程式伺服器到資料庫伺服器的延遲。</t>
+          <t>使用 SAP ABAPMeter 報告 /SSA/CAT 查看 SAP 應用程式伺服器到資料庫伺服器的延遲。</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
@@ -7025,7 +7033,7 @@
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>查看使用 CCMS 的 SQL Server 性能監視。</t>
+          <t>查看使用 CCMS 的 SQL Server 性能監控。</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
@@ -7066,7 +7074,7 @@
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>測試 SAP 應用程式層 VM 和 DBMS VM （NIPING） 之間的網路延遲。</t>
+          <t>測試 SAP 應用層 VM 和 DBMS VM 之間的網路延遲 （NIPING）。</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
@@ -7196,7 +7204,7 @@
     <row r="135" ht="16.5" customHeight="1">
       <c r="A135" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>安全性、治理和合規性</t>
         </is>
       </c>
       <c r="B135" s="21" t="inlineStr">
@@ -7206,7 +7214,7 @@
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>如果在 Azure、本地或其他雲環境中運行 Windows 和 Linux VM，則可以使用 Azure 自動化中的更新管理中心來管理作業系統更新，包括安全修補程式。</t>
+          <t>如果您在 Azure、本地或其他雲環境中運行 Windows 和 Linux VM，則可以使用 Azure 自動化中的更新管理中心來管理操作系統更新，包括安全補丁。</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
@@ -7246,7 +7254,7 @@
     <row r="136" ht="16.5" customHeight="1">
       <c r="A136" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>安全性、治理和合規性</t>
         </is>
       </c>
       <c r="B136" s="21" t="inlineStr">
@@ -7256,7 +7264,7 @@
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>定期查看 SAP 安全 OSS 說明，因為 SAP 會發佈高度關鍵的安全補丁或熱修復程式，需要立即採取行動來保護 SAP 系統。</t>
+          <t>定期查看 SAP 安全 OSS 說明，因為 SAP 發佈了高度關鍵的安全補丁或熱修復程式，需要立即採取措施保護您的 SAP 系統。</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
@@ -7296,7 +7304,7 @@
     <row r="137" ht="16.5" customHeight="1">
       <c r="A137" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>安全性、治理和合規性</t>
         </is>
       </c>
       <c r="B137" s="21" t="inlineStr">
@@ -7306,7 +7314,7 @@
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>對於 SQL Server 上的 SAP，可以禁用 SQL Server 系統管理員帳戶，因為 SQL Server 上的 SAP 系統不使用該帳戶。在禁用原始系統管理員帳戶之前，請確保具有系統管理員許可權的其他使用者可以訪問伺服器。</t>
+          <t>對於 SQL Server 上的 SAP，您可以禁用 SQL Server 系統管理員帳戶，因為 SQL Server 上的 SAP 系統不使用該帳戶。在禁用原始系統管理員帳戶之前，請確保具有系統管理員許可權的其他使用者可以訪問伺服器。</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
@@ -7341,7 +7349,7 @@
     <row r="138" ht="16.5" customHeight="1">
       <c r="A138" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>安全性、治理和合規性</t>
         </is>
       </c>
       <c r="B138" s="21" t="inlineStr">
@@ -7351,7 +7359,7 @@
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>禁用xp_cmdshell。SQL Server 功能xp_cmdshell啟用 SQL Server 內部作業系統命令行介面。這是安全審計中的潛在風險。</t>
+          <t>禁用 xp_cmdshell。SQL Server 功能xp_cmdshell啟用 SQL Server 內部作業系統命令 shell。這是安全審計中的潛在風險。</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
@@ -7391,7 +7399,7 @@
     <row r="139" ht="16.5" customHeight="1">
       <c r="A139" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>安全性、治理和合規性</t>
         </is>
       </c>
       <c r="B139" s="21" t="inlineStr">
@@ -7401,7 +7409,7 @@
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>加密 Azure 上的 SAP HANA 資料庫伺服器使用 SAP HANA 本機加密技術。此外，如果在 Azure 上使用 SQL Server，請使用透明數據加密 （TDE） 來保護數據和日誌檔，並確保備份也已加密。</t>
+          <t>在 Azure 上加密 SAP HANA 資料庫伺服器使用 SAP HANA 本機加密技術。此外，如果使用 Azure 上的 SQL Server，請使用透明數據加密 （TDE） 來保護數據和日誌檔，並確保備份也已加密。</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
@@ -7441,7 +7449,7 @@
     <row r="140" ht="16.5" customHeight="1">
       <c r="A140" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>安全性、治理和合規性</t>
         </is>
       </c>
       <c r="B140" s="21" t="inlineStr">
@@ -7451,7 +7459,7 @@
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>為所有 Azure 資源管理器和經典記憶體啟用了 Azure 儲存加密，並且無法禁用。由於預設情況下數據是加密的，因此無需修改代碼或應用程式即可使用 Azure 儲存加密。</t>
+          <t>Azure 儲存加密已為所有 Azure Resource Manager 和經典存儲帳戶啟用，並且無法禁用。由於數據預設加密，因此無需修改代碼或應用程式即可使用 Azure 儲存加密。</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
@@ -7491,7 +7499,7 @@
     <row r="141" ht="16.5" customHeight="1">
       <c r="A141" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>安全性、治理和合規性</t>
         </is>
       </c>
       <c r="B141" s="21" t="inlineStr">
@@ -7541,7 +7549,7 @@
     <row r="142" ht="16.5" customHeight="1">
       <c r="A142" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>安全性、治理和合規性</t>
         </is>
       </c>
       <c r="B142" s="21" t="inlineStr">
@@ -7551,7 +7559,7 @@
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>建議在成功部署后鎖定 Azure 資源，以防止未經授權的更改。還可以使用自定義的 Azure 策略（自定義角色）在每個訂閱的基礎上強制實施 LOCK 約束和規則。</t>
+          <t>建議在成功部署后鎖定 Azure 資源，以防止未經授權的更改。您還可以使用自定義的 Azure 策略（自定義角色）按訂閱強制實施 LOCK 約束和規則。</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
@@ -7591,7 +7599,7 @@
     <row r="143" ht="16.5" customHeight="1">
       <c r="A143" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>安全性、治理和合規性</t>
         </is>
       </c>
       <c r="B143" s="21" t="inlineStr">
@@ -7601,7 +7609,7 @@
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>預配啟用軟刪除和清除策略的 Azure Key Vault，以允許對已刪除物件進行保留保護。</t>
+          <t>預配 Azure Key Vault 並啟用軟刪除和清除策略，以允許對已刪除的物件進行保留保護。</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
@@ -7641,7 +7649,7 @@
     <row r="144" ht="16.5" customHeight="1">
       <c r="A144" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>安全性、治理和合規性</t>
         </is>
       </c>
       <c r="B144" s="21" t="inlineStr">
@@ -7651,7 +7659,7 @@
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>根據現有要求、法規和合規性控制（內部/外部） - 確定所需的 Azure 策略和 Azure RBAC 角色</t>
+          <t>根據現有要求、法規和合規性控制（內部/外部）- 確定需要哪些 Azure 策略和 Azure RBAC 角色</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
@@ -7691,7 +7699,7 @@
     <row r="145" ht="16.5" customHeight="1">
       <c r="A145" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>安全性、治理和合規性</t>
         </is>
       </c>
       <c r="B145" s="21" t="inlineStr">
@@ -7701,7 +7709,7 @@
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>在 SAP 環境中啟用 Microsoft Defender for Endpoint 時，建議排除 DBMS 伺服器上的數據和日誌檔，而不是面向所有伺服器。排除目標檔時，請遵循 DBMS 供應商的建議。</t>
+          <t>在 SAP 環境中啟用 Microsoft Defender for Endpoint 時，建議排除 DBMS 伺服器上的數據和日誌檔，而不是以所有伺服器為目標。排除目標檔時，請遵循 DBMS 供應商的建議。</t>
         </is>
       </c>
       <c r="D145" s="21" t="n"/>
@@ -7741,7 +7749,7 @@
     <row r="146" ht="16.5" customHeight="1">
       <c r="A146" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>安全性、治理和合規性</t>
         </is>
       </c>
       <c r="B146" s="21" t="inlineStr">
@@ -7751,7 +7759,7 @@
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>委派具有 Microsoft Defender for Cloud 實時訪問許可權的 SAP 管理員自定義角色。</t>
+          <t>委派 SAP 管理員自定義角色，使其具有 Microsoft Defender for Cloud 的即時訪問許可權。</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
@@ -7791,7 +7799,7 @@
     <row r="147" ht="16.5" customHeight="1">
       <c r="A147" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>安全性、治理和合規性</t>
         </is>
       </c>
       <c r="B147" s="21" t="inlineStr">
@@ -7801,7 +7809,7 @@
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>通過將第三方安全產品與 DIAG （SAP GUI）、RFC 和 SPNEGO for HTTPS 的安全網路通信 （SNC） 集成，對傳輸中的數據進行加密</t>
+          <t>通過將第三方安全產品與適用於 DIAG （SAP GUI）、RFC 和 SPNEGO for HTTPS 的安全網路通信 （SNC） 集成，對傳輸中的數據進行加密</t>
         </is>
       </c>
       <c r="D147" s="21" t="n"/>
@@ -7841,7 +7849,7 @@
     <row r="148" ht="16.5" customHeight="1">
       <c r="A148" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>安全性、治理和合規性</t>
         </is>
       </c>
       <c r="B148" s="21" t="inlineStr">
@@ -7851,7 +7859,7 @@
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>對於主體加密功能，預設使用 Microsoft 管理的金鑰，並在需要時使用客戶管理的密鑰。</t>
+          <t>預設使用 Microsoft 管理的金鑰來實現主體加密功能，並在需要時使用客戶管理的金鑰。</t>
         </is>
       </c>
       <c r="D148" s="21" t="n"/>
@@ -7891,7 +7899,7 @@
     <row r="149" ht="16.5" customHeight="1">
       <c r="A149" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>安全性、治理和合規性</t>
         </is>
       </c>
       <c r="B149" s="21" t="inlineStr">
@@ -7901,7 +7909,7 @@
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>對每個應用程式、每個環境、每個區域使用 Azure Key Vault。</t>
+          <t>每個區域每個環境的每個應用程式使用 Azure Key Vault。</t>
         </is>
       </c>
       <c r="D149" s="21" t="n"/>
@@ -7941,7 +7949,7 @@
     <row r="150" ht="16.5" customHeight="1">
       <c r="A150" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>安全性、治理和合規性</t>
         </is>
       </c>
       <c r="B150" s="21" t="inlineStr">
@@ -7951,7 +7959,7 @@
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>若要控制和管理非 HANA Windows 和非 Windows 作業系統的磁碟加密密鑰和機密，請使用 Azure Key Vault。Azure Key Vault 不支援 SAP HANA，因此必須使用 SAP ABAP 或 SSH 密鑰等替代方法。</t>
+          <t>要控制和管理非 HANA Windows 和非 Windows 作業系統的磁碟加密密鑰和機密，請使用 Azure Key Vault。Azure Key Vault 不支援 SAP HANA，因此必須使用 SAP ABAP 或 SSH 密鑰等替代方法。</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
@@ -7991,7 +7999,7 @@
     <row r="151" ht="16.5" customHeight="1">
       <c r="A151" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>安全性、治理和合規性</t>
         </is>
       </c>
       <c r="B151" s="21" t="inlineStr">
@@ -8001,7 +8009,7 @@
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>為 Azure 上的 SAP 分支訂閱自定義基於角色的訪問控制 （RBAC） 角色，以避免與網路相關的意外更改</t>
+          <t>為 Azure 上的 SAP 分支訂閱自定義基於角色的訪問控制 （RBAC） 角色，以避免意外的與網路相關的更改</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
@@ -8041,7 +8049,7 @@
     <row r="152" ht="16.5" customHeight="1">
       <c r="A152" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>安全性、治理和合規性</t>
         </is>
       </c>
       <c r="B152" s="21" t="inlineStr">
@@ -8051,7 +8059,7 @@
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>將 DMZ 和 NVA 與 SAP 資產的其餘部分隔離，配置 Azure 專用連結，並安全地管理和控制 Azure 上的 SAP 資源</t>
+          <t>將 DMZ 和 NVA 與 SAP 資產的其餘部分隔離開來，配置 Azure 專用連結，並安全地管理和控制 Azure 上的 SAP 資源</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -8091,7 +8099,7 @@
     <row r="153" ht="16.5" customHeight="1">
       <c r="A153" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>安全性、治理和合規性</t>
         </is>
       </c>
       <c r="B153" s="21" t="inlineStr">
@@ -8101,7 +8109,7 @@
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>請考慮在 Azure 上使用 Microsoft 反惡意軟體來保護虛擬機免受惡意檔、廣告軟體和其他威脅的侵害。</t>
+          <t>考慮在 Azure 上使用 Microsoft 反惡意軟體來保護虛擬機免受惡意文件、廣告軟體和其他威脅的侵害。</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
@@ -8141,7 +8149,7 @@
     <row r="154" ht="16.5" customHeight="1">
       <c r="A154" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>安全性、治理和合規性</t>
         </is>
       </c>
       <c r="B154" s="21" t="inlineStr">
@@ -8151,7 +8159,7 @@
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>若要獲得更強大的保護，請考慮使用 Microsoft Defender for Endpoint。</t>
+          <t>要獲得更強大的保護，請考慮使用 Microsoft Defender for Endpoint。</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
@@ -8191,7 +8199,7 @@
     <row r="155" ht="16.5" customHeight="1">
       <c r="A155" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>安全性、治理和合規性</t>
         </is>
       </c>
       <c r="B155" s="21" t="inlineStr">
@@ -8201,7 +8209,7 @@
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>通過中心虛擬網路傳遞所有流量，將 SAP 應用程式和資料庫伺服器與 Internet 或本地網路隔離開來，該中心虛擬網路通過虛擬網路對等互連連接到分支網路。對等互連虛擬網路保證 Azure 上的 SAP 解決方案與公共 Internet 隔離。</t>
+          <t>通過中心虛擬網路傳遞所有流量，將 SAP 應用程式和資料庫伺服器與 Internet 或本地網路隔離開來，該虛擬網路通過虛擬網路對等互連連接到輻射網路。對等互連的虛擬網路保證 Azure 上的 SAP 解決方案與公共 Internet 隔離。</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
@@ -8241,7 +8249,7 @@
     <row r="156" ht="16.5" customHeight="1">
       <c r="A156" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>安全性、治理和合規性</t>
         </is>
       </c>
       <c r="B156" s="21" t="inlineStr">
@@ -8251,7 +8259,7 @@
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>對於面向 Internet 的應用程式（如 SAP Fiori），請確保根據應用程式要求分配負載，同時保持安全級別。對於第 7 層安全性，可以使用 Azure 市場中提供的第三方 Web 應用程式防火牆 （WAF）。</t>
+          <t>對於面向 Internet 的應用程式（如 SAP Fiori），請確保根據應用程式要求分配負載，同時保持安全級別。對於第 7 層安全性，您可以使用 Azure Marketplace 中提供的第三方 Web 應用程式防火牆 （WAF）。</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
@@ -8291,7 +8299,7 @@
     <row r="157" ht="16.5" customHeight="1">
       <c r="A157" s="21" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>安全性、治理和合規性</t>
         </is>
       </c>
       <c r="B157" s="21" t="inlineStr">
@@ -8301,7 +8309,7 @@
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>若要在用於 SAP 解決方案的 Azure Monitor 中啟用安全通信，可以選擇使用根證書或伺服器證書。我們強烈建議您使用根證書。</t>
+          <t>若要在適用於 SAP 解決方案的 Azure Monitor 中啟用安全通信，可以選擇使用根證書或伺服器證書。我們強烈建議您使用根證書。</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
@@ -10701,7 +10709,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>此檢查尚未查看</t>
+          <t>尚未查看此檢查</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -10728,7 +10736,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>有一個與此檢查關聯的操作項</t>
+          <t>存在與此檢查關聯的操作項</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -10750,12 +10758,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>安全性、治理與合規性</t>
+          <t>安全性、治理和合規性</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>此檢查已通過驗證，並且沒有與之關聯的進一步操作項</t>
+          <t>此檢查已經過驗證，沒有與之關聯的其他操作項</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -10777,7 +10785,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>建議已理解，但當前需求不需要</t>
+          <t>建議已理解，但當前要求不需要</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
